--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL-main\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhl\Desktop\learningEFL-main\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85B018EE-70D4-4369-A5DC-F21653347ECB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C495602-DD7E-47BD-8F7E-CBE13FFD59E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -52,6 +52,14 @@
   </si>
   <si>
     <t>efl_err_#1</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_loss_#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_err_#2</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -118,4655 +126,6 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
-  <c:date1904 val="0"/>
-  <c:lang val="ko-KR"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
-  <c:chart>
-    <c:title>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:title>
-    <c:autoTitleDeleted val="0"/>
-    <c:plotArea>
-      <c:layout/>
-      <c:lineChart>
-        <c:grouping val="standard"/>
-        <c:varyColors val="0"/>
-        <c:ser>
-          <c:idx val="0"/>
-          <c:order val="0"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$B$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>efl_loss</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$201</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="200"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$B$2:$B$201</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="200"/>
-                <c:pt idx="0">
-                  <c:v>2.3053890276866298</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.31176716203142</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2779240699330701</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.9771177950937999</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.93876124643216</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.8653326664760601</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.8095628691326999</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.75923860908313</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.7315082504491099</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7036412172256701</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.680123386869</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.64464225966459</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6121947385702899</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.58614907902517</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.5857379337784501</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.56973014971253</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.5479695599549801</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.52579767688824</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.50241204431861</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.47669688987124</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.46169363465278</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.45014275259273</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.43761737027745</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.4288683370420101</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.4094584846192799</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.4031286232030999</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.3914798513339499</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.37764254117467</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.3610114261602899</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.35936944348037</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.3385158549448399</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.3329362793333199</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.3244367329178299</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.30478333439796</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.3040134641015599</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.2942756467564001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.28126032033543</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.26441958679515</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.2592394397516899</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.24572451289292</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.23633156308702</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.2225570390178899</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.23315964914431</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.22191464369464</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.2070182960504099</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.1875029323966599</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>1.1899921484054199</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>1.1813286907353899</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>1.17475332651927</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>1.16461624727127</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>1.1626592194958001</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>1.1386663105077801</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>1.1308728065460301</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>1.13889221325042</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>1.1261609845859899</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>1.13025997474694</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>1.1197772519603599</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>1.11120350079931</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>1.1007769050871401</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>1.0982364924849899</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>1.09633596839418</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>1.0945699605972099</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>1.08670159965563</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>1.0696936329458899</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>1.07889976660916</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>1.0705451042788801</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>1.06726704851077</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>1.06451578049143</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>1.05689391474814</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>1.05052229059729</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>1.0533562830299299</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>1.0472476383683</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>1.05219557672549</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>1.04409864677745</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>1.03584490460195</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>1.03314207237996</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>1.0273559636371099</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>1.03170140875372</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>1.0279203774822701</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>1.01387015042031</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>1.0273556671324799</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>1.0239799542791499</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>1.0252342292457599</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>1.0094833461342301</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>1.0068456891236</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>1.0160395149971999</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>1.00854773354378</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>0.99894700802055802</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>1.00460110006818</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>1.0069745854966901</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>1.01258937340633</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>1.01012147308155</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>0.99603694905141305</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>0.99908475625287196</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>0.99483131071564501</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>0.99663195754312395</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>0.98320980322588702</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>0.99889177349722302</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>0.99794651368621001</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>0.98803604901975794</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>0.99517445237773206</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>1.0011931578065101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>0.98286051848891398</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>0.99090354192029095</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>0.99554826309726496</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>1.00188192212657</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>1.0069882463497699</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>0.99424448400545995</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>0.99004522136821804</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>0.99176829369964103</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>0.99654112803708195</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>0.97537030573863104</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>0.96990095695872203</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>0.97326239241156598</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>0.97703254222869795</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>0.98133333985972504</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>0.97255190086972099</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>0.98645791468346899</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>1.0004501357959299</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>0.98907187182432499</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>0.99095429015007697</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>0.99411922123781404</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>0.99053915063287001</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>0.98703253193266005</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>0.99019189397240903</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>0.98696764867017195</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>0.98593507261033198</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>0.98259399461138697</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>0.98585781625881297</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>0.98334366386863004</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>0.97413078007424703</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>0.98271113216497297</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>0.98223074378481301</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>0.98745126974810404</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>0.98400380239365204</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>0.97808745560372701</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>0.97851191015000505</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>0.98320249880954702</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>0.97837906392516605</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>0.97805712481213203</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>0.99129447853489205</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>0.98147799292947002</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>0.97690570961897505</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>0.98240575934671204</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>0.97314949741788703</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>0.97633899700869398</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>0.97700900560731296</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>0.97485988686798397</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>0.97385736141994494</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>0.97785549824404805</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>0.97689437562492998</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>0.98082238321851001</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>0.966805953508729</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>0.968045428300359</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>0.96847109240331397</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>0.97990599597335604</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>0.98537663061907299</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>0.97393585466275501</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>0.97575037608480697</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>0.97691303529557105</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>0.97155857276005297</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>0.96998056940212296</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>0.98210652694580602</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>0.97798341664539001</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>0.97938262619030703</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>0.97720165617147003</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>0.98214823235371995</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>0.976680141725357</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>0.97587430211389103</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>0.97545771044530605</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>0.98206286445544699</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>0.97370053476588703</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>0.97452921966078898</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>0.97277248816884998</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>0.96749085225876696</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>0.97319619974512905</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>0.96149279737168802</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>0.972591883817296</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>0.97437392754159902</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>0.97944529648798995</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>0.97487809969361405</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>0.97208263881646895</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>0.97157805474700398</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>0.96829985737041302</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>0.97682281740152099</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>0.97608707323195798</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>0.97020013886652101</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>0.963746455065004</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>0.97384257529191898</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>0.97035931098233297</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>0.96315078712572699</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>0.97308275616092998</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>0.97150636440629401</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>0.96689398121681902</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>0.96662373603529195</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>0.97413787112873795</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>0.965759153958338</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>0.96855426328197403</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>0.97126324769038297</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>0.96956418615997197</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000000-EBEE-4372-8622-62B1967D39FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="1"/>
-          <c:order val="1"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$C$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>efl_err</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent2"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$201</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="200"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$C$2:$C$201</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="200"/>
-                <c:pt idx="0">
-                  <c:v>91.650001525878906</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79.309997558593693</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>76.919998168945298</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>71.910003662109304</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>69.139999389648395</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>69.139999389648395</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>64.75</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>64.480003356933594</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>63.220001220703097</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>60.630001068115199</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>59.880001068115199</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>58.439998626708899</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>57.349998474121001</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>56.259998321533203</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>56.580001831054602</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>55.520000457763601</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>55.299999237060497</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>54.349998474121001</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>53.419998168945298</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>51.75</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>51.459999084472599</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>50.759998321533203</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>50.560001373291001</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>49.369998931884702</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>49.009998321533203</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>49.110000610351499</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>47.790000915527301</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>47.75</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>46.830001831054602</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>46.590000152587798</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>45.869998931884702</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>45.840000152587798</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>44.939998626708899</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>44.430000305175703</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>44.259998321533203</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>43.849998474121001</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>43.259998321533203</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>43.049999237060497</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>42.590000152587798</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>42.389999389648402</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>41.950000762939403</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41.180000305175703</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>40.950000762939403</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>41.470001220703097</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>40.939998626708899</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>40.110000610351499</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>39.700000762939403</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>39.639999389648402</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>39.090000152587798</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>38.799999237060497</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>39.130001068115199</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>38.759998321533203</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>37.990001678466797</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>38.419998168945298</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>37.590000152587798</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>37.599998474121001</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>37.020000457763601</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>36.419998168945298</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>36.590000152587798</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>36.180000305175703</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>36.720001220703097</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>36.330001831054602</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>36.150001525878899</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>35.819999694824197</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>36.2299995422363</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>35.490001678466797</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>35.490001678466797</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>35.090000152587798</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>35.060001373291001</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>35.119998931884702</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>35.319999694824197</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>34.900001525878899</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>34.740001678466797</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>34.939998626708899</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>34.150001525878899</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>34.540000915527301</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>33.720001220703097</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>34.310001373291001</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>34.049999237060497</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>33.599998474121001</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>34.020000457763601</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>33.549999237060497</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>33.990001678466797</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>33.389999389648402</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>33.139999389648402</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>33.159999847412102</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>33.419998168945298</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>32.639999389648402</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>33.049999237060497</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>32.950000762939403</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>33.520000457763601</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>33.169998168945298</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>32.299999237060497</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>32.900001525878899</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>32.840000152587798</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>33.110000610351499</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>32.450000762939403</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>32.4799995422363</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>32.549999237060497</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>32.049999237060497</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>32.360000610351499</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>32.740001678466797</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>32.330001831054602</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>32.349998474121001</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>32.639999389648402</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>32.599998474121001</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>32.389999389648402</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>32.490001678466797</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>32.029998779296797</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>32.439998626708899</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>32.25</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>31.819999694824201</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>32.099998474121001</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>32.240001678466797</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>31.799999237060501</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>31.4899997711181</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>31.639999389648398</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>32.009998321533203</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>31.780000686645501</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>32.409999847412102</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>32.169998168945298</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>32.25</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>31.520000457763601</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>32.299999237060497</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>31.7199993133544</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>31.4500007629394</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>31.540000915527301</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>31.850000381469702</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>31.209999084472599</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>31.799999237060501</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>31.549999237060501</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>31.420000076293899</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>31.309999465942301</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>31.270000457763601</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>31.100000381469702</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>31.590000152587798</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>30.780000686645501</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>31.079999923706001</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>31.7299995422363</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>31.549999237060501</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>31.340000152587798</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>31.299999237060501</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>30.959999084472599</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>31.280000686645501</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>31.110000610351499</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>31.190000534057599</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>31.040000915527301</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>31.629999160766602</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>31.319999694824201</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>31.9300003051757</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>30.690000534057599</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>31.120000839233398</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>31.090000152587798</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>31.149999618530199</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>31.340000152587798</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>30.7600002288818</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>31.129999160766602</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>31.209999084472599</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>31.069999694824201</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>30.790000915527301</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>31.270000457763601</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>31.170000076293899</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>31.2600002288818</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>31.020000457763601</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>31.360000610351499</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>31.2600002288818</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>31.030000686645501</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>31.020000457763601</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>31.100000381469702</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>30.610000610351499</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>30.9699993133544</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>31.270000457763601</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>30.770000457763601</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>30.670000076293899</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>30.600000381469702</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>31.079999923706001</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>30.370000839233398</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>30.649999618530199</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>30.909999847412099</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>30.920000076293899</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>30.850000381469702</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>30.829999923706001</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>31.170000076293899</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>30.9300003051757</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>30.649999618530199</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>30.940000534057599</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>31.059999465942301</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>30.540000915527301</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>30.5100002288818</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>30.829999923706001</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>30.559999465942301</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>30.350000381469702</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>30.610000610351499</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>31.030000686645501</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>30.889999389648398</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>30.819999694824201</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>31.049999237060501</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>30.559999465942301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-EBEE-4372-8622-62B1967D39FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="2"/>
-          <c:order val="2"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$D$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>efl_loss_#0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$201</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="200"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$D$2:$D$201</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="200"/>
-                <c:pt idx="0">
-                  <c:v>2.3076633556633199</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2598203306744802</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2.2160764272045901</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.1674836304537002</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>2.1271287848235598</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>2.0822935491610401</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>2.0429935728668398</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>2.00477476864104</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.97006149276806</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.93149842426275</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.90432425441256</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.87908368885137</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.8508033509466999</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.8440381956707901</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.8305093308163201</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.79267310336896</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.7687491117768901</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.7478074328914499</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.7252204000570199</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.7058268291934999</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.70311340253064</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.68537372464586</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.6606340469068701</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.6467321944084801</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.64199339736039</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.6260242834212599</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.6294061393494801</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.64760017015372</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.6386971883713</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.6284881192407701</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.6170633765542499</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.61239212485635</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.60268792225297</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.5865798710258101</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.58350850822059</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.5881964446632699</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.5942471908156199</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.59571087967817</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.60368467895847</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.62436511789917</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.64453555520173</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.7100698143053901</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>1.7917004307364199</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>1.82288025139243</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>1.8619524369573801</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>1.98999263298739</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>2.0179832224633198</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>2.1651332902300799</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>2.3196968326143299</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>2.5961254675676799</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>3.13287037345254</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>3.83709419912593</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>7.6893234298487299</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>28.794448694605698</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>41.108046428413097</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>40.887904027464998</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>46.185067304380297</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>55.535437298428398</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>59.778233716442301</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>64.759494805791505</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>61.8311593365517</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>57.857303692277</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>58.2527285290371</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>57.929519847699702</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>55.420738074430197</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>53.1012405346912</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>50.540896932030897</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>46.682322240938802</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>46.698825253043204</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>44.3177038059113</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>43.028884596126098</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>41.173603264389499</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>40.6213973221505</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>39.8924283070169</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>38.963863081233498</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>37.668914321121797</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>36.851385481038598</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>36.578228057569703</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>36.0066861195169</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>34.5694410603517</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>33.754156902337499</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>33.350982580974602</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>32.931721790580902</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>32.1161523199385</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>31.525312508747</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>31.028738945153101</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>30.500487394393598</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>30.182323237133598</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>29.958706728212299</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>29.690119627934301</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>29.183864034664801</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>28.608916373769102</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>28.052183272732201</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>27.629959568096499</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>27.044993479540299</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>26.5281900418032</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>25.9154359489489</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>25.634530134261698</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>25.167242548268302</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>24.799100317013401</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000002-EBEE-4372-8622-62B1967D39FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
-          <c:idx val="3"/>
-          <c:order val="3"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$E$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>efl_err_#0</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="28575" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent4"/>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$201</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="200"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-                <c:pt idx="100">
-                  <c:v>100</c:v>
-                </c:pt>
-                <c:pt idx="101">
-                  <c:v>101</c:v>
-                </c:pt>
-                <c:pt idx="102">
-                  <c:v>102</c:v>
-                </c:pt>
-                <c:pt idx="103">
-                  <c:v>103</c:v>
-                </c:pt>
-                <c:pt idx="104">
-                  <c:v>104</c:v>
-                </c:pt>
-                <c:pt idx="105">
-                  <c:v>105</c:v>
-                </c:pt>
-                <c:pt idx="106">
-                  <c:v>106</c:v>
-                </c:pt>
-                <c:pt idx="107">
-                  <c:v>107</c:v>
-                </c:pt>
-                <c:pt idx="108">
-                  <c:v>108</c:v>
-                </c:pt>
-                <c:pt idx="109">
-                  <c:v>109</c:v>
-                </c:pt>
-                <c:pt idx="110">
-                  <c:v>110</c:v>
-                </c:pt>
-                <c:pt idx="111">
-                  <c:v>111</c:v>
-                </c:pt>
-                <c:pt idx="112">
-                  <c:v>112</c:v>
-                </c:pt>
-                <c:pt idx="113">
-                  <c:v>113</c:v>
-                </c:pt>
-                <c:pt idx="114">
-                  <c:v>114</c:v>
-                </c:pt>
-                <c:pt idx="115">
-                  <c:v>115</c:v>
-                </c:pt>
-                <c:pt idx="116">
-                  <c:v>116</c:v>
-                </c:pt>
-                <c:pt idx="117">
-                  <c:v>117</c:v>
-                </c:pt>
-                <c:pt idx="118">
-                  <c:v>118</c:v>
-                </c:pt>
-                <c:pt idx="119">
-                  <c:v>119</c:v>
-                </c:pt>
-                <c:pt idx="120">
-                  <c:v>120</c:v>
-                </c:pt>
-                <c:pt idx="121">
-                  <c:v>121</c:v>
-                </c:pt>
-                <c:pt idx="122">
-                  <c:v>122</c:v>
-                </c:pt>
-                <c:pt idx="123">
-                  <c:v>123</c:v>
-                </c:pt>
-                <c:pt idx="124">
-                  <c:v>124</c:v>
-                </c:pt>
-                <c:pt idx="125">
-                  <c:v>125</c:v>
-                </c:pt>
-                <c:pt idx="126">
-                  <c:v>126</c:v>
-                </c:pt>
-                <c:pt idx="127">
-                  <c:v>127</c:v>
-                </c:pt>
-                <c:pt idx="128">
-                  <c:v>128</c:v>
-                </c:pt>
-                <c:pt idx="129">
-                  <c:v>129</c:v>
-                </c:pt>
-                <c:pt idx="130">
-                  <c:v>130</c:v>
-                </c:pt>
-                <c:pt idx="131">
-                  <c:v>131</c:v>
-                </c:pt>
-                <c:pt idx="132">
-                  <c:v>132</c:v>
-                </c:pt>
-                <c:pt idx="133">
-                  <c:v>133</c:v>
-                </c:pt>
-                <c:pt idx="134">
-                  <c:v>134</c:v>
-                </c:pt>
-                <c:pt idx="135">
-                  <c:v>135</c:v>
-                </c:pt>
-                <c:pt idx="136">
-                  <c:v>136</c:v>
-                </c:pt>
-                <c:pt idx="137">
-                  <c:v>137</c:v>
-                </c:pt>
-                <c:pt idx="138">
-                  <c:v>138</c:v>
-                </c:pt>
-                <c:pt idx="139">
-                  <c:v>139</c:v>
-                </c:pt>
-                <c:pt idx="140">
-                  <c:v>140</c:v>
-                </c:pt>
-                <c:pt idx="141">
-                  <c:v>141</c:v>
-                </c:pt>
-                <c:pt idx="142">
-                  <c:v>142</c:v>
-                </c:pt>
-                <c:pt idx="143">
-                  <c:v>143</c:v>
-                </c:pt>
-                <c:pt idx="144">
-                  <c:v>144</c:v>
-                </c:pt>
-                <c:pt idx="145">
-                  <c:v>145</c:v>
-                </c:pt>
-                <c:pt idx="146">
-                  <c:v>146</c:v>
-                </c:pt>
-                <c:pt idx="147">
-                  <c:v>147</c:v>
-                </c:pt>
-                <c:pt idx="148">
-                  <c:v>148</c:v>
-                </c:pt>
-                <c:pt idx="149">
-                  <c:v>149</c:v>
-                </c:pt>
-                <c:pt idx="150">
-                  <c:v>150</c:v>
-                </c:pt>
-                <c:pt idx="151">
-                  <c:v>151</c:v>
-                </c:pt>
-                <c:pt idx="152">
-                  <c:v>152</c:v>
-                </c:pt>
-                <c:pt idx="153">
-                  <c:v>153</c:v>
-                </c:pt>
-                <c:pt idx="154">
-                  <c:v>154</c:v>
-                </c:pt>
-                <c:pt idx="155">
-                  <c:v>155</c:v>
-                </c:pt>
-                <c:pt idx="156">
-                  <c:v>156</c:v>
-                </c:pt>
-                <c:pt idx="157">
-                  <c:v>157</c:v>
-                </c:pt>
-                <c:pt idx="158">
-                  <c:v>158</c:v>
-                </c:pt>
-                <c:pt idx="159">
-                  <c:v>159</c:v>
-                </c:pt>
-                <c:pt idx="160">
-                  <c:v>160</c:v>
-                </c:pt>
-                <c:pt idx="161">
-                  <c:v>161</c:v>
-                </c:pt>
-                <c:pt idx="162">
-                  <c:v>162</c:v>
-                </c:pt>
-                <c:pt idx="163">
-                  <c:v>163</c:v>
-                </c:pt>
-                <c:pt idx="164">
-                  <c:v>164</c:v>
-                </c:pt>
-                <c:pt idx="165">
-                  <c:v>165</c:v>
-                </c:pt>
-                <c:pt idx="166">
-                  <c:v>166</c:v>
-                </c:pt>
-                <c:pt idx="167">
-                  <c:v>167</c:v>
-                </c:pt>
-                <c:pt idx="168">
-                  <c:v>168</c:v>
-                </c:pt>
-                <c:pt idx="169">
-                  <c:v>169</c:v>
-                </c:pt>
-                <c:pt idx="170">
-                  <c:v>170</c:v>
-                </c:pt>
-                <c:pt idx="171">
-                  <c:v>171</c:v>
-                </c:pt>
-                <c:pt idx="172">
-                  <c:v>172</c:v>
-                </c:pt>
-                <c:pt idx="173">
-                  <c:v>173</c:v>
-                </c:pt>
-                <c:pt idx="174">
-                  <c:v>174</c:v>
-                </c:pt>
-                <c:pt idx="175">
-                  <c:v>175</c:v>
-                </c:pt>
-                <c:pt idx="176">
-                  <c:v>176</c:v>
-                </c:pt>
-                <c:pt idx="177">
-                  <c:v>177</c:v>
-                </c:pt>
-                <c:pt idx="178">
-                  <c:v>178</c:v>
-                </c:pt>
-                <c:pt idx="179">
-                  <c:v>179</c:v>
-                </c:pt>
-                <c:pt idx="180">
-                  <c:v>180</c:v>
-                </c:pt>
-                <c:pt idx="181">
-                  <c:v>181</c:v>
-                </c:pt>
-                <c:pt idx="182">
-                  <c:v>182</c:v>
-                </c:pt>
-                <c:pt idx="183">
-                  <c:v>183</c:v>
-                </c:pt>
-                <c:pt idx="184">
-                  <c:v>184</c:v>
-                </c:pt>
-                <c:pt idx="185">
-                  <c:v>185</c:v>
-                </c:pt>
-                <c:pt idx="186">
-                  <c:v>186</c:v>
-                </c:pt>
-                <c:pt idx="187">
-                  <c:v>187</c:v>
-                </c:pt>
-                <c:pt idx="188">
-                  <c:v>188</c:v>
-                </c:pt>
-                <c:pt idx="189">
-                  <c:v>189</c:v>
-                </c:pt>
-                <c:pt idx="190">
-                  <c:v>190</c:v>
-                </c:pt>
-                <c:pt idx="191">
-                  <c:v>191</c:v>
-                </c:pt>
-                <c:pt idx="192">
-                  <c:v>192</c:v>
-                </c:pt>
-                <c:pt idx="193">
-                  <c:v>193</c:v>
-                </c:pt>
-                <c:pt idx="194">
-                  <c:v>194</c:v>
-                </c:pt>
-                <c:pt idx="195">
-                  <c:v>195</c:v>
-                </c:pt>
-                <c:pt idx="196">
-                  <c:v>196</c:v>
-                </c:pt>
-                <c:pt idx="197">
-                  <c:v>197</c:v>
-                </c:pt>
-                <c:pt idx="198">
-                  <c:v>198</c:v>
-                </c:pt>
-                <c:pt idx="199">
-                  <c:v>199</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$E$2:$E$201</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="200"/>
-                <c:pt idx="0">
-                  <c:v>90.199996948242102</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>79.160003662109304</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>73.620002746582003</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>72.580001831054602</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>70.449996948242102</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>67.870002746582003</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>66.819999694824205</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>65.800003051757798</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>64.330001831054602</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>62.549999237060497</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>61.4799995422363</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>60.560001373291001</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>59.619998931884702</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>59.310001373291001</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>59.590000152587798</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>58.290000915527301</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>57.220001220703097</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>56.529998779296797</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>55.779998779296797</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>55.259998321533203</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>55.240001678466797</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>55.020000457763601</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>54.110000610351499</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>53.369998931884702</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>53.580001831054602</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>52.909999847412102</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>53.720001220703097</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>54.119998931884702</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>54.659999847412102</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>53.689998626708899</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>52.990001678466797</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>52.840000152587798</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>52.630001068115199</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>51.580001831054602</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>52.040000915527301</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>52.279998779296797</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>52.150001525878899</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>52.369998931884702</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>51.080001831054602</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>51.860000610351499</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>53.040000915527301</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>53.939998626708899</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>54.4799995422363</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>55.709999084472599</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>58.279998779296797</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>58.439998626708899</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>60.25</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>60.520000457763601</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>61.5</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>65.239997863769503</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>67.819999694824205</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>73.959999084472599</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>87.610000610351506</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>90.389999389648395</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>88.839996337890597</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>88.839996337890597</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>89.5</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>86.639999389648395</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>88.440002441406193</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>90</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000003-EBEE-4372-8622-62B1967D39FC}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
-        <c:smooth val="0"/>
-        <c:axId val="223624671"/>
-        <c:axId val="223618431"/>
-      </c:lineChart>
-      <c:catAx>
-        <c:axId val="223624671"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="b"/>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-            <a:solidFill>
-              <a:schemeClr val="tx1">
-                <a:lumMod val="15000"/>
-                <a:lumOff val="85000"/>
-              </a:schemeClr>
-            </a:solidFill>
-            <a:round/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="223618431"/>
-        <c:crosses val="autoZero"/>
-        <c:auto val="1"/>
-        <c:lblAlgn val="ctr"/>
-        <c:lblOffset val="100"/>
-        <c:noMultiLvlLbl val="0"/>
-      </c:catAx>
-      <c:valAx>
-        <c:axId val="223618431"/>
-        <c:scaling>
-          <c:orientation val="minMax"/>
-        </c:scaling>
-        <c:delete val="0"/>
-        <c:axPos val="l"/>
-        <c:majorGridlines>
-          <c:spPr>
-            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="15000"/>
-                  <a:lumOff val="85000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst/>
-          </c:spPr>
-        </c:majorGridlines>
-        <c:numFmt formatCode="General" sourceLinked="1"/>
-        <c:majorTickMark val="none"/>
-        <c:minorTickMark val="none"/>
-        <c:tickLblPos val="nextTo"/>
-        <c:spPr>
-          <a:noFill/>
-          <a:ln>
-            <a:noFill/>
-          </a:ln>
-          <a:effectLst/>
-        </c:spPr>
-        <c:txPr>
-          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-          <a:lstStyle/>
-          <a:p>
-            <a:pPr>
-              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-                <a:solidFill>
-                  <a:schemeClr val="tx1">
-                    <a:lumMod val="65000"/>
-                    <a:lumOff val="35000"/>
-                  </a:schemeClr>
-                </a:solidFill>
-                <a:latin typeface="+mn-lt"/>
-                <a:ea typeface="+mn-ea"/>
-                <a:cs typeface="+mn-cs"/>
-              </a:defRPr>
-            </a:pPr>
-            <a:endParaRPr lang="ko-KR"/>
-          </a:p>
-        </c:txPr>
-        <c:crossAx val="223624671"/>
-        <c:crosses val="autoZero"/>
-        <c:crossBetween val="between"/>
-      </c:valAx>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-    </c:plotArea>
-    <c:legend>
-      <c:legendPos val="b"/>
-      <c:overlay val="0"/>
-      <c:spPr>
-        <a:noFill/>
-        <a:ln>
-          <a:noFill/>
-        </a:ln>
-        <a:effectLst/>
-      </c:spPr>
-      <c:txPr>
-        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
-        <a:lstStyle/>
-        <a:p>
-          <a:pPr>
-            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
-              <a:solidFill>
-                <a:schemeClr val="tx1">
-                  <a:lumMod val="65000"/>
-                  <a:lumOff val="35000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:latin typeface="+mn-lt"/>
-              <a:ea typeface="+mn-ea"/>
-              <a:cs typeface="+mn-cs"/>
-            </a:defRPr>
-          </a:pPr>
-          <a:endParaRPr lang="ko-KR"/>
-        </a:p>
-      </c:txPr>
-    </c:legend>
-    <c:plotVisOnly val="1"/>
-    <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
-  </c:chart>
-  <c:spPr>
-    <a:solidFill>
-      <a:schemeClr val="bg1"/>
-    </a:solidFill>
-    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-      <a:solidFill>
-        <a:schemeClr val="tx1">
-          <a:lumMod val="15000"/>
-          <a:lumOff val="85000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:round/>
-    </a:ln>
-    <a:effectLst/>
-  </c:spPr>
-  <c:txPr>
-    <a:bodyPr/>
-    <a:lstStyle/>
-    <a:p>
-      <a:pPr>
-        <a:defRPr/>
-      </a:pPr>
-      <a:endParaRPr lang="ko-KR"/>
-    </a:p>
-  </c:txPr>
-  <c:printSettings>
-    <c:headerFooter/>
-    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
-    <c:pageSetup/>
-  </c:printSettings>
-</c:chartSpace>
-</file>
-
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
   <c:date1904 val="0"/>
   <c:lang val="ko-KR"/>
@@ -8793,6 +4152,1324 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-0962-44EB-BF38-71D2A2626956}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="6"/>
+          <c:order val="6"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$H$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efl_loss_#2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$H$2:$H$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.3076770578979602</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2473999557980999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.1933854309616501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.14503777710495</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.1011281256463099</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.0576618833906299</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.00752589732978</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.97354697877434</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.94107426883308</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.90358090932202</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.8739170709233299</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.8368593689742301</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.8283668672962501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.81557391327657</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.77974305259194</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7554780351128501</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.7330657471516999</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.7101101305833999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.7011392169697199</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.6768755677399301</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.6685723309304299</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.6462432829437701</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.63748049660093</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.6240306143548</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.6115077771958199</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.60231994975144</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.5902288225805601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5819466455726801</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.5829119591196601</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.5821422490344601</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.5810864943607501</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.5719012204249101</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.5694958237326</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.57600679063493</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.5633858487864201</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.5517174430713501</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.5453073636741299</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.52625095464621</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.53998796119811</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.54106527604874</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.5459742470152</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.5499836525339901</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.5345279001126599</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.53138084320505</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.5179505325426701</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.50845209580318</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.5058891165788</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.5007374484068201</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.5269814205777099</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.55404568022223</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.5826753787933601</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6408469646599599</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.6845037777712299</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.66766064334067</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.65751161620875</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.7055097552621401</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.7031646131709799</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.7201832532882599</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.72717468601882</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.6920172879650299</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.68538738891577</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.65004431062443</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.6357365747925501</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.58201781883361</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5511957520891899</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.52657736638549</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.5075439169148701</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.4920534092909199</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.4766682712895001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.4665163892089901</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.4480064264528301</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.43914708210404</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.4265197758462</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.4214475003017699</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.4095765572444601</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.40294187843419</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.40098146648164</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.39160829288944</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.3836008659593599</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.3785665058026599</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.3752783848221799</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.3710710091195999</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.3620895223253</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.3603976714383199</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.3565263026838801</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.3497857500793</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.34481093154591</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.3399014905759401</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.3372077410388099</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.33176660006213</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.3314785847238599</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.3239238770904</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.3292309129313999</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.3231241558767399</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.3223217786497301</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.31193567537198</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.31251089588092</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.3112706978609601</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.30210107299172</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.2988356746685701</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-7CFE-46D9-B6E3-D6DAA6801436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="7"/>
+          <c:order val="7"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$I$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efl_err_#2</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$I$2:$I$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>90.260002136230398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.510002136230398</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.709999084472599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.199996948242102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>67.300003051757798</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>65.010002136230398</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>63.240001678466797</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.9799995422363</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>61.259998321533203</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.889999389648402</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.409999847412102</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>58.419998168945298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>58.180000305175703</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>56.419998168945298</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>55.389999389648402</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>54.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>54.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>53.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>53.930000305175703</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>53.310001373291001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>52.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.790000915527301</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>52.7299995422363</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>51.959999084472599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>51.619998931884702</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51.369998931884702</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>51.880001068115199</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>51.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51.450000762939403</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>51.049999237060497</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51.529998779296797</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50.770000457763601</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50.610000610351499</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.180000305175703</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>49.610000610351499</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>50.419998168945298</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>50.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>50.770000457763601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>50.880001068115199</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49.740001678466797</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>49.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>49.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>49.279998779296797</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>49.669998168945298</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>49.909999847412102</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>50.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>52.099998474121001</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>52.630001068115199</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>53.169998168945298</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>52.490001678466797</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>53.450000762939403</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>53.430000305175703</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>53.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>53.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>53.4799995422363</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>52.619998931884702</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>51.889999389648402</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>51.7299995422363</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>50.669998168945298</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>49.590000152587798</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>48.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>48.349998474121001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>47.310001373291001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>47.5</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>46.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>46.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>46.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>45.930000305175703</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>45.970001220703097</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>45.9799995422363</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>45.470001220703097</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>45.009998321533203</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>45.119998931884702</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>45.020000457763601</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>44.830001831054602</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>44.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>44.360000610351499</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>44.349998474121001</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>44.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>43.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>43.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>43.569999694824197</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>43.189998626708899</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>43.590000152587798</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>42.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>43.759998321533203</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>43.069999694824197</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>42.919998168945298</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>42.790000915527301</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>42.409999847412102</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>42.319999694824197</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>42.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42.189998626708899</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-7CFE-46D9-B6E3-D6DAA6801436}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9039,563 +5716,7 @@
 </cs:colorStyle>
 </file>
 
-<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
-  <a:schemeClr val="accent1"/>
-  <a:schemeClr val="accent2"/>
-  <a:schemeClr val="accent3"/>
-  <a:schemeClr val="accent4"/>
-  <a:schemeClr val="accent5"/>
-  <a:schemeClr val="accent6"/>
-  <cs:variation/>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-    <a:lumOff val="20000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="80000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="60000"/>
-    <a:lumOff val="40000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-    <a:lumOff val="30000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="70000"/>
-  </cs:variation>
-  <cs:variation>
-    <a:lumMod val="50000"/>
-    <a:lumOff val="50000"/>
-  </cs:variation>
-</cs:colorStyle>
-</file>
-
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
-<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
-  <cs:axisTitle>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:axisTitle>
-  <cs:categoryAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:categoryAxis>
-  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="bg1"/>
-      </a:solidFill>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="1000" kern="1200"/>
-  </cs:chartArea>
-  <cs:dataLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="75000"/>
-        <a:lumOff val="25000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataLabel>
-  <cs:dataLabelCallout>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln>
-        <a:solidFill>
-          <a:schemeClr val="dk1">
-            <a:lumMod val="25000"/>
-            <a:lumOff val="75000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
-      <a:spAutoFit/>
-    </cs:bodyPr>
-  </cs:dataLabelCallout>
-  <cs:dataPoint>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint>
-  <cs:dataPoint3D>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-    </cs:spPr>
-  </cs:dataPoint3D>
-  <cs:dataPointLine>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="28575" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointLine>
-  <cs:dataPointMarker>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1">
-      <cs:styleClr val="auto"/>
-    </cs:fillRef>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="phClr"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointMarker>
-  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
-  <cs:dataPointWireframe>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="1"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dataPointWireframe>
-  <cs:dataTable>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:dataTable>
-  <cs:downBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="dk1">
-          <a:lumMod val="65000"/>
-          <a:lumOff val="35000"/>
-        </a:schemeClr>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:downBar>
-  <cs:dropLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:dropLine>
-  <cs:errorBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="65000"/>
-            <a:lumOff val="35000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:errorBar>
-  <cs:floor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:floor>
-  <cs:gridlineMajor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMajor>
-  <cs:gridlineMinor>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="5000"/>
-            <a:lumOff val="95000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:gridlineMinor>
-  <cs:hiLoLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="75000"/>
-            <a:lumOff val="25000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:hiLoLine>
-  <cs:leaderLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:leaderLine>
-  <cs:legend>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:legend>
-  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea>
-  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-  </cs:plotArea3D>
-  <cs:seriesAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:seriesAxis>
-  <cs:seriesLine>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="35000"/>
-            <a:lumOff val="65000"/>
-          </a:schemeClr>
-        </a:solidFill>
-        <a:round/>
-      </a:ln>
-    </cs:spPr>
-  </cs:seriesLine>
-  <cs:title>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
-  </cs:title>
-  <cs:trendline>
-    <cs:lnRef idx="0">
-      <cs:styleClr val="auto"/>
-    </cs:lnRef>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:ln w="19050" cap="rnd">
-        <a:solidFill>
-          <a:schemeClr val="phClr"/>
-        </a:solidFill>
-        <a:prstDash val="sysDot"/>
-      </a:ln>
-    </cs:spPr>
-  </cs:trendline>
-  <cs:trendlineLabel>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:trendlineLabel>
-  <cs:upBar>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="dk1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:solidFill>
-        <a:schemeClr val="lt1"/>
-      </a:solidFill>
-      <a:ln w="9525">
-        <a:solidFill>
-          <a:schemeClr val="tx1">
-            <a:lumMod val="15000"/>
-            <a:lumOff val="85000"/>
-          </a:schemeClr>
-        </a:solidFill>
-      </a:ln>
-    </cs:spPr>
-  </cs:upBar>
-  <cs:valueAxis>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1">
-        <a:lumMod val="65000"/>
-        <a:lumOff val="35000"/>
-      </a:schemeClr>
-    </cs:fontRef>
-    <cs:defRPr sz="900" kern="1200"/>
-  </cs:valueAxis>
-  <cs:wall>
-    <cs:lnRef idx="0"/>
-    <cs:fillRef idx="0"/>
-    <cs:effectRef idx="0"/>
-    <cs:fontRef idx="minor">
-      <a:schemeClr val="tx1"/>
-    </cs:fontRef>
-    <cs:spPr>
-      <a:noFill/>
-      <a:ln>
-        <a:noFill/>
-      </a:ln>
-    </cs:spPr>
-  </cs:wall>
-</cs:chartStyle>
-</file>
-
-<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="233">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -10095,52 +6216,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>300036</xdr:colOff>
-      <xdr:row>27</xdr:row>
-      <xdr:rowOff>85725</xdr:rowOff>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>828675</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>285749</xdr:colOff>
-      <xdr:row>39</xdr:row>
-      <xdr:rowOff>142875</xdr:rowOff>
-    </xdr:to>
-    <xdr:graphicFrame macro="">
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="2" name="차트 1">
-          <a:extLst>
-            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{F0524EFB-0FAF-4C26-9709-980B547BA7EC}"/>
-            </a:ext>
-          </a:extLst>
-        </xdr:cNvPr>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData/>
-  </xdr:twoCellAnchor>
-  <xdr:twoCellAnchor>
-    <xdr:from>
       <xdr:col>7</xdr:col>
-      <xdr:colOff>495300</xdr:colOff>
-      <xdr:row>10</xdr:row>
-      <xdr:rowOff>76200</xdr:rowOff>
-    </xdr:from>
-    <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>266700</xdr:colOff>
-      <xdr:row>23</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>485775</xdr:colOff>
+      <xdr:row>20</xdr:row>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10161,7 +6246,7 @@
       </xdr:xfrm>
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -10433,18 +6518,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G201"/>
+  <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="P9" sqref="P9"/>
+      <selection activeCell="L8" sqref="L8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="5" width="15.5" customWidth="1"/>
+    <col min="6" max="9" width="12" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10466,8 +6552,14 @@
       <c r="G1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10489,8 +6581,14 @@
       <c r="G2" s="1">
         <v>89.970001220703097</v>
       </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H2" s="1">
+        <v>2.3076770578979602</v>
+      </c>
+      <c r="I2" s="1">
+        <v>90.260002136230398</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10512,8 +6610,14 @@
       <c r="G3" s="1">
         <v>77.470001220703097</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H3" s="1">
+        <v>2.2473999557980999</v>
+      </c>
+      <c r="I3" s="1">
+        <v>75.510002136230398</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10535,8 +6639,14 @@
       <c r="G4" s="1">
         <v>75.139999389648395</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H4" s="1">
+        <v>2.1933854309616501</v>
+      </c>
+      <c r="I4" s="1">
+        <v>72.709999084472599</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10558,8 +6668,14 @@
       <c r="G5" s="1">
         <v>72.389999389648395</v>
       </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H5" s="1">
+        <v>2.14503777710495</v>
+      </c>
+      <c r="I5" s="1">
+        <v>69.199996948242102</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10581,8 +6697,14 @@
       <c r="G6" s="1">
         <v>69.720001220703097</v>
       </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H6" s="1">
+        <v>2.1011281256463099</v>
+      </c>
+      <c r="I6" s="1">
+        <v>67.300003051757798</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10604,8 +6726,14 @@
       <c r="G7" s="1">
         <v>68.430000305175696</v>
       </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H7" s="1">
+        <v>2.0576618833906299</v>
+      </c>
+      <c r="I7" s="1">
+        <v>65.010002136230398</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10627,8 +6755,14 @@
       <c r="G8" s="1">
         <v>67.230003356933594</v>
       </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H8" s="1">
+        <v>2.00752589732978</v>
+      </c>
+      <c r="I8" s="1">
+        <v>63.240001678466797</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -10650,8 +6784,14 @@
       <c r="G9" s="1">
         <v>65.650001525878906</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H9" s="1">
+        <v>1.97354697877434</v>
+      </c>
+      <c r="I9" s="1">
+        <v>62.9799995422363</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10673,8 +6813,14 @@
       <c r="G10" s="1">
         <v>63.740001678466797</v>
       </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H10" s="1">
+        <v>1.94107426883308</v>
+      </c>
+      <c r="I10" s="1">
+        <v>61.259998321533203</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -10696,8 +6842,14 @@
       <c r="G11" s="1">
         <v>61.759998321533203</v>
       </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H11" s="1">
+        <v>1.90358090932202</v>
+      </c>
+      <c r="I11" s="1">
+        <v>59.889999389648402</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -10719,8 +6871,14 @@
       <c r="G12" s="1">
         <v>60.700000762939403</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H12" s="1">
+        <v>1.8739170709233299</v>
+      </c>
+      <c r="I12" s="1">
+        <v>59.409999847412102</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -10742,8 +6900,14 @@
       <c r="G13" s="1">
         <v>60.330001831054602</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H13" s="1">
+        <v>1.8368593689742301</v>
+      </c>
+      <c r="I13" s="1">
+        <v>57.950000762939403</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -10765,8 +6929,14 @@
       <c r="G14" s="1">
         <v>60.349998474121001</v>
       </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H14" s="1">
+        <v>1.8283668672962501</v>
+      </c>
+      <c r="I14" s="1">
+        <v>58.419998168945298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -10788,8 +6958,14 @@
       <c r="G15" s="1">
         <v>59.029998779296797</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H15" s="1">
+        <v>1.81557391327657</v>
+      </c>
+      <c r="I15" s="1">
+        <v>58.180000305175703</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -10811,8 +6987,14 @@
       <c r="G16" s="1">
         <v>59.610000610351499</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H16" s="1">
+        <v>1.77974305259194</v>
+      </c>
+      <c r="I16" s="1">
+        <v>56.840000152587798</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -10834,8 +7016,14 @@
       <c r="G17" s="1">
         <v>58.799999237060497</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H17" s="1">
+        <v>1.7554780351128501</v>
+      </c>
+      <c r="I17" s="1">
+        <v>56.419998168945298</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -10857,8 +7045,14 @@
       <c r="G18" s="1">
         <v>58.549999237060497</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H18" s="1">
+        <v>1.7330657471516999</v>
+      </c>
+      <c r="I18" s="1">
+        <v>55.389999389648402</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -10880,8 +7074,14 @@
       <c r="G19" s="1">
         <v>57.819999694824197</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H19" s="1">
+        <v>1.7101101305833999</v>
+      </c>
+      <c r="I19" s="1">
+        <v>54.439998626708899</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -10903,8 +7103,14 @@
       <c r="G20" s="1">
         <v>57.340000152587798</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H20" s="1">
+        <v>1.7011392169697199</v>
+      </c>
+      <c r="I20" s="1">
+        <v>54.459999084472599</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -10926,8 +7132,14 @@
       <c r="G21" s="1">
         <v>56.659999847412102</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H21" s="1">
+        <v>1.6768755677399301</v>
+      </c>
+      <c r="I21" s="1">
+        <v>53.950000762939403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -10949,8 +7161,14 @@
       <c r="G22" s="1">
         <v>56.439998626708899</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H22" s="1">
+        <v>1.6685723309304299</v>
+      </c>
+      <c r="I22" s="1">
+        <v>53.930000305175703</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -10972,8 +7190,14 @@
       <c r="G23" s="1">
         <v>56.4799995422363</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H23" s="1">
+        <v>1.6462432829437701</v>
+      </c>
+      <c r="I23" s="1">
+        <v>53.860000610351499</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -10995,8 +7219,14 @@
       <c r="G24" s="1">
         <v>54.889999389648402</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H24" s="1">
+        <v>1.63748049660093</v>
+      </c>
+      <c r="I24" s="1">
+        <v>53.310001373291001</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -11018,8 +7248,14 @@
       <c r="G25" s="1">
         <v>54.5</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H25" s="1">
+        <v>1.6240306143548</v>
+      </c>
+      <c r="I25" s="1">
+        <v>52.299999237060497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -11041,8 +7277,14 @@
       <c r="G26" s="1">
         <v>54.669998168945298</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H26" s="1">
+        <v>1.6115077771958199</v>
+      </c>
+      <c r="I26" s="1">
+        <v>52.790000915527301</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -11064,8 +7306,14 @@
       <c r="G27" s="1">
         <v>54.409999847412102</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H27" s="1">
+        <v>1.60231994975144</v>
+      </c>
+      <c r="I27" s="1">
+        <v>52.7299995422363</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -11087,8 +7335,14 @@
       <c r="G28" s="1">
         <v>55.340000152587798</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H28" s="1">
+        <v>1.5902288225805601</v>
+      </c>
+      <c r="I28" s="1">
+        <v>51.959999084472599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -11110,8 +7364,14 @@
       <c r="G29" s="1">
         <v>54.349998474121001</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H29" s="1">
+        <v>1.5819466455726801</v>
+      </c>
+      <c r="I29" s="1">
+        <v>51.619998931884702</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -11133,8 +7393,14 @@
       <c r="G30" s="1">
         <v>54.209999084472599</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H30" s="1">
+        <v>1.5829119591196601</v>
+      </c>
+      <c r="I30" s="1">
+        <v>51.369998931884702</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -11156,8 +7422,14 @@
       <c r="G31" s="1">
         <v>53.709999084472599</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H31" s="1">
+        <v>1.5821422490344601</v>
+      </c>
+      <c r="I31" s="1">
+        <v>51.880001068115199</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -11179,8 +7451,14 @@
       <c r="G32" s="1">
         <v>53.450000762939403</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H32" s="1">
+        <v>1.5810864943607501</v>
+      </c>
+      <c r="I32" s="1">
+        <v>51.950000762939403</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -11202,8 +7480,14 @@
       <c r="G33" s="1">
         <v>52.889999389648402</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H33" s="1">
+        <v>1.5719012204249101</v>
+      </c>
+      <c r="I33" s="1">
+        <v>51.450000762939403</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -11225,8 +7509,14 @@
       <c r="G34" s="1">
         <v>53.319999694824197</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H34" s="1">
+        <v>1.5694958237326</v>
+      </c>
+      <c r="I34" s="1">
+        <v>51.049999237060497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -11248,8 +7538,14 @@
       <c r="G35" s="1">
         <v>52.450000762939403</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H35" s="1">
+        <v>1.57600679063493</v>
+      </c>
+      <c r="I35" s="1">
+        <v>51.529998779296797</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -11271,8 +7567,14 @@
       <c r="G36" s="1">
         <v>52.909999847412102</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H36" s="1">
+        <v>1.5633858487864201</v>
+      </c>
+      <c r="I36" s="1">
+        <v>50.770000457763601</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -11294,8 +7596,14 @@
       <c r="G37" s="1">
         <v>51.759998321533203</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H37" s="1">
+        <v>1.5517174430713501</v>
+      </c>
+      <c r="I37" s="1">
+        <v>50.610000610351499</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -11317,8 +7625,14 @@
       <c r="G38" s="1">
         <v>51.430000305175703</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H38" s="1">
+        <v>1.5453073636741299</v>
+      </c>
+      <c r="I38" s="1">
+        <v>50.180000305175703</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -11340,8 +7654,14 @@
       <c r="G39" s="1">
         <v>51.029998779296797</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H39" s="1">
+        <v>1.52625095464621</v>
+      </c>
+      <c r="I39" s="1">
+        <v>49.610000610351499</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -11363,8 +7683,14 @@
       <c r="G40" s="1">
         <v>50.889999389648402</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H40" s="1">
+        <v>1.53998796119811</v>
+      </c>
+      <c r="I40" s="1">
+        <v>50.419998168945298</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -11386,8 +7712,14 @@
       <c r="G41" s="1">
         <v>50.740001678466797</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H41" s="1">
+        <v>1.54106527604874</v>
+      </c>
+      <c r="I41" s="1">
+        <v>50.290000915527301</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -11409,8 +7741,14 @@
       <c r="G42" s="1">
         <v>50.110000610351499</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H42" s="1">
+        <v>1.5459742470152</v>
+      </c>
+      <c r="I42" s="1">
+        <v>50.770000457763601</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -11432,8 +7770,14 @@
       <c r="G43" s="1">
         <v>50.720001220703097</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H43" s="1">
+        <v>1.5499836525339901</v>
+      </c>
+      <c r="I43" s="1">
+        <v>50.880001068115199</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -11455,8 +7799,14 @@
       <c r="G44" s="1">
         <v>50.650001525878899</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H44" s="1">
+        <v>1.5345279001126599</v>
+      </c>
+      <c r="I44" s="1">
+        <v>49.740001678466797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -11478,8 +7828,14 @@
       <c r="G45" s="1">
         <v>50.639999389648402</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H45" s="1">
+        <v>1.53138084320505</v>
+      </c>
+      <c r="I45" s="1">
+        <v>49.549999237060497</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -11501,8 +7857,14 @@
       <c r="G46" s="1">
         <v>49.599998474121001</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H46" s="1">
+        <v>1.5179505325426701</v>
+      </c>
+      <c r="I46" s="1">
+        <v>49.520000457763601</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -11524,8 +7886,14 @@
       <c r="G47" s="1">
         <v>49.950000762939403</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H47" s="1">
+        <v>1.50845209580318</v>
+      </c>
+      <c r="I47" s="1">
+        <v>49.279998779296797</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -11547,8 +7915,14 @@
       <c r="G48" s="1">
         <v>49.970001220703097</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H48" s="1">
+        <v>1.5058891165788</v>
+      </c>
+      <c r="I48" s="1">
+        <v>49.669998168945298</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -11570,8 +7944,14 @@
       <c r="G49" s="1">
         <v>49.270000457763601</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H49" s="1">
+        <v>1.5007374484068201</v>
+      </c>
+      <c r="I49" s="1">
+        <v>48.799999237060497</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -11593,8 +7973,14 @@
       <c r="G50" s="1">
         <v>49.580001831054602</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H50" s="1">
+        <v>1.5269814205777099</v>
+      </c>
+      <c r="I50" s="1">
+        <v>49.909999847412102</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -11616,8 +8002,14 @@
       <c r="G51" s="1">
         <v>49.569999694824197</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H51" s="1">
+        <v>1.55404568022223</v>
+      </c>
+      <c r="I51" s="1">
+        <v>50.439998626708899</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -11639,8 +8031,14 @@
       <c r="G52" s="1">
         <v>48.810001373291001</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H52" s="1">
+        <v>1.5826753787933601</v>
+      </c>
+      <c r="I52" s="1">
+        <v>50.799999237060497</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -11662,8 +8060,14 @@
       <c r="G53" s="1">
         <v>48.669998168945298</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H53" s="1">
+        <v>1.6408469646599599</v>
+      </c>
+      <c r="I53" s="1">
+        <v>52.099998474121001</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -11685,8 +8089,14 @@
       <c r="G54" s="1">
         <v>49.049999237060497</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H54" s="1">
+        <v>1.6845037777712299</v>
+      </c>
+      <c r="I54" s="1">
+        <v>52.860000610351499</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -11708,8 +8118,14 @@
       <c r="G55" s="1">
         <v>50.200000762939403</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H55" s="1">
+        <v>1.66766064334067</v>
+      </c>
+      <c r="I55" s="1">
+        <v>52.630001068115199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -11731,8 +8147,14 @@
       <c r="G56" s="1">
         <v>48.619998931884702</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H56" s="1">
+        <v>1.65751161620875</v>
+      </c>
+      <c r="I56" s="1">
+        <v>53.169998168945298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -11754,8 +8176,14 @@
       <c r="G57" s="1">
         <v>48.740001678466797</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H57" s="1">
+        <v>1.7055097552621401</v>
+      </c>
+      <c r="I57" s="1">
+        <v>52.490001678466797</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -11777,8 +8205,14 @@
       <c r="G58" s="1">
         <v>48.560001373291001</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H58" s="1">
+        <v>1.7031646131709799</v>
+      </c>
+      <c r="I58" s="1">
+        <v>53.450000762939403</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -11800,8 +8234,14 @@
       <c r="G59" s="1">
         <v>48.599998474121001</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H59" s="1">
+        <v>1.7201832532882599</v>
+      </c>
+      <c r="I59" s="1">
+        <v>53.430000305175703</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -11823,8 +8263,14 @@
       <c r="G60" s="1">
         <v>47.939998626708899</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H60" s="1">
+        <v>1.72717468601882</v>
+      </c>
+      <c r="I60" s="1">
+        <v>53.819999694824197</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -11846,8 +8292,14 @@
       <c r="G61" s="1">
         <v>47.700000762939403</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H61" s="1">
+        <v>1.6920172879650299</v>
+      </c>
+      <c r="I61" s="1">
+        <v>53.840000152587798</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -11869,8 +8321,14 @@
       <c r="G62" s="1">
         <v>48.240001678466797</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H62" s="1">
+        <v>1.68538738891577</v>
+      </c>
+      <c r="I62" s="1">
+        <v>53.4799995422363</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -11892,8 +8350,14 @@
       <c r="G63" s="1">
         <v>47.849998474121001</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H63" s="1">
+        <v>1.65004431062443</v>
+      </c>
+      <c r="I63" s="1">
+        <v>52.619998931884702</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -11915,8 +8379,14 @@
       <c r="G64" s="1">
         <v>47.290000915527301</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H64" s="1">
+        <v>1.6357365747925501</v>
+      </c>
+      <c r="I64" s="1">
+        <v>51.889999389648402</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -11938,8 +8408,14 @@
       <c r="G65" s="1">
         <v>48.090000152587798</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H65" s="1">
+        <v>1.58201781883361</v>
+      </c>
+      <c r="I65" s="1">
+        <v>51.7299995422363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -11961,8 +8437,14 @@
       <c r="G66" s="1">
         <v>48.119998931884702</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H66" s="1">
+        <v>1.5511957520891899</v>
+      </c>
+      <c r="I66" s="1">
+        <v>50.669998168945298</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -11984,8 +8466,14 @@
       <c r="G67" s="1">
         <v>47.840000152587798</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H67" s="1">
+        <v>1.52657736638549</v>
+      </c>
+      <c r="I67" s="1">
+        <v>49.590000152587798</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -12007,8 +8495,14 @@
       <c r="G68" s="1">
         <v>48.680000305175703</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H68" s="1">
+        <v>1.5075439169148701</v>
+      </c>
+      <c r="I68" s="1">
+        <v>48.75</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -12030,8 +8524,14 @@
       <c r="G69" s="1">
         <v>47.659999847412102</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H69" s="1">
+        <v>1.4920534092909199</v>
+      </c>
+      <c r="I69" s="1">
+        <v>48.150001525878899</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -12053,8 +8553,14 @@
       <c r="G70" s="1">
         <v>47.029998779296797</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H70" s="1">
+        <v>1.4766682712895001</v>
+      </c>
+      <c r="I70" s="1">
+        <v>48.349998474121001</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -12076,8 +8582,14 @@
       <c r="G71" s="1">
         <v>47.2299995422363</v>
       </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H71" s="1">
+        <v>1.4665163892089901</v>
+      </c>
+      <c r="I71" s="1">
+        <v>47.310001373291001</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -12099,8 +8611,14 @@
       <c r="G72" s="1">
         <v>47.270000457763601</v>
       </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H72" s="1">
+        <v>1.4480064264528301</v>
+      </c>
+      <c r="I72" s="1">
+        <v>47.5</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -12122,8 +8640,14 @@
       <c r="G73" s="1">
         <v>46.779998779296797</v>
       </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H73" s="1">
+        <v>1.43914708210404</v>
+      </c>
+      <c r="I73" s="1">
+        <v>46.860000610351499</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -12145,8 +8669,14 @@
       <c r="G74" s="1">
         <v>46.849998474121001</v>
       </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H74" s="1">
+        <v>1.4265197758462</v>
+      </c>
+      <c r="I74" s="1">
+        <v>46.439998626708899</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -12168,8 +8698,14 @@
       <c r="G75" s="1">
         <v>46.819999694824197</v>
       </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H75" s="1">
+        <v>1.4214475003017699</v>
+      </c>
+      <c r="I75" s="1">
+        <v>46.400001525878899</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -12191,8 +8727,14 @@
       <c r="G76" s="1">
         <v>47.069999694824197</v>
       </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H76" s="1">
+        <v>1.4095765572444601</v>
+      </c>
+      <c r="I76" s="1">
+        <v>45.930000305175703</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -12214,8 +8756,14 @@
       <c r="G77" s="1">
         <v>46.349998474121001</v>
       </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H77" s="1">
+        <v>1.40294187843419</v>
+      </c>
+      <c r="I77" s="1">
+        <v>45.970001220703097</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -12237,8 +8785,14 @@
       <c r="G78" s="1">
         <v>46.029998779296797</v>
       </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H78" s="1">
+        <v>1.40098146648164</v>
+      </c>
+      <c r="I78" s="1">
+        <v>45.9799995422363</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -12260,8 +8814,14 @@
       <c r="G79" s="1">
         <v>45.490001678466797</v>
       </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H79" s="1">
+        <v>1.39160829288944</v>
+      </c>
+      <c r="I79" s="1">
+        <v>45.470001220703097</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -12283,8 +8843,14 @@
       <c r="G80" s="1">
         <v>45.680000305175703</v>
       </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H80" s="1">
+        <v>1.3836008659593599</v>
+      </c>
+      <c r="I80" s="1">
+        <v>45.009998321533203</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -12306,8 +8872,14 @@
       <c r="G81" s="1">
         <v>45.669998168945298</v>
       </c>
-    </row>
-    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H81" s="1">
+        <v>1.3785665058026599</v>
+      </c>
+      <c r="I81" s="1">
+        <v>45.119998931884702</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -12329,8 +8901,14 @@
       <c r="G82" s="1">
         <v>46.270000457763601</v>
       </c>
-    </row>
-    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H82" s="1">
+        <v>1.3752783848221799</v>
+      </c>
+      <c r="I82" s="1">
+        <v>45.020000457763601</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -12352,8 +8930,14 @@
       <c r="G83" s="1">
         <v>45.610000610351499</v>
       </c>
-    </row>
-    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H83" s="1">
+        <v>1.3710710091195999</v>
+      </c>
+      <c r="I83" s="1">
+        <v>44.830001831054602</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -12375,8 +8959,14 @@
       <c r="G84" s="1">
         <v>44.900001525878899</v>
       </c>
-    </row>
-    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H84" s="1">
+        <v>1.3620895223253</v>
+      </c>
+      <c r="I84" s="1">
+        <v>44.439998626708899</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -12398,8 +8988,14 @@
       <c r="G85" s="1">
         <v>45.590000152587798</v>
       </c>
-    </row>
-    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H85" s="1">
+        <v>1.3603976714383199</v>
+      </c>
+      <c r="I85" s="1">
+        <v>44.360000610351499</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -12421,8 +9017,14 @@
       <c r="G86" s="1">
         <v>45.200000762939403</v>
       </c>
-    </row>
-    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H86" s="1">
+        <v>1.3565263026838801</v>
+      </c>
+      <c r="I86" s="1">
+        <v>44.349998474121001</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -12444,8 +9046,14 @@
       <c r="G87" s="1">
         <v>45.409999847412102</v>
       </c>
-    </row>
-    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H87" s="1">
+        <v>1.3497857500793</v>
+      </c>
+      <c r="I87" s="1">
+        <v>44.200000762939403</v>
+      </c>
+    </row>
+    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -12467,8 +9075,14 @@
       <c r="G88" s="1">
         <v>45.130001068115199</v>
       </c>
-    </row>
-    <row r="89" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H88" s="1">
+        <v>1.34481093154591</v>
+      </c>
+      <c r="I88" s="1">
+        <v>43.340000152587798</v>
+      </c>
+    </row>
+    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -12490,8 +9104,14 @@
       <c r="G89" s="1">
         <v>45.299999237060497</v>
       </c>
-    </row>
-    <row r="90" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H89" s="1">
+        <v>1.3399014905759401</v>
+      </c>
+      <c r="I89" s="1">
+        <v>43.209999084472599</v>
+      </c>
+    </row>
+    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -12513,8 +9133,14 @@
       <c r="G90" s="1">
         <v>45.099998474121001</v>
       </c>
-    </row>
-    <row r="91" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H90" s="1">
+        <v>1.3372077410388099</v>
+      </c>
+      <c r="I90" s="1">
+        <v>43.569999694824197</v>
+      </c>
+    </row>
+    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -12536,8 +9162,14 @@
       <c r="G91" s="1">
         <v>45.810001373291001</v>
       </c>
-    </row>
-    <row r="92" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H91" s="1">
+        <v>1.33176660006213</v>
+      </c>
+      <c r="I91" s="1">
+        <v>43.189998626708899</v>
+      </c>
+    </row>
+    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -12559,8 +9191,14 @@
       <c r="G92" s="1">
         <v>45.060001373291001</v>
       </c>
-    </row>
-    <row r="93" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H92" s="1">
+        <v>1.3314785847238599</v>
+      </c>
+      <c r="I92" s="1">
+        <v>43.590000152587798</v>
+      </c>
+    </row>
+    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -12582,8 +9220,14 @@
       <c r="G93" s="1">
         <v>44.450000762939403</v>
       </c>
-    </row>
-    <row r="94" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H93" s="1">
+        <v>1.3239238770904</v>
+      </c>
+      <c r="I93" s="1">
+        <v>42.819999694824197</v>
+      </c>
+    </row>
+    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -12605,8 +9249,14 @@
       <c r="G94" s="1">
         <v>44.360000610351499</v>
       </c>
-    </row>
-    <row r="95" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H94" s="1">
+        <v>1.3292309129313999</v>
+      </c>
+      <c r="I94" s="1">
+        <v>43.759998321533203</v>
+      </c>
+    </row>
+    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -12628,8 +9278,14 @@
       <c r="G95" s="1">
         <v>44.490001678466797</v>
       </c>
-    </row>
-    <row r="96" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H95" s="1">
+        <v>1.3231241558767399</v>
+      </c>
+      <c r="I95" s="1">
+        <v>43.069999694824197</v>
+      </c>
+    </row>
+    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -12651,8 +9307,14 @@
       <c r="G96" s="1">
         <v>44.200000762939403</v>
       </c>
-    </row>
-    <row r="97" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H96" s="1">
+        <v>1.3223217786497301</v>
+      </c>
+      <c r="I96" s="1">
+        <v>42.919998168945298</v>
+      </c>
+    </row>
+    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -12674,8 +9336,14 @@
       <c r="G97" s="1">
         <v>44.490001678466797</v>
       </c>
-    </row>
-    <row r="98" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H97" s="1">
+        <v>1.31193567537198</v>
+      </c>
+      <c r="I97" s="1">
+        <v>42.790000915527301</v>
+      </c>
+    </row>
+    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -12697,8 +9365,14 @@
       <c r="G98" s="1">
         <v>44.430000305175703</v>
       </c>
-    </row>
-    <row r="99" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H98" s="1">
+        <v>1.31251089588092</v>
+      </c>
+      <c r="I98" s="1">
+        <v>42.409999847412102</v>
+      </c>
+    </row>
+    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -12720,8 +9394,14 @@
       <c r="G99" s="1">
         <v>44.040000915527301</v>
       </c>
-    </row>
-    <row r="100" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H99" s="1">
+        <v>1.3112706978609601</v>
+      </c>
+      <c r="I99" s="1">
+        <v>42.319999694824197</v>
+      </c>
+    </row>
+    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -12743,8 +9423,14 @@
       <c r="G100" s="1">
         <v>44.119998931884702</v>
       </c>
-    </row>
-    <row r="101" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H100" s="1">
+        <v>1.30210107299172</v>
+      </c>
+      <c r="I100" s="1">
+        <v>42.200000762939403</v>
+      </c>
+    </row>
+    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -12766,8 +9452,14 @@
       <c r="G101" s="1">
         <v>44.119998931884702</v>
       </c>
-    </row>
-    <row r="102" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H101" s="1">
+        <v>1.2988356746685701</v>
+      </c>
+      <c r="I101" s="1">
+        <v>42.189998626708899</v>
+      </c>
+    </row>
+    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -12778,7 +9470,7 @@
         <v>32.360000610351499</v>
       </c>
     </row>
-    <row r="103" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -12789,7 +9481,7 @@
         <v>32.740001678466797</v>
       </c>
     </row>
-    <row r="104" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -12800,7 +9492,7 @@
         <v>32.330001831054602</v>
       </c>
     </row>
-    <row r="105" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -12811,7 +9503,7 @@
         <v>32.349998474121001</v>
       </c>
     </row>
-    <row r="106" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -12822,7 +9514,7 @@
         <v>32.639999389648402</v>
       </c>
     </row>
-    <row r="107" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -12833,7 +9525,7 @@
         <v>32.599998474121001</v>
       </c>
     </row>
-    <row r="108" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -12844,7 +9536,7 @@
         <v>32.389999389648402</v>
       </c>
     </row>
-    <row r="109" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -12855,7 +9547,7 @@
         <v>32.490001678466797</v>
       </c>
     </row>
-    <row r="110" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -12866,7 +9558,7 @@
         <v>32.029998779296797</v>
       </c>
     </row>
-    <row r="111" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -12877,7 +9569,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhl\Desktop\learningEFL-main\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C495602-DD7E-47BD-8F7E-CBE13FFD59E7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13C85C5-5A95-433C-A20B-D0255D8BB40D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,14 +28,6 @@
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
   <si>
     <t>idx</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>efl_loss</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>efl_err</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -60,6 +52,14 @@
   </si>
   <si>
     <t>efl_err_#2</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_loss_origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_err_origin</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -222,7 +222,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>efl_loss</c:v>
+                  <c:v>efl_loss_origin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -879,7 +879,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>efl_err</c:v>
+                  <c:v>efl_err_origin</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -6216,16 +6216,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>2</xdr:col>
-      <xdr:colOff>828675</xdr:colOff>
-      <xdr:row>7</xdr:row>
-      <xdr:rowOff>180975</xdr:rowOff>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>809624</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>7</xdr:col>
-      <xdr:colOff>485775</xdr:colOff>
-      <xdr:row>20</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>152399</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -6521,7 +6521,7 @@
   <dimension ref="A1:I201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+      <selection activeCell="R4" sqref="R4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -6535,28 +6535,28 @@
         <v>0</v>
       </c>
       <c r="B1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="E1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" t="s">
+      <c r="F1" t="s">
         <v>3</v>
       </c>
-      <c r="E1" t="s">
+      <c r="G1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s">
+      <c r="H1" t="s">
         <v>5</v>
       </c>
-      <c r="G1" t="s">
+      <c r="I1" t="s">
         <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhl\Desktop\learningEFL-main\KD_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13C85C5-5A95-433C-A20B-D0255D8BB40D}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38391E48-2D33-4C87-87DA-FEFBB4D17D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -60,6 +60,14 @@
   </si>
   <si>
     <t>efl_err_origin</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_loss_#3</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_err_#3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -5470,6 +5478,1324 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-7CFE-46D9-B6E3-D6DAA6801436}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="8"/>
+          <c:order val="8"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$J$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efl_loss_#3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$J$2:$J$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.3072678268335398</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2918014131533799</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2762626933444001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2563119223163302</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2343157582981501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.2068267187495101</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.1737126256250199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.1504206247390401</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.12676172803162</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>2.0883765296571499</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>2.0550659758270098</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>2.028207022673</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>2.00225547240797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.97952982498582</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.95501218935486</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.9263375974764401</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.9106854359815</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.8858547263843899</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.86351040745996</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.84229732774625</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.8278396729451001</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.82146329408997</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.8136249803433699</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.79306970736023</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.7894486948183299</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.77227188523407</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.7561591370090499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.7456747050497901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.7276556119797299</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.72091714591737</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.7030843784854599</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.6781173192771299</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.68186531173195</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.67326144731728</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.67609932923772</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.66122433410328</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.6640472936022801</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.6605093479156401</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.64726340163285</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.6407686623797999</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.6619211587176901</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.66027783056732</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.66071313050142</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.6517562038579501</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.64324578130321</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.6452727348181799</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.64647235612201</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.6414282268779199</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.62832103337451</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.6176696400733499</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.6095775320271699</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.6068807255690201</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.59463685409278</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.59768385112665</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.5872964661592099</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.5785170102574999</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.5692349824176399</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.5616980153284199</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.5582877427909001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.55033081048613</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.53238600150794</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.54073862513159</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.52778679170426</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.52693233368503</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>1.5289177416236499</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>1.5252442048613399</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>1.53500536141122</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>1.5223512786209199</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>1.51325951108507</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>1.50364302070277</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>1.4973801655374499</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>1.5020121837117799</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>1.5075612994515899</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>1.51191653263796</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>1.50784386722904</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>1.5140842837133199</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>1.5146695322291801</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>1.51133035398592</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>1.51479406265696</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>1.51329252674321</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>1.50908876300617</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>1.5056640874048699</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>1.48533569475647</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>1.48026193175346</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>1.46914335724654</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>1.4655239020183499</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>1.45857211131199</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>1.45154348072732</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>1.4480412720115301</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>1.44310605905617</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>1.44830595839555</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>1.43852551651608</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>1.43398111261379</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>1.43613057911016</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>1.4342437010661799</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>1.4323808714082999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>1.4313179831595899</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>1.4340641498565601</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>1.4187561303946601</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>1.4218385523291901</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-2BDB-4435-A749-E12964AAA117}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="9"/>
+          <c:order val="9"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$K$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efl_err_#3</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$K$2:$K$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>88.910003662109304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.819999694824205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.349998474121094</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>78.430000305175696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>73.849998474121094</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>72.419998168945298</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>70.610000610351506</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67.959999084472599</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>67.309997558593693</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>65.620002746582003</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>64.269996643066406</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>62.919998168945298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>62.790000915527301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.360000610351499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>60.779998779296797</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58.590000152587798</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57.939998626708899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>57.189998626708899</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>57.25</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>56.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>56.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>55.159999847412102</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>54.849998474121001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>53.759998321533203</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>53.180000305175703</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>53.509998321533203</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>52.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>51.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>51.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>51.159999847412102</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>50.869998931884702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>49.669998168945298</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>49.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>49.319999694824197</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>49.360000610351499</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>48.970001220703097</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>49.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>48.740001678466797</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>49.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>48.849998474121001</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>48.349998474121001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>48.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>48.360000610351499</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>47.889999389648402</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>47.529998779296797</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>46.9799995422363</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>46.939998626708899</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>46.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>46.130001068115199</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>46.2299995422363</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>44.830001831054602</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>44.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44.720001220703097</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>44.790000915527301</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>44.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>44.509998321533203</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>44.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>44.090000152587798</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>44.180000305175703</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>44.279998779296797</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>44.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>44.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>43.790000915527301</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>42.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>43.139999389648402</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>42.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>42.639999389648402</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42.509998321533203</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>42.349998474121001</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>41.689998626708899</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>42.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>42.090000152587798</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>41.810001373291001</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>41.869998931884702</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>41.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>41.720001220703097</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>41.680000305175703</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>41.080001831054602</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40.7299995422363</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>40.090000152587798</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>40.380001068115199</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>40.259998321533203</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>39.869998931884702</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>39.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>39.409999847412102</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>39.25</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>39.090000152587798</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>38.740001678466797</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>38.740001678466797</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>38.759998321533203</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>38.560001373291001</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>39.029998779296797</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>38.529998779296797</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>38.169998168945298</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>38.659999847412102</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-2BDB-4435-A749-E12964AAA117}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -6518,19 +7844,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:I201"/>
+  <dimension ref="A1:K201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R4" sqref="R4"/>
+      <selection activeCell="N2" sqref="N2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="9" width="12" customWidth="1"/>
+    <col min="10" max="11" width="10.875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -6558,8 +7885,14 @@
       <c r="I1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -6587,8 +7920,14 @@
       <c r="I2" s="1">
         <v>90.260002136230398</v>
       </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J2" s="1">
+        <v>2.3072678268335398</v>
+      </c>
+      <c r="K2" s="1">
+        <v>88.910003662109304</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -6616,8 +7955,14 @@
       <c r="I3" s="1">
         <v>75.510002136230398</v>
       </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J3" s="1">
+        <v>2.2918014131533799</v>
+      </c>
+      <c r="K3" s="1">
+        <v>82.819999694824205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -6645,8 +7990,14 @@
       <c r="I4" s="1">
         <v>72.709999084472599</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J4" s="1">
+        <v>2.2762626933444001</v>
+      </c>
+      <c r="K4" s="1">
+        <v>81.220001220703097</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -6674,8 +8025,14 @@
       <c r="I5" s="1">
         <v>69.199996948242102</v>
       </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J5" s="1">
+        <v>2.2563119223163302</v>
+      </c>
+      <c r="K5" s="1">
+        <v>77.349998474121094</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -6703,8 +8060,14 @@
       <c r="I6" s="1">
         <v>67.300003051757798</v>
       </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J6" s="1">
+        <v>2.2343157582981501</v>
+      </c>
+      <c r="K6" s="1">
+        <v>78.430000305175696</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -6732,8 +8095,14 @@
       <c r="I7" s="1">
         <v>65.010002136230398</v>
       </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J7" s="1">
+        <v>2.2068267187495101</v>
+      </c>
+      <c r="K7" s="1">
+        <v>73.849998474121094</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -6761,8 +8130,14 @@
       <c r="I8" s="1">
         <v>63.240001678466797</v>
       </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J8" s="1">
+        <v>2.1737126256250199</v>
+      </c>
+      <c r="K8" s="1">
+        <v>72.419998168945298</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -6790,8 +8165,14 @@
       <c r="I9" s="1">
         <v>62.9799995422363</v>
       </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J9" s="1">
+        <v>2.1504206247390401</v>
+      </c>
+      <c r="K9" s="1">
+        <v>70.610000610351506</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -6819,8 +8200,14 @@
       <c r="I10" s="1">
         <v>61.259998321533203</v>
       </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J10" s="1">
+        <v>2.12676172803162</v>
+      </c>
+      <c r="K10" s="1">
+        <v>67.959999084472599</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -6848,8 +8235,14 @@
       <c r="I11" s="1">
         <v>59.889999389648402</v>
       </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J11" s="1">
+        <v>2.0883765296571499</v>
+      </c>
+      <c r="K11" s="1">
+        <v>67.309997558593693</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -6877,8 +8270,14 @@
       <c r="I12" s="1">
         <v>59.409999847412102</v>
       </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J12" s="1">
+        <v>2.0550659758270098</v>
+      </c>
+      <c r="K12" s="1">
+        <v>65.620002746582003</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -6906,8 +8305,14 @@
       <c r="I13" s="1">
         <v>57.950000762939403</v>
       </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J13" s="1">
+        <v>2.028207022673</v>
+      </c>
+      <c r="K13" s="1">
+        <v>64.269996643066406</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -6935,8 +8340,14 @@
       <c r="I14" s="1">
         <v>58.419998168945298</v>
       </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J14" s="1">
+        <v>2.00225547240797</v>
+      </c>
+      <c r="K14" s="1">
+        <v>62.919998168945298</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -6964,8 +8375,14 @@
       <c r="I15" s="1">
         <v>58.180000305175703</v>
       </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J15" s="1">
+        <v>1.97952982498582</v>
+      </c>
+      <c r="K15" s="1">
+        <v>62.790000915527301</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -6993,8 +8410,14 @@
       <c r="I16" s="1">
         <v>56.840000152587798</v>
       </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J16" s="1">
+        <v>1.95501218935486</v>
+      </c>
+      <c r="K16" s="1">
+        <v>61.650001525878899</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -7022,8 +8445,14 @@
       <c r="I17" s="1">
         <v>56.419998168945298</v>
       </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J17" s="1">
+        <v>1.9263375974764401</v>
+      </c>
+      <c r="K17" s="1">
+        <v>61.360000610351499</v>
+      </c>
+    </row>
+    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -7051,8 +8480,14 @@
       <c r="I18" s="1">
         <v>55.389999389648402</v>
       </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J18" s="1">
+        <v>1.9106854359815</v>
+      </c>
+      <c r="K18" s="1">
+        <v>60.779998779296797</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -7080,8 +8515,14 @@
       <c r="I19" s="1">
         <v>54.439998626708899</v>
       </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J19" s="1">
+        <v>1.8858547263843899</v>
+      </c>
+      <c r="K19" s="1">
+        <v>59.819999694824197</v>
+      </c>
+    </row>
+    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -7109,8 +8550,14 @@
       <c r="I20" s="1">
         <v>54.459999084472599</v>
       </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J20" s="1">
+        <v>1.86351040745996</v>
+      </c>
+      <c r="K20" s="1">
+        <v>58.590000152587798</v>
+      </c>
+    </row>
+    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -7138,8 +8585,14 @@
       <c r="I21" s="1">
         <v>53.950000762939403</v>
       </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J21" s="1">
+        <v>1.84229732774625</v>
+      </c>
+      <c r="K21" s="1">
+        <v>57.939998626708899</v>
+      </c>
+    </row>
+    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -7167,8 +8620,14 @@
       <c r="I22" s="1">
         <v>53.930000305175703</v>
       </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J22" s="1">
+        <v>1.8278396729451001</v>
+      </c>
+      <c r="K22" s="1">
+        <v>57.189998626708899</v>
+      </c>
+    </row>
+    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -7196,8 +8655,14 @@
       <c r="I23" s="1">
         <v>53.860000610351499</v>
       </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J23" s="1">
+        <v>1.82146329408997</v>
+      </c>
+      <c r="K23" s="1">
+        <v>57.25</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -7225,8 +8690,14 @@
       <c r="I24" s="1">
         <v>53.310001373291001</v>
       </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J24" s="1">
+        <v>1.8136249803433699</v>
+      </c>
+      <c r="K24" s="1">
+        <v>56.520000457763601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -7254,8 +8725,14 @@
       <c r="I25" s="1">
         <v>52.299999237060497</v>
       </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J25" s="1">
+        <v>1.79306970736023</v>
+      </c>
+      <c r="K25" s="1">
+        <v>55.900001525878899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -7283,8 +8760,14 @@
       <c r="I26" s="1">
         <v>52.790000915527301</v>
       </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J26" s="1">
+        <v>1.7894486948183299</v>
+      </c>
+      <c r="K26" s="1">
+        <v>56.150001525878899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -7312,8 +8795,14 @@
       <c r="I27" s="1">
         <v>52.7299995422363</v>
       </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J27" s="1">
+        <v>1.77227188523407</v>
+      </c>
+      <c r="K27" s="1">
+        <v>55.159999847412102</v>
+      </c>
+    </row>
+    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -7341,8 +8830,14 @@
       <c r="I28" s="1">
         <v>51.959999084472599</v>
       </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J28" s="1">
+        <v>1.7561591370090499</v>
+      </c>
+      <c r="K28" s="1">
+        <v>54.849998474121001</v>
+      </c>
+    </row>
+    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -7370,8 +8865,14 @@
       <c r="I29" s="1">
         <v>51.619998931884702</v>
       </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J29" s="1">
+        <v>1.7456747050497901</v>
+      </c>
+      <c r="K29" s="1">
+        <v>53.759998321533203</v>
+      </c>
+    </row>
+    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -7399,8 +8900,14 @@
       <c r="I30" s="1">
         <v>51.369998931884702</v>
       </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J30" s="1">
+        <v>1.7276556119797299</v>
+      </c>
+      <c r="K30" s="1">
+        <v>53.180000305175703</v>
+      </c>
+    </row>
+    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -7428,8 +8935,14 @@
       <c r="I31" s="1">
         <v>51.880001068115199</v>
       </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J31" s="1">
+        <v>1.72091714591737</v>
+      </c>
+      <c r="K31" s="1">
+        <v>53.509998321533203</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -7457,8 +8970,14 @@
       <c r="I32" s="1">
         <v>51.950000762939403</v>
       </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J32" s="1">
+        <v>1.7030843784854599</v>
+      </c>
+      <c r="K32" s="1">
+        <v>52.5</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -7486,8 +9005,14 @@
       <c r="I33" s="1">
         <v>51.450000762939403</v>
       </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J33" s="1">
+        <v>1.6781173192771299</v>
+      </c>
+      <c r="K33" s="1">
+        <v>51.599998474121001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -7515,8 +9040,14 @@
       <c r="I34" s="1">
         <v>51.049999237060497</v>
       </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J34" s="1">
+        <v>1.68186531173195</v>
+      </c>
+      <c r="K34" s="1">
+        <v>51.549999237060497</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -7544,8 +9075,14 @@
       <c r="I35" s="1">
         <v>51.529998779296797</v>
       </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J35" s="1">
+        <v>1.67326144731728</v>
+      </c>
+      <c r="K35" s="1">
+        <v>51.159999847412102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -7573,8 +9110,14 @@
       <c r="I36" s="1">
         <v>50.770000457763601</v>
       </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J36" s="1">
+        <v>1.67609932923772</v>
+      </c>
+      <c r="K36" s="1">
+        <v>50.869998931884702</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -7602,8 +9145,14 @@
       <c r="I37" s="1">
         <v>50.610000610351499</v>
       </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J37" s="1">
+        <v>1.66122433410328</v>
+      </c>
+      <c r="K37" s="1">
+        <v>49.669998168945298</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -7631,8 +9180,14 @@
       <c r="I38" s="1">
         <v>50.180000305175703</v>
       </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J38" s="1">
+        <v>1.6640472936022801</v>
+      </c>
+      <c r="K38" s="1">
+        <v>49.549999237060497</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -7660,8 +9215,14 @@
       <c r="I39" s="1">
         <v>49.610000610351499</v>
       </c>
-    </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J39" s="1">
+        <v>1.6605093479156401</v>
+      </c>
+      <c r="K39" s="1">
+        <v>49.319999694824197</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -7689,8 +9250,14 @@
       <c r="I40" s="1">
         <v>50.419998168945298</v>
       </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J40" s="1">
+        <v>1.64726340163285</v>
+      </c>
+      <c r="K40" s="1">
+        <v>49.360000610351499</v>
+      </c>
+    </row>
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -7718,8 +9285,14 @@
       <c r="I41" s="1">
         <v>50.290000915527301</v>
       </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J41" s="1">
+        <v>1.6407686623797999</v>
+      </c>
+      <c r="K41" s="1">
+        <v>48.970001220703097</v>
+      </c>
+    </row>
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -7747,8 +9320,14 @@
       <c r="I42" s="1">
         <v>50.770000457763601</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J42" s="1">
+        <v>1.6619211587176901</v>
+      </c>
+      <c r="K42" s="1">
+        <v>49.439998626708899</v>
+      </c>
+    </row>
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -7776,8 +9355,14 @@
       <c r="I43" s="1">
         <v>50.880001068115199</v>
       </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J43" s="1">
+        <v>1.66027783056732</v>
+      </c>
+      <c r="K43" s="1">
+        <v>48.740001678466797</v>
+      </c>
+    </row>
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -7805,8 +9390,14 @@
       <c r="I44" s="1">
         <v>49.740001678466797</v>
       </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J44" s="1">
+        <v>1.66071313050142</v>
+      </c>
+      <c r="K44" s="1">
+        <v>49.860000610351499</v>
+      </c>
+    </row>
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -7834,8 +9425,14 @@
       <c r="I45" s="1">
         <v>49.549999237060497</v>
       </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J45" s="1">
+        <v>1.6517562038579501</v>
+      </c>
+      <c r="K45" s="1">
+        <v>48.849998474121001</v>
+      </c>
+    </row>
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -7863,8 +9460,14 @@
       <c r="I46" s="1">
         <v>49.520000457763601</v>
       </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J46" s="1">
+        <v>1.64324578130321</v>
+      </c>
+      <c r="K46" s="1">
+        <v>48.5</v>
+      </c>
+    </row>
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -7892,8 +9495,14 @@
       <c r="I47" s="1">
         <v>49.279998779296797</v>
       </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J47" s="1">
+        <v>1.6452727348181799</v>
+      </c>
+      <c r="K47" s="1">
+        <v>48.349998474121001</v>
+      </c>
+    </row>
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -7921,8 +9530,14 @@
       <c r="I48" s="1">
         <v>49.669998168945298</v>
       </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J48" s="1">
+        <v>1.64647235612201</v>
+      </c>
+      <c r="K48" s="1">
+        <v>48.299999237060497</v>
+      </c>
+    </row>
+    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -7950,8 +9565,14 @@
       <c r="I49" s="1">
         <v>48.799999237060497</v>
       </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J49" s="1">
+        <v>1.6414282268779199</v>
+      </c>
+      <c r="K49" s="1">
+        <v>48.360000610351499</v>
+      </c>
+    </row>
+    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -7979,8 +9600,14 @@
       <c r="I50" s="1">
         <v>49.909999847412102</v>
       </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J50" s="1">
+        <v>1.62832103337451</v>
+      </c>
+      <c r="K50" s="1">
+        <v>47.889999389648402</v>
+      </c>
+    </row>
+    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -8008,8 +9635,14 @@
       <c r="I51" s="1">
         <v>50.439998626708899</v>
       </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J51" s="1">
+        <v>1.6176696400733499</v>
+      </c>
+      <c r="K51" s="1">
+        <v>47.529998779296797</v>
+      </c>
+    </row>
+    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -8037,8 +9670,14 @@
       <c r="I52" s="1">
         <v>50.799999237060497</v>
       </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J52" s="1">
+        <v>1.6095775320271699</v>
+      </c>
+      <c r="K52" s="1">
+        <v>46.9799995422363</v>
+      </c>
+    </row>
+    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -8066,8 +9705,14 @@
       <c r="I53" s="1">
         <v>52.099998474121001</v>
       </c>
-    </row>
-    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J53" s="1">
+        <v>1.6068807255690201</v>
+      </c>
+      <c r="K53" s="1">
+        <v>46.939998626708899</v>
+      </c>
+    </row>
+    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -8095,8 +9740,14 @@
       <c r="I54" s="1">
         <v>52.860000610351499</v>
       </c>
-    </row>
-    <row r="55" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J54" s="1">
+        <v>1.59463685409278</v>
+      </c>
+      <c r="K54" s="1">
+        <v>46.209999084472599</v>
+      </c>
+    </row>
+    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -8124,8 +9775,14 @@
       <c r="I55" s="1">
         <v>52.630001068115199</v>
       </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J55" s="1">
+        <v>1.59768385112665</v>
+      </c>
+      <c r="K55" s="1">
+        <v>46.130001068115199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -8153,8 +9810,14 @@
       <c r="I56" s="1">
         <v>53.169998168945298</v>
       </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J56" s="1">
+        <v>1.5872964661592099</v>
+      </c>
+      <c r="K56" s="1">
+        <v>46.2299995422363</v>
+      </c>
+    </row>
+    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -8182,8 +9845,14 @@
       <c r="I57" s="1">
         <v>52.490001678466797</v>
       </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J57" s="1">
+        <v>1.5785170102574999</v>
+      </c>
+      <c r="K57" s="1">
+        <v>44.830001831054602</v>
+      </c>
+    </row>
+    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -8211,8 +9880,14 @@
       <c r="I58" s="1">
         <v>53.450000762939403</v>
       </c>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J58" s="1">
+        <v>1.5692349824176399</v>
+      </c>
+      <c r="K58" s="1">
+        <v>44.520000457763601</v>
+      </c>
+    </row>
+    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -8240,8 +9915,14 @@
       <c r="I59" s="1">
         <v>53.430000305175703</v>
       </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J59" s="1">
+        <v>1.5616980153284199</v>
+      </c>
+      <c r="K59" s="1">
+        <v>44.720001220703097</v>
+      </c>
+    </row>
+    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -8269,8 +9950,14 @@
       <c r="I60" s="1">
         <v>53.819999694824197</v>
       </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J60" s="1">
+        <v>1.5582877427909001</v>
+      </c>
+      <c r="K60" s="1">
+        <v>44.790000915527301</v>
+      </c>
+    </row>
+    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -8298,8 +9985,14 @@
       <c r="I61" s="1">
         <v>53.840000152587798</v>
       </c>
-    </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J61" s="1">
+        <v>1.55033081048613</v>
+      </c>
+      <c r="K61" s="1">
+        <v>44.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -8327,8 +10020,14 @@
       <c r="I62" s="1">
         <v>53.4799995422363</v>
       </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J62" s="1">
+        <v>1.53238600150794</v>
+      </c>
+      <c r="K62" s="1">
+        <v>44.509998321533203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -8356,8 +10055,14 @@
       <c r="I63" s="1">
         <v>52.619998931884702</v>
       </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J63" s="1">
+        <v>1.54073862513159</v>
+      </c>
+      <c r="K63" s="1">
+        <v>44.400001525878899</v>
+      </c>
+    </row>
+    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -8385,8 +10090,14 @@
       <c r="I64" s="1">
         <v>51.889999389648402</v>
       </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J64" s="1">
+        <v>1.52778679170426</v>
+      </c>
+      <c r="K64" s="1">
+        <v>44.090000152587798</v>
+      </c>
+    </row>
+    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -8414,8 +10125,14 @@
       <c r="I65" s="1">
         <v>51.7299995422363</v>
       </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J65" s="1">
+        <v>1.52693233368503</v>
+      </c>
+      <c r="K65" s="1">
+        <v>44.180000305175703</v>
+      </c>
+    </row>
+    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -8443,8 +10160,14 @@
       <c r="I66" s="1">
         <v>50.669998168945298</v>
       </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J66" s="1">
+        <v>1.5289177416236499</v>
+      </c>
+      <c r="K66" s="1">
+        <v>44.279998779296797</v>
+      </c>
+    </row>
+    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -8472,8 +10195,14 @@
       <c r="I67" s="1">
         <v>49.590000152587798</v>
       </c>
-    </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J67" s="1">
+        <v>1.5252442048613399</v>
+      </c>
+      <c r="K67" s="1">
+        <v>44.200000762939403</v>
+      </c>
+    </row>
+    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -8501,8 +10230,14 @@
       <c r="I68" s="1">
         <v>48.75</v>
       </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J68" s="1">
+        <v>1.53500536141122</v>
+      </c>
+      <c r="K68" s="1">
+        <v>44.860000610351499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -8530,8 +10265,14 @@
       <c r="I69" s="1">
         <v>48.150001525878899</v>
       </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J69" s="1">
+        <v>1.5223512786209199</v>
+      </c>
+      <c r="K69" s="1">
+        <v>43.790000915527301</v>
+      </c>
+    </row>
+    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -8559,8 +10300,14 @@
       <c r="I70" s="1">
         <v>48.349998474121001</v>
       </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J70" s="1">
+        <v>1.51325951108507</v>
+      </c>
+      <c r="K70" s="1">
+        <v>42.700000762939403</v>
+      </c>
+    </row>
+    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -8588,8 +10335,14 @@
       <c r="I71" s="1">
         <v>47.310001373291001</v>
       </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J71" s="1">
+        <v>1.50364302070277</v>
+      </c>
+      <c r="K71" s="1">
+        <v>43.139999389648402</v>
+      </c>
+    </row>
+    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -8617,8 +10370,14 @@
       <c r="I72" s="1">
         <v>47.5</v>
       </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J72" s="1">
+        <v>1.4973801655374499</v>
+      </c>
+      <c r="K72" s="1">
+        <v>42.520000457763601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -8646,8 +10405,14 @@
       <c r="I73" s="1">
         <v>46.860000610351499</v>
       </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J73" s="1">
+        <v>1.5020121837117799</v>
+      </c>
+      <c r="K73" s="1">
+        <v>42.639999389648402</v>
+      </c>
+    </row>
+    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -8675,8 +10440,14 @@
       <c r="I74" s="1">
         <v>46.439998626708899</v>
       </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J74" s="1">
+        <v>1.5075612994515899</v>
+      </c>
+      <c r="K74" s="1">
+        <v>42.509998321533203</v>
+      </c>
+    </row>
+    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -8704,8 +10475,14 @@
       <c r="I75" s="1">
         <v>46.400001525878899</v>
       </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J75" s="1">
+        <v>1.51191653263796</v>
+      </c>
+      <c r="K75" s="1">
+        <v>42.349998474121001</v>
+      </c>
+    </row>
+    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -8733,8 +10510,14 @@
       <c r="I76" s="1">
         <v>45.930000305175703</v>
       </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J76" s="1">
+        <v>1.50784386722904</v>
+      </c>
+      <c r="K76" s="1">
+        <v>41.689998626708899</v>
+      </c>
+    </row>
+    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -8762,8 +10545,14 @@
       <c r="I77" s="1">
         <v>45.970001220703097</v>
       </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J77" s="1">
+        <v>1.5140842837133199</v>
+      </c>
+      <c r="K77" s="1">
+        <v>42.209999084472599</v>
+      </c>
+    </row>
+    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -8791,8 +10580,14 @@
       <c r="I78" s="1">
         <v>45.9799995422363</v>
       </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J78" s="1">
+        <v>1.5146695322291801</v>
+      </c>
+      <c r="K78" s="1">
+        <v>42.090000152587798</v>
+      </c>
+    </row>
+    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -8820,8 +10615,14 @@
       <c r="I79" s="1">
         <v>45.470001220703097</v>
       </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J79" s="1">
+        <v>1.51133035398592</v>
+      </c>
+      <c r="K79" s="1">
+        <v>41.810001373291001</v>
+      </c>
+    </row>
+    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -8849,8 +10650,14 @@
       <c r="I80" s="1">
         <v>45.009998321533203</v>
       </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J80" s="1">
+        <v>1.51479406265696</v>
+      </c>
+      <c r="K80" s="1">
+        <v>41.869998931884702</v>
+      </c>
+    </row>
+    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -8878,8 +10685,14 @@
       <c r="I81" s="1">
         <v>45.119998931884702</v>
       </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J81" s="1">
+        <v>1.51329252674321</v>
+      </c>
+      <c r="K81" s="1">
+        <v>41.700000762939403</v>
+      </c>
+    </row>
+    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -8907,8 +10720,14 @@
       <c r="I82" s="1">
         <v>45.020000457763601</v>
       </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J82" s="1">
+        <v>1.50908876300617</v>
+      </c>
+      <c r="K82" s="1">
+        <v>41.720001220703097</v>
+      </c>
+    </row>
+    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -8936,8 +10755,14 @@
       <c r="I83" s="1">
         <v>44.830001831054602</v>
       </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J83" s="1">
+        <v>1.5056640874048699</v>
+      </c>
+      <c r="K83" s="1">
+        <v>41.680000305175703</v>
+      </c>
+    </row>
+    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -8965,8 +10790,14 @@
       <c r="I84" s="1">
         <v>44.439998626708899</v>
       </c>
-    </row>
-    <row r="85" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J84" s="1">
+        <v>1.48533569475647</v>
+      </c>
+      <c r="K84" s="1">
+        <v>41.080001831054602</v>
+      </c>
+    </row>
+    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -8994,8 +10825,14 @@
       <c r="I85" s="1">
         <v>44.360000610351499</v>
       </c>
-    </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J85" s="1">
+        <v>1.48026193175346</v>
+      </c>
+      <c r="K85" s="1">
+        <v>40.7299995422363</v>
+      </c>
+    </row>
+    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -9023,8 +10860,14 @@
       <c r="I86" s="1">
         <v>44.349998474121001</v>
       </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J86" s="1">
+        <v>1.46914335724654</v>
+      </c>
+      <c r="K86" s="1">
+        <v>40.090000152587798</v>
+      </c>
+    </row>
+    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -9052,8 +10895,14 @@
       <c r="I87" s="1">
         <v>44.200000762939403</v>
       </c>
-    </row>
-    <row r="88" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J87" s="1">
+        <v>1.4655239020183499</v>
+      </c>
+      <c r="K87" s="1">
+        <v>40.380001068115199</v>
+      </c>
+    </row>
+    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -9081,8 +10930,14 @@
       <c r="I88" s="1">
         <v>43.340000152587798</v>
       </c>
-    </row>
-    <row r="89" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J88" s="1">
+        <v>1.45857211131199</v>
+      </c>
+      <c r="K88" s="1">
+        <v>40.259998321533203</v>
+      </c>
+    </row>
+    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -9110,8 +10965,14 @@
       <c r="I89" s="1">
         <v>43.209999084472599</v>
       </c>
-    </row>
-    <row r="90" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J89" s="1">
+        <v>1.45154348072732</v>
+      </c>
+      <c r="K89" s="1">
+        <v>39.869998931884702</v>
+      </c>
+    </row>
+    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -9139,8 +11000,14 @@
       <c r="I90" s="1">
         <v>43.569999694824197</v>
       </c>
-    </row>
-    <row r="91" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J90" s="1">
+        <v>1.4480412720115301</v>
+      </c>
+      <c r="K90" s="1">
+        <v>39.860000610351499</v>
+      </c>
+    </row>
+    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -9168,8 +11035,14 @@
       <c r="I91" s="1">
         <v>43.189998626708899</v>
       </c>
-    </row>
-    <row r="92" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J91" s="1">
+        <v>1.44310605905617</v>
+      </c>
+      <c r="K91" s="1">
+        <v>39.409999847412102</v>
+      </c>
+    </row>
+    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -9197,8 +11070,14 @@
       <c r="I92" s="1">
         <v>43.590000152587798</v>
       </c>
-    </row>
-    <row r="93" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J92" s="1">
+        <v>1.44830595839555</v>
+      </c>
+      <c r="K92" s="1">
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -9226,8 +11105,14 @@
       <c r="I93" s="1">
         <v>42.819999694824197</v>
       </c>
-    </row>
-    <row r="94" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J93" s="1">
+        <v>1.43852551651608</v>
+      </c>
+      <c r="K93" s="1">
+        <v>39.090000152587798</v>
+      </c>
+    </row>
+    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -9255,8 +11140,14 @@
       <c r="I94" s="1">
         <v>43.759998321533203</v>
       </c>
-    </row>
-    <row r="95" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J94" s="1">
+        <v>1.43398111261379</v>
+      </c>
+      <c r="K94" s="1">
+        <v>38.740001678466797</v>
+      </c>
+    </row>
+    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -9284,8 +11175,14 @@
       <c r="I95" s="1">
         <v>43.069999694824197</v>
       </c>
-    </row>
-    <row r="96" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J95" s="1">
+        <v>1.43613057911016</v>
+      </c>
+      <c r="K95" s="1">
+        <v>38.740001678466797</v>
+      </c>
+    </row>
+    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -9313,8 +11210,14 @@
       <c r="I96" s="1">
         <v>42.919998168945298</v>
       </c>
-    </row>
-    <row r="97" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J96" s="1">
+        <v>1.4342437010661799</v>
+      </c>
+      <c r="K96" s="1">
+        <v>38.759998321533203</v>
+      </c>
+    </row>
+    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -9342,8 +11245,14 @@
       <c r="I97" s="1">
         <v>42.790000915527301</v>
       </c>
-    </row>
-    <row r="98" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J97" s="1">
+        <v>1.4323808714082999</v>
+      </c>
+      <c r="K97" s="1">
+        <v>38.560001373291001</v>
+      </c>
+    </row>
+    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -9371,8 +11280,14 @@
       <c r="I98" s="1">
         <v>42.409999847412102</v>
       </c>
-    </row>
-    <row r="99" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J98" s="1">
+        <v>1.4313179831595899</v>
+      </c>
+      <c r="K98" s="1">
+        <v>39.029998779296797</v>
+      </c>
+    </row>
+    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -9400,8 +11315,14 @@
       <c r="I99" s="1">
         <v>42.319999694824197</v>
       </c>
-    </row>
-    <row r="100" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J99" s="1">
+        <v>1.4340641498565601</v>
+      </c>
+      <c r="K99" s="1">
+        <v>38.529998779296797</v>
+      </c>
+    </row>
+    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -9429,8 +11350,14 @@
       <c r="I100" s="1">
         <v>42.200000762939403</v>
       </c>
-    </row>
-    <row r="101" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J100" s="1">
+        <v>1.4187561303946601</v>
+      </c>
+      <c r="K100" s="1">
+        <v>38.169998168945298</v>
+      </c>
+    </row>
+    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -9458,8 +11385,14 @@
       <c r="I101" s="1">
         <v>42.189998626708899</v>
       </c>
-    </row>
-    <row r="102" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="J101" s="1">
+        <v>1.4218385523291901</v>
+      </c>
+      <c r="K101" s="1">
+        <v>38.659999847412102</v>
+      </c>
+    </row>
+    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -9470,7 +11403,7 @@
         <v>32.360000610351499</v>
       </c>
     </row>
-    <row r="103" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -9481,7 +11414,7 @@
         <v>32.740001678466797</v>
       </c>
     </row>
-    <row r="104" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -9492,7 +11425,7 @@
         <v>32.330001831054602</v>
       </c>
     </row>
-    <row r="105" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -9503,7 +11436,7 @@
         <v>32.349998474121001</v>
       </c>
     </row>
-    <row r="106" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -9514,7 +11447,7 @@
         <v>32.639999389648402</v>
       </c>
     </row>
-    <row r="107" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -9525,7 +11458,7 @@
         <v>32.599998474121001</v>
       </c>
     </row>
-    <row r="108" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -9536,7 +11469,7 @@
         <v>32.389999389648402</v>
       </c>
     </row>
-    <row r="109" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -9547,7 +11480,7 @@
         <v>32.490001678466797</v>
       </c>
     </row>
-    <row r="110" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -9558,7 +11491,7 @@
         <v>32.029998779296797</v>
       </c>
     </row>
-    <row r="111" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -9569,7 +11502,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:9" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhl\Desktop\learningEFL-main\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{38391E48-2D33-4C87-87DA-FEFBB4D17D77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F100E698-83F6-4E0C-91F6-05BC7AF6B5B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -70,6 +70,22 @@
     <t>efl_err_#3</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>efl_loss_#4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_err_#4</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FL_ensemble_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>FL_ensemble_err</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -91,12 +107,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -111,11 +133,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -6796,6 +6819,2644 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-2BDB-4435-A749-E12964AAA117}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="10"/>
+          <c:order val="10"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$L$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efl_loss_#4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$L$2:$L$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.3050457793436201</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2267107857260702</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9315650554219601</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.81317576936855</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7610468127924901</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.68168914849591</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6359141450019301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.60474425820028</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5840559932077001</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.53436014227047</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5320826586644301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4741598663816</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4512348129491099</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.4450392935686001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.41189255835903</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3864748318483799</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.37779278360354</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.34058387264324</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3272771896070701</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3333458634698401</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2790942700805099</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.27516750013752</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2527982178767001</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.22464588683122</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2224409310680999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.20088247091147</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1858585082041899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1753717212919901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1601580381393399</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1480388910907</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.12924347144023</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.1176902777070401</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.1111069025507301</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0876401446427499</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0729893582641601</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.0678225338079299</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.04970685577696</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.05418622645602</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.03891133958367</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0291106378196899</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.0158044274445499</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0085685693534301</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99815883606102795</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99731984810464702</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.98845454841662295</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.97479786804527202</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.98370070783955199</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.95208830666390198</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.96411668381113902</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.95063660099248204</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.95147383326937396</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.93907987843653196</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.93807722656590098</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.93966185666952895</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.91894356574222502</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.92176546033020901</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.912571031196861</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.91144837087886299</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.91834991562897905</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.90528451143556299</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.91211379333666098</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.90259221101262699</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.893104361310886</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.884744637900856</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.880585193254385</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.88106526424930298</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.88438198748667496</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.87304335604807304</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.86585796828482497</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.88109202882286797</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.883316066614381</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.87322397596517098</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.86554663841891399</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.87246574224180395</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.86870618306907099</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.87505622274556705</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.87208035569282005</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.86217708724319497</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.86228049370893201</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.85839043377311297</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.84996475535593197</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.86447614203592704</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.85228555141740503</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.85071596579187203</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.86032436987396999</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.84498204167481406</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.84752125838759595</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.84681212712245302</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.855533143896965</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.84200954892832702</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.85767659260209195</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.84559922935856302</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.84935436544904197</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.85237295574443295</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.845867667228553</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.84679968076147005</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.85272431829173001</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.84416093188486196</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.84644937230523198</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.83876991955337998</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5212-4507-A1F6-D151921DD604}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="11"/>
+          <c:order val="11"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$M$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efl_err_#4</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$M$2:$M$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>89.569999694824205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.879997253417898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.300003051757798</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.559997558593693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.980003356933594</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.569999694824197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.790000915527301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.430000305175703</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.909999847412102</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>54.360000610351499</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.990001678466797</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.630001068115199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>49.25</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>48.720001220703097</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>46.930000305175703</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>46.169998168945298</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>46.330001831054602</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44.590000152587798</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43.409999847412102</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>42.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42.639999389648402</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.889999389648402</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>39.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>39.759998321533203</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>39.25</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>38.930000305175703</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38.060001373291001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>38.099998474121001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>37.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>36.540000915527301</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>36.319999694824197</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>35.430000305175703</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36.619998931884702</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>35.139999389648402</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>35.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34.919998168945298</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>34.779998779296797</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>34.639999389648402</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>34.490001678466797</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>33.9799995422363</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.430000305175703</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33.360000610351499</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>33.349998474121001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>32.770000457763601</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32.9799995422363</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32.270000457763601</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32.139999389648402</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>32.349998474121001</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>31.780000686645501</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>31.670000076293899</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>31.1800003051757</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>31.620000839233398</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>31.889999389648398</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>31.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31.2600002288818</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>31.0100002288818</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30.409999847412099</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>29.9899997711181</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>29.899999618530199</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29.899999618530199</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>30.069999694824201</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>29.850000381469702</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>30.2600002288818</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>30.0100002288818</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>29.590000152587798</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>30.159999847412099</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>29.7399997711181</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>29.670000076293899</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>29.389999389648398</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>29.4500007629394</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>29.4500007629394</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>28.7000007629394</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>28.6800003051757</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>29.4799995422363</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>29.129999160766602</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>28.829999923706001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>29.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>28.370000839233398</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>28.399999618530199</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28.579999923706001</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>29.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>28.5</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>28.7399997711181</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>28.1800003051757</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>28.299999237060501</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>28.639999389648398</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>28.170000076293899</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>28.299999237060501</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>28.909999847412099</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>28.129999160766602</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>28.139999389648398</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5212-4507-A1F6-D151921DD604}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="12"/>
+          <c:order val="12"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$N$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FL_ensemble_loss</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$N$2:$N$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.3040801901726198</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>126.889248307343</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>17.720307805735501</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>6.9055568761886299</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>19.195439618104501</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.21183391817056</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>7.4674357821227604</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.8226361912526901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.78112676796639</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7622752022591299</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7086820344256699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.66244127568165</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6353521605206101</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.6058925230791601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.5824635772947999</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.5614892479720299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.5477214831455399</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.5343170158422601</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.5060641666886101</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4871468498448599</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.47027250080351</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4593088535746099</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.4399383607184</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.4249913821554401</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.4070488184120999</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3871881923857701</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>2.3332461133883999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.3595638783874</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.3961299088350501</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.33946171839525</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.32398646196741</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.31091033349371</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.2798086241552</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.27791080581154</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.27088505371361</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.24303663156594</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2366885960481699</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.2121326285562599</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.20224274040027</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.18742884420285</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.16625758720811</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.1771815054735499</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1575124487755399</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.40060762652925</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.1493137053623299</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.13969225830333</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.10571448856098</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.08874834267197</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>2.8632475965341899</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0884259901228901</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0851231524898699</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.0528681559167801</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.0299353159157301</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.01138348602185</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.0025024216645799</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.98718997209694703</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.98738720538509805</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0365114382877401</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.97020267225374801</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.99088487769388001</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.12343452386795</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.95117652112511297</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.93990801663915002</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.93854991227957796</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.92340063061683797</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.91097340766031998</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.89855526890724302</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>4.5011287677060201</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.91882538909365397</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.902396867988975</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.89997903290827497</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.88684336508914896</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.86219002942370704</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.85195897035538004</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.85170375655411101</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.84925888488247103</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.858897501116345</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.84907291269606</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.83045609779418605</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.83490433966278199</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.81095121392778502</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.81171054976760904</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.81451639589989999</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.81076488069667896</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.79803139768588305</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.78085896847354297</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.776289999105368</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.79261593871815195</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.77658603373606405</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.77146889487649195</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.75607644106931704</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.75998524571679904</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.75334963582123904</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.76262471554385602</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.74414813214806197</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.75346159194685003</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.74979691862300701</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.72606253111438301</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.74191129777082199</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.80992344192638499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5212-4507-A1F6-D151921DD604}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="13"/>
+          <c:order val="13"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$O$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>FL_ensemble_err</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$O$2:$O$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>89.919998168945298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>88.569999694824205</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>82.379997253417898</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>84.660003662109304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>81.949996948242102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>71.919998168945298</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>83.080001831054602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>68.889999389648395</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.400001525878906</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>63.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>62.110000610351499</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61.680000305175703</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59.689998626708899</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>58.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>57.810001373291001</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>56.7299995422363</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>56.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>56.099998474121001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>55.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>54.020000457763601</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>54.159999847412102</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>52.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>52.939998626708899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>52.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>50.740001678466797</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>59.959999084472599</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>49.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>50.939998626708899</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>49.529998779296797</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>48.270000457763601</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>47.849998474121001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>46.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>46.25</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>46.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>44.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>45.069999694824197</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>43.029998779296797</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.009998321533203</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.790000915527301</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>40.9799995422363</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40.869998931884702</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>47.159999847412102</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40.450000762939403</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>40.240001678466797</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>39.009998321533203</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>38.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>57.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>38.060001373291001</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>38.7299995422363</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>37.279998779296797</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>35.9799995422363</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>35.509998321533203</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>34.709999084472599</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>34.610000610351499</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>35.810001373291001</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>34.049999237060497</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>34.5</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>37.009998321533203</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32.909999847412102</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32.4799995422363</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32.139999389648402</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>31.110000610351499</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>64.330001831054602</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>31.569999694824201</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>31.360000610351499</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>31.329999923706001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>31.079999923706001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>29.770000457763601</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>29.159999847412099</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>29.399999618530199</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>29.2600002288818</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>29.569999694824201</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>29.090000152587798</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>28.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>28.620000839233398</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>27.879999160766602</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>28.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>28.120000839233398</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>28.170000076293899</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>27.7600002288818</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>26.850000381469702</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>26.6800003051757</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>26.850000381469702</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>26.790000915527301</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>26.579999923706001</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>26.129999160766602</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>26.069999694824201</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>25.9699993133544</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>26.079999923706001</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>25.5100002288818</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>25.389999389648398</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>25.2199993133544</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>25.360000610351499</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>26.2000007629394</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5212-4507-A1F6-D151921DD604}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -7543,15 +10204,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>809624</xdr:colOff>
+      <xdr:colOff>676274</xdr:colOff>
       <xdr:row>6</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:rowOff>95250</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>14</xdr:col>
-      <xdr:colOff>152399</xdr:colOff>
-      <xdr:row>33</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>714375</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -7844,10 +10505,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K201"/>
+  <dimension ref="A1:O201"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N2" sqref="N2"/>
+      <selection activeCell="J4" sqref="J4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -7855,9 +10516,10 @@
     <col min="2" max="5" width="15.5" customWidth="1"/>
     <col min="6" max="9" width="12" customWidth="1"/>
     <col min="10" max="11" width="10.875" customWidth="1"/>
+    <col min="12" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -7891,8 +10553,20 @@
       <c r="K1" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="2" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="2" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -7926,8 +10600,20 @@
       <c r="K2" s="1">
         <v>88.910003662109304</v>
       </c>
-    </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L2" s="1">
+        <v>2.3050457793436201</v>
+      </c>
+      <c r="M2" s="1">
+        <v>89.569999694824205</v>
+      </c>
+      <c r="N2" s="1">
+        <v>2.3040801901726198</v>
+      </c>
+      <c r="O2" s="1">
+        <v>89.919998168945298</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -7961,8 +10647,20 @@
       <c r="K3" s="1">
         <v>82.819999694824205</v>
       </c>
-    </row>
-    <row r="4" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L3" s="1">
+        <v>2.2267107857260702</v>
+      </c>
+      <c r="M3" s="1">
+        <v>77.879997253417898</v>
+      </c>
+      <c r="N3" s="1">
+        <v>126.889248307343</v>
+      </c>
+      <c r="O3" s="1">
+        <v>88.569999694824205</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -7996,8 +10694,20 @@
       <c r="K4" s="1">
         <v>81.220001220703097</v>
       </c>
-    </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L4" s="1">
+        <v>1.9315650554219601</v>
+      </c>
+      <c r="M4" s="1">
+        <v>70.300003051757798</v>
+      </c>
+      <c r="N4" s="1">
+        <v>17.720307805735501</v>
+      </c>
+      <c r="O4" s="1">
+        <v>82.379997253417898</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -8031,8 +10741,20 @@
       <c r="K5" s="1">
         <v>77.349998474121094</v>
       </c>
-    </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L5" s="1">
+        <v>1.81317576936855</v>
+      </c>
+      <c r="M5" s="1">
+        <v>65.559997558593693</v>
+      </c>
+      <c r="N5" s="1">
+        <v>6.9055568761886299</v>
+      </c>
+      <c r="O5" s="1">
+        <v>84.660003662109304</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -8066,8 +10788,20 @@
       <c r="K6" s="1">
         <v>78.430000305175696</v>
       </c>
-    </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L6" s="1">
+        <v>1.7610468127924901</v>
+      </c>
+      <c r="M6" s="1">
+        <v>64.980003356933594</v>
+      </c>
+      <c r="N6" s="1">
+        <v>19.195439618104501</v>
+      </c>
+      <c r="O6" s="1">
+        <v>81.949996948242102</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -8101,8 +10835,20 @@
       <c r="K7" s="1">
         <v>73.849998474121094</v>
       </c>
-    </row>
-    <row r="8" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L7" s="1">
+        <v>1.68168914849591</v>
+      </c>
+      <c r="M7" s="1">
+        <v>61.569999694824197</v>
+      </c>
+      <c r="N7" s="1">
+        <v>2.21183391817056</v>
+      </c>
+      <c r="O7" s="1">
+        <v>71.919998168945298</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -8136,8 +10882,20 @@
       <c r="K8" s="1">
         <v>72.419998168945298</v>
       </c>
-    </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L8" s="1">
+        <v>1.6359141450019301</v>
+      </c>
+      <c r="M8" s="1">
+        <v>58.790000915527301</v>
+      </c>
+      <c r="N8" s="1">
+        <v>7.4674357821227604</v>
+      </c>
+      <c r="O8" s="1">
+        <v>83.080001831054602</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -8171,8 +10929,20 @@
       <c r="K9" s="1">
         <v>70.610000610351506</v>
       </c>
-    </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L9" s="1">
+        <v>1.60474425820028</v>
+      </c>
+      <c r="M9" s="1">
+        <v>58.430000305175703</v>
+      </c>
+      <c r="N9" s="1">
+        <v>1.8226361912526901</v>
+      </c>
+      <c r="O9" s="1">
+        <v>68.889999389648395</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -8206,8 +10976,20 @@
       <c r="K10" s="1">
         <v>67.959999084472599</v>
       </c>
-    </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L10" s="1">
+        <v>1.5840559932077001</v>
+      </c>
+      <c r="M10" s="1">
+        <v>56.799999237060497</v>
+      </c>
+      <c r="N10" s="1">
+        <v>1.78112676796639</v>
+      </c>
+      <c r="O10" s="1">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -8241,8 +11023,20 @@
       <c r="K11" s="1">
         <v>67.309997558593693</v>
       </c>
-    </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L11" s="1">
+        <v>1.53436014227047</v>
+      </c>
+      <c r="M11" s="1">
+        <v>54.909999847412102</v>
+      </c>
+      <c r="N11" s="1">
+        <v>1.7622752022591299</v>
+      </c>
+      <c r="O11" s="1">
+        <v>64.400001525878906</v>
+      </c>
+    </row>
+    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -8276,8 +11070,20 @@
       <c r="K12" s="1">
         <v>65.620002746582003</v>
       </c>
-    </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L12" s="1">
+        <v>1.5320826586644301</v>
+      </c>
+      <c r="M12" s="1">
+        <v>54.360000610351499</v>
+      </c>
+      <c r="N12" s="1">
+        <v>1.7086820344256699</v>
+      </c>
+      <c r="O12" s="1">
+        <v>63.439998626708899</v>
+      </c>
+    </row>
+    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -8311,8 +11117,20 @@
       <c r="K13" s="1">
         <v>64.269996643066406</v>
       </c>
-    </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L13" s="1">
+        <v>1.4741598663816</v>
+      </c>
+      <c r="M13" s="1">
+        <v>51.990001678466797</v>
+      </c>
+      <c r="N13" s="1">
+        <v>1.66244127568165</v>
+      </c>
+      <c r="O13" s="1">
+        <v>62.110000610351499</v>
+      </c>
+    </row>
+    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -8346,8 +11164,20 @@
       <c r="K14" s="1">
         <v>62.919998168945298</v>
       </c>
-    </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L14" s="1">
+        <v>1.4512348129491099</v>
+      </c>
+      <c r="M14" s="1">
+        <v>50.630001068115199</v>
+      </c>
+      <c r="N14" s="1">
+        <v>1.6353521605206101</v>
+      </c>
+      <c r="O14" s="1">
+        <v>61.680000305175703</v>
+      </c>
+    </row>
+    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -8381,8 +11211,20 @@
       <c r="K15" s="1">
         <v>62.790000915527301</v>
       </c>
-    </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L15" s="1">
+        <v>1.4450392935686001</v>
+      </c>
+      <c r="M15" s="1">
+        <v>49.659999847412102</v>
+      </c>
+      <c r="N15" s="1">
+        <v>1.6058925230791601</v>
+      </c>
+      <c r="O15" s="1">
+        <v>59.689998626708899</v>
+      </c>
+    </row>
+    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -8416,8 +11258,20 @@
       <c r="K16" s="1">
         <v>61.650001525878899</v>
       </c>
-    </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L16" s="1">
+        <v>1.41189255835903</v>
+      </c>
+      <c r="M16" s="1">
+        <v>49.25</v>
+      </c>
+      <c r="N16" s="1">
+        <v>1.5824635772947999</v>
+      </c>
+      <c r="O16" s="1">
+        <v>58.700000762939403</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -8451,8 +11305,20 @@
       <c r="K17" s="1">
         <v>61.360000610351499</v>
       </c>
-    </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L17" s="1">
+        <v>1.3864748318483799</v>
+      </c>
+      <c r="M17" s="1">
+        <v>48.720001220703097</v>
+      </c>
+      <c r="N17" s="1">
+        <v>1.5614892479720299</v>
+      </c>
+      <c r="O17" s="1">
+        <v>57.810001373291001</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -8486,8 +11352,20 @@
       <c r="K18" s="1">
         <v>60.779998779296797</v>
       </c>
-    </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L18" s="1">
+        <v>1.37779278360354</v>
+      </c>
+      <c r="M18" s="1">
+        <v>47.599998474121001</v>
+      </c>
+      <c r="N18" s="1">
+        <v>1.5477214831455399</v>
+      </c>
+      <c r="O18" s="1">
+        <v>56.7299995422363</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -8521,8 +11399,20 @@
       <c r="K19" s="1">
         <v>59.819999694824197</v>
       </c>
-    </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L19" s="1">
+        <v>1.34058387264324</v>
+      </c>
+      <c r="M19" s="1">
+        <v>46.930000305175703</v>
+      </c>
+      <c r="N19" s="1">
+        <v>1.5343170158422601</v>
+      </c>
+      <c r="O19" s="1">
+        <v>56.459999084472599</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -8556,8 +11446,20 @@
       <c r="K20" s="1">
         <v>58.590000152587798</v>
       </c>
-    </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L20" s="1">
+        <v>1.3272771896070701</v>
+      </c>
+      <c r="M20" s="1">
+        <v>46.169998168945298</v>
+      </c>
+      <c r="N20" s="1">
+        <v>1.5060641666886101</v>
+      </c>
+      <c r="O20" s="1">
+        <v>56.099998474121001</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -8591,8 +11493,20 @@
       <c r="K21" s="1">
         <v>57.939998626708899</v>
       </c>
-    </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L21" s="1">
+        <v>1.3333458634698401</v>
+      </c>
+      <c r="M21" s="1">
+        <v>46.330001831054602</v>
+      </c>
+      <c r="N21" s="1">
+        <v>1.4871468498448599</v>
+      </c>
+      <c r="O21" s="1">
+        <v>55.200000762939403</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -8626,8 +11540,20 @@
       <c r="K22" s="1">
         <v>57.189998626708899</v>
       </c>
-    </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L22" s="1">
+        <v>1.2790942700805099</v>
+      </c>
+      <c r="M22" s="1">
+        <v>44.590000152587798</v>
+      </c>
+      <c r="N22" s="1">
+        <v>1.47027250080351</v>
+      </c>
+      <c r="O22" s="1">
+        <v>54.020000457763601</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -8661,8 +11587,20 @@
       <c r="K23" s="1">
         <v>57.25</v>
       </c>
-    </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L23" s="1">
+        <v>1.27516750013752</v>
+      </c>
+      <c r="M23" s="1">
+        <v>43.549999237060497</v>
+      </c>
+      <c r="N23" s="1">
+        <v>1.4593088535746099</v>
+      </c>
+      <c r="O23" s="1">
+        <v>54.159999847412102</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -8696,8 +11634,20 @@
       <c r="K24" s="1">
         <v>56.520000457763601</v>
       </c>
-    </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L24" s="1">
+        <v>1.2527982178767001</v>
+      </c>
+      <c r="M24" s="1">
+        <v>43.409999847412102</v>
+      </c>
+      <c r="N24" s="1">
+        <v>1.4399383607184</v>
+      </c>
+      <c r="O24" s="1">
+        <v>52.520000457763601</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -8731,8 +11681,20 @@
       <c r="K25" s="1">
         <v>55.900001525878899</v>
       </c>
-    </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L25" s="1">
+        <v>1.22464588683122</v>
+      </c>
+      <c r="M25" s="1">
+        <v>42.220001220703097</v>
+      </c>
+      <c r="N25" s="1">
+        <v>1.4249913821554401</v>
+      </c>
+      <c r="O25" s="1">
+        <v>52.939998626708899</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -8766,8 +11728,20 @@
       <c r="K26" s="1">
         <v>56.150001525878899</v>
       </c>
-    </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L26" s="1">
+        <v>1.2224409310680999</v>
+      </c>
+      <c r="M26" s="1">
+        <v>42.639999389648402</v>
+      </c>
+      <c r="N26" s="1">
+        <v>1.4070488184120999</v>
+      </c>
+      <c r="O26" s="1">
+        <v>52.860000610351499</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -8801,8 +11775,20 @@
       <c r="K27" s="1">
         <v>55.159999847412102</v>
       </c>
-    </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L27" s="1">
+        <v>1.20088247091147</v>
+      </c>
+      <c r="M27" s="1">
+        <v>41</v>
+      </c>
+      <c r="N27" s="1">
+        <v>1.3871881923857701</v>
+      </c>
+      <c r="O27" s="1">
+        <v>50.740001678466797</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -8836,8 +11822,20 @@
       <c r="K28" s="1">
         <v>54.849998474121001</v>
       </c>
-    </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L28" s="1">
+        <v>1.1858585082041899</v>
+      </c>
+      <c r="M28" s="1">
+        <v>40.889999389648402</v>
+      </c>
+      <c r="N28" s="1">
+        <v>2.3332461133883999</v>
+      </c>
+      <c r="O28" s="1">
+        <v>59.959999084472599</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -8871,8 +11869,20 @@
       <c r="K29" s="1">
         <v>53.759998321533203</v>
       </c>
-    </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L29" s="1">
+        <v>1.1753717212919901</v>
+      </c>
+      <c r="M29" s="1">
+        <v>39.840000152587798</v>
+      </c>
+      <c r="N29" s="1">
+        <v>1.3595638783874</v>
+      </c>
+      <c r="O29" s="1">
+        <v>49.950000762939403</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -8906,8 +11916,20 @@
       <c r="K30" s="1">
         <v>53.180000305175703</v>
       </c>
-    </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L30" s="1">
+        <v>1.1601580381393399</v>
+      </c>
+      <c r="M30" s="1">
+        <v>39.759998321533203</v>
+      </c>
+      <c r="N30" s="1">
+        <v>1.3961299088350501</v>
+      </c>
+      <c r="O30" s="1">
+        <v>50.939998626708899</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -8941,8 +11963,20 @@
       <c r="K31" s="1">
         <v>53.509998321533203</v>
       </c>
-    </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L31" s="1">
+        <v>1.1480388910907</v>
+      </c>
+      <c r="M31" s="1">
+        <v>39.25</v>
+      </c>
+      <c r="N31" s="1">
+        <v>1.33946171839525</v>
+      </c>
+      <c r="O31" s="1">
+        <v>49.529998779296797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -8976,8 +12010,20 @@
       <c r="K32" s="1">
         <v>52.5</v>
       </c>
-    </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L32" s="1">
+        <v>1.12924347144023</v>
+      </c>
+      <c r="M32" s="1">
+        <v>38.930000305175703</v>
+      </c>
+      <c r="N32" s="1">
+        <v>1.32398646196741</v>
+      </c>
+      <c r="O32" s="1">
+        <v>48.270000457763601</v>
+      </c>
+    </row>
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -9011,8 +12057,20 @@
       <c r="K33" s="1">
         <v>51.599998474121001</v>
       </c>
-    </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L33" s="1">
+        <v>1.1176902777070401</v>
+      </c>
+      <c r="M33" s="1">
+        <v>38.060001373291001</v>
+      </c>
+      <c r="N33" s="1">
+        <v>1.31091033349371</v>
+      </c>
+      <c r="O33" s="1">
+        <v>47.849998474121001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -9046,8 +12104,20 @@
       <c r="K34" s="1">
         <v>51.549999237060497</v>
       </c>
-    </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L34" s="1">
+        <v>1.1111069025507301</v>
+      </c>
+      <c r="M34" s="1">
+        <v>38.099998474121001</v>
+      </c>
+      <c r="N34" s="1">
+        <v>1.2798086241552</v>
+      </c>
+      <c r="O34" s="1">
+        <v>46.459999084472599</v>
+      </c>
+    </row>
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -9081,8 +12151,20 @@
       <c r="K35" s="1">
         <v>51.159999847412102</v>
       </c>
-    </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L35" s="1">
+        <v>1.0876401446427499</v>
+      </c>
+      <c r="M35" s="1">
+        <v>37.220001220703097</v>
+      </c>
+      <c r="N35" s="1">
+        <v>1.27791080581154</v>
+      </c>
+      <c r="O35" s="1">
+        <v>46.25</v>
+      </c>
+    </row>
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -9116,8 +12198,20 @@
       <c r="K36" s="1">
         <v>50.869998931884702</v>
       </c>
-    </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L36" s="1">
+        <v>1.0729893582641601</v>
+      </c>
+      <c r="M36" s="1">
+        <v>36.540000915527301</v>
+      </c>
+      <c r="N36" s="1">
+        <v>1.27088505371361</v>
+      </c>
+      <c r="O36" s="1">
+        <v>46.340000152587798</v>
+      </c>
+    </row>
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -9151,8 +12245,20 @@
       <c r="K37" s="1">
         <v>49.669998168945298</v>
       </c>
-    </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L37" s="1">
+        <v>1.0678225338079299</v>
+      </c>
+      <c r="M37" s="1">
+        <v>36.319999694824197</v>
+      </c>
+      <c r="N37" s="1">
+        <v>1.24303663156594</v>
+      </c>
+      <c r="O37" s="1">
+        <v>44.549999237060497</v>
+      </c>
+    </row>
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -9186,8 +12292,20 @@
       <c r="K38" s="1">
         <v>49.549999237060497</v>
       </c>
-    </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L38" s="1">
+        <v>1.04970685577696</v>
+      </c>
+      <c r="M38" s="1">
+        <v>35.430000305175703</v>
+      </c>
+      <c r="N38" s="1">
+        <v>1.2366885960481699</v>
+      </c>
+      <c r="O38" s="1">
+        <v>45.069999694824197</v>
+      </c>
+    </row>
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -9221,8 +12339,20 @@
       <c r="K39" s="1">
         <v>49.319999694824197</v>
       </c>
-    </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L39" s="1">
+        <v>1.05418622645602</v>
+      </c>
+      <c r="M39" s="1">
+        <v>36.619998931884702</v>
+      </c>
+      <c r="N39" s="1">
+        <v>1.2121326285562599</v>
+      </c>
+      <c r="O39" s="1">
+        <v>43.029998779296797</v>
+      </c>
+    </row>
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -9256,8 +12386,20 @@
       <c r="K40" s="1">
         <v>49.360000610351499</v>
       </c>
-    </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L40" s="1">
+        <v>1.03891133958367</v>
+      </c>
+      <c r="M40" s="1">
+        <v>35.139999389648402</v>
+      </c>
+      <c r="N40" s="1">
+        <v>1.20224274040027</v>
+      </c>
+      <c r="O40" s="1">
+        <v>42.950000762939403</v>
+      </c>
+    </row>
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -9291,8 +12433,20 @@
       <c r="K41" s="1">
         <v>48.970001220703097</v>
       </c>
-    </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L41" s="1">
+        <v>1.0291106378196899</v>
+      </c>
+      <c r="M41" s="1">
+        <v>35.439998626708899</v>
+      </c>
+      <c r="N41" s="1">
+        <v>1.18742884420285</v>
+      </c>
+      <c r="O41" s="1">
+        <v>42.009998321533203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -9326,8 +12480,20 @@
       <c r="K42" s="1">
         <v>49.439998626708899</v>
       </c>
-    </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L42" s="1">
+        <v>1.0158044274445499</v>
+      </c>
+      <c r="M42" s="1">
+        <v>34.919998168945298</v>
+      </c>
+      <c r="N42" s="1">
+        <v>1.16625758720811</v>
+      </c>
+      <c r="O42" s="1">
+        <v>41.790000915527301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -9361,8 +12527,20 @@
       <c r="K43" s="1">
         <v>48.740001678466797</v>
       </c>
-    </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L43" s="1">
+        <v>1.0085685693534301</v>
+      </c>
+      <c r="M43" s="1">
+        <v>34.779998779296797</v>
+      </c>
+      <c r="N43" s="1">
+        <v>1.1771815054735499</v>
+      </c>
+      <c r="O43" s="1">
+        <v>40.9799995422363</v>
+      </c>
+    </row>
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -9396,8 +12574,20 @@
       <c r="K44" s="1">
         <v>49.860000610351499</v>
       </c>
-    </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L44" s="1">
+        <v>0.99815883606102795</v>
+      </c>
+      <c r="M44" s="1">
+        <v>34.639999389648402</v>
+      </c>
+      <c r="N44" s="1">
+        <v>1.1575124487755399</v>
+      </c>
+      <c r="O44" s="1">
+        <v>40.869998931884702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -9431,8 +12621,20 @@
       <c r="K45" s="1">
         <v>48.849998474121001</v>
       </c>
-    </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L45" s="1">
+        <v>0.99731984810464702</v>
+      </c>
+      <c r="M45" s="1">
+        <v>34.490001678466797</v>
+      </c>
+      <c r="N45" s="1">
+        <v>1.40060762652925</v>
+      </c>
+      <c r="O45" s="1">
+        <v>47.159999847412102</v>
+      </c>
+    </row>
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -9466,8 +12668,20 @@
       <c r="K46" s="1">
         <v>48.5</v>
       </c>
-    </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L46" s="1">
+        <v>0.98845454841662295</v>
+      </c>
+      <c r="M46" s="1">
+        <v>33.9799995422363</v>
+      </c>
+      <c r="N46" s="1">
+        <v>1.1493137053623299</v>
+      </c>
+      <c r="O46" s="1">
+        <v>40.450000762939403</v>
+      </c>
+    </row>
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -9501,8 +12715,20 @@
       <c r="K47" s="1">
         <v>48.349998474121001</v>
       </c>
-    </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L47" s="1">
+        <v>0.97479786804527202</v>
+      </c>
+      <c r="M47" s="1">
+        <v>33.430000305175703</v>
+      </c>
+      <c r="N47" s="1">
+        <v>1.13969225830333</v>
+      </c>
+      <c r="O47" s="1">
+        <v>40.240001678466797</v>
+      </c>
+    </row>
+    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -9536,8 +12762,20 @@
       <c r="K48" s="1">
         <v>48.299999237060497</v>
       </c>
-    </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L48" s="1">
+        <v>0.98370070783955199</v>
+      </c>
+      <c r="M48" s="1">
+        <v>33.360000610351499</v>
+      </c>
+      <c r="N48" s="1">
+        <v>1.10571448856098</v>
+      </c>
+      <c r="O48" s="1">
+        <v>39.009998321533203</v>
+      </c>
+    </row>
+    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -9571,8 +12809,20 @@
       <c r="K49" s="1">
         <v>48.360000610351499</v>
       </c>
-    </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L49" s="1">
+        <v>0.95208830666390198</v>
+      </c>
+      <c r="M49" s="1">
+        <v>32.650001525878899</v>
+      </c>
+      <c r="N49" s="1">
+        <v>1.08874834267197</v>
+      </c>
+      <c r="O49" s="1">
+        <v>38.799999237060497</v>
+      </c>
+    </row>
+    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -9606,8 +12856,20 @@
       <c r="K50" s="1">
         <v>47.889999389648402</v>
       </c>
-    </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L50" s="1">
+        <v>0.96411668381113902</v>
+      </c>
+      <c r="M50" s="1">
+        <v>33.349998474121001</v>
+      </c>
+      <c r="N50" s="1">
+        <v>2.8632475965341899</v>
+      </c>
+      <c r="O50" s="1">
+        <v>57.819999694824197</v>
+      </c>
+    </row>
+    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -9641,8 +12903,20 @@
       <c r="K51" s="1">
         <v>47.529998779296797</v>
       </c>
-    </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L51" s="1">
+        <v>0.95063660099248204</v>
+      </c>
+      <c r="M51" s="1">
+        <v>32.770000457763601</v>
+      </c>
+      <c r="N51" s="1">
+        <v>1.0884259901228901</v>
+      </c>
+      <c r="O51" s="1">
+        <v>38.060001373291001</v>
+      </c>
+    </row>
+    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -9676,8 +12950,20 @@
       <c r="K52" s="1">
         <v>46.9799995422363</v>
       </c>
-    </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L52" s="1">
+        <v>0.95147383326937396</v>
+      </c>
+      <c r="M52" s="1">
+        <v>32.9799995422363</v>
+      </c>
+      <c r="N52" s="1">
+        <v>1.0851231524898699</v>
+      </c>
+      <c r="O52" s="1">
+        <v>38.7299995422363</v>
+      </c>
+    </row>
+    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -9711,8 +12997,20 @@
       <c r="K53" s="1">
         <v>46.939998626708899</v>
       </c>
-    </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L53" s="1">
+        <v>0.93907987843653196</v>
+      </c>
+      <c r="M53" s="1">
+        <v>32.270000457763601</v>
+      </c>
+      <c r="N53" s="1">
+        <v>1.0528681559167801</v>
+      </c>
+      <c r="O53" s="1">
+        <v>37.279998779296797</v>
+      </c>
+    </row>
+    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -9746,8 +13044,20 @@
       <c r="K54" s="1">
         <v>46.209999084472599</v>
       </c>
-    </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L54" s="1">
+        <v>0.93807722656590098</v>
+      </c>
+      <c r="M54" s="1">
+        <v>32.139999389648402</v>
+      </c>
+      <c r="N54" s="1">
+        <v>1.0299353159157301</v>
+      </c>
+      <c r="O54" s="1">
+        <v>35.9799995422363</v>
+      </c>
+    </row>
+    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -9781,8 +13091,20 @@
       <c r="K55" s="1">
         <v>46.130001068115199</v>
       </c>
-    </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L55" s="1">
+        <v>0.93966185666952895</v>
+      </c>
+      <c r="M55" s="1">
+        <v>32.349998474121001</v>
+      </c>
+      <c r="N55" s="1">
+        <v>1.01138348602185</v>
+      </c>
+      <c r="O55" s="1">
+        <v>35.509998321533203</v>
+      </c>
+    </row>
+    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -9816,8 +13138,20 @@
       <c r="K56" s="1">
         <v>46.2299995422363</v>
       </c>
-    </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L56" s="1">
+        <v>0.91894356574222502</v>
+      </c>
+      <c r="M56" s="1">
+        <v>31.780000686645501</v>
+      </c>
+      <c r="N56" s="1">
+        <v>1.0025024216645799</v>
+      </c>
+      <c r="O56" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -9851,8 +13185,20 @@
       <c r="K57" s="1">
         <v>44.830001831054602</v>
       </c>
-    </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L57" s="1">
+        <v>0.92176546033020901</v>
+      </c>
+      <c r="M57" s="1">
+        <v>31.670000076293899</v>
+      </c>
+      <c r="N57" s="1">
+        <v>0.98718997209694703</v>
+      </c>
+      <c r="O57" s="1">
+        <v>34.709999084472599</v>
+      </c>
+    </row>
+    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -9886,8 +13232,20 @@
       <c r="K58" s="1">
         <v>44.520000457763601</v>
       </c>
-    </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L58" s="1">
+        <v>0.912571031196861</v>
+      </c>
+      <c r="M58" s="1">
+        <v>31.1800003051757</v>
+      </c>
+      <c r="N58" s="1">
+        <v>0.98738720538509805</v>
+      </c>
+      <c r="O58" s="1">
+        <v>34.610000610351499</v>
+      </c>
+    </row>
+    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -9921,8 +13279,20 @@
       <c r="K59" s="1">
         <v>44.720001220703097</v>
       </c>
-    </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L59" s="1">
+        <v>0.91144837087886299</v>
+      </c>
+      <c r="M59" s="1">
+        <v>31.620000839233398</v>
+      </c>
+      <c r="N59" s="1">
+        <v>1.0365114382877401</v>
+      </c>
+      <c r="O59" s="1">
+        <v>35.810001373291001</v>
+      </c>
+    </row>
+    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -9956,8 +13326,20 @@
       <c r="K60" s="1">
         <v>44.790000915527301</v>
       </c>
-    </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L60" s="1">
+        <v>0.91834991562897905</v>
+      </c>
+      <c r="M60" s="1">
+        <v>31.889999389648398</v>
+      </c>
+      <c r="N60" s="1">
+        <v>0.97020267225374801</v>
+      </c>
+      <c r="O60" s="1">
+        <v>34.049999237060497</v>
+      </c>
+    </row>
+    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -9991,8 +13373,20 @@
       <c r="K61" s="1">
         <v>44.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L61" s="1">
+        <v>0.90528451143556299</v>
+      </c>
+      <c r="M61" s="1">
+        <v>31.340000152587798</v>
+      </c>
+      <c r="N61" s="1">
+        <v>0.99088487769388001</v>
+      </c>
+      <c r="O61" s="1">
+        <v>34.5</v>
+      </c>
+    </row>
+    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -10026,8 +13420,20 @@
       <c r="K62" s="1">
         <v>44.509998321533203</v>
       </c>
-    </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L62" s="1">
+        <v>0.91211379333666098</v>
+      </c>
+      <c r="M62" s="1">
+        <v>31.2600002288818</v>
+      </c>
+      <c r="N62" s="1">
+        <v>1.12343452386795</v>
+      </c>
+      <c r="O62" s="1">
+        <v>37.009998321533203</v>
+      </c>
+    </row>
+    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -10061,8 +13467,20 @@
       <c r="K63" s="1">
         <v>44.400001525878899</v>
       </c>
-    </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L63" s="1">
+        <v>0.90259221101262699</v>
+      </c>
+      <c r="M63" s="1">
+        <v>31.0100002288818</v>
+      </c>
+      <c r="N63" s="1">
+        <v>0.95117652112511297</v>
+      </c>
+      <c r="O63" s="1">
+        <v>33.220001220703097</v>
+      </c>
+    </row>
+    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -10096,8 +13514,20 @@
       <c r="K64" s="1">
         <v>44.090000152587798</v>
       </c>
-    </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L64" s="1">
+        <v>0.893104361310886</v>
+      </c>
+      <c r="M64" s="1">
+        <v>30.840000152587798</v>
+      </c>
+      <c r="N64" s="1">
+        <v>0.93990801663915002</v>
+      </c>
+      <c r="O64" s="1">
+        <v>32.909999847412102</v>
+      </c>
+    </row>
+    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -10131,8 +13561,20 @@
       <c r="K65" s="1">
         <v>44.180000305175703</v>
       </c>
-    </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L65" s="1">
+        <v>0.884744637900856</v>
+      </c>
+      <c r="M65" s="1">
+        <v>30.409999847412099</v>
+      </c>
+      <c r="N65" s="1">
+        <v>0.93854991227957796</v>
+      </c>
+      <c r="O65" s="1">
+        <v>32.4799995422363</v>
+      </c>
+    </row>
+    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -10166,8 +13608,20 @@
       <c r="K66" s="1">
         <v>44.279998779296797</v>
       </c>
-    </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L66" s="1">
+        <v>0.880585193254385</v>
+      </c>
+      <c r="M66" s="1">
+        <v>29.9899997711181</v>
+      </c>
+      <c r="N66" s="1">
+        <v>0.92340063061683797</v>
+      </c>
+      <c r="O66" s="1">
+        <v>32.139999389648402</v>
+      </c>
+    </row>
+    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -10201,8 +13655,20 @@
       <c r="K67" s="1">
         <v>44.200000762939403</v>
       </c>
-    </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L67" s="1">
+        <v>0.88106526424930298</v>
+      </c>
+      <c r="M67" s="1">
+        <v>29.899999618530199</v>
+      </c>
+      <c r="N67" s="1">
+        <v>0.91097340766031998</v>
+      </c>
+      <c r="O67" s="1">
+        <v>32.340000152587798</v>
+      </c>
+    </row>
+    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -10236,8 +13702,20 @@
       <c r="K68" s="1">
         <v>44.860000610351499</v>
       </c>
-    </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L68" s="1">
+        <v>0.88438198748667496</v>
+      </c>
+      <c r="M68" s="1">
+        <v>29.899999618530199</v>
+      </c>
+      <c r="N68" s="1">
+        <v>0.89855526890724302</v>
+      </c>
+      <c r="O68" s="1">
+        <v>31.110000610351499</v>
+      </c>
+    </row>
+    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -10271,8 +13749,20 @@
       <c r="K69" s="1">
         <v>43.790000915527301</v>
       </c>
-    </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L69" s="1">
+        <v>0.87304335604807304</v>
+      </c>
+      <c r="M69" s="1">
+        <v>30.069999694824201</v>
+      </c>
+      <c r="N69" s="1">
+        <v>4.5011287677060201</v>
+      </c>
+      <c r="O69" s="1">
+        <v>64.330001831054602</v>
+      </c>
+    </row>
+    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -10306,8 +13796,20 @@
       <c r="K70" s="1">
         <v>42.700000762939403</v>
       </c>
-    </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L70" s="1">
+        <v>0.86585796828482497</v>
+      </c>
+      <c r="M70" s="1">
+        <v>29.850000381469702</v>
+      </c>
+      <c r="N70" s="1">
+        <v>0.91882538909365397</v>
+      </c>
+      <c r="O70" s="1">
+        <v>31.569999694824201</v>
+      </c>
+    </row>
+    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -10341,8 +13843,20 @@
       <c r="K71" s="1">
         <v>43.139999389648402</v>
       </c>
-    </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L71" s="1">
+        <v>0.88109202882286797</v>
+      </c>
+      <c r="M71" s="1">
+        <v>30.2600002288818</v>
+      </c>
+      <c r="N71" s="1">
+        <v>0.902396867988975</v>
+      </c>
+      <c r="O71" s="1">
+        <v>31.360000610351499</v>
+      </c>
+    </row>
+    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -10376,8 +13890,20 @@
       <c r="K72" s="1">
         <v>42.520000457763601</v>
       </c>
-    </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L72" s="1">
+        <v>0.883316066614381</v>
+      </c>
+      <c r="M72" s="1">
+        <v>30.0100002288818</v>
+      </c>
+      <c r="N72" s="1">
+        <v>0.89997903290827497</v>
+      </c>
+      <c r="O72" s="1">
+        <v>31.329999923706001</v>
+      </c>
+    </row>
+    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -10411,8 +13937,20 @@
       <c r="K73" s="1">
         <v>42.639999389648402</v>
       </c>
-    </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L73" s="1">
+        <v>0.87322397596517098</v>
+      </c>
+      <c r="M73" s="1">
+        <v>29.590000152587798</v>
+      </c>
+      <c r="N73" s="1">
+        <v>0.88684336508914896</v>
+      </c>
+      <c r="O73" s="1">
+        <v>31.079999923706001</v>
+      </c>
+    </row>
+    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -10446,8 +13984,20 @@
       <c r="K74" s="1">
         <v>42.509998321533203</v>
       </c>
-    </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L74" s="1">
+        <v>0.86554663841891399</v>
+      </c>
+      <c r="M74" s="1">
+        <v>30</v>
+      </c>
+      <c r="N74" s="1">
+        <v>0.86219002942370704</v>
+      </c>
+      <c r="O74" s="1">
+        <v>29.770000457763601</v>
+      </c>
+    </row>
+    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -10481,8 +14031,20 @@
       <c r="K75" s="1">
         <v>42.349998474121001</v>
       </c>
-    </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L75" s="1">
+        <v>0.87246574224180395</v>
+      </c>
+      <c r="M75" s="1">
+        <v>30.159999847412099</v>
+      </c>
+      <c r="N75" s="1">
+        <v>0.85195897035538004</v>
+      </c>
+      <c r="O75" s="1">
+        <v>29.159999847412099</v>
+      </c>
+    </row>
+    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -10516,8 +14078,20 @@
       <c r="K76" s="1">
         <v>41.689998626708899</v>
       </c>
-    </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L76" s="1">
+        <v>0.86870618306907099</v>
+      </c>
+      <c r="M76" s="1">
+        <v>29.7399997711181</v>
+      </c>
+      <c r="N76" s="1">
+        <v>0.85170375655411101</v>
+      </c>
+      <c r="O76" s="1">
+        <v>29.399999618530199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -10551,8 +14125,20 @@
       <c r="K77" s="1">
         <v>42.209999084472599</v>
       </c>
-    </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L77" s="1">
+        <v>0.87505622274556705</v>
+      </c>
+      <c r="M77" s="1">
+        <v>29.670000076293899</v>
+      </c>
+      <c r="N77" s="1">
+        <v>0.84925888488247103</v>
+      </c>
+      <c r="O77" s="1">
+        <v>29.2600002288818</v>
+      </c>
+    </row>
+    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -10586,8 +14172,20 @@
       <c r="K78" s="1">
         <v>42.090000152587798</v>
       </c>
-    </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L78" s="1">
+        <v>0.87208035569282005</v>
+      </c>
+      <c r="M78" s="1">
+        <v>29.389999389648398</v>
+      </c>
+      <c r="N78" s="1">
+        <v>0.858897501116345</v>
+      </c>
+      <c r="O78" s="1">
+        <v>29.569999694824201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -10621,8 +14219,20 @@
       <c r="K79" s="1">
         <v>41.810001373291001</v>
       </c>
-    </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L79" s="1">
+        <v>0.86217708724319497</v>
+      </c>
+      <c r="M79" s="1">
+        <v>29.4500007629394</v>
+      </c>
+      <c r="N79" s="1">
+        <v>0.84907291269606</v>
+      </c>
+      <c r="O79" s="1">
+        <v>29.090000152587798</v>
+      </c>
+    </row>
+    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -10656,8 +14266,20 @@
       <c r="K80" s="1">
         <v>41.869998931884702</v>
       </c>
-    </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L80" s="1">
+        <v>0.86228049370893201</v>
+      </c>
+      <c r="M80" s="1">
+        <v>29.4500007629394</v>
+      </c>
+      <c r="N80" s="1">
+        <v>0.83045609779418605</v>
+      </c>
+      <c r="O80" s="1">
+        <v>28.459999084472599</v>
+      </c>
+    </row>
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -10691,8 +14313,20 @@
       <c r="K81" s="1">
         <v>41.700000762939403</v>
       </c>
-    </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L81" s="1">
+        <v>0.85839043377311297</v>
+      </c>
+      <c r="M81" s="1">
+        <v>28.7000007629394</v>
+      </c>
+      <c r="N81" s="1">
+        <v>0.83490433966278199</v>
+      </c>
+      <c r="O81" s="1">
+        <v>28.620000839233398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -10726,8 +14360,20 @@
       <c r="K82" s="1">
         <v>41.720001220703097</v>
       </c>
-    </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L82" s="1">
+        <v>0.84996475535593197</v>
+      </c>
+      <c r="M82" s="1">
+        <v>28.6800003051757</v>
+      </c>
+      <c r="N82" s="1">
+        <v>0.81095121392778502</v>
+      </c>
+      <c r="O82" s="1">
+        <v>27.879999160766602</v>
+      </c>
+    </row>
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -10761,8 +14407,20 @@
       <c r="K83" s="1">
         <v>41.680000305175703</v>
       </c>
-    </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L83" s="1">
+        <v>0.86447614203592704</v>
+      </c>
+      <c r="M83" s="1">
+        <v>29.4799995422363</v>
+      </c>
+      <c r="N83" s="1">
+        <v>0.81171054976760904</v>
+      </c>
+      <c r="O83" s="1">
+        <v>28.209999084472599</v>
+      </c>
+    </row>
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -10796,8 +14454,20 @@
       <c r="K84" s="1">
         <v>41.080001831054602</v>
       </c>
-    </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L84" s="1">
+        <v>0.85228555141740503</v>
+      </c>
+      <c r="M84" s="1">
+        <v>29.129999160766602</v>
+      </c>
+      <c r="N84" s="1">
+        <v>0.81451639589989999</v>
+      </c>
+      <c r="O84" s="1">
+        <v>28.120000839233398</v>
+      </c>
+    </row>
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -10831,8 +14501,20 @@
       <c r="K85" s="1">
         <v>40.7299995422363</v>
       </c>
-    </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L85" s="1">
+        <v>0.85071596579187203</v>
+      </c>
+      <c r="M85" s="1">
+        <v>28.829999923706001</v>
+      </c>
+      <c r="N85" s="1">
+        <v>0.81076488069667896</v>
+      </c>
+      <c r="O85" s="1">
+        <v>28.170000076293899</v>
+      </c>
+    </row>
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -10866,8 +14548,20 @@
       <c r="K86" s="1">
         <v>40.090000152587798</v>
       </c>
-    </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L86" s="1">
+        <v>0.86032436987396999</v>
+      </c>
+      <c r="M86" s="1">
+        <v>29.290000915527301</v>
+      </c>
+      <c r="N86" s="1">
+        <v>0.79803139768588305</v>
+      </c>
+      <c r="O86" s="1">
+        <v>27.7600002288818</v>
+      </c>
+    </row>
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -10901,8 +14595,20 @@
       <c r="K87" s="1">
         <v>40.380001068115199</v>
       </c>
-    </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L87" s="1">
+        <v>0.84498204167481406</v>
+      </c>
+      <c r="M87" s="1">
+        <v>28.370000839233398</v>
+      </c>
+      <c r="N87" s="1">
+        <v>0.78085896847354297</v>
+      </c>
+      <c r="O87" s="1">
+        <v>26.850000381469702</v>
+      </c>
+    </row>
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -10936,8 +14642,20 @@
       <c r="K88" s="1">
         <v>40.259998321533203</v>
       </c>
-    </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L88" s="1">
+        <v>0.84752125838759595</v>
+      </c>
+      <c r="M88" s="1">
+        <v>28.399999618530199</v>
+      </c>
+      <c r="N88" s="1">
+        <v>0.776289999105368</v>
+      </c>
+      <c r="O88" s="1">
+        <v>26.6800003051757</v>
+      </c>
+    </row>
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -10971,8 +14689,20 @@
       <c r="K89" s="1">
         <v>39.869998931884702</v>
       </c>
-    </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L89" s="1">
+        <v>0.84681212712245302</v>
+      </c>
+      <c r="M89" s="1">
+        <v>28.579999923706001</v>
+      </c>
+      <c r="N89" s="1">
+        <v>0.79261593871815195</v>
+      </c>
+      <c r="O89" s="1">
+        <v>26.850000381469702</v>
+      </c>
+    </row>
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -11006,8 +14736,20 @@
       <c r="K90" s="1">
         <v>39.860000610351499</v>
       </c>
-    </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L90" s="1">
+        <v>0.855533143896965</v>
+      </c>
+      <c r="M90" s="1">
+        <v>29.290000915527301</v>
+      </c>
+      <c r="N90" s="1">
+        <v>0.77658603373606405</v>
+      </c>
+      <c r="O90" s="1">
+        <v>26.790000915527301</v>
+      </c>
+    </row>
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -11041,8 +14783,20 @@
       <c r="K91" s="1">
         <v>39.409999847412102</v>
       </c>
-    </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L91" s="1">
+        <v>0.84200954892832702</v>
+      </c>
+      <c r="M91" s="1">
+        <v>28.5</v>
+      </c>
+      <c r="N91" s="1">
+        <v>0.77146889487649195</v>
+      </c>
+      <c r="O91" s="1">
+        <v>26.579999923706001</v>
+      </c>
+    </row>
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -11076,8 +14830,20 @@
       <c r="K92" s="1">
         <v>39.25</v>
       </c>
-    </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L92" s="1">
+        <v>0.85767659260209195</v>
+      </c>
+      <c r="M92" s="1">
+        <v>28.7399997711181</v>
+      </c>
+      <c r="N92" s="1">
+        <v>0.75607644106931704</v>
+      </c>
+      <c r="O92" s="1">
+        <v>26.129999160766602</v>
+      </c>
+    </row>
+    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -11111,8 +14877,20 @@
       <c r="K93" s="1">
         <v>39.090000152587798</v>
       </c>
-    </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L93" s="1">
+        <v>0.84559922935856302</v>
+      </c>
+      <c r="M93" s="1">
+        <v>28.1800003051757</v>
+      </c>
+      <c r="N93" s="1">
+        <v>0.75998524571679904</v>
+      </c>
+      <c r="O93" s="1">
+        <v>26.069999694824201</v>
+      </c>
+    </row>
+    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -11146,8 +14924,20 @@
       <c r="K94" s="1">
         <v>38.740001678466797</v>
       </c>
-    </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L94" s="1">
+        <v>0.84935436544904197</v>
+      </c>
+      <c r="M94" s="1">
+        <v>28.299999237060501</v>
+      </c>
+      <c r="N94" s="1">
+        <v>0.75334963582123904</v>
+      </c>
+      <c r="O94" s="1">
+        <v>25.9699993133544</v>
+      </c>
+    </row>
+    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -11181,8 +14971,20 @@
       <c r="K95" s="1">
         <v>38.740001678466797</v>
       </c>
-    </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L95" s="1">
+        <v>0.85237295574443295</v>
+      </c>
+      <c r="M95" s="1">
+        <v>28.639999389648398</v>
+      </c>
+      <c r="N95" s="1">
+        <v>0.76262471554385602</v>
+      </c>
+      <c r="O95" s="1">
+        <v>26.079999923706001</v>
+      </c>
+    </row>
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -11216,8 +15018,20 @@
       <c r="K96" s="1">
         <v>38.759998321533203</v>
       </c>
-    </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L96" s="1">
+        <v>0.845867667228553</v>
+      </c>
+      <c r="M96" s="1">
+        <v>28.170000076293899</v>
+      </c>
+      <c r="N96" s="1">
+        <v>0.74414813214806197</v>
+      </c>
+      <c r="O96" s="1">
+        <v>25.5100002288818</v>
+      </c>
+    </row>
+    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -11251,8 +15065,20 @@
       <c r="K97" s="1">
         <v>38.560001373291001</v>
       </c>
-    </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L97" s="1">
+        <v>0.84679968076147005</v>
+      </c>
+      <c r="M97" s="1">
+        <v>28.299999237060501</v>
+      </c>
+      <c r="N97" s="1">
+        <v>0.75346159194685003</v>
+      </c>
+      <c r="O97" s="1">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -11286,8 +15112,20 @@
       <c r="K98" s="1">
         <v>39.029998779296797</v>
       </c>
-    </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L98" s="1">
+        <v>0.85272431829173001</v>
+      </c>
+      <c r="M98" s="1">
+        <v>28.909999847412099</v>
+      </c>
+      <c r="N98" s="1">
+        <v>0.74979691862300701</v>
+      </c>
+      <c r="O98" s="1">
+        <v>25.389999389648398</v>
+      </c>
+    </row>
+    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -11321,8 +15159,20 @@
       <c r="K99" s="1">
         <v>38.529998779296797</v>
       </c>
-    </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L99" s="1">
+        <v>0.84416093188486196</v>
+      </c>
+      <c r="M99" s="1">
+        <v>28.129999160766602</v>
+      </c>
+      <c r="N99" s="1">
+        <v>0.72606253111438301</v>
+      </c>
+      <c r="O99" s="1">
+        <v>25.2199993133544</v>
+      </c>
+    </row>
+    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -11356,8 +15206,20 @@
       <c r="K100" s="1">
         <v>38.169998168945298</v>
       </c>
-    </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L100" s="1">
+        <v>0.84644937230523198</v>
+      </c>
+      <c r="M100" s="1">
+        <v>28</v>
+      </c>
+      <c r="N100" s="1">
+        <v>0.74191129777082199</v>
+      </c>
+      <c r="O100" s="1">
+        <v>25.360000610351499</v>
+      </c>
+    </row>
+    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -11391,8 +15253,20 @@
       <c r="K101" s="1">
         <v>38.659999847412102</v>
       </c>
-    </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="L101" s="1">
+        <v>0.83876991955337998</v>
+      </c>
+      <c r="M101" s="1">
+        <v>28.139999389648398</v>
+      </c>
+      <c r="N101" s="1">
+        <v>0.80992344192638499</v>
+      </c>
+      <c r="O101" s="1">
+        <v>26.2000007629394</v>
+      </c>
+    </row>
+    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -11403,7 +15277,7 @@
         <v>32.360000610351499</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -11414,7 +15288,7 @@
         <v>32.740001678466797</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -11425,7 +15299,7 @@
         <v>32.330001831054602</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -11436,7 +15310,7 @@
         <v>32.349998474121001</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -11447,7 +15321,7 @@
         <v>32.639999389648402</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -11458,7 +15332,7 @@
         <v>32.599998474121001</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -11469,7 +15343,7 @@
         <v>32.389999389648402</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -11480,7 +15354,7 @@
         <v>32.490001678466797</v>
       </c>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -11491,7 +15365,7 @@
         <v>32.029998779296797</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -11502,7 +15376,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhl\Desktop\learningEFL-main\KD_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F100E698-83F6-4E0C-91F6-05BC7AF6B5B2}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9388F11-E026-4C9E-B129-6F1F2DBD48B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -84,6 +84,14 @@
   </si>
   <si>
     <t>FL_ensemble_err</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_loss_#5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_err_#5</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9457,6 +9465,1326 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000003-5212-4507-A1F6-D151921DD604}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="14"/>
+          <c:order val="14"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$P$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efl_loss_#5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$P$2:$P$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.3076327408954498</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.1839515616180001</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.83139450079316</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.7464696586511601</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.7104310594546499</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.6471454041778599</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6331613056219301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.57648738478399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5374606475708501</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5101084519343699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.4889952741610699</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.4514782322440101</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.4271126127546701</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.42859231362676</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.39728427692583</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3676444474299201</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3488094502953201</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3238800528702399</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3204522011386299</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.2923811404568299</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.2775331712832101</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.25737732079378</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.2162335397331501</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2168419812894899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.1955388009927801</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.19910997418081</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.1617068940666799</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1571455818073</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.13740315938451</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1175229086238101</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1010514771103099</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.10393796415086</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.0946352937418899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.0743682722377099</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.05479347516017</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.04074079443694</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0426485572650901</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.01802122213278</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.01240300334942</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0191831364753099</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>0.98899084557393502</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>0.99840692729706904</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.98587978303812096</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.95804154721035295</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.97677043820642295</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.99203024282576902</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.96848943544800803</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.96075599056899896</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.94679425324604005</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.94035432938557495</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.94450218814193798</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.94029758044868506</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.93502254736651202</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.91667639601762096</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.90474908708766699</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.91173364782029598</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.899081781031979</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.90264292355555598</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.90118338689682498</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.88825813979859503</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.87686075830155796</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.87747332928286903</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.87691937548339705</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.87733348311891901</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.87130394748821305</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.87033251706202297</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.85234463176909503</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.85751028947389796</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.85772634995211405</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.85235437428116001</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.84625441405423796</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.845327465397537</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.85453407475902698</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.85705197882500395</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.85965280339216699</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.83979630660099502</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.83395956883764499</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>0.84492430698340104</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>0.82753042924176301</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>0.83321534714121703</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>0.83280488867668501</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>0.83334324352300804</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>0.83027439360405897</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>0.83252597766317304</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>0.82796136740666204</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>0.82370142648174505</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>0.820921790068316</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>0.82802591695907002</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>0.82236302772145298</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>0.82361055920078496</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>0.82431148685467404</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>0.82163135185363101</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>0.82042607759973796</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>0.82100736772178795</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>0.82643060471601504</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>0.81801972115874999</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>0.82456718451657796</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>0.81902350020256698</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>0.82382521564793398</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>0.818840476168189</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F271-43CC-B00C-E12C50ED96E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="15"/>
+          <c:order val="15"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Q$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efl_err_#5</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Q$2:$Q$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>89.269996643066406</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>73.370002746582003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.269996643066406</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>64.059997558593693</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.060001373291001</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>58.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>56.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>55.049999237060497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>52.930000305175703</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>49.560001373291001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.4799995422363</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.319999694824197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>45.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44.639999389648402</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43.080001831054602</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>42.119998931884702</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41.9799995422363</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.130001068115199</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>40.330001831054602</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>40.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39.830001831054602</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>39.189998626708899</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37.849998474121001</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37.029998779296797</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>36.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>37.180000305175703</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36.630001068115199</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>35.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.470001220703097</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>34.430000305175703</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34.889999389648402</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>33.540000915527301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>34.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>33.119998931884702</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>31.899999618530199</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32.470001220703097</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.610000610351499</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32.2299995422363</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>32.490001678466797</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>31.5100002288818</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>31.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>31.649999618530199</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>31.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>31.9300003051757</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>31.090000152587798</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30.440000534057599</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30.889999389648398</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>30.549999237060501</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>30.649999618530199</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>30.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29.799999237060501</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>29.9500007629394</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>30.0100002288818</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30.030000686645501</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>29.7299995422363</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>29.420000076293899</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29.280000686645501</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.090000152587798</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>29.110000610351499</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>28.7199993133544</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>28.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>28.790000915527301</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>28.9899997711181</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>29.159999847412099</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>29.149999618530199</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>28.370000839233398</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>28.319999694824201</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>28.399999618530199</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>27.9300003051757</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>28.120000839233398</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>28.190000534057599</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>28.2600002288818</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>28.110000610351499</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27.920000076293899</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>27.889999389648398</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>28.309999465942301</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27.780000686645501</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>27.7299995422363</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>27.9799995422363</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>27.4500007629394</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27.809999465942301</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27.2399997711181</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27.379999160766602</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>27.409999847412099</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>27.280000686645501</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>27.2199993133544</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>27.399999618530199</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>27.190000534057599</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>27.889999389648398</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>27.280000686645501</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-F271-43CC-B00C-E12C50ED96E3}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -10204,15 +11532,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>1</xdr:col>
-      <xdr:colOff>676274</xdr:colOff>
-      <xdr:row>6</xdr:row>
-      <xdr:rowOff>95250</xdr:rowOff>
+      <xdr:colOff>857248</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>714375</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>152400</xdr:rowOff>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>600074</xdr:colOff>
+      <xdr:row>44</xdr:row>
+      <xdr:rowOff>9524</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -10505,10 +11833,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:O201"/>
+  <dimension ref="A1:Q201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="T33" sqref="T33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -10519,7 +11847,7 @@
     <col min="12" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -10565,8 +11893,14 @@
       <c r="O1" s="2" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="2" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -10612,8 +11946,14 @@
       <c r="O2" s="1">
         <v>89.919998168945298</v>
       </c>
-    </row>
-    <row r="3" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P2" s="1">
+        <v>2.3076327408954498</v>
+      </c>
+      <c r="Q2" s="1">
+        <v>89.269996643066406</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -10659,8 +11999,14 @@
       <c r="O3" s="1">
         <v>88.569999694824205</v>
       </c>
-    </row>
-    <row r="4" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P3" s="1">
+        <v>2.1839515616180001</v>
+      </c>
+      <c r="Q3" s="1">
+        <v>73.370002746582003</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -10706,8 +12052,14 @@
       <c r="O4" s="1">
         <v>82.379997253417898</v>
       </c>
-    </row>
-    <row r="5" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P4" s="1">
+        <v>1.83139450079316</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>67.269996643066406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -10753,8 +12105,14 @@
       <c r="O5" s="1">
         <v>84.660003662109304</v>
       </c>
-    </row>
-    <row r="6" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P5" s="1">
+        <v>1.7464696586511601</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>64.059997558593693</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -10800,8 +12158,14 @@
       <c r="O6" s="1">
         <v>81.949996948242102</v>
       </c>
-    </row>
-    <row r="7" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P6" s="1">
+        <v>1.7104310594546499</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>62.439998626708899</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -10847,8 +12211,14 @@
       <c r="O7" s="1">
         <v>71.919998168945298</v>
       </c>
-    </row>
-    <row r="8" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P7" s="1">
+        <v>1.6471454041778599</v>
+      </c>
+      <c r="Q7" s="1">
+        <v>59.060001373291001</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -10894,8 +12264,14 @@
       <c r="O8" s="1">
         <v>83.080001831054602</v>
       </c>
-    </row>
-    <row r="9" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P8" s="1">
+        <v>1.6331613056219301</v>
+      </c>
+      <c r="Q8" s="1">
+        <v>58.819999694824197</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -10941,8 +12317,14 @@
       <c r="O9" s="1">
         <v>68.889999389648395</v>
       </c>
-    </row>
-    <row r="10" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P9" s="1">
+        <v>1.57648738478399</v>
+      </c>
+      <c r="Q9" s="1">
+        <v>56.599998474121001</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -10988,8 +12370,14 @@
       <c r="O10" s="1">
         <v>67</v>
       </c>
-    </row>
-    <row r="11" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P10" s="1">
+        <v>1.5374606475708501</v>
+      </c>
+      <c r="Q10" s="1">
+        <v>55.049999237060497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -11035,8 +12423,14 @@
       <c r="O11" s="1">
         <v>64.400001525878906</v>
       </c>
-    </row>
-    <row r="12" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P11" s="1">
+        <v>1.5101084519343699</v>
+      </c>
+      <c r="Q11" s="1">
+        <v>52.950000762939403</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -11082,8 +12476,14 @@
       <c r="O12" s="1">
         <v>63.439998626708899</v>
       </c>
-    </row>
-    <row r="13" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P12" s="1">
+        <v>1.4889952741610699</v>
+      </c>
+      <c r="Q12" s="1">
+        <v>52.930000305175703</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -11129,8 +12529,14 @@
       <c r="O13" s="1">
         <v>62.110000610351499</v>
       </c>
-    </row>
-    <row r="14" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P13" s="1">
+        <v>1.4514782322440101</v>
+      </c>
+      <c r="Q13" s="1">
+        <v>50.659999847412102</v>
+      </c>
+    </row>
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -11176,8 +12582,14 @@
       <c r="O14" s="1">
         <v>61.680000305175703</v>
       </c>
-    </row>
-    <row r="15" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P14" s="1">
+        <v>1.4271126127546701</v>
+      </c>
+      <c r="Q14" s="1">
+        <v>49.819999694824197</v>
+      </c>
+    </row>
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -11223,8 +12635,14 @@
       <c r="O15" s="1">
         <v>59.689998626708899</v>
       </c>
-    </row>
-    <row r="16" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P15" s="1">
+        <v>1.42859231362676</v>
+      </c>
+      <c r="Q15" s="1">
+        <v>49.560001373291001</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -11270,8 +12688,14 @@
       <c r="O16" s="1">
         <v>58.700000762939403</v>
       </c>
-    </row>
-    <row r="17" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P16" s="1">
+        <v>1.39728427692583</v>
+      </c>
+      <c r="Q16" s="1">
+        <v>48.4799995422363</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -11317,8 +12741,14 @@
       <c r="O17" s="1">
         <v>57.810001373291001</v>
       </c>
-    </row>
-    <row r="18" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P17" s="1">
+        <v>1.3676444474299201</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>46.319999694824197</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -11364,8 +12794,14 @@
       <c r="O18" s="1">
         <v>56.7299995422363</v>
       </c>
-    </row>
-    <row r="19" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P18" s="1">
+        <v>1.3488094502953201</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>45.520000457763601</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -11411,8 +12847,14 @@
       <c r="O19" s="1">
         <v>56.459999084472599</v>
       </c>
-    </row>
-    <row r="20" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P19" s="1">
+        <v>1.3238800528702399</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>44.639999389648402</v>
+      </c>
+    </row>
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -11458,8 +12900,14 @@
       <c r="O20" s="1">
         <v>56.099998474121001</v>
       </c>
-    </row>
-    <row r="21" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P20" s="1">
+        <v>1.3204522011386299</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>44.439998626708899</v>
+      </c>
+    </row>
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -11505,8 +12953,14 @@
       <c r="O21" s="1">
         <v>55.200000762939403</v>
       </c>
-    </row>
-    <row r="22" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P21" s="1">
+        <v>1.2923811404568299</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>43.080001831054602</v>
+      </c>
+    </row>
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -11552,8 +13006,14 @@
       <c r="O22" s="1">
         <v>54.020000457763601</v>
       </c>
-    </row>
-    <row r="23" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P22" s="1">
+        <v>1.2775331712832101</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>42.119998931884702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -11599,8 +13059,14 @@
       <c r="O23" s="1">
         <v>54.159999847412102</v>
       </c>
-    </row>
-    <row r="24" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P23" s="1">
+        <v>1.25737732079378</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>41.9799995422363</v>
+      </c>
+    </row>
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -11646,8 +13112,14 @@
       <c r="O24" s="1">
         <v>52.520000457763601</v>
       </c>
-    </row>
-    <row r="25" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P24" s="1">
+        <v>1.2162335397331501</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>40.130001068115199</v>
+      </c>
+    </row>
+    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -11693,8 +13165,14 @@
       <c r="O25" s="1">
         <v>52.939998626708899</v>
       </c>
-    </row>
-    <row r="26" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P25" s="1">
+        <v>1.2168419812894899</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>40.330001831054602</v>
+      </c>
+    </row>
+    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -11740,8 +13218,14 @@
       <c r="O26" s="1">
         <v>52.860000610351499</v>
       </c>
-    </row>
-    <row r="27" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P26" s="1">
+        <v>1.1955388009927801</v>
+      </c>
+      <c r="Q26" s="1">
+        <v>40.150001525878899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -11787,8 +13271,14 @@
       <c r="O27" s="1">
         <v>50.740001678466797</v>
       </c>
-    </row>
-    <row r="28" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P27" s="1">
+        <v>1.19910997418081</v>
+      </c>
+      <c r="Q27" s="1">
+        <v>39.830001831054602</v>
+      </c>
+    </row>
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -11834,8 +13324,14 @@
       <c r="O28" s="1">
         <v>59.959999084472599</v>
       </c>
-    </row>
-    <row r="29" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P28" s="1">
+        <v>1.1617068940666799</v>
+      </c>
+      <c r="Q28" s="1">
+        <v>39.189998626708899</v>
+      </c>
+    </row>
+    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -11881,8 +13377,14 @@
       <c r="O29" s="1">
         <v>49.950000762939403</v>
       </c>
-    </row>
-    <row r="30" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P29" s="1">
+        <v>1.1571455818073</v>
+      </c>
+      <c r="Q29" s="1">
+        <v>38.549999237060497</v>
+      </c>
+    </row>
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -11928,8 +13430,14 @@
       <c r="O30" s="1">
         <v>50.939998626708899</v>
       </c>
-    </row>
-    <row r="31" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P30" s="1">
+        <v>1.13740315938451</v>
+      </c>
+      <c r="Q30" s="1">
+        <v>37.849998474121001</v>
+      </c>
+    </row>
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -11975,8 +13483,14 @@
       <c r="O31" s="1">
         <v>49.529998779296797</v>
       </c>
-    </row>
-    <row r="32" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P31" s="1">
+        <v>1.1175229086238101</v>
+      </c>
+      <c r="Q31" s="1">
+        <v>37.029998779296797</v>
+      </c>
+    </row>
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -12022,8 +13536,14 @@
       <c r="O32" s="1">
         <v>48.270000457763601</v>
       </c>
-    </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P32" s="1">
+        <v>1.1010514771103099</v>
+      </c>
+      <c r="Q32" s="1">
+        <v>36.840000152587798</v>
+      </c>
+    </row>
+    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -12069,8 +13589,14 @@
       <c r="O33" s="1">
         <v>47.849998474121001</v>
       </c>
-    </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P33" s="1">
+        <v>1.10393796415086</v>
+      </c>
+      <c r="Q33" s="1">
+        <v>37.180000305175703</v>
+      </c>
+    </row>
+    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -12116,8 +13642,14 @@
       <c r="O34" s="1">
         <v>46.459999084472599</v>
       </c>
-    </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P34" s="1">
+        <v>1.0946352937418899</v>
+      </c>
+      <c r="Q34" s="1">
+        <v>36.630001068115199</v>
+      </c>
+    </row>
+    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -12163,8 +13695,14 @@
       <c r="O35" s="1">
         <v>46.25</v>
       </c>
-    </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P35" s="1">
+        <v>1.0743682722377099</v>
+      </c>
+      <c r="Q35" s="1">
+        <v>35.520000457763601</v>
+      </c>
+    </row>
+    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -12210,8 +13748,14 @@
       <c r="O36" s="1">
         <v>46.340000152587798</v>
       </c>
-    </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P36" s="1">
+        <v>1.05479347516017</v>
+      </c>
+      <c r="Q36" s="1">
+        <v>35.470001220703097</v>
+      </c>
+    </row>
+    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -12257,8 +13801,14 @@
       <c r="O37" s="1">
         <v>44.549999237060497</v>
       </c>
-    </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P37" s="1">
+        <v>1.04074079443694</v>
+      </c>
+      <c r="Q37" s="1">
+        <v>34.430000305175703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -12304,8 +13854,14 @@
       <c r="O38" s="1">
         <v>45.069999694824197</v>
       </c>
-    </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P38" s="1">
+        <v>1.0426485572650901</v>
+      </c>
+      <c r="Q38" s="1">
+        <v>34.889999389648402</v>
+      </c>
+    </row>
+    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -12351,8 +13907,14 @@
       <c r="O39" s="1">
         <v>43.029998779296797</v>
       </c>
-    </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P39" s="1">
+        <v>1.01802122213278</v>
+      </c>
+      <c r="Q39" s="1">
+        <v>33.540000915527301</v>
+      </c>
+    </row>
+    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -12398,8 +13960,14 @@
       <c r="O40" s="1">
         <v>42.950000762939403</v>
       </c>
-    </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P40" s="1">
+        <v>1.01240300334942</v>
+      </c>
+      <c r="Q40" s="1">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -12445,8 +14013,14 @@
       <c r="O41" s="1">
         <v>42.009998321533203</v>
       </c>
-    </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P41" s="1">
+        <v>1.0191831364753099</v>
+      </c>
+      <c r="Q41" s="1">
+        <v>34.340000152587798</v>
+      </c>
+    </row>
+    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -12492,8 +14066,14 @@
       <c r="O42" s="1">
         <v>41.790000915527301</v>
       </c>
-    </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P42" s="1">
+        <v>0.98899084557393502</v>
+      </c>
+      <c r="Q42" s="1">
+        <v>33.290000915527301</v>
+      </c>
+    </row>
+    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -12539,8 +14119,14 @@
       <c r="O43" s="1">
         <v>40.9799995422363</v>
       </c>
-    </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P43" s="1">
+        <v>0.99840692729706904</v>
+      </c>
+      <c r="Q43" s="1">
+        <v>33.220001220703097</v>
+      </c>
+    </row>
+    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -12586,8 +14172,14 @@
       <c r="O44" s="1">
         <v>40.869998931884702</v>
       </c>
-    </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P44" s="1">
+        <v>0.98587978303812096</v>
+      </c>
+      <c r="Q44" s="1">
+        <v>33.119998931884702</v>
+      </c>
+    </row>
+    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -12633,8 +14225,14 @@
       <c r="O45" s="1">
         <v>47.159999847412102</v>
       </c>
-    </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P45" s="1">
+        <v>0.95804154721035295</v>
+      </c>
+      <c r="Q45" s="1">
+        <v>31.899999618530199</v>
+      </c>
+    </row>
+    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -12680,8 +14278,14 @@
       <c r="O46" s="1">
         <v>40.450000762939403</v>
       </c>
-    </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P46" s="1">
+        <v>0.97677043820642295</v>
+      </c>
+      <c r="Q46" s="1">
+        <v>32.470001220703097</v>
+      </c>
+    </row>
+    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -12727,8 +14331,14 @@
       <c r="O47" s="1">
         <v>40.240001678466797</v>
       </c>
-    </row>
-    <row r="48" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P47" s="1">
+        <v>0.99203024282576902</v>
+      </c>
+      <c r="Q47" s="1">
+        <v>33.610000610351499</v>
+      </c>
+    </row>
+    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -12774,8 +14384,14 @@
       <c r="O48" s="1">
         <v>39.009998321533203</v>
       </c>
-    </row>
-    <row r="49" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P48" s="1">
+        <v>0.96848943544800803</v>
+      </c>
+      <c r="Q48" s="1">
+        <v>32.2299995422363</v>
+      </c>
+    </row>
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -12821,8 +14437,14 @@
       <c r="O49" s="1">
         <v>38.799999237060497</v>
       </c>
-    </row>
-    <row r="50" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P49" s="1">
+        <v>0.96075599056899896</v>
+      </c>
+      <c r="Q49" s="1">
+        <v>32.490001678466797</v>
+      </c>
+    </row>
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -12868,8 +14490,14 @@
       <c r="O50" s="1">
         <v>57.819999694824197</v>
       </c>
-    </row>
-    <row r="51" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P50" s="1">
+        <v>0.94679425324604005</v>
+      </c>
+      <c r="Q50" s="1">
+        <v>31.5100002288818</v>
+      </c>
+    </row>
+    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -12915,8 +14543,14 @@
       <c r="O51" s="1">
         <v>38.060001373291001</v>
       </c>
-    </row>
-    <row r="52" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P51" s="1">
+        <v>0.94035432938557495</v>
+      </c>
+      <c r="Q51" s="1">
+        <v>31.520000457763601</v>
+      </c>
+    </row>
+    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -12962,8 +14596,14 @@
       <c r="O52" s="1">
         <v>38.7299995422363</v>
       </c>
-    </row>
-    <row r="53" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P52" s="1">
+        <v>0.94450218814193798</v>
+      </c>
+      <c r="Q52" s="1">
+        <v>31.649999618530199</v>
+      </c>
+    </row>
+    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -13009,8 +14649,14 @@
       <c r="O53" s="1">
         <v>37.279998779296797</v>
       </c>
-    </row>
-    <row r="54" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P53" s="1">
+        <v>0.94029758044868506</v>
+      </c>
+      <c r="Q53" s="1">
+        <v>31.340000152587798</v>
+      </c>
+    </row>
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -13056,8 +14702,14 @@
       <c r="O54" s="1">
         <v>35.9799995422363</v>
       </c>
-    </row>
-    <row r="55" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P54" s="1">
+        <v>0.93502254736651202</v>
+      </c>
+      <c r="Q54" s="1">
+        <v>31.9300003051757</v>
+      </c>
+    </row>
+    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -13103,8 +14755,14 @@
       <c r="O55" s="1">
         <v>35.509998321533203</v>
       </c>
-    </row>
-    <row r="56" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P55" s="1">
+        <v>0.91667639601762096</v>
+      </c>
+      <c r="Q55" s="1">
+        <v>31.090000152587798</v>
+      </c>
+    </row>
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -13150,8 +14808,14 @@
       <c r="O56" s="1">
         <v>35</v>
       </c>
-    </row>
-    <row r="57" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P56" s="1">
+        <v>0.90474908708766699</v>
+      </c>
+      <c r="Q56" s="1">
+        <v>30.440000534057599</v>
+      </c>
+    </row>
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -13197,8 +14861,14 @@
       <c r="O57" s="1">
         <v>34.709999084472599</v>
       </c>
-    </row>
-    <row r="58" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P57" s="1">
+        <v>0.91173364782029598</v>
+      </c>
+      <c r="Q57" s="1">
+        <v>30.889999389648398</v>
+      </c>
+    </row>
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -13244,8 +14914,14 @@
       <c r="O58" s="1">
         <v>34.610000610351499</v>
       </c>
-    </row>
-    <row r="59" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P58" s="1">
+        <v>0.899081781031979</v>
+      </c>
+      <c r="Q58" s="1">
+        <v>30.549999237060501</v>
+      </c>
+    </row>
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -13291,8 +14967,14 @@
       <c r="O59" s="1">
         <v>35.810001373291001</v>
       </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P59" s="1">
+        <v>0.90264292355555598</v>
+      </c>
+      <c r="Q59" s="1">
+        <v>30.649999618530199</v>
+      </c>
+    </row>
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -13338,8 +15020,14 @@
       <c r="O60" s="1">
         <v>34.049999237060497</v>
       </c>
-    </row>
-    <row r="61" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P60" s="1">
+        <v>0.90118338689682498</v>
+      </c>
+      <c r="Q60" s="1">
+        <v>30.520000457763601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -13385,8 +15073,14 @@
       <c r="O61" s="1">
         <v>34.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P61" s="1">
+        <v>0.88825813979859503</v>
+      </c>
+      <c r="Q61" s="1">
+        <v>29.799999237060501</v>
+      </c>
+    </row>
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -13432,8 +15126,14 @@
       <c r="O62" s="1">
         <v>37.009998321533203</v>
       </c>
-    </row>
-    <row r="63" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P62" s="1">
+        <v>0.87686075830155796</v>
+      </c>
+      <c r="Q62" s="1">
+        <v>29.9500007629394</v>
+      </c>
+    </row>
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -13479,8 +15179,14 @@
       <c r="O63" s="1">
         <v>33.220001220703097</v>
       </c>
-    </row>
-    <row r="64" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P63" s="1">
+        <v>0.87747332928286903</v>
+      </c>
+      <c r="Q63" s="1">
+        <v>30.0100002288818</v>
+      </c>
+    </row>
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -13526,8 +15232,14 @@
       <c r="O64" s="1">
         <v>32.909999847412102</v>
       </c>
-    </row>
-    <row r="65" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P64" s="1">
+        <v>0.87691937548339705</v>
+      </c>
+      <c r="Q64" s="1">
+        <v>29.5</v>
+      </c>
+    </row>
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -13573,8 +15285,14 @@
       <c r="O65" s="1">
         <v>32.4799995422363</v>
       </c>
-    </row>
-    <row r="66" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P65" s="1">
+        <v>0.87733348311891901</v>
+      </c>
+      <c r="Q65" s="1">
+        <v>30.030000686645501</v>
+      </c>
+    </row>
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -13620,8 +15338,14 @@
       <c r="O66" s="1">
         <v>32.139999389648402</v>
       </c>
-    </row>
-    <row r="67" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P66" s="1">
+        <v>0.87130394748821305</v>
+      </c>
+      <c r="Q66" s="1">
+        <v>29.7299995422363</v>
+      </c>
+    </row>
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -13667,8 +15391,14 @@
       <c r="O67" s="1">
         <v>32.340000152587798</v>
       </c>
-    </row>
-    <row r="68" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P67" s="1">
+        <v>0.87033251706202297</v>
+      </c>
+      <c r="Q67" s="1">
+        <v>29.420000076293899</v>
+      </c>
+    </row>
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -13714,8 +15444,14 @@
       <c r="O68" s="1">
         <v>31.110000610351499</v>
       </c>
-    </row>
-    <row r="69" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P68" s="1">
+        <v>0.85234463176909503</v>
+      </c>
+      <c r="Q68" s="1">
+        <v>29.280000686645501</v>
+      </c>
+    </row>
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -13761,8 +15497,14 @@
       <c r="O69" s="1">
         <v>64.330001831054602</v>
       </c>
-    </row>
-    <row r="70" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P69" s="1">
+        <v>0.85751028947389796</v>
+      </c>
+      <c r="Q69" s="1">
+        <v>29.090000152587798</v>
+      </c>
+    </row>
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -13808,8 +15550,14 @@
       <c r="O70" s="1">
         <v>31.569999694824201</v>
       </c>
-    </row>
-    <row r="71" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P70" s="1">
+        <v>0.85772634995211405</v>
+      </c>
+      <c r="Q70" s="1">
+        <v>29.110000610351499</v>
+      </c>
+    </row>
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -13855,8 +15603,14 @@
       <c r="O71" s="1">
         <v>31.360000610351499</v>
       </c>
-    </row>
-    <row r="72" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P71" s="1">
+        <v>0.85235437428116001</v>
+      </c>
+      <c r="Q71" s="1">
+        <v>28.7199993133544</v>
+      </c>
+    </row>
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -13902,8 +15656,14 @@
       <c r="O72" s="1">
         <v>31.329999923706001</v>
       </c>
-    </row>
-    <row r="73" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P72" s="1">
+        <v>0.84625441405423796</v>
+      </c>
+      <c r="Q72" s="1">
+        <v>28.520000457763601</v>
+      </c>
+    </row>
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -13949,8 +15709,14 @@
       <c r="O73" s="1">
         <v>31.079999923706001</v>
       </c>
-    </row>
-    <row r="74" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P73" s="1">
+        <v>0.845327465397537</v>
+      </c>
+      <c r="Q73" s="1">
+        <v>28.790000915527301</v>
+      </c>
+    </row>
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -13996,8 +15762,14 @@
       <c r="O74" s="1">
         <v>29.770000457763601</v>
       </c>
-    </row>
-    <row r="75" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P74" s="1">
+        <v>0.85453407475902698</v>
+      </c>
+      <c r="Q74" s="1">
+        <v>28.9899997711181</v>
+      </c>
+    </row>
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -14043,8 +15815,14 @@
       <c r="O75" s="1">
         <v>29.159999847412099</v>
       </c>
-    </row>
-    <row r="76" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P75" s="1">
+        <v>0.85705197882500395</v>
+      </c>
+      <c r="Q75" s="1">
+        <v>29.159999847412099</v>
+      </c>
+    </row>
+    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -14090,8 +15868,14 @@
       <c r="O76" s="1">
         <v>29.399999618530199</v>
       </c>
-    </row>
-    <row r="77" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P76" s="1">
+        <v>0.85965280339216699</v>
+      </c>
+      <c r="Q76" s="1">
+        <v>29.149999618530199</v>
+      </c>
+    </row>
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -14137,8 +15921,14 @@
       <c r="O77" s="1">
         <v>29.2600002288818</v>
       </c>
-    </row>
-    <row r="78" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P77" s="1">
+        <v>0.83979630660099502</v>
+      </c>
+      <c r="Q77" s="1">
+        <v>28.370000839233398</v>
+      </c>
+    </row>
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -14184,8 +15974,14 @@
       <c r="O78" s="1">
         <v>29.569999694824201</v>
       </c>
-    </row>
-    <row r="79" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P78" s="1">
+        <v>0.83395956883764499</v>
+      </c>
+      <c r="Q78" s="1">
+        <v>28.319999694824201</v>
+      </c>
+    </row>
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -14231,8 +16027,14 @@
       <c r="O79" s="1">
         <v>29.090000152587798</v>
       </c>
-    </row>
-    <row r="80" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P79" s="1">
+        <v>0.84492430698340104</v>
+      </c>
+      <c r="Q79" s="1">
+        <v>28.399999618530199</v>
+      </c>
+    </row>
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -14278,8 +16080,14 @@
       <c r="O80" s="1">
         <v>28.459999084472599</v>
       </c>
-    </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P80" s="1">
+        <v>0.82753042924176301</v>
+      </c>
+      <c r="Q80" s="1">
+        <v>27.9300003051757</v>
+      </c>
+    </row>
+    <row r="81" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -14325,8 +16133,14 @@
       <c r="O81" s="1">
         <v>28.620000839233398</v>
       </c>
-    </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P81" s="1">
+        <v>0.83321534714121703</v>
+      </c>
+      <c r="Q81" s="1">
+        <v>28.120000839233398</v>
+      </c>
+    </row>
+    <row r="82" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -14372,8 +16186,14 @@
       <c r="O82" s="1">
         <v>27.879999160766602</v>
       </c>
-    </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P82" s="1">
+        <v>0.83280488867668501</v>
+      </c>
+      <c r="Q82" s="1">
+        <v>28.190000534057599</v>
+      </c>
+    </row>
+    <row r="83" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -14419,8 +16239,14 @@
       <c r="O83" s="1">
         <v>28.209999084472599</v>
       </c>
-    </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P83" s="1">
+        <v>0.83334324352300804</v>
+      </c>
+      <c r="Q83" s="1">
+        <v>28.2600002288818</v>
+      </c>
+    </row>
+    <row r="84" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -14466,8 +16292,14 @@
       <c r="O84" s="1">
         <v>28.120000839233398</v>
       </c>
-    </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P84" s="1">
+        <v>0.83027439360405897</v>
+      </c>
+      <c r="Q84" s="1">
+        <v>28.110000610351499</v>
+      </c>
+    </row>
+    <row r="85" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -14513,8 +16345,14 @@
       <c r="O85" s="1">
         <v>28.170000076293899</v>
       </c>
-    </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P85" s="1">
+        <v>0.83252597766317304</v>
+      </c>
+      <c r="Q85" s="1">
+        <v>27.920000076293899</v>
+      </c>
+    </row>
+    <row r="86" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -14560,8 +16398,14 @@
       <c r="O86" s="1">
         <v>27.7600002288818</v>
       </c>
-    </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P86" s="1">
+        <v>0.82796136740666204</v>
+      </c>
+      <c r="Q86" s="1">
+        <v>27.889999389648398</v>
+      </c>
+    </row>
+    <row r="87" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -14607,8 +16451,14 @@
       <c r="O87" s="1">
         <v>26.850000381469702</v>
       </c>
-    </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P87" s="1">
+        <v>0.82370142648174505</v>
+      </c>
+      <c r="Q87" s="1">
+        <v>28.309999465942301</v>
+      </c>
+    </row>
+    <row r="88" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -14654,8 +16504,14 @@
       <c r="O88" s="1">
         <v>26.6800003051757</v>
       </c>
-    </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P88" s="1">
+        <v>0.820921790068316</v>
+      </c>
+      <c r="Q88" s="1">
+        <v>27.780000686645501</v>
+      </c>
+    </row>
+    <row r="89" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -14701,8 +16557,14 @@
       <c r="O89" s="1">
         <v>26.850000381469702</v>
       </c>
-    </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P89" s="1">
+        <v>0.82802591695907002</v>
+      </c>
+      <c r="Q89" s="1">
+        <v>27.7299995422363</v>
+      </c>
+    </row>
+    <row r="90" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -14748,8 +16610,14 @@
       <c r="O90" s="1">
         <v>26.790000915527301</v>
       </c>
-    </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P90" s="1">
+        <v>0.82236302772145298</v>
+      </c>
+      <c r="Q90" s="1">
+        <v>27.9799995422363</v>
+      </c>
+    </row>
+    <row r="91" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -14795,8 +16663,14 @@
       <c r="O91" s="1">
         <v>26.579999923706001</v>
       </c>
-    </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P91" s="1">
+        <v>0.82361055920078496</v>
+      </c>
+      <c r="Q91" s="1">
+        <v>27.4500007629394</v>
+      </c>
+    </row>
+    <row r="92" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -14842,8 +16716,14 @@
       <c r="O92" s="1">
         <v>26.129999160766602</v>
       </c>
-    </row>
-    <row r="93" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P92" s="1">
+        <v>0.82431148685467404</v>
+      </c>
+      <c r="Q92" s="1">
+        <v>27.809999465942301</v>
+      </c>
+    </row>
+    <row r="93" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -14889,8 +16769,14 @@
       <c r="O93" s="1">
         <v>26.069999694824201</v>
       </c>
-    </row>
-    <row r="94" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P93" s="1">
+        <v>0.82163135185363101</v>
+      </c>
+      <c r="Q93" s="1">
+        <v>27.2399997711181</v>
+      </c>
+    </row>
+    <row r="94" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -14936,8 +16822,14 @@
       <c r="O94" s="1">
         <v>25.9699993133544</v>
       </c>
-    </row>
-    <row r="95" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P94" s="1">
+        <v>0.82042607759973796</v>
+      </c>
+      <c r="Q94" s="1">
+        <v>27.379999160766602</v>
+      </c>
+    </row>
+    <row r="95" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -14983,8 +16875,14 @@
       <c r="O95" s="1">
         <v>26.079999923706001</v>
       </c>
-    </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P95" s="1">
+        <v>0.82100736772178795</v>
+      </c>
+      <c r="Q95" s="1">
+        <v>27.409999847412099</v>
+      </c>
+    </row>
+    <row r="96" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -15030,8 +16928,14 @@
       <c r="O96" s="1">
         <v>25.5100002288818</v>
       </c>
-    </row>
-    <row r="97" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P96" s="1">
+        <v>0.82643060471601504</v>
+      </c>
+      <c r="Q96" s="1">
+        <v>27.280000686645501</v>
+      </c>
+    </row>
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -15077,8 +16981,14 @@
       <c r="O97" s="1">
         <v>26</v>
       </c>
-    </row>
-    <row r="98" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P97" s="1">
+        <v>0.81801972115874999</v>
+      </c>
+      <c r="Q97" s="1">
+        <v>27.2199993133544</v>
+      </c>
+    </row>
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -15124,8 +17034,14 @@
       <c r="O98" s="1">
         <v>25.389999389648398</v>
       </c>
-    </row>
-    <row r="99" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P98" s="1">
+        <v>0.82456718451657796</v>
+      </c>
+      <c r="Q98" s="1">
+        <v>27.399999618530199</v>
+      </c>
+    </row>
+    <row r="99" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -15171,8 +17087,14 @@
       <c r="O99" s="1">
         <v>25.2199993133544</v>
       </c>
-    </row>
-    <row r="100" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P99" s="1">
+        <v>0.81902350020256698</v>
+      </c>
+      <c r="Q99" s="1">
+        <v>27.190000534057599</v>
+      </c>
+    </row>
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -15218,8 +17140,14 @@
       <c r="O100" s="1">
         <v>25.360000610351499</v>
       </c>
-    </row>
-    <row r="101" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P100" s="1">
+        <v>0.82382521564793398</v>
+      </c>
+      <c r="Q100" s="1">
+        <v>27.889999389648398</v>
+      </c>
+    </row>
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -15265,8 +17193,14 @@
       <c r="O101" s="1">
         <v>26.2000007629394</v>
       </c>
-    </row>
-    <row r="102" spans="1:15" x14ac:dyDescent="0.3">
+      <c r="P101" s="1">
+        <v>0.818840476168189</v>
+      </c>
+      <c r="Q101" s="1">
+        <v>27.280000686645501</v>
+      </c>
+    </row>
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -15277,7 +17211,7 @@
         <v>32.360000610351499</v>
       </c>
     </row>
-    <row r="103" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -15288,7 +17222,7 @@
         <v>32.740001678466797</v>
       </c>
     </row>
-    <row r="104" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -15299,7 +17233,7 @@
         <v>32.330001831054602</v>
       </c>
     </row>
-    <row r="105" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -15310,7 +17244,7 @@
         <v>32.349998474121001</v>
       </c>
     </row>
-    <row r="106" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -15321,7 +17255,7 @@
         <v>32.639999389648402</v>
       </c>
     </row>
-    <row r="107" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -15332,7 +17266,7 @@
         <v>32.599998474121001</v>
       </c>
     </row>
-    <row r="108" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -15343,7 +17277,7 @@
         <v>32.389999389648402</v>
       </c>
     </row>
-    <row r="109" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -15354,7 +17288,7 @@
         <v>32.490001678466797</v>
       </c>
     </row>
-    <row r="110" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -15365,7 +17299,7 @@
         <v>32.029998779296797</v>
       </c>
     </row>
-    <row r="111" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -15376,7 +17310,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhl\Desktop\learningEFL-main\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E9388F11-E026-4C9E-B129-6F1F2DBD48B2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CBF37FC0-B3C0-4511-8157-B5EF07572708}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="17">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -92,6 +92,10 @@
   </si>
   <si>
     <t>efl_err_#5</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>6err</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -10785,6 +10789,1188 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-F271-43CC-B00C-E12C50ED96E3}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="16"/>
+          <c:order val="16"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$R$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent5">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$R$2:$R$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.31047314898982</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>14.9449542889929</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.1866429292472298</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.81971640495737</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.8052437920479201</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.82452854533104</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.74527737061688</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.7141768355278399</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.70239591294792</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.65264026374573</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.5927834700626899</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.56727894096617</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.5480858740533201</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.51706670879558</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.51578530688194</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.46871557584993</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.45378848625596</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.44561307369523</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.4577719945057099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.4618984855663999</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.4456324357135999</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.4315733446437</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.3979761790317999</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.35950867613409</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.35577268888995</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.3299009534204</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.3033782471516999</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.33421483465061</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.32654870391651</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.3084546190917801</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.2658965564837099</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.2475837719668199</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.23550054336049</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.2388342220312401</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.2168659545054099</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.19382004942863</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.2014753268023199</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.19006189874782</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.1809605830793899</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.1689901682221899</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.1509360131944</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.14352915127565</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>1.1596206783489</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>1.12926433040837</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>1.11819516473515</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>1.1008809239241699</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>1.1052132526020999</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>1.0862228490744399</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>1.08541614880227</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>1.0810270214536299</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>1.0792168075112001</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>1.06541130952774</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>1.05911416043141</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>1.0499696010237201</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>1.04076753869937</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>1.0293289312891101</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>1.0446339257203801</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>1.0217902326280099</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>1.01488211732001</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>1.01379675432375</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>1.0164705560465499</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>1.00786795737637</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>1.00778840263937</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>1.00238381487548</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.98159449685151401</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.98233140615900605</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.98721987654448995</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.98948361349713199</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.97676243220165204</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.97599617576902797</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.96645910686748004</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.96732890454067499</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.962095678991572</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.94603355447198101</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.96733752367602699</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.95047959476519495</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.94992245724246704</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-6F29-4A35-B9A3-8198F9220FED}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="17"/>
+          <c:order val="17"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$S$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>6err</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                  <a:lumOff val="20000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$S$2:$S$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>90.139999389648395</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>86.419998168945298</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>81.839996337890597</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.989997863769503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>66.190002441406193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>63.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>61.630001068115199</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>57.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>53.880001068115199</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>52.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.279998779296797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>52.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.810001373291001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.040000915527301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.119998931884702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>48.419998168945298</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47.159999847412102</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.720001220703097</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>47.369998931884702</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47.849998474121001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>45.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>44.189998626708899</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43.880001068115199</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>43.020000457763601</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>44.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42.680000305175703</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>41.830001831054602</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>41.310001373291001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40.020000457763601</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>40.7299995422363</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>39.569999694824197</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>39.680000305175703</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>39.060001373291001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38.4799995422363</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>38.259998321533203</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>37.389999389648402</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>37.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>38.740001678466797</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36.419998168945298</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>36.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>36.2299995422363</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>36.810001373291001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>35.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>34.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>35.330001831054602</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>34.130001068115199</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>34.669998168945298</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>33.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>35.029998779296797</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>34.119998931884702</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>33.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>33.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>34.099998474121001</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>33.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>34.009998321533203</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>33.279998779296797</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32.810001373291001</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>32.569999694824197</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>32.5</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>33.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>32.130001068115199</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>32.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>32.189998626708899</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>32.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>32.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>31.2600002288818</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>32.279998779296797</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>31.819999694824201</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>31.860000610351499</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-6F29-4A35-B9A3-8198F9220FED}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -11833,10 +13019,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Q201"/>
+  <dimension ref="A1:S201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
-      <selection activeCell="T33" sqref="T33"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="O23" sqref="O23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -11847,7 +13033,7 @@
     <col min="12" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -11899,8 +13085,14 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R1">
+        <v>6</v>
+      </c>
+      <c r="S1" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -11952,8 +13144,14 @@
       <c r="Q2" s="1">
         <v>89.269996643066406</v>
       </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R2" s="1">
+        <v>2.31047314898982</v>
+      </c>
+      <c r="S2" s="1">
+        <v>90.139999389648395</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -12005,8 +13203,14 @@
       <c r="Q3" s="1">
         <v>73.370002746582003</v>
       </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R3" s="1">
+        <v>14.9449542889929</v>
+      </c>
+      <c r="S3" s="1">
+        <v>86.419998168945298</v>
+      </c>
+    </row>
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -12058,8 +13262,14 @@
       <c r="Q4" s="1">
         <v>67.269996643066406</v>
       </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R4" s="1">
+        <v>3.1866429292472298</v>
+      </c>
+      <c r="S4" s="1">
+        <v>81.839996337890597</v>
+      </c>
+    </row>
+    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -12111,8 +13321,14 @@
       <c r="Q5" s="1">
         <v>64.059997558593693</v>
       </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R5" s="1">
+        <v>1.81971640495737</v>
+      </c>
+      <c r="S5" s="1">
+        <v>66.989997863769503</v>
+      </c>
+    </row>
+    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -12164,8 +13380,14 @@
       <c r="Q6" s="1">
         <v>62.439998626708899</v>
       </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R6" s="1">
+        <v>1.8052437920479201</v>
+      </c>
+      <c r="S6" s="1">
+        <v>66.190002441406193</v>
+      </c>
+    </row>
+    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -12217,8 +13439,14 @@
       <c r="Q7" s="1">
         <v>59.060001373291001</v>
       </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R7" s="1">
+        <v>1.82452854533104</v>
+      </c>
+      <c r="S7" s="1">
+        <v>63.650001525878899</v>
+      </c>
+    </row>
+    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -12270,8 +13498,14 @@
       <c r="Q8" s="1">
         <v>58.819999694824197</v>
       </c>
-    </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R8" s="1">
+        <v>1.74527737061688</v>
+      </c>
+      <c r="S8" s="1">
+        <v>61.630001068115199</v>
+      </c>
+    </row>
+    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -12323,8 +13557,14 @@
       <c r="Q9" s="1">
         <v>56.599998474121001</v>
       </c>
-    </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R9" s="1">
+        <v>1.7141768355278399</v>
+      </c>
+      <c r="S9" s="1">
+        <v>60.650001525878899</v>
+      </c>
+    </row>
+    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -12376,8 +13616,14 @@
       <c r="Q10" s="1">
         <v>55.049999237060497</v>
       </c>
-    </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R10" s="1">
+        <v>1.70239591294792</v>
+      </c>
+      <c r="S10" s="1">
+        <v>60.549999237060497</v>
+      </c>
+    </row>
+    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -12429,8 +13675,14 @@
       <c r="Q11" s="1">
         <v>52.950000762939403</v>
       </c>
-    </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R11" s="1">
+        <v>1.65264026374573</v>
+      </c>
+      <c r="S11" s="1">
+        <v>57.459999084472599</v>
+      </c>
+    </row>
+    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -12482,8 +13734,14 @@
       <c r="Q12" s="1">
         <v>52.930000305175703</v>
       </c>
-    </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R12" s="1">
+        <v>1.5927834700626899</v>
+      </c>
+      <c r="S12" s="1">
+        <v>53.880001068115199</v>
+      </c>
+    </row>
+    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -12535,8 +13793,14 @@
       <c r="Q13" s="1">
         <v>50.659999847412102</v>
       </c>
-    </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R13" s="1">
+        <v>1.56727894096617</v>
+      </c>
+      <c r="S13" s="1">
+        <v>52.819999694824197</v>
+      </c>
+    </row>
+    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -12588,8 +13852,14 @@
       <c r="Q14" s="1">
         <v>49.819999694824197</v>
       </c>
-    </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R14" s="1">
+        <v>1.5480858740533201</v>
+      </c>
+      <c r="S14" s="1">
+        <v>52.279998779296797</v>
+      </c>
+    </row>
+    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -12641,8 +13911,14 @@
       <c r="Q15" s="1">
         <v>49.560001373291001</v>
       </c>
-    </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R15" s="1">
+        <v>1.51706670879558</v>
+      </c>
+      <c r="S15" s="1">
+        <v>52.299999237060497</v>
+      </c>
+    </row>
+    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -12694,8 +13970,14 @@
       <c r="Q16" s="1">
         <v>48.4799995422363</v>
       </c>
-    </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R16" s="1">
+        <v>1.51578530688194</v>
+      </c>
+      <c r="S16" s="1">
+        <v>52.810001373291001</v>
+      </c>
+    </row>
+    <row r="17" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -12747,8 +14029,14 @@
       <c r="Q17" s="1">
         <v>46.319999694824197</v>
       </c>
-    </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R17" s="1">
+        <v>1.46871557584993</v>
+      </c>
+      <c r="S17" s="1">
+        <v>49.040000915527301</v>
+      </c>
+    </row>
+    <row r="18" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -12800,8 +14088,14 @@
       <c r="Q18" s="1">
         <v>45.520000457763601</v>
       </c>
-    </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R18" s="1">
+        <v>1.45378848625596</v>
+      </c>
+      <c r="S18" s="1">
+        <v>48.119998931884702</v>
+      </c>
+    </row>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -12853,8 +14147,14 @@
       <c r="Q19" s="1">
         <v>44.639999389648402</v>
       </c>
-    </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R19" s="1">
+        <v>1.44561307369523</v>
+      </c>
+      <c r="S19" s="1">
+        <v>48.419998168945298</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -12906,8 +14206,14 @@
       <c r="Q20" s="1">
         <v>44.439998626708899</v>
       </c>
-    </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R20" s="1">
+        <v>1.4577719945057099</v>
+      </c>
+      <c r="S20" s="1">
+        <v>47.159999847412102</v>
+      </c>
+    </row>
+    <row r="21" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -12959,8 +14265,14 @@
       <c r="Q21" s="1">
         <v>43.080001831054602</v>
       </c>
-    </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R21" s="1">
+        <v>1.4618984855663999</v>
+      </c>
+      <c r="S21" s="1">
+        <v>47.720001220703097</v>
+      </c>
+    </row>
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -13012,8 +14324,14 @@
       <c r="Q22" s="1">
         <v>42.119998931884702</v>
       </c>
-    </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R22" s="1">
+        <v>1.4456324357135999</v>
+      </c>
+      <c r="S22" s="1">
+        <v>47.369998931884702</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -13065,8 +14383,14 @@
       <c r="Q23" s="1">
         <v>41.9799995422363</v>
       </c>
-    </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R23" s="1">
+        <v>1.4315733446437</v>
+      </c>
+      <c r="S23" s="1">
+        <v>47.849998474121001</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -13118,8 +14442,14 @@
       <c r="Q24" s="1">
         <v>40.130001068115199</v>
       </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R24" s="1">
+        <v>1.3979761790317999</v>
+      </c>
+      <c r="S24" s="1">
+        <v>46.950000762939403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -13171,8 +14501,14 @@
       <c r="Q25" s="1">
         <v>40.330001831054602</v>
       </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R25" s="1">
+        <v>1.35950867613409</v>
+      </c>
+      <c r="S25" s="1">
+        <v>45.549999237060497</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -13224,8 +14560,14 @@
       <c r="Q26" s="1">
         <v>40.150001525878899</v>
       </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R26" s="1">
+        <v>1.35577268888995</v>
+      </c>
+      <c r="S26" s="1">
+        <v>44.189998626708899</v>
+      </c>
+    </row>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -13277,8 +14619,14 @@
       <c r="Q27" s="1">
         <v>39.830001831054602</v>
       </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R27" s="1">
+        <v>1.3299009534204</v>
+      </c>
+      <c r="S27" s="1">
+        <v>43.880001068115199</v>
+      </c>
+    </row>
+    <row r="28" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -13330,8 +14678,14 @@
       <c r="Q28" s="1">
         <v>39.189998626708899</v>
       </c>
-    </row>
-    <row r="29" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R28" s="1">
+        <v>1.3033782471516999</v>
+      </c>
+      <c r="S28" s="1">
+        <v>43.020000457763601</v>
+      </c>
+    </row>
+    <row r="29" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -13383,8 +14737,14 @@
       <c r="Q29" s="1">
         <v>38.549999237060497</v>
       </c>
-    </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R29" s="1">
+        <v>1.33421483465061</v>
+      </c>
+      <c r="S29" s="1">
+        <v>43.650001525878899</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -13436,8 +14796,14 @@
       <c r="Q30" s="1">
         <v>37.849998474121001</v>
       </c>
-    </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R30" s="1">
+        <v>1.32654870391651</v>
+      </c>
+      <c r="S30" s="1">
+        <v>44.220001220703097</v>
+      </c>
+    </row>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -13489,8 +14855,14 @@
       <c r="Q31" s="1">
         <v>37.029998779296797</v>
       </c>
-    </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R31" s="1">
+        <v>1.3084546190917801</v>
+      </c>
+      <c r="S31" s="1">
+        <v>42.680000305175703</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -13542,8 +14914,14 @@
       <c r="Q32" s="1">
         <v>36.840000152587798</v>
       </c>
-    </row>
-    <row r="33" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R32" s="1">
+        <v>1.2658965564837099</v>
+      </c>
+      <c r="S32" s="1">
+        <v>41.830001831054602</v>
+      </c>
+    </row>
+    <row r="33" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -13595,8 +14973,14 @@
       <c r="Q33" s="1">
         <v>37.180000305175703</v>
       </c>
-    </row>
-    <row r="34" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R33" s="1">
+        <v>1.2475837719668199</v>
+      </c>
+      <c r="S33" s="1">
+        <v>41.310001373291001</v>
+      </c>
+    </row>
+    <row r="34" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -13648,8 +15032,14 @@
       <c r="Q34" s="1">
         <v>36.630001068115199</v>
       </c>
-    </row>
-    <row r="35" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R34" s="1">
+        <v>1.23550054336049</v>
+      </c>
+      <c r="S34" s="1">
+        <v>40.020000457763601</v>
+      </c>
+    </row>
+    <row r="35" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -13701,8 +15091,14 @@
       <c r="Q35" s="1">
         <v>35.520000457763601</v>
       </c>
-    </row>
-    <row r="36" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R35" s="1">
+        <v>1.2388342220312401</v>
+      </c>
+      <c r="S35" s="1">
+        <v>40.7299995422363</v>
+      </c>
+    </row>
+    <row r="36" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -13754,8 +15150,14 @@
       <c r="Q36" s="1">
         <v>35.470001220703097</v>
       </c>
-    </row>
-    <row r="37" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R36" s="1">
+        <v>1.2168659545054099</v>
+      </c>
+      <c r="S36" s="1">
+        <v>39.569999694824197</v>
+      </c>
+    </row>
+    <row r="37" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -13807,8 +15209,14 @@
       <c r="Q37" s="1">
         <v>34.430000305175703</v>
       </c>
-    </row>
-    <row r="38" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R37" s="1">
+        <v>1.19382004942863</v>
+      </c>
+      <c r="S37" s="1">
+        <v>39.680000305175703</v>
+      </c>
+    </row>
+    <row r="38" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -13860,8 +15268,14 @@
       <c r="Q38" s="1">
         <v>34.889999389648402</v>
       </c>
-    </row>
-    <row r="39" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R38" s="1">
+        <v>1.2014753268023199</v>
+      </c>
+      <c r="S38" s="1">
+        <v>39.290000915527301</v>
+      </c>
+    </row>
+    <row r="39" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -13913,8 +15327,14 @@
       <c r="Q39" s="1">
         <v>33.540000915527301</v>
       </c>
-    </row>
-    <row r="40" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R39" s="1">
+        <v>1.19006189874782</v>
+      </c>
+      <c r="S39" s="1">
+        <v>39.060001373291001</v>
+      </c>
+    </row>
+    <row r="40" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -13966,8 +15386,14 @@
       <c r="Q40" s="1">
         <v>34</v>
       </c>
-    </row>
-    <row r="41" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R40" s="1">
+        <v>1.1809605830793899</v>
+      </c>
+      <c r="S40" s="1">
+        <v>38.4799995422363</v>
+      </c>
+    </row>
+    <row r="41" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -14019,8 +15445,14 @@
       <c r="Q41" s="1">
         <v>34.340000152587798</v>
       </c>
-    </row>
-    <row r="42" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R41" s="1">
+        <v>1.1689901682221899</v>
+      </c>
+      <c r="S41" s="1">
+        <v>38.259998321533203</v>
+      </c>
+    </row>
+    <row r="42" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -14072,8 +15504,14 @@
       <c r="Q42" s="1">
         <v>33.290000915527301</v>
       </c>
-    </row>
-    <row r="43" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R42" s="1">
+        <v>1.1509360131944</v>
+      </c>
+      <c r="S42" s="1">
+        <v>37.389999389648402</v>
+      </c>
+    </row>
+    <row r="43" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -14125,8 +15563,14 @@
       <c r="Q43" s="1">
         <v>33.220001220703097</v>
       </c>
-    </row>
-    <row r="44" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R43" s="1">
+        <v>1.14352915127565</v>
+      </c>
+      <c r="S43" s="1">
+        <v>37.299999237060497</v>
+      </c>
+    </row>
+    <row r="44" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -14178,8 +15622,14 @@
       <c r="Q44" s="1">
         <v>33.119998931884702</v>
       </c>
-    </row>
-    <row r="45" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R44" s="1">
+        <v>1.1596206783489</v>
+      </c>
+      <c r="S44" s="1">
+        <v>38.740001678466797</v>
+      </c>
+    </row>
+    <row r="45" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -14231,8 +15681,14 @@
       <c r="Q45" s="1">
         <v>31.899999618530199</v>
       </c>
-    </row>
-    <row r="46" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R45" s="1">
+        <v>1.12926433040837</v>
+      </c>
+      <c r="S45" s="1">
+        <v>36.419998168945298</v>
+      </c>
+    </row>
+    <row r="46" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -14284,8 +15740,14 @@
       <c r="Q46" s="1">
         <v>32.470001220703097</v>
       </c>
-    </row>
-    <row r="47" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R46" s="1">
+        <v>1.11819516473515</v>
+      </c>
+      <c r="S46" s="1">
+        <v>36.599998474121001</v>
+      </c>
+    </row>
+    <row r="47" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -14337,8 +15799,14 @@
       <c r="Q47" s="1">
         <v>33.610000610351499</v>
       </c>
-    </row>
-    <row r="48" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R47" s="1">
+        <v>1.1008809239241699</v>
+      </c>
+      <c r="S47" s="1">
+        <v>36.2299995422363</v>
+      </c>
+    </row>
+    <row r="48" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -14390,8 +15858,14 @@
       <c r="Q48" s="1">
         <v>32.2299995422363</v>
       </c>
-    </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R48" s="1">
+        <v>1.1052132526020999</v>
+      </c>
+      <c r="S48" s="1">
+        <v>36.810001373291001</v>
+      </c>
+    </row>
+    <row r="49" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -14443,8 +15917,14 @@
       <c r="Q49" s="1">
         <v>32.490001678466797</v>
       </c>
-    </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R49" s="1">
+        <v>1.0862228490744399</v>
+      </c>
+      <c r="S49" s="1">
+        <v>35.900001525878899</v>
+      </c>
+    </row>
+    <row r="50" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -14496,8 +15976,14 @@
       <c r="Q50" s="1">
         <v>31.5100002288818</v>
       </c>
-    </row>
-    <row r="51" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R50" s="1">
+        <v>1.08541614880227</v>
+      </c>
+      <c r="S50" s="1">
+        <v>35.209999084472599</v>
+      </c>
+    </row>
+    <row r="51" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -14549,8 +16035,14 @@
       <c r="Q51" s="1">
         <v>31.520000457763601</v>
       </c>
-    </row>
-    <row r="52" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R51" s="1">
+        <v>1.0810270214536299</v>
+      </c>
+      <c r="S51" s="1">
+        <v>35.209999084472599</v>
+      </c>
+    </row>
+    <row r="52" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -14602,8 +16094,14 @@
       <c r="Q52" s="1">
         <v>31.649999618530199</v>
       </c>
-    </row>
-    <row r="53" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R52" s="1">
+        <v>1.0792168075112001</v>
+      </c>
+      <c r="S52" s="1">
+        <v>34.900001525878899</v>
+      </c>
+    </row>
+    <row r="53" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -14655,8 +16153,14 @@
       <c r="Q53" s="1">
         <v>31.340000152587798</v>
       </c>
-    </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R53" s="1">
+        <v>1.06541130952774</v>
+      </c>
+      <c r="S53" s="1">
+        <v>35.330001831054602</v>
+      </c>
+    </row>
+    <row r="54" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -14708,8 +16212,14 @@
       <c r="Q54" s="1">
         <v>31.9300003051757</v>
       </c>
-    </row>
-    <row r="55" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R54" s="1">
+        <v>1.05911416043141</v>
+      </c>
+      <c r="S54" s="1">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="55" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -14761,8 +16271,14 @@
       <c r="Q55" s="1">
         <v>31.090000152587798</v>
       </c>
-    </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R55" s="1">
+        <v>1.0499696010237201</v>
+      </c>
+      <c r="S55" s="1">
+        <v>34.130001068115199</v>
+      </c>
+    </row>
+    <row r="56" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -14814,8 +16330,14 @@
       <c r="Q56" s="1">
         <v>30.440000534057599</v>
       </c>
-    </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R56" s="1">
+        <v>1.04076753869937</v>
+      </c>
+      <c r="S56" s="1">
+        <v>34.669998168945298</v>
+      </c>
+    </row>
+    <row r="57" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -14867,8 +16389,14 @@
       <c r="Q57" s="1">
         <v>30.889999389648398</v>
       </c>
-    </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R57" s="1">
+        <v>1.0293289312891101</v>
+      </c>
+      <c r="S57" s="1">
+        <v>33.659999847412102</v>
+      </c>
+    </row>
+    <row r="58" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -14920,8 +16448,14 @@
       <c r="Q58" s="1">
         <v>30.549999237060501</v>
       </c>
-    </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R58" s="1">
+        <v>1.0446339257203801</v>
+      </c>
+      <c r="S58" s="1">
+        <v>35.029998779296797</v>
+      </c>
+    </row>
+    <row r="59" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -14973,8 +16507,14 @@
       <c r="Q59" s="1">
         <v>30.649999618530199</v>
       </c>
-    </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R59" s="1">
+        <v>1.0217902326280099</v>
+      </c>
+      <c r="S59" s="1">
+        <v>34.119998931884702</v>
+      </c>
+    </row>
+    <row r="60" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -15026,8 +16566,14 @@
       <c r="Q60" s="1">
         <v>30.520000457763601</v>
       </c>
-    </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R60" s="1">
+        <v>1.01488211732001</v>
+      </c>
+      <c r="S60" s="1">
+        <v>33.520000457763601</v>
+      </c>
+    </row>
+    <row r="61" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -15079,8 +16625,14 @@
       <c r="Q61" s="1">
         <v>29.799999237060501</v>
       </c>
-    </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R61" s="1">
+        <v>1.01379675432375</v>
+      </c>
+      <c r="S61" s="1">
+        <v>33.819999694824197</v>
+      </c>
+    </row>
+    <row r="62" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -15132,8 +16684,14 @@
       <c r="Q62" s="1">
         <v>29.9500007629394</v>
       </c>
-    </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R62" s="1">
+        <v>1.0164705560465499</v>
+      </c>
+      <c r="S62" s="1">
+        <v>34.099998474121001</v>
+      </c>
+    </row>
+    <row r="63" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -15185,8 +16743,14 @@
       <c r="Q63" s="1">
         <v>30.0100002288818</v>
       </c>
-    </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R63" s="1">
+        <v>1.00786795737637</v>
+      </c>
+      <c r="S63" s="1">
+        <v>33.650001525878899</v>
+      </c>
+    </row>
+    <row r="64" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -15238,8 +16802,14 @@
       <c r="Q64" s="1">
         <v>29.5</v>
       </c>
-    </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R64" s="1">
+        <v>1.00778840263937</v>
+      </c>
+      <c r="S64" s="1">
+        <v>34.009998321533203</v>
+      </c>
+    </row>
+    <row r="65" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -15291,8 +16861,14 @@
       <c r="Q65" s="1">
         <v>30.030000686645501</v>
       </c>
-    </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R65" s="1">
+        <v>1.00238381487548</v>
+      </c>
+      <c r="S65" s="1">
+        <v>33.279998779296797</v>
+      </c>
+    </row>
+    <row r="66" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -15344,8 +16920,14 @@
       <c r="Q66" s="1">
         <v>29.7299995422363</v>
       </c>
-    </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R66" s="1">
+        <v>0.98159449685151401</v>
+      </c>
+      <c r="S66" s="1">
+        <v>32.810001373291001</v>
+      </c>
+    </row>
+    <row r="67" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -15397,8 +16979,14 @@
       <c r="Q67" s="1">
         <v>29.420000076293899</v>
       </c>
-    </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R67" s="1">
+        <v>0.98233140615900605</v>
+      </c>
+      <c r="S67" s="1">
+        <v>32.569999694824197</v>
+      </c>
+    </row>
+    <row r="68" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -15450,8 +17038,14 @@
       <c r="Q68" s="1">
         <v>29.280000686645501</v>
       </c>
-    </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R68" s="1">
+        <v>0.98721987654448995</v>
+      </c>
+      <c r="S68" s="1">
+        <v>32.5</v>
+      </c>
+    </row>
+    <row r="69" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -15503,8 +17097,14 @@
       <c r="Q69" s="1">
         <v>29.090000152587798</v>
       </c>
-    </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R69" s="1">
+        <v>0.98948361349713199</v>
+      </c>
+      <c r="S69" s="1">
+        <v>33.220001220703097</v>
+      </c>
+    </row>
+    <row r="70" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -15556,8 +17156,14 @@
       <c r="Q70" s="1">
         <v>29.110000610351499</v>
       </c>
-    </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R70" s="1">
+        <v>0.97676243220165204</v>
+      </c>
+      <c r="S70" s="1">
+        <v>32.130001068115199</v>
+      </c>
+    </row>
+    <row r="71" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -15609,8 +17215,14 @@
       <c r="Q71" s="1">
         <v>28.7199993133544</v>
       </c>
-    </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R71" s="1">
+        <v>0.97599617576902797</v>
+      </c>
+      <c r="S71" s="1">
+        <v>32.520000457763601</v>
+      </c>
+    </row>
+    <row r="72" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -15662,8 +17274,14 @@
       <c r="Q72" s="1">
         <v>28.520000457763601</v>
       </c>
-    </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R72" s="1">
+        <v>0.96645910686748004</v>
+      </c>
+      <c r="S72" s="1">
+        <v>32.189998626708899</v>
+      </c>
+    </row>
+    <row r="73" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -15715,8 +17333,14 @@
       <c r="Q73" s="1">
         <v>28.790000915527301</v>
       </c>
-    </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R73" s="1">
+        <v>0.96732890454067499</v>
+      </c>
+      <c r="S73" s="1">
+        <v>32.459999084472599</v>
+      </c>
+    </row>
+    <row r="74" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -15768,8 +17392,14 @@
       <c r="Q74" s="1">
         <v>28.9899997711181</v>
       </c>
-    </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R74" s="1">
+        <v>0.962095678991572</v>
+      </c>
+      <c r="S74" s="1">
+        <v>32.299999237060497</v>
+      </c>
+    </row>
+    <row r="75" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -15821,8 +17451,14 @@
       <c r="Q75" s="1">
         <v>29.159999847412099</v>
       </c>
-    </row>
-    <row r="76" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R75" s="1">
+        <v>0.94603355447198101</v>
+      </c>
+      <c r="S75" s="1">
+        <v>31.2600002288818</v>
+      </c>
+    </row>
+    <row r="76" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -15874,8 +17510,14 @@
       <c r="Q76" s="1">
         <v>29.149999618530199</v>
       </c>
-    </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R76" s="1">
+        <v>0.96733752367602699</v>
+      </c>
+      <c r="S76" s="1">
+        <v>32.279998779296797</v>
+      </c>
+    </row>
+    <row r="77" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -15927,8 +17569,14 @@
       <c r="Q77" s="1">
         <v>28.370000839233398</v>
       </c>
-    </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R77" s="1">
+        <v>0.95047959476519495</v>
+      </c>
+      <c r="S77" s="1">
+        <v>31.819999694824201</v>
+      </c>
+    </row>
+    <row r="78" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -15980,8 +17628,14 @@
       <c r="Q78" s="1">
         <v>28.319999694824201</v>
       </c>
-    </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="R78" s="1">
+        <v>0.94992245724246704</v>
+      </c>
+      <c r="S78" s="1">
+        <v>31.860000610351499</v>
+      </c>
+    </row>
+    <row r="79" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -16034,7 +17688,7 @@
         <v>28.399999618530199</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EDEFE0-4967-49DC-8385-5ED572308067}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C59A7257-C63E-43CF-A8F7-26B1DA0227F4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -6195,6 +6195,772 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="18"/>
+          <c:order val="18"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$T$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$T$2:$T$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.3116255748044101</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2950862425907399</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2907088364765098</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.2959960888905102</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>2.2969519849036102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>2.28843203927301</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>2.29074951645674</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>2.2895091005191599</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>2.2970562041944702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-123C-4794-BEAA-51E8EC36947D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="19"/>
+          <c:order val="19"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$U$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$U$2:$U$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>88.239997863769503</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>85.139999389648395</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>84.870002746582003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>85.910003662109304</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>86.199996948242102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>89.970001220703097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>90.430000305175696</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>88.489997863769503</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>90</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-123C-4794-BEAA-51E8EC36947D}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -7555,7 +8321,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-3BE9-4BCA-896D-F5A3D1387BCD}"/>
                   </c:ext>
@@ -8232,7 +8998,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-0962-44EB-BF38-71D2A2626956}"/>
                   </c:ext>
@@ -8911,7 +9677,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-7CFE-46D9-B6E3-D6DAA6801436}"/>
                   </c:ext>
@@ -9590,7 +10356,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-2BDB-4435-A749-E12964AAA117}"/>
                   </c:ext>
@@ -10269,7 +11035,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-5212-4507-A1F6-D151921DD604}"/>
                   </c:ext>
@@ -10949,7 +11715,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000002-5212-4507-A1F6-D151921DD604}"/>
                   </c:ext>
@@ -11629,7 +12395,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-F271-43CC-B00C-E12C50ED96E3}"/>
                   </c:ext>
@@ -12309,7 +13075,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-6F29-4A35-B9A3-8198F9220FED}"/>
                   </c:ext>
@@ -13352,10 +14118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S201"/>
+  <dimension ref="A1:U201"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="R8" sqref="R8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U12" sqref="U12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -13366,7 +14132,7 @@
     <col min="12" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -13425,7 +14191,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -13483,8 +14249,14 @@
       <c r="S2" s="1">
         <v>90.139999389648395</v>
       </c>
+      <c r="T2" s="1">
+        <v>2.3116255748044101</v>
+      </c>
+      <c r="U2" s="1">
+        <v>88.239997863769503</v>
+      </c>
     </row>
-    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -13542,8 +14314,14 @@
       <c r="S3" s="1">
         <v>86.419998168945298</v>
       </c>
+      <c r="T3" s="1">
+        <v>2.2950862425907399</v>
+      </c>
+      <c r="U3" s="1">
+        <v>85.139999389648395</v>
+      </c>
     </row>
-    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -13601,8 +14379,14 @@
       <c r="S4" s="1">
         <v>81.839996337890597</v>
       </c>
+      <c r="T4" s="1">
+        <v>2.2907088364765098</v>
+      </c>
+      <c r="U4" s="1">
+        <v>84.870002746582003</v>
+      </c>
     </row>
-    <row r="5" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -13660,8 +14444,14 @@
       <c r="S5" s="1">
         <v>66.989997863769503</v>
       </c>
+      <c r="T5" s="1">
+        <v>2.2959960888905102</v>
+      </c>
+      <c r="U5" s="1">
+        <v>85.910003662109304</v>
+      </c>
     </row>
-    <row r="6" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -13719,8 +14509,14 @@
       <c r="S6" s="1">
         <v>66.190002441406193</v>
       </c>
+      <c r="T6" s="1">
+        <v>2.2969519849036102</v>
+      </c>
+      <c r="U6" s="1">
+        <v>86.199996948242102</v>
+      </c>
     </row>
-    <row r="7" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -13778,8 +14574,14 @@
       <c r="S7" s="1">
         <v>63.650001525878899</v>
       </c>
+      <c r="T7" s="1">
+        <v>2.28843203927301</v>
+      </c>
+      <c r="U7" s="1">
+        <v>89.970001220703097</v>
+      </c>
     </row>
-    <row r="8" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -13837,8 +14639,14 @@
       <c r="S8" s="1">
         <v>61.630001068115199</v>
       </c>
+      <c r="T8" s="1">
+        <v>2.29074951645674</v>
+      </c>
+      <c r="U8" s="1">
+        <v>90.430000305175696</v>
+      </c>
     </row>
-    <row r="9" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -13896,8 +14704,14 @@
       <c r="S9" s="1">
         <v>60.650001525878899</v>
       </c>
+      <c r="T9" s="1">
+        <v>2.2895091005191599</v>
+      </c>
+      <c r="U9" s="1">
+        <v>88.489997863769503</v>
+      </c>
     </row>
-    <row r="10" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -13955,8 +14769,14 @@
       <c r="S10" s="1">
         <v>60.549999237060497</v>
       </c>
+      <c r="T10" s="1">
+        <v>2.2970562041944702</v>
+      </c>
+      <c r="U10" s="1">
+        <v>90</v>
+      </c>
     </row>
-    <row r="11" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -14015,7 +14835,7 @@
         <v>57.459999084472599</v>
       </c>
     </row>
-    <row r="12" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -14074,7 +14894,7 @@
         <v>53.880001068115199</v>
       </c>
     </row>
-    <row r="13" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -14133,7 +14953,7 @@
         <v>52.819999694824197</v>
       </c>
     </row>
-    <row r="14" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -14192,7 +15012,7 @@
         <v>52.279998779296797</v>
       </c>
     </row>
-    <row r="15" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -14251,7 +15071,7 @@
         <v>52.299999237060497</v>
       </c>
     </row>
-    <row r="16" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18D6B8A8-387A-47B8-BDDB-9761F7B9DC77}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D8CE59-2166-4A3B-83EE-405DE98BA575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="21" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -108,6 +108,10 @@
   </si>
   <si>
     <t>efl_err_#7</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_err_#8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6862,6 +6866,964 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="20"/>
+          <c:order val="20"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$V$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$V$2:$V$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.3118272662921999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>3.4096624927156198</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.2255185941222302</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>2.1484952671512598</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.9838861432045101</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.9226613804033601</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.87466321477464</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.83673457279326</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.8337525471000899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.7987313430020699</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.7616838262339301</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.71014951368805</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.6990135596815901</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.70388853777745</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.7226443321082201</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.7140384813782501</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.6597551912259101</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.6444089002669899</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.6440516019322999</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.59104165074172</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.5605566106784099</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.5496770006835801</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.5863628797470299</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.54360637619237</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.5342984806959701</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.5153854515901699</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.50510189183958</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.5065422718691901</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.47511954064581</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.44132233577169</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.4544398989647001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.4224430975640601</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.42085176060913</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.42039249808924</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.40915039238656</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.44346351760208</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.45211171952022</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.4359574082550699</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.3967130419554901</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.3748181610350301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-A245-46B4-BC53-6837F2B92F4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="21"/>
+          <c:order val="21"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$W$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efl_err_#8</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$W$2:$W$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>89.319999694824205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>82.970001220703097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>78.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>77.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>70.669998168945298</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>69.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>67.949996948242102</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>67.269996643066406</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>65.569999694824205</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>64.120002746582003</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>62.389999389648402</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>60.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>61.270000457763601</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>59.930000305175703</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>61.880001068115199</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>61.610000610351499</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>59.639999389648402</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>59.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>58.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>57.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>56.540000915527301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>56.409999847412102</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>57.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>55.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>55.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>54.610000610351499</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>53.180000305175703</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>54.009998321533203</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>51.779998779296797</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>50.7299995422363</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>50.450000762939403</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>49.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>49.430000305175703</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>50.189998626708899</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>49.349998474121001</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>50.849998474121001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>50.540000915527301</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>50.630001068115199</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>48.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>48.75</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-A245-46B4-BC53-6837F2B92F4F}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -7558,7 +8520,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$1</c15:sqref>
@@ -7593,7 +8555,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -7908,7 +8870,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$2:$D$101</c15:sqref>
@@ -8235,7 +9197,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$1</c15:sqref>
@@ -8270,7 +9232,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -8585,7 +9547,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$2:$F$101</c15:sqref>
@@ -8912,7 +9874,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$1</c15:sqref>
@@ -8949,7 +9911,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -9264,7 +10226,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$2:$H$101</c15:sqref>
@@ -9591,7 +10553,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$1</c15:sqref>
@@ -9628,7 +10590,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -9943,7 +10905,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$101</c15:sqref>
@@ -10270,7 +11232,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$1</c15:sqref>
@@ -10307,7 +11269,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -10622,7 +11584,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$2:$L$101</c15:sqref>
@@ -10949,7 +11911,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$1</c15:sqref>
@@ -10987,7 +11949,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -11302,7 +12264,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$2:$N$101</c15:sqref>
@@ -11629,7 +12591,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$1</c15:sqref>
@@ -11667,7 +12629,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -11982,7 +12944,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$2:$P$101</c15:sqref>
@@ -12309,7 +13271,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$R$1</c15:sqref>
@@ -12347,7 +13309,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -12662,7 +13624,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$R$2:$R$101</c15:sqref>
@@ -13655,7 +14617,7 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-123C-4794-BEAA-51E8EC36947D}"/>
                   </c:ext>
@@ -14396,15 +15358,15 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>1</xdr:col>
-      <xdr:colOff>857248</xdr:colOff>
-      <xdr:row>4</xdr:row>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>657223</xdr:colOff>
+      <xdr:row>3</xdr:row>
       <xdr:rowOff>57149</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>371475</xdr:colOff>
-      <xdr:row>33</xdr:row>
+      <xdr:col>21</xdr:col>
+      <xdr:colOff>619125</xdr:colOff>
+      <xdr:row>32</xdr:row>
       <xdr:rowOff>104775</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
@@ -14698,10 +15660,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:U201"/>
+  <dimension ref="A1:W201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="Y9" sqref="Y9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -14712,7 +15674,7 @@
     <col min="12" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -14776,8 +15738,14 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
+      <c r="V1">
+        <v>8</v>
+      </c>
+      <c r="W1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -14841,8 +15809,14 @@
       <c r="U2" s="1">
         <v>88.239997863769503</v>
       </c>
+      <c r="V2" s="1">
+        <v>2.3118272662921999</v>
+      </c>
+      <c r="W2" s="1">
+        <v>89.319999694824205</v>
+      </c>
     </row>
-    <row r="3" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -14906,8 +15880,14 @@
       <c r="U3" s="1">
         <v>85.139999389648395</v>
       </c>
+      <c r="V3" s="1">
+        <v>3.4096624927156198</v>
+      </c>
+      <c r="W3" s="1">
+        <v>82.970001220703097</v>
+      </c>
     </row>
-    <row r="4" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -14971,8 +15951,14 @@
       <c r="U4" s="1">
         <v>84.870002746582003</v>
       </c>
+      <c r="V4" s="1">
+        <v>3.2255185941222302</v>
+      </c>
+      <c r="W4" s="1">
+        <v>78.459999084472599</v>
+      </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -15036,8 +16022,14 @@
       <c r="U5" s="1">
         <v>85.910003662109304</v>
       </c>
+      <c r="V5" s="1">
+        <v>2.1484952671512598</v>
+      </c>
+      <c r="W5" s="1">
+        <v>77.459999084472599</v>
+      </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -15101,8 +16093,14 @@
       <c r="U6" s="1">
         <v>86.199996948242102</v>
       </c>
+      <c r="V6" s="1">
+        <v>1.9838861432045101</v>
+      </c>
+      <c r="W6" s="1">
+        <v>70.669998168945298</v>
+      </c>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -15166,8 +16164,14 @@
       <c r="U7" s="1">
         <v>89.970001220703097</v>
       </c>
+      <c r="V7" s="1">
+        <v>1.9226613804033601</v>
+      </c>
+      <c r="W7" s="1">
+        <v>69.220001220703097</v>
+      </c>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -15231,8 +16235,14 @@
       <c r="U8" s="1">
         <v>90.430000305175696</v>
       </c>
+      <c r="V8" s="1">
+        <v>1.87466321477464</v>
+      </c>
+      <c r="W8" s="1">
+        <v>67.949996948242102</v>
+      </c>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -15296,8 +16306,14 @@
       <c r="U9" s="1">
         <v>88.489997863769503</v>
       </c>
+      <c r="V9" s="1">
+        <v>1.83673457279326</v>
+      </c>
+      <c r="W9" s="1">
+        <v>67.269996643066406</v>
+      </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -15361,8 +16377,14 @@
       <c r="U10" s="1">
         <v>90</v>
       </c>
+      <c r="V10" s="1">
+        <v>1.8337525471000899</v>
+      </c>
+      <c r="W10" s="1">
+        <v>65.569999694824205</v>
+      </c>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -15426,8 +16448,14 @@
       <c r="U11" s="1">
         <v>90.040000915527301</v>
       </c>
+      <c r="V11" s="1">
+        <v>1.7987313430020699</v>
+      </c>
+      <c r="W11" s="1">
+        <v>64.120002746582003</v>
+      </c>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -15491,8 +16519,14 @@
       <c r="U12" s="1">
         <v>82.370002746582003</v>
       </c>
+      <c r="V12" s="1">
+        <v>1.7616838262339301</v>
+      </c>
+      <c r="W12" s="1">
+        <v>62.389999389648402</v>
+      </c>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -15556,8 +16590,14 @@
       <c r="U13" s="1">
         <v>89.669998168945298</v>
       </c>
+      <c r="V13" s="1">
+        <v>1.71014951368805</v>
+      </c>
+      <c r="W13" s="1">
+        <v>60.340000152587798</v>
+      </c>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -15621,8 +16661,14 @@
       <c r="U14" s="1">
         <v>82.559997558593693</v>
       </c>
+      <c r="V14" s="1">
+        <v>1.6990135596815901</v>
+      </c>
+      <c r="W14" s="1">
+        <v>61.270000457763601</v>
+      </c>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -15686,8 +16732,14 @@
       <c r="U15" s="1">
         <v>90.069999694824205</v>
       </c>
+      <c r="V15" s="1">
+        <v>1.70388853777745</v>
+      </c>
+      <c r="W15" s="1">
+        <v>59.930000305175703</v>
+      </c>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -15751,8 +16803,14 @@
       <c r="U16" s="1">
         <v>89.75</v>
       </c>
+      <c r="V16" s="1">
+        <v>1.7226443321082201</v>
+      </c>
+      <c r="W16" s="1">
+        <v>61.880001068115199</v>
+      </c>
     </row>
-    <row r="17" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -15816,8 +16874,14 @@
       <c r="U17" s="1">
         <v>90</v>
       </c>
+      <c r="V17" s="1">
+        <v>1.7140384813782501</v>
+      </c>
+      <c r="W17" s="1">
+        <v>61.610000610351499</v>
+      </c>
     </row>
-    <row r="18" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -15881,8 +16945,14 @@
       <c r="U18" s="1">
         <v>90.059997558593693</v>
       </c>
+      <c r="V18" s="1">
+        <v>1.6597551912259101</v>
+      </c>
+      <c r="W18" s="1">
+        <v>59.639999389648402</v>
+      </c>
     </row>
-    <row r="19" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -15946,8 +17016,14 @@
       <c r="U19" s="1">
         <v>87.410003662109304</v>
       </c>
+      <c r="V19" s="1">
+        <v>1.6444089002669899</v>
+      </c>
+      <c r="W19" s="1">
+        <v>59.290000915527301</v>
+      </c>
     </row>
-    <row r="20" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -16011,8 +17087,14 @@
       <c r="U20" s="1">
         <v>86.319999694824205</v>
       </c>
+      <c r="V20" s="1">
+        <v>1.6440516019322999</v>
+      </c>
+      <c r="W20" s="1">
+        <v>58.549999237060497</v>
+      </c>
     </row>
-    <row r="21" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -16076,8 +17158,14 @@
       <c r="U21" s="1">
         <v>82.650001525878906</v>
       </c>
+      <c r="V21" s="1">
+        <v>1.59104165074172</v>
+      </c>
+      <c r="W21" s="1">
+        <v>57.439998626708899</v>
+      </c>
     </row>
-    <row r="22" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -16141,8 +17229,14 @@
       <c r="U22" s="1">
         <v>85.010002136230398</v>
       </c>
+      <c r="V22" s="1">
+        <v>1.5605566106784099</v>
+      </c>
+      <c r="W22" s="1">
+        <v>56.540000915527301</v>
+      </c>
     </row>
-    <row r="23" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -16206,8 +17300,14 @@
       <c r="U23" s="1">
         <v>82.029998779296804</v>
       </c>
+      <c r="V23" s="1">
+        <v>1.5496770006835801</v>
+      </c>
+      <c r="W23" s="1">
+        <v>56.409999847412102</v>
+      </c>
     </row>
-    <row r="24" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -16271,8 +17371,14 @@
       <c r="U24" s="1">
         <v>82.489997863769503</v>
       </c>
+      <c r="V24" s="1">
+        <v>1.5863628797470299</v>
+      </c>
+      <c r="W24" s="1">
+        <v>57.150001525878899</v>
+      </c>
     </row>
-    <row r="25" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -16336,8 +17442,14 @@
       <c r="U25" s="1">
         <v>89.769996643066406</v>
       </c>
+      <c r="V25" s="1">
+        <v>1.54360637619237</v>
+      </c>
+      <c r="W25" s="1">
+        <v>55.340000152587798</v>
+      </c>
     </row>
-    <row r="26" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -16401,8 +17513,14 @@
       <c r="U26" s="1">
         <v>89.669998168945298</v>
       </c>
+      <c r="V26" s="1">
+        <v>1.5342984806959701</v>
+      </c>
+      <c r="W26" s="1">
+        <v>55.299999237060497</v>
+      </c>
     </row>
-    <row r="27" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -16466,8 +17584,14 @@
       <c r="U27" s="1">
         <v>83.989997863769503</v>
       </c>
+      <c r="V27" s="1">
+        <v>1.5153854515901699</v>
+      </c>
+      <c r="W27" s="1">
+        <v>54.610000610351499</v>
+      </c>
     </row>
-    <row r="28" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -16531,8 +17655,14 @@
       <c r="U28" s="1">
         <v>90</v>
       </c>
+      <c r="V28" s="1">
+        <v>1.50510189183958</v>
+      </c>
+      <c r="W28" s="1">
+        <v>53.180000305175703</v>
+      </c>
     </row>
-    <row r="29" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -16596,8 +17726,14 @@
       <c r="U29" s="1">
         <v>89.879997253417898</v>
       </c>
+      <c r="V29" s="1">
+        <v>1.5065422718691901</v>
+      </c>
+      <c r="W29" s="1">
+        <v>54.009998321533203</v>
+      </c>
     </row>
-    <row r="30" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -16661,8 +17797,14 @@
       <c r="U30" s="1">
         <v>82.580001831054602</v>
       </c>
+      <c r="V30" s="1">
+        <v>1.47511954064581</v>
+      </c>
+      <c r="W30" s="1">
+        <v>51.779998779296797</v>
+      </c>
     </row>
-    <row r="31" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -16726,8 +17868,14 @@
       <c r="U31" s="1">
         <v>84.300003051757798</v>
       </c>
+      <c r="V31" s="1">
+        <v>1.44132233577169</v>
+      </c>
+      <c r="W31" s="1">
+        <v>50.7299995422363</v>
+      </c>
     </row>
-    <row r="32" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -16791,8 +17939,14 @@
       <c r="U32" s="1">
         <v>84.239997863769503</v>
       </c>
+      <c r="V32" s="1">
+        <v>1.4544398989647001</v>
+      </c>
+      <c r="W32" s="1">
+        <v>50.450000762939403</v>
+      </c>
     </row>
-    <row r="33" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -16856,8 +18010,14 @@
       <c r="U33" s="1">
         <v>89.959999084472599</v>
       </c>
+      <c r="V33" s="1">
+        <v>1.4224430975640601</v>
+      </c>
+      <c r="W33" s="1">
+        <v>49.340000152587798</v>
+      </c>
     </row>
-    <row r="34" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -16921,8 +18081,14 @@
       <c r="U34" s="1">
         <v>89.459999084472599</v>
       </c>
+      <c r="V34" s="1">
+        <v>1.42085176060913</v>
+      </c>
+      <c r="W34" s="1">
+        <v>49.430000305175703</v>
+      </c>
     </row>
-    <row r="35" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -16986,8 +18152,14 @@
       <c r="U35" s="1">
         <v>89.989997863769503</v>
       </c>
+      <c r="V35" s="1">
+        <v>1.42039249808924</v>
+      </c>
+      <c r="W35" s="1">
+        <v>50.189998626708899</v>
+      </c>
     </row>
-    <row r="36" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -17051,8 +18223,14 @@
       <c r="U36" s="1">
         <v>83.099998474121094</v>
       </c>
+      <c r="V36" s="1">
+        <v>1.40915039238656</v>
+      </c>
+      <c r="W36" s="1">
+        <v>49.349998474121001</v>
+      </c>
     </row>
-    <row r="37" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -17116,8 +18294,14 @@
       <c r="U37" s="1">
         <v>89.75</v>
       </c>
+      <c r="V37" s="1">
+        <v>1.44346351760208</v>
+      </c>
+      <c r="W37" s="1">
+        <v>50.849998474121001</v>
+      </c>
     </row>
-    <row r="38" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -17181,8 +18365,14 @@
       <c r="U38" s="1">
         <v>82.529998779296804</v>
       </c>
+      <c r="V38" s="1">
+        <v>1.45211171952022</v>
+      </c>
+      <c r="W38" s="1">
+        <v>50.540000915527301</v>
+      </c>
     </row>
-    <row r="39" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -17246,8 +18436,14 @@
       <c r="U39" s="1">
         <v>82.129997253417898</v>
       </c>
+      <c r="V39" s="1">
+        <v>1.4359574082550699</v>
+      </c>
+      <c r="W39" s="1">
+        <v>50.630001068115199</v>
+      </c>
     </row>
-    <row r="40" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -17311,8 +18507,14 @@
       <c r="U40" s="1">
         <v>83.080001831054602</v>
       </c>
+      <c r="V40" s="1">
+        <v>1.3967130419554901</v>
+      </c>
+      <c r="W40" s="1">
+        <v>48.439998626708899</v>
+      </c>
     </row>
-    <row r="41" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -17376,8 +18578,14 @@
       <c r="U41" s="1">
         <v>89.25</v>
       </c>
+      <c r="V41" s="1">
+        <v>1.3748181610350301</v>
+      </c>
+      <c r="W41" s="1">
+        <v>48.75</v>
+      </c>
     </row>
-    <row r="42" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -17442,7 +18650,7 @@
         <v>83.230003356933594</v>
       </c>
     </row>
-    <row r="43" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -17507,7 +18715,7 @@
         <v>89.779998779296804</v>
       </c>
     </row>
-    <row r="44" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -17572,7 +18780,7 @@
         <v>89.75</v>
       </c>
     </row>
-    <row r="45" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -17637,7 +18845,7 @@
         <v>76.160003662109304</v>
       </c>
     </row>
-    <row r="46" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -17702,7 +18910,7 @@
         <v>81.849998474121094</v>
       </c>
     </row>
-    <row r="47" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -17767,7 +18975,7 @@
         <v>90.199996948242102</v>
       </c>
     </row>
-    <row r="48" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{79D8CE59-2166-4A3B-83EE-405DE98BA575}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2244562-277D-434C-9A3D-501213DF66C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -112,6 +112,10 @@
   </si>
   <si>
     <t>efl_err_#8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_loss_#8</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -6867,485 +6871,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="20"/>
-          <c:order val="20"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$V$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-                <c:pt idx="0">
-                  <c:v>8</c:v>
-                </c:pt>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent3">
-                  <a:lumMod val="80000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$V$2:$V$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>2.3118272662921999</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>3.4096624927156198</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>3.2255185941222302</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>2.1484952671512598</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.9838861432045101</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.9226613804033601</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.87466321477464</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.83673457279326</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.8337525471000899</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.7987313430020699</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.7616838262339301</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.71014951368805</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.6990135596815901</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.70388853777745</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.7226443321082201</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.7140384813782501</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.6597551912259101</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.6444089002669899</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.6440516019322999</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.59104165074172</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.5605566106784099</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.5496770006835801</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.5863628797470299</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.54360637619237</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.5342984806959701</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.5153854515901699</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.50510189183958</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.5065422718691901</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.47511954064581</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.44132233577169</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.4544398989647001</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.4224430975640601</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.42085176060913</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.42039249808924</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.40915039238656</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.44346351760208</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.45211171952022</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.4359574082550699</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.3967130419554901</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.3748181610350301</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-A245-46B4-BC53-6837F2B92F4F}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="21"/>
           <c:order val="21"/>
           <c:tx>
@@ -7813,6 +7338,186 @@
                 </c:pt>
                 <c:pt idx="39">
                   <c:v>48.75</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>47.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>47.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>47.080001831054602</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>46.540000915527301</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>46.319999694824197</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>43.990001678466797</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>44.909999847412102</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>44.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>44.069999694824197</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>43.639999389648402</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>43.060001373291001</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>43.639999389648402</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>43.009998321533203</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>43.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>42.75</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>44.770000457763601</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>42.159999847412102</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>41.529998779296797</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>41.330001831054602</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>41.159999847412102</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>42.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>42.110000610351499</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>41.419998168945298</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>41.779998779296797</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>42.330001831054602</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>41.2299995422363</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>40.490001678466797</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>40.779998779296797</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>40.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>40.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>42.040000915527301</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>39.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>39.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>39.939998626708899</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>39.770000457763601</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>39.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>39.139999389648402</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>39.119998931884702</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>39.669998168945298</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>38.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>37.990001678466797</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>40.009998321533203</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>39.990001678466797</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>39.669998168945298</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>39.189998626708899</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>38.049999237060497</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>38.590000152587798</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>38.490001678466797</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>37.930000305175703</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>39.029998779296797</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>39.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>38.2299995422363</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>38.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>38.169998168945298</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>37.25</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>36.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>41.419998168945298</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>42.869998931884702</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -8520,7 +8225,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$1</c15:sqref>
@@ -8555,7 +8260,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -8870,7 +8575,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$2:$D$101</c15:sqref>
@@ -9197,7 +8902,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$1</c15:sqref>
@@ -9232,7 +8937,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -9547,7 +9252,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$2:$F$101</c15:sqref>
@@ -9874,7 +9579,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$1</c15:sqref>
@@ -9911,7 +9616,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -10226,7 +9931,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$2:$H$101</c15:sqref>
@@ -10553,7 +10258,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$1</c15:sqref>
@@ -10590,7 +10295,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -10905,7 +10610,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$101</c15:sqref>
@@ -11232,7 +10937,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$1</c15:sqref>
@@ -11269,7 +10974,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -11584,7 +11289,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$2:$L$101</c15:sqref>
@@ -11911,7 +11616,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$1</c15:sqref>
@@ -11949,7 +11654,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -12264,7 +11969,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$2:$N$101</c15:sqref>
@@ -12591,7 +12296,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$1</c15:sqref>
@@ -12629,7 +12334,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -12944,7 +12649,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$2:$P$101</c15:sqref>
@@ -13271,7 +12976,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$R$1</c15:sqref>
@@ -13309,7 +13014,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -13624,7 +13329,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$R$2:$R$101</c15:sqref>
@@ -13951,7 +13656,7 @@
                 <c:order val="18"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$T$1</c15:sqref>
@@ -13970,6 +13675,685 @@
                   <a:ln w="34925" cap="rnd">
                     <a:solidFill>
                       <a:schemeClr val="accent1">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>99</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$T$2:$T$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>2.3116255748044101</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.2950862425907399</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.2907088364765098</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.2959960888905102</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>2.2969519849036102</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>2.28843203927301</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>2.29074951645674</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>2.2895091005191599</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>2.2970562041944702</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>2.2943689580176199</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>2.29194007709527</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>2.2986381630988602</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>2.2897382329223999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>2.29153521349475</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>2.2973091663069001</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>2.2824385211725899</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>2.2972427067483299</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>2.28898881651034</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>2.2927480214720299</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>2.28913089879758</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>2.2866516659973501</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>2.2926302457311301</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>2.2943277571611298</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>2.30111115145835</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>2.2936488245702802</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>2.2848572305812902</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>2.2943683642490602</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>2.2841645896814402</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>2.2924416338562201</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>2.2925418683677701</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>2.2940314848711498</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>2.2940288668225501</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>2.2894345757308199</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>2.2980457187458199</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>2.29164932032299</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>2.2883720732038899</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>2.2896845917792801</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>2.2859255903086</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>2.2906021859235799</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>2.2883932074164099</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>2.2880051591593702</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>2.2887585557949701</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>2.2892150165169101</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>2.2816543503172002</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>2.2834160980904898</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>2.2932274296025499</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>2.2943527227753999</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>2.2899633365072201</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>2.2853407449783001</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>2.28137746434302</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>2.2856721103570998</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>2.2954716485017399</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>2.28326614647154</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>2.2852297284800498</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>2.2915822806631598</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>2.2921060741327302</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>2.2956798927039799</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>2.2953082846987698</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>2.28774468610241</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>2.2952687178447699</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>2.2899525211115499</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>2.2940483305864201</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>2.2952352086449799</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>2.2822056560759298</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>2.2872522636583601</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>2.28241291319488</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>2.2832331368877599</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>2.2799731591704502</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>2.2729910498211998</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>2.2807608470795202</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>2.2776908236704001</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>2.2682063458072101</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>2.2728902245782701</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>2.2750644304190399</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>2.2727403352215001</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>2.2777608063570201</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>2.2620425163560598</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>2.2776613402518402</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>2.28329056235635</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>2.2919236611408702</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>2.2934524253675099</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>2.29576706278855</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>2.2789334780091601</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>2.2866947742024801</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>2.29311739259464</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>2.2857086081413698</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>2.2847889213804899</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>2.28644003837731</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>2.2895602238406001</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>2.28697326077017</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>2.2762492766046201</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>2.2964897839126999</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>2.28893327409294</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>2.28745620873323</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>2.2937011005012802</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>2.2922833983305901</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>2.2850156999697302</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>2.2876790845469999</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>2.28627385303473</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>2.2862969264862598</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-123C-4794-BEAA-51E8EC36947D}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="20"/>
+                <c:order val="20"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$V$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>efl_loss_#8</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
                         <a:lumMod val="80000"/>
                       </a:schemeClr>
                     </a:solidFill>
@@ -14306,7 +14690,7 @@
                     <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
-                          <c15:sqref>Sheet1!$T$2:$T$101</c15:sqref>
+                          <c15:sqref>Sheet1!$V$2:$V$101</c15:sqref>
                         </c15:formulaRef>
                       </c:ext>
                     </c:extLst>
@@ -14314,312 +14698,312 @@
                       <c:formatCode>General</c:formatCode>
                       <c:ptCount val="100"/>
                       <c:pt idx="0">
-                        <c:v>2.3116255748044101</c:v>
+                        <c:v>2.3118272662921999</c:v>
                       </c:pt>
                       <c:pt idx="1">
-                        <c:v>2.2950862425907399</c:v>
+                        <c:v>3.4096624927156198</c:v>
                       </c:pt>
                       <c:pt idx="2">
-                        <c:v>2.2907088364765098</c:v>
+                        <c:v>3.2255185941222302</c:v>
                       </c:pt>
                       <c:pt idx="3">
-                        <c:v>2.2959960888905102</c:v>
+                        <c:v>2.1484952671512598</c:v>
                       </c:pt>
                       <c:pt idx="4">
-                        <c:v>2.2969519849036102</c:v>
+                        <c:v>1.9838861432045101</c:v>
                       </c:pt>
                       <c:pt idx="5">
-                        <c:v>2.28843203927301</c:v>
+                        <c:v>1.9226613804033601</c:v>
                       </c:pt>
                       <c:pt idx="6">
-                        <c:v>2.29074951645674</c:v>
+                        <c:v>1.87466321477464</c:v>
                       </c:pt>
                       <c:pt idx="7">
-                        <c:v>2.2895091005191599</c:v>
+                        <c:v>1.83673457279326</c:v>
                       </c:pt>
                       <c:pt idx="8">
-                        <c:v>2.2970562041944702</c:v>
+                        <c:v>1.8337525471000899</c:v>
                       </c:pt>
                       <c:pt idx="9">
-                        <c:v>2.2943689580176199</c:v>
+                        <c:v>1.7987313430020699</c:v>
                       </c:pt>
                       <c:pt idx="10">
-                        <c:v>2.29194007709527</c:v>
+                        <c:v>1.7616838262339301</c:v>
                       </c:pt>
                       <c:pt idx="11">
-                        <c:v>2.2986381630988602</c:v>
+                        <c:v>1.71014951368805</c:v>
                       </c:pt>
                       <c:pt idx="12">
-                        <c:v>2.2897382329223999</c:v>
+                        <c:v>1.6990135596815901</c:v>
                       </c:pt>
                       <c:pt idx="13">
-                        <c:v>2.29153521349475</c:v>
+                        <c:v>1.70388853777745</c:v>
                       </c:pt>
                       <c:pt idx="14">
-                        <c:v>2.2973091663069001</c:v>
+                        <c:v>1.7226443321082201</c:v>
                       </c:pt>
                       <c:pt idx="15">
-                        <c:v>2.2824385211725899</c:v>
+                        <c:v>1.7140384813782501</c:v>
                       </c:pt>
                       <c:pt idx="16">
-                        <c:v>2.2972427067483299</c:v>
+                        <c:v>1.6597551912259101</c:v>
                       </c:pt>
                       <c:pt idx="17">
-                        <c:v>2.28898881651034</c:v>
+                        <c:v>1.6444089002669899</c:v>
                       </c:pt>
                       <c:pt idx="18">
-                        <c:v>2.2927480214720299</c:v>
+                        <c:v>1.6440516019322999</c:v>
                       </c:pt>
                       <c:pt idx="19">
-                        <c:v>2.28913089879758</c:v>
+                        <c:v>1.59104165074172</c:v>
                       </c:pt>
                       <c:pt idx="20">
-                        <c:v>2.2866516659973501</c:v>
+                        <c:v>1.5605566106784099</c:v>
                       </c:pt>
                       <c:pt idx="21">
-                        <c:v>2.2926302457311301</c:v>
+                        <c:v>1.5496770006835801</c:v>
                       </c:pt>
                       <c:pt idx="22">
-                        <c:v>2.2943277571611298</c:v>
+                        <c:v>1.5863628797470299</c:v>
                       </c:pt>
                       <c:pt idx="23">
-                        <c:v>2.30111115145835</c:v>
+                        <c:v>1.54360637619237</c:v>
                       </c:pt>
                       <c:pt idx="24">
-                        <c:v>2.2936488245702802</c:v>
+                        <c:v>1.5342984806959701</c:v>
                       </c:pt>
                       <c:pt idx="25">
-                        <c:v>2.2848572305812902</c:v>
+                        <c:v>1.5153854515901699</c:v>
                       </c:pt>
                       <c:pt idx="26">
-                        <c:v>2.2943683642490602</c:v>
+                        <c:v>1.50510189183958</c:v>
                       </c:pt>
                       <c:pt idx="27">
-                        <c:v>2.2841645896814402</c:v>
+                        <c:v>1.5065422718691901</c:v>
                       </c:pt>
                       <c:pt idx="28">
-                        <c:v>2.2924416338562201</c:v>
+                        <c:v>1.47511954064581</c:v>
                       </c:pt>
                       <c:pt idx="29">
-                        <c:v>2.2925418683677701</c:v>
+                        <c:v>1.44132233577169</c:v>
                       </c:pt>
                       <c:pt idx="30">
-                        <c:v>2.2940314848711498</c:v>
+                        <c:v>1.4544398989647001</c:v>
                       </c:pt>
                       <c:pt idx="31">
-                        <c:v>2.2940288668225501</c:v>
+                        <c:v>1.4224430975640601</c:v>
                       </c:pt>
                       <c:pt idx="32">
-                        <c:v>2.2894345757308199</c:v>
+                        <c:v>1.42085176060913</c:v>
                       </c:pt>
                       <c:pt idx="33">
-                        <c:v>2.2980457187458199</c:v>
+                        <c:v>1.42039249808924</c:v>
                       </c:pt>
                       <c:pt idx="34">
-                        <c:v>2.29164932032299</c:v>
+                        <c:v>1.40915039238656</c:v>
                       </c:pt>
                       <c:pt idx="35">
-                        <c:v>2.2883720732038899</c:v>
+                        <c:v>1.44346351760208</c:v>
                       </c:pt>
                       <c:pt idx="36">
-                        <c:v>2.2896845917792801</c:v>
+                        <c:v>1.45211171952022</c:v>
                       </c:pt>
                       <c:pt idx="37">
-                        <c:v>2.2859255903086</c:v>
+                        <c:v>1.4359574082550699</c:v>
                       </c:pt>
                       <c:pt idx="38">
-                        <c:v>2.2906021859235799</c:v>
+                        <c:v>1.3967130419554901</c:v>
                       </c:pt>
                       <c:pt idx="39">
-                        <c:v>2.2883932074164099</c:v>
+                        <c:v>1.3748181610350301</c:v>
                       </c:pt>
                       <c:pt idx="40">
-                        <c:v>2.2880051591593702</c:v>
+                        <c:v>1.3490090567594799</c:v>
                       </c:pt>
                       <c:pt idx="41">
-                        <c:v>2.2887585557949701</c:v>
+                        <c:v>1.3353984424262999</c:v>
                       </c:pt>
                       <c:pt idx="42">
-                        <c:v>2.2892150165169101</c:v>
+                        <c:v>1.3454479973786899</c:v>
                       </c:pt>
                       <c:pt idx="43">
-                        <c:v>2.2816543503172002</c:v>
+                        <c:v>1.3163192363301599</c:v>
                       </c:pt>
                       <c:pt idx="44">
-                        <c:v>2.2834160980904898</c:v>
+                        <c:v>1.31459881014125</c:v>
                       </c:pt>
                       <c:pt idx="45">
-                        <c:v>2.2932274296025499</c:v>
+                        <c:v>1.3075804156102899</c:v>
                       </c:pt>
                       <c:pt idx="46">
-                        <c:v>2.2943527227753999</c:v>
+                        <c:v>1.2939872437981199</c:v>
                       </c:pt>
                       <c:pt idx="47">
-                        <c:v>2.2899633365072201</c:v>
+                        <c:v>1.2576481058339399</c:v>
                       </c:pt>
                       <c:pt idx="48">
-                        <c:v>2.2853407449783001</c:v>
+                        <c:v>1.2729438269973501</c:v>
                       </c:pt>
                       <c:pt idx="49">
-                        <c:v>2.28137746434302</c:v>
+                        <c:v>1.2617215434457001</c:v>
                       </c:pt>
                       <c:pt idx="50">
-                        <c:v>2.2856721103570998</c:v>
+                        <c:v>1.24790410517127</c:v>
                       </c:pt>
                       <c:pt idx="51">
-                        <c:v>2.2954716485017399</c:v>
+                        <c:v>1.2304412851667701</c:v>
                       </c:pt>
                       <c:pt idx="52">
-                        <c:v>2.28326614647154</c:v>
+                        <c:v>1.2365497662003599</c:v>
                       </c:pt>
                       <c:pt idx="53">
-                        <c:v>2.2852297284800498</c:v>
+                        <c:v>1.2187857525363801</c:v>
                       </c:pt>
                       <c:pt idx="54">
-                        <c:v>2.2915822806631598</c:v>
+                        <c:v>1.2113307627143299</c:v>
                       </c:pt>
                       <c:pt idx="55">
-                        <c:v>2.2921060741327302</c:v>
+                        <c:v>1.2245650409133499</c:v>
                       </c:pt>
                       <c:pt idx="56">
-                        <c:v>2.2956798927039799</c:v>
+                        <c:v>1.2138280678706499</c:v>
                       </c:pt>
                       <c:pt idx="57">
-                        <c:v>2.2953082846987698</c:v>
+                        <c:v>1.23681474073677</c:v>
                       </c:pt>
                       <c:pt idx="58">
-                        <c:v>2.28774468610241</c:v>
+                        <c:v>1.18478638996743</c:v>
                       </c:pt>
                       <c:pt idx="59">
-                        <c:v>2.2952687178447699</c:v>
+                        <c:v>1.17614281481238</c:v>
                       </c:pt>
                       <c:pt idx="60">
-                        <c:v>2.2899525211115499</c:v>
+                        <c:v>1.17396185466438</c:v>
                       </c:pt>
                       <c:pt idx="61">
-                        <c:v>2.2940483305864201</c:v>
+                        <c:v>1.1786371177169099</c:v>
                       </c:pt>
                       <c:pt idx="62">
-                        <c:v>2.2952352086449799</c:v>
+                        <c:v>1.18656097703678</c:v>
                       </c:pt>
                       <c:pt idx="63">
-                        <c:v>2.2822056560759298</c:v>
+                        <c:v>1.18201223338485</c:v>
                       </c:pt>
                       <c:pt idx="64">
-                        <c:v>2.2872522636583601</c:v>
+                        <c:v>1.1595472465654799</c:v>
                       </c:pt>
                       <c:pt idx="65">
-                        <c:v>2.28241291319488</c:v>
+                        <c:v>1.17111367025193</c:v>
                       </c:pt>
                       <c:pt idx="66">
-                        <c:v>2.2832331368877599</c:v>
+                        <c:v>1.1850261566745199</c:v>
                       </c:pt>
                       <c:pt idx="67">
-                        <c:v>2.2799731591704502</c:v>
+                        <c:v>1.1558121260564</c:v>
                       </c:pt>
                       <c:pt idx="68">
-                        <c:v>2.2729910498211998</c:v>
+                        <c:v>1.1480863067754501</c:v>
                       </c:pt>
                       <c:pt idx="69">
-                        <c:v>2.2807608470795202</c:v>
+                        <c:v>1.14677758885037</c:v>
                       </c:pt>
                       <c:pt idx="70">
-                        <c:v>2.2776908236704001</c:v>
+                        <c:v>1.13681222564855</c:v>
                       </c:pt>
                       <c:pt idx="71">
-                        <c:v>2.2682063458072101</c:v>
+                        <c:v>1.1333735995231899</c:v>
                       </c:pt>
                       <c:pt idx="72">
-                        <c:v>2.2728902245782701</c:v>
+                        <c:v>1.1528741242779199</c:v>
                       </c:pt>
                       <c:pt idx="73">
-                        <c:v>2.2750644304190399</c:v>
+                        <c:v>1.12362738969219</c:v>
                       </c:pt>
                       <c:pt idx="74">
-                        <c:v>2.2727403352215001</c:v>
+                        <c:v>1.1260664846487101</c:v>
                       </c:pt>
                       <c:pt idx="75">
-                        <c:v>2.2777608063570201</c:v>
+                        <c:v>1.12450254836659</c:v>
                       </c:pt>
                       <c:pt idx="76">
-                        <c:v>2.2620425163560598</c:v>
+                        <c:v>1.1107285952871699</c:v>
                       </c:pt>
                       <c:pt idx="77">
-                        <c:v>2.2776613402518402</c:v>
+                        <c:v>1.1091799386747301</c:v>
                       </c:pt>
                       <c:pt idx="78">
-                        <c:v>2.28329056235635</c:v>
+                        <c:v>1.0929466379675801</c:v>
                       </c:pt>
                       <c:pt idx="79">
-                        <c:v>2.2919236611408702</c:v>
+                        <c:v>1.09624879906891</c:v>
                       </c:pt>
                       <c:pt idx="80">
-                        <c:v>2.2934524253675099</c:v>
+                        <c:v>1.1026683358629701</c:v>
                       </c:pt>
                       <c:pt idx="81">
-                        <c:v>2.29576706278855</c:v>
+                        <c:v>1.1090425093462499</c:v>
                       </c:pt>
                       <c:pt idx="82">
-                        <c:v>2.2789334780091601</c:v>
+                        <c:v>1.0764094389927601</c:v>
                       </c:pt>
                       <c:pt idx="83">
-                        <c:v>2.2866947742024801</c:v>
+                        <c:v>1.11275361867467</c:v>
                       </c:pt>
                       <c:pt idx="84">
-                        <c:v>2.29311739259464</c:v>
+                        <c:v>1.1122525125552101</c:v>
                       </c:pt>
                       <c:pt idx="85">
-                        <c:v>2.2857086081413698</c:v>
+                        <c:v>1.10914425637312</c:v>
                       </c:pt>
                       <c:pt idx="86">
-                        <c:v>2.2847889213804899</c:v>
+                        <c:v>1.1064522152493701</c:v>
                       </c:pt>
                       <c:pt idx="87">
-                        <c:v>2.28644003837731</c:v>
+                        <c:v>1.0763650099942601</c:v>
                       </c:pt>
                       <c:pt idx="88">
-                        <c:v>2.2895602238406001</c:v>
+                        <c:v>1.0881397200238101</c:v>
                       </c:pt>
                       <c:pt idx="89">
-                        <c:v>2.28697326077017</c:v>
+                        <c:v>1.0912436095012901</c:v>
                       </c:pt>
                       <c:pt idx="90">
-                        <c:v>2.2762492766046201</c:v>
+                        <c:v>1.06869313823189</c:v>
                       </c:pt>
                       <c:pt idx="91">
-                        <c:v>2.2964897839126999</c:v>
+                        <c:v>1.0971568595072201</c:v>
                       </c:pt>
                       <c:pt idx="92">
-                        <c:v>2.28893327409294</c:v>
+                        <c:v>1.10152675809374</c:v>
                       </c:pt>
                       <c:pt idx="93">
-                        <c:v>2.28745620873323</c:v>
+                        <c:v>1.0838383929744599</c:v>
                       </c:pt>
                       <c:pt idx="94">
-                        <c:v>2.2937011005012802</c:v>
+                        <c:v>1.08262502425795</c:v>
                       </c:pt>
                       <c:pt idx="95">
-                        <c:v>2.2922833983305901</c:v>
+                        <c:v>1.0783850994838999</c:v>
                       </c:pt>
                       <c:pt idx="96">
-                        <c:v>2.2850156999697302</c:v>
+                        <c:v>1.04816764820912</c:v>
                       </c:pt>
                       <c:pt idx="97">
-                        <c:v>2.2876790845469999</c:v>
+                        <c:v>1.06281734841644</c:v>
                       </c:pt>
                       <c:pt idx="98">
-                        <c:v>2.28627385303473</c:v>
+                        <c:v>1.15767177540785</c:v>
                       </c:pt>
                       <c:pt idx="99">
-                        <c:v>2.2862969264862598</c:v>
+                        <c:v>1.2035535053842299</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-123C-4794-BEAA-51E8EC36947D}"/>
+                    <c16:uniqueId val="{00000001-A245-46B4-BC53-6837F2B92F4F}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -15358,16 +15742,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>9</xdr:col>
-      <xdr:colOff>657223</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>495298</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>57149</xdr:rowOff>
+      <xdr:rowOff>152399</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>21</xdr:col>
-      <xdr:colOff>619125</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>600075</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>200025</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -15663,7 +16047,7 @@
   <dimension ref="A1:W201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="Y9" sqref="Y9"/>
+      <selection activeCell="W3" sqref="W3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -15738,8 +16122,8 @@
       <c r="U1" t="s">
         <v>20</v>
       </c>
-      <c r="V1">
-        <v>8</v>
+      <c r="V1" t="s">
+        <v>22</v>
       </c>
       <c r="W1" t="s">
         <v>21</v>
@@ -18649,6 +19033,12 @@
       <c r="U42" s="1">
         <v>83.230003356933594</v>
       </c>
+      <c r="V42" s="1">
+        <v>1.3490090567594799</v>
+      </c>
+      <c r="W42" s="1">
+        <v>47.439998626708899</v>
+      </c>
     </row>
     <row r="43" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -18714,6 +19104,12 @@
       <c r="U43" s="1">
         <v>89.779998779296804</v>
       </c>
+      <c r="V43" s="1">
+        <v>1.3353984424262999</v>
+      </c>
+      <c r="W43" s="1">
+        <v>47.200000762939403</v>
+      </c>
     </row>
     <row r="44" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -18779,6 +19175,12 @@
       <c r="U44" s="1">
         <v>89.75</v>
       </c>
+      <c r="V44" s="1">
+        <v>1.3454479973786899</v>
+      </c>
+      <c r="W44" s="1">
+        <v>47.080001831054602</v>
+      </c>
     </row>
     <row r="45" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -18844,6 +19246,12 @@
       <c r="U45" s="1">
         <v>76.160003662109304</v>
       </c>
+      <c r="V45" s="1">
+        <v>1.3163192363301599</v>
+      </c>
+      <c r="W45" s="1">
+        <v>46.540000915527301</v>
+      </c>
     </row>
     <row r="46" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
@@ -18909,6 +19317,12 @@
       <c r="U46" s="1">
         <v>81.849998474121094</v>
       </c>
+      <c r="V46" s="1">
+        <v>1.31459881014125</v>
+      </c>
+      <c r="W46" s="1">
+        <v>46.319999694824197</v>
+      </c>
     </row>
     <row r="47" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
@@ -18974,6 +19388,12 @@
       <c r="U47" s="1">
         <v>90.199996948242102</v>
       </c>
+      <c r="V47" s="1">
+        <v>1.3075804156102899</v>
+      </c>
+      <c r="W47" s="1">
+        <v>45.900001525878899</v>
+      </c>
     </row>
     <row r="48" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -19039,8 +19459,14 @@
       <c r="U48" s="1">
         <v>89.830001831054602</v>
       </c>
+      <c r="V48" s="1">
+        <v>1.2939872437981199</v>
+      </c>
+      <c r="W48" s="1">
+        <v>46.290000915527301</v>
+      </c>
     </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -19104,8 +19530,14 @@
       <c r="U49" s="1">
         <v>86.260002136230398</v>
       </c>
+      <c r="V49" s="1">
+        <v>1.2576481058339399</v>
+      </c>
+      <c r="W49" s="1">
+        <v>43.990001678466797</v>
+      </c>
     </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -19169,8 +19601,14 @@
       <c r="U50" s="1">
         <v>82.690002441406193</v>
       </c>
+      <c r="V50" s="1">
+        <v>1.2729438269973501</v>
+      </c>
+      <c r="W50" s="1">
+        <v>44.909999847412102</v>
+      </c>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -19234,8 +19672,14 @@
       <c r="U51" s="1">
         <v>81.660003662109304</v>
       </c>
+      <c r="V51" s="1">
+        <v>1.2617215434457001</v>
+      </c>
+      <c r="W51" s="1">
+        <v>44.220001220703097</v>
+      </c>
     </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -19299,8 +19743,14 @@
       <c r="U52" s="1">
         <v>89.779998779296804</v>
       </c>
+      <c r="V52" s="1">
+        <v>1.24790410517127</v>
+      </c>
+      <c r="W52" s="1">
+        <v>44.069999694824197</v>
+      </c>
     </row>
-    <row r="53" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -19364,8 +19814,14 @@
       <c r="U53" s="1">
         <v>89.900001525878906</v>
       </c>
+      <c r="V53" s="1">
+        <v>1.2304412851667701</v>
+      </c>
+      <c r="W53" s="1">
+        <v>43.639999389648402</v>
+      </c>
     </row>
-    <row r="54" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -19429,8 +19885,14 @@
       <c r="U54" s="1">
         <v>81.370002746582003</v>
       </c>
+      <c r="V54" s="1">
+        <v>1.2365497662003599</v>
+      </c>
+      <c r="W54" s="1">
+        <v>43.060001373291001</v>
+      </c>
     </row>
-    <row r="55" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -19494,8 +19956,14 @@
       <c r="U55" s="1">
         <v>76.540000915527301</v>
       </c>
+      <c r="V55" s="1">
+        <v>1.2187857525363801</v>
+      </c>
+      <c r="W55" s="1">
+        <v>43.639999389648402</v>
+      </c>
     </row>
-    <row r="56" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -19559,8 +20027,14 @@
       <c r="U56" s="1">
         <v>89.720001220703097</v>
       </c>
+      <c r="V56" s="1">
+        <v>1.2113307627143299</v>
+      </c>
+      <c r="W56" s="1">
+        <v>43.009998321533203</v>
+      </c>
     </row>
-    <row r="57" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -19624,8 +20098,14 @@
       <c r="U57" s="1">
         <v>89.930000305175696</v>
       </c>
+      <c r="V57" s="1">
+        <v>1.2245650409133499</v>
+      </c>
+      <c r="W57" s="1">
+        <v>43.950000762939403</v>
+      </c>
     </row>
-    <row r="58" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -19689,8 +20169,14 @@
       <c r="U58" s="1">
         <v>81.779998779296804</v>
       </c>
+      <c r="V58" s="1">
+        <v>1.2138280678706499</v>
+      </c>
+      <c r="W58" s="1">
+        <v>42.75</v>
+      </c>
     </row>
-    <row r="59" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -19754,8 +20240,14 @@
       <c r="U59" s="1">
         <v>89.889999389648395</v>
       </c>
+      <c r="V59" s="1">
+        <v>1.23681474073677</v>
+      </c>
+      <c r="W59" s="1">
+        <v>44.770000457763601</v>
+      </c>
     </row>
-    <row r="60" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -19819,8 +20311,14 @@
       <c r="U60" s="1">
         <v>82.029998779296804</v>
       </c>
+      <c r="V60" s="1">
+        <v>1.18478638996743</v>
+      </c>
+      <c r="W60" s="1">
+        <v>42.159999847412102</v>
+      </c>
     </row>
-    <row r="61" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -19884,8 +20382,14 @@
       <c r="U61" s="1">
         <v>90</v>
       </c>
+      <c r="V61" s="1">
+        <v>1.17614281481238</v>
+      </c>
+      <c r="W61" s="1">
+        <v>41.529998779296797</v>
+      </c>
     </row>
-    <row r="62" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -19949,8 +20453,14 @@
       <c r="U62" s="1">
         <v>89.550003051757798</v>
       </c>
+      <c r="V62" s="1">
+        <v>1.17396185466438</v>
+      </c>
+      <c r="W62" s="1">
+        <v>41.330001831054602</v>
+      </c>
     </row>
-    <row r="63" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -20014,8 +20524,14 @@
       <c r="U63" s="1">
         <v>89.919998168945298</v>
       </c>
+      <c r="V63" s="1">
+        <v>1.1786371177169099</v>
+      </c>
+      <c r="W63" s="1">
+        <v>41.159999847412102</v>
+      </c>
     </row>
-    <row r="64" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -20079,8 +20595,14 @@
       <c r="U64" s="1">
         <v>89.599998474121094</v>
       </c>
+      <c r="V64" s="1">
+        <v>1.18656097703678</v>
+      </c>
+      <c r="W64" s="1">
+        <v>42.400001525878899</v>
+      </c>
     </row>
-    <row r="65" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -20144,8 +20666,14 @@
       <c r="U65" s="1">
         <v>89.349998474121094</v>
       </c>
+      <c r="V65" s="1">
+        <v>1.18201223338485</v>
+      </c>
+      <c r="W65" s="1">
+        <v>42.110000610351499</v>
+      </c>
     </row>
-    <row r="66" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -20209,8 +20737,14 @@
       <c r="U66" s="1">
         <v>81.309997558593693</v>
       </c>
+      <c r="V66" s="1">
+        <v>1.1595472465654799</v>
+      </c>
+      <c r="W66" s="1">
+        <v>41.419998168945298</v>
+      </c>
     </row>
-    <row r="67" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -20274,8 +20808,14 @@
       <c r="U67" s="1">
         <v>81.800003051757798</v>
       </c>
+      <c r="V67" s="1">
+        <v>1.17111367025193</v>
+      </c>
+      <c r="W67" s="1">
+        <v>41.779998779296797</v>
+      </c>
     </row>
-    <row r="68" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -20339,8 +20879,14 @@
       <c r="U68" s="1">
         <v>83.360000610351506</v>
       </c>
+      <c r="V68" s="1">
+        <v>1.1850261566745199</v>
+      </c>
+      <c r="W68" s="1">
+        <v>42.330001831054602</v>
+      </c>
     </row>
-    <row r="69" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -20404,8 +20950,14 @@
       <c r="U69" s="1">
         <v>84.830001831054602</v>
       </c>
+      <c r="V69" s="1">
+        <v>1.1558121260564</v>
+      </c>
+      <c r="W69" s="1">
+        <v>41.2299995422363</v>
+      </c>
     </row>
-    <row r="70" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -20469,8 +21021,14 @@
       <c r="U70" s="1">
         <v>81.080001831054602</v>
       </c>
+      <c r="V70" s="1">
+        <v>1.1480863067754501</v>
+      </c>
+      <c r="W70" s="1">
+        <v>40.490001678466797</v>
+      </c>
     </row>
-    <row r="71" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -20534,8 +21092,14 @@
       <c r="U71" s="1">
         <v>84.319999694824205</v>
       </c>
+      <c r="V71" s="1">
+        <v>1.14677758885037</v>
+      </c>
+      <c r="W71" s="1">
+        <v>40.779998779296797</v>
+      </c>
     </row>
-    <row r="72" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -20599,8 +21163,14 @@
       <c r="U72" s="1">
         <v>85.940002441406193</v>
       </c>
+      <c r="V72" s="1">
+        <v>1.13681222564855</v>
+      </c>
+      <c r="W72" s="1">
+        <v>40.900001525878899</v>
+      </c>
     </row>
-    <row r="73" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -20664,8 +21234,14 @@
       <c r="U73" s="1">
         <v>84.339996337890597</v>
       </c>
+      <c r="V73" s="1">
+        <v>1.1333735995231899</v>
+      </c>
+      <c r="W73" s="1">
+        <v>40.340000152587798</v>
+      </c>
     </row>
-    <row r="74" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -20729,8 +21305,14 @@
       <c r="U74" s="1">
         <v>85.419998168945298</v>
       </c>
+      <c r="V74" s="1">
+        <v>1.1528741242779199</v>
+      </c>
+      <c r="W74" s="1">
+        <v>42.040000915527301</v>
+      </c>
     </row>
-    <row r="75" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -20794,8 +21376,14 @@
       <c r="U75" s="1">
         <v>89.569999694824205</v>
       </c>
+      <c r="V75" s="1">
+        <v>1.12362738969219</v>
+      </c>
+      <c r="W75" s="1">
+        <v>39.860000610351499</v>
+      </c>
     </row>
-    <row r="76" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -20859,8 +21447,14 @@
       <c r="U76" s="1">
         <v>83.639999389648395</v>
       </c>
+      <c r="V76" s="1">
+        <v>1.1260664846487101</v>
+      </c>
+      <c r="W76" s="1">
+        <v>39.950000762939403</v>
+      </c>
     </row>
-    <row r="77" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -20924,8 +21518,14 @@
       <c r="U77" s="1">
         <v>85.389999389648395</v>
       </c>
+      <c r="V77" s="1">
+        <v>1.12450254836659</v>
+      </c>
+      <c r="W77" s="1">
+        <v>39.939998626708899</v>
+      </c>
     </row>
-    <row r="78" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -20989,8 +21589,14 @@
       <c r="U78" s="1">
         <v>89.989997863769503</v>
       </c>
+      <c r="V78" s="1">
+        <v>1.1107285952871699</v>
+      </c>
+      <c r="W78" s="1">
+        <v>39.770000457763601</v>
+      </c>
     </row>
-    <row r="79" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -21054,8 +21660,14 @@
       <c r="U79" s="1">
         <v>86.339996337890597</v>
       </c>
+      <c r="V79" s="1">
+        <v>1.1091799386747301</v>
+      </c>
+      <c r="W79" s="1">
+        <v>39.950000762939403</v>
+      </c>
     </row>
-    <row r="80" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -21119,8 +21731,14 @@
       <c r="U80" s="1">
         <v>89.910003662109304</v>
       </c>
+      <c r="V80" s="1">
+        <v>1.0929466379675801</v>
+      </c>
+      <c r="W80" s="1">
+        <v>39.139999389648402</v>
+      </c>
     </row>
-    <row r="81" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -21184,8 +21802,14 @@
       <c r="U81" s="1">
         <v>82.150001525878906</v>
       </c>
+      <c r="V81" s="1">
+        <v>1.09624879906891</v>
+      </c>
+      <c r="W81" s="1">
+        <v>39.119998931884702</v>
+      </c>
     </row>
-    <row r="82" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -21249,8 +21873,14 @@
       <c r="U82" s="1">
         <v>83.410003662109304</v>
       </c>
+      <c r="V82" s="1">
+        <v>1.1026683358629701</v>
+      </c>
+      <c r="W82" s="1">
+        <v>39.669998168945298</v>
+      </c>
     </row>
-    <row r="83" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -21314,8 +21944,14 @@
       <c r="U83" s="1">
         <v>89.849998474121094</v>
       </c>
+      <c r="V83" s="1">
+        <v>1.1090425093462499</v>
+      </c>
+      <c r="W83" s="1">
+        <v>38.819999694824197</v>
+      </c>
     </row>
-    <row r="84" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -21379,8 +22015,14 @@
       <c r="U84" s="1">
         <v>89.220001220703097</v>
       </c>
+      <c r="V84" s="1">
+        <v>1.0764094389927601</v>
+      </c>
+      <c r="W84" s="1">
+        <v>37.990001678466797</v>
+      </c>
     </row>
-    <row r="85" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -21444,8 +22086,14 @@
       <c r="U85" s="1">
         <v>86.269996643066406</v>
       </c>
+      <c r="V85" s="1">
+        <v>1.11275361867467</v>
+      </c>
+      <c r="W85" s="1">
+        <v>40.009998321533203</v>
+      </c>
     </row>
-    <row r="86" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -21509,8 +22157,14 @@
       <c r="U86" s="1">
         <v>88.790000915527301</v>
       </c>
+      <c r="V86" s="1">
+        <v>1.1122525125552101</v>
+      </c>
+      <c r="W86" s="1">
+        <v>39.990001678466797</v>
+      </c>
     </row>
-    <row r="87" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -21574,8 +22228,14 @@
       <c r="U87" s="1">
         <v>88.050003051757798</v>
       </c>
+      <c r="V87" s="1">
+        <v>1.10914425637312</v>
+      </c>
+      <c r="W87" s="1">
+        <v>39.669998168945298</v>
+      </c>
     </row>
-    <row r="88" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -21639,8 +22299,14 @@
       <c r="U88" s="1">
         <v>84.769996643066406</v>
       </c>
+      <c r="V88" s="1">
+        <v>1.1064522152493701</v>
+      </c>
+      <c r="W88" s="1">
+        <v>39.189998626708899</v>
+      </c>
     </row>
-    <row r="89" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -21704,8 +22370,14 @@
       <c r="U89" s="1">
         <v>88.209999084472599</v>
       </c>
+      <c r="V89" s="1">
+        <v>1.0763650099942601</v>
+      </c>
+      <c r="W89" s="1">
+        <v>38.049999237060497</v>
+      </c>
     </row>
-    <row r="90" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -21769,8 +22441,14 @@
       <c r="U90" s="1">
         <v>81.449996948242102</v>
       </c>
+      <c r="V90" s="1">
+        <v>1.0881397200238101</v>
+      </c>
+      <c r="W90" s="1">
+        <v>38.590000152587798</v>
+      </c>
     </row>
-    <row r="91" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -21834,8 +22512,14 @@
       <c r="U91" s="1">
         <v>84.419998168945298</v>
       </c>
+      <c r="V91" s="1">
+        <v>1.0912436095012901</v>
+      </c>
+      <c r="W91" s="1">
+        <v>38.490001678466797</v>
+      </c>
     </row>
-    <row r="92" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -21899,8 +22583,14 @@
       <c r="U92" s="1">
         <v>85.260002136230398</v>
       </c>
+      <c r="V92" s="1">
+        <v>1.06869313823189</v>
+      </c>
+      <c r="W92" s="1">
+        <v>37.930000305175703</v>
+      </c>
     </row>
-    <row r="93" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -21964,8 +22654,14 @@
       <c r="U93" s="1">
         <v>89.930000305175696</v>
       </c>
+      <c r="V93" s="1">
+        <v>1.0971568595072201</v>
+      </c>
+      <c r="W93" s="1">
+        <v>39.029998779296797</v>
+      </c>
     </row>
-    <row r="94" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -22029,8 +22725,14 @@
       <c r="U94" s="1">
         <v>89.459999084472599</v>
       </c>
+      <c r="V94" s="1">
+        <v>1.10152675809374</v>
+      </c>
+      <c r="W94" s="1">
+        <v>39.340000152587798</v>
+      </c>
     </row>
-    <row r="95" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -22094,8 +22796,14 @@
       <c r="U95" s="1">
         <v>81.690002441406193</v>
       </c>
+      <c r="V95" s="1">
+        <v>1.0838383929744599</v>
+      </c>
+      <c r="W95" s="1">
+        <v>38.2299995422363</v>
+      </c>
     </row>
-    <row r="96" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -22159,8 +22867,14 @@
       <c r="U96" s="1">
         <v>90.120002746582003</v>
       </c>
+      <c r="V96" s="1">
+        <v>1.08262502425795</v>
+      </c>
+      <c r="W96" s="1">
+        <v>38.209999084472599</v>
+      </c>
     </row>
-    <row r="97" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -22224,8 +22938,14 @@
       <c r="U97" s="1">
         <v>89.819999694824205</v>
       </c>
+      <c r="V97" s="1">
+        <v>1.0783850994838999</v>
+      </c>
+      <c r="W97" s="1">
+        <v>38.169998168945298</v>
+      </c>
     </row>
-    <row r="98" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -22289,8 +23009,14 @@
       <c r="U98" s="1">
         <v>82.620002746582003</v>
       </c>
+      <c r="V98" s="1">
+        <v>1.04816764820912</v>
+      </c>
+      <c r="W98" s="1">
+        <v>37.25</v>
+      </c>
     </row>
-    <row r="99" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -22354,8 +23080,14 @@
       <c r="U99" s="1">
         <v>89.269996643066406</v>
       </c>
+      <c r="V99" s="1">
+        <v>1.06281734841644</v>
+      </c>
+      <c r="W99" s="1">
+        <v>36.860000610351499</v>
+      </c>
     </row>
-    <row r="100" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -22419,8 +23151,14 @@
       <c r="U100" s="1">
         <v>81.739997863769503</v>
       </c>
+      <c r="V100" s="1">
+        <v>1.15767177540785</v>
+      </c>
+      <c r="W100" s="1">
+        <v>41.419998168945298</v>
+      </c>
     </row>
-    <row r="101" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -22484,8 +23222,14 @@
       <c r="U101" s="1">
         <v>89.889999389648395</v>
       </c>
+      <c r="V101" s="1">
+        <v>1.2035535053842299</v>
+      </c>
+      <c r="W101" s="1">
+        <v>42.869998931884702</v>
+      </c>
     </row>
-    <row r="102" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -22496,7 +23240,7 @@
         <v>32.360000610351499</v>
       </c>
     </row>
-    <row r="103" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -22507,7 +23251,7 @@
         <v>32.740001678466797</v>
       </c>
     </row>
-    <row r="104" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -22518,7 +23262,7 @@
         <v>32.330001831054602</v>
       </c>
     </row>
-    <row r="105" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -22529,7 +23273,7 @@
         <v>32.349998474121001</v>
       </c>
     </row>
-    <row r="106" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -22540,7 +23284,7 @@
         <v>32.639999389648402</v>
       </c>
     </row>
-    <row r="107" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -22551,7 +23295,7 @@
         <v>32.599998474121001</v>
       </c>
     </row>
-    <row r="108" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -22562,7 +23306,7 @@
         <v>32.389999389648402</v>
       </c>
     </row>
-    <row r="109" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -22573,7 +23317,7 @@
         <v>32.490001678466797</v>
       </c>
     </row>
-    <row r="110" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -22584,7 +23328,7 @@
         <v>32.029998779296797</v>
       </c>
     </row>
-    <row r="111" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -22595,7 +23339,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:21" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2244562-277D-434C-9A3D-501213DF66C2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FA59C0-5727-4559-915B-AE4727BE43A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -116,6 +116,14 @@
   </si>
   <si>
     <t>efl_loss_#8</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_loss_#9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_err_#9</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -7529,6 +7537,665 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="23"/>
+          <c:order val="23"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Y$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efl_err_#9</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="80000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Y$2:$Y$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>90.169998168945298</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.540000915527301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.110000610351506</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.430000305175696</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>60.639999389648402</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>54.580001831054602</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>56.2299995422363</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>51.319999694824197</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>50.560001373291001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>49.360000610351499</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.5</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>48.029998779296797</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>46.470001220703097</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>46.409999847412102</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>44.990001678466797</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>44.240001678466797</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>43.689998626708899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44.409999847412102</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>42.569999694824197</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>41.419998168945298</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>41.580001831054602</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>41.310001373291001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>39.909999847412102</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>40.2299995422363</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>38.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>37.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>37.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>37.5</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>36.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>36.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>36.180000305175703</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34.959999084472599</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>34.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33.180000305175703</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>34.25</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33.779998779296797</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32.909999847412102</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32.790000915527301</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32.4799995422363</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>32.7299995422363</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>32.7299995422363</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31.9699993133544</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>31.7399997711181</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>31.309999465942301</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>31.770000457763601</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30.620000839233398</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>31.270000457763601</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>31.2199993133544</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>30.790000915527301</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30.639999389648398</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>30.069999694824201</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>30.4899997711181</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>30.5100002288818</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>30.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>30.2399997711181</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>29.75</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>29.6800003051757</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>29.270000457763601</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>30.030000686645501</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>29.75</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>28.920000076293899</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>29.299999237060501</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>29.110000610351499</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>28.850000381469702</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>28.7299995422363</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>28.4899997711181</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>28.670000076293899</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>28.420000076293899</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>28.389999389648398</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>28.399999618530199</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>29.110000610351499</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>28.030000686645501</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>28.4799995422363</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>27.899999618530199</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>28.309999465942301</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>28.190000534057599</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>28.2199993133544</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27.7399997711181</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>27.809999465942301</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>27.530000686645501</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>28.079999923706001</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>27.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>27.600000381469702</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>28.100000381469702</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27.6800003051757</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27.5</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27.610000610351499</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>27.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>27.280000686645501</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>26.889999389648398</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>28.120000839233398</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>27.25</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>27.299999237060501</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>27.340000152587798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-FE23-40E3-B4D7-7E1C9E6BF403}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -14335,7 +15002,7 @@
                 <c:order val="20"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$V$1</c15:sqref>
@@ -14372,7 +15039,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -14687,7 +15354,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$V$2:$V$101</c15:sqref>
@@ -15001,9 +15668,688 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-A245-46B4-BC53-6837F2B92F4F}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="22"/>
+                <c:order val="22"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$X$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>efl_loss_#9</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="80000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>99</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$X$2:$X$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>2.3057748527283799</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.11748210335992</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.94191226685882</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.7956074347161901</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.7314404871813001</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.6636014592116</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.61105606738169</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.5841799048101799</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.58247826889062</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.5086244671208</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.4729612276052899</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.4484195018270201</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.4311328951720199</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.41869857736453</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.4038364150721501</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.3642808085034599</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.34375179952876</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.3294744658622</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.3195840370882801</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.2809175275693201</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.29929374813274</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.25717726178989</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.2432033567671501</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.2446383283396401</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.22923144337477</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.1879591444495301</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.1784578315012</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.1507482733696099</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1.1407579251915001</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.1306067420418799</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.13790915042731</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1.1142275044872501</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1.0927538685737901</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>1.0787174952257901</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>1.06278266724507</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1.06321645997891</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>1.0445983531368701</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1.0262594169871799</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>1.0407135190477701</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1.00746296431608</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>1.0151535906609399</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>1.01458524974288</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.99313173552227596</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.97513460505540195</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.97078219568653401</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.96514768015806796</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.96593859962596995</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.94310510841904105</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.93361575208651704</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.93200103986035399</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.93393537307241103</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.92250637529761903</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.91401099779043904</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.91522874194345605</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.90429236820548897</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.90744877886620301</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.88652468866603296</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.89125181079670102</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.89053850530818701</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.89615492380348705</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.89051224129974405</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0.887306820055481</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0.87847607075029099</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0.87219720395507305</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.87013873097243499</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0.86365489120696004</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0.85790090120522</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0.85012778013375101</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.85289461559550706</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0.84258607960051002</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0.84356591048513996</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0.837679905496585</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0.84921401321508305</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0.84621192771158404</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0.84135611174972103</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0.83540590515561897</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0.84337314336922498</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0.83811241843897799</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0.83315340234975099</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0.83009576607661595</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0.83037085973533098</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0.82760444264502997</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0.83994574019103996</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0.82247580654302199</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0.82328448743577198</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.81840225465738003</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0.82877151221986001</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0.82786457515825895</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0.81999353922096696</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0.82810106930459304</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0.83362152678951296</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0.81632040032915199</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0.81606876166762798</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0.80983174245828204</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0.82003437637523402</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0.81567789130150103</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0.83082316749414797</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0.81838810956402097</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0.81365070411354101</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0.81237312581888399</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-FE23-40E3-B4D7-7E1C9E6BF403}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -15742,16 +17088,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>495298</xdr:colOff>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>542923</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>152399</xdr:rowOff>
+      <xdr:rowOff>104775</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>600075</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>200025</xdr:rowOff>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>85724</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -16044,10 +17390,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:W201"/>
+  <dimension ref="A1:Y201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="W3" sqref="W3"/>
+      <selection activeCell="AB14" sqref="AB14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -16058,7 +17404,7 @@
     <col min="12" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -16128,8 +17474,14 @@
       <c r="W1" t="s">
         <v>21</v>
       </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
     </row>
-    <row r="2" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -16199,8 +17551,14 @@
       <c r="W2" s="1">
         <v>89.319999694824205</v>
       </c>
+      <c r="X2" s="1">
+        <v>2.3057748527283799</v>
+      </c>
+      <c r="Y2" s="1">
+        <v>90.169998168945298</v>
+      </c>
     </row>
-    <row r="3" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -16270,8 +17628,14 @@
       <c r="W3" s="1">
         <v>82.970001220703097</v>
       </c>
+      <c r="X3" s="1">
+        <v>2.11748210335992</v>
+      </c>
+      <c r="Y3" s="1">
+        <v>76.540000915527301</v>
+      </c>
     </row>
-    <row r="4" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -16341,8 +17705,14 @@
       <c r="W4" s="1">
         <v>78.459999084472599</v>
       </c>
+      <c r="X4" s="1">
+        <v>1.94191226685882</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>73</v>
+      </c>
     </row>
-    <row r="5" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -16412,8 +17782,14 @@
       <c r="W5" s="1">
         <v>77.459999084472599</v>
       </c>
+      <c r="X5" s="1">
+        <v>1.7956074347161901</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>66.110000610351506</v>
+      </c>
     </row>
-    <row r="6" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -16483,8 +17859,14 @@
       <c r="W6" s="1">
         <v>70.669998168945298</v>
       </c>
+      <c r="X6" s="1">
+        <v>1.7314404871813001</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>65.430000305175696</v>
+      </c>
     </row>
-    <row r="7" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -16554,8 +17936,14 @@
       <c r="W7" s="1">
         <v>69.220001220703097</v>
       </c>
+      <c r="X7" s="1">
+        <v>1.6636014592116</v>
+      </c>
+      <c r="Y7" s="1">
+        <v>60.639999389648402</v>
+      </c>
     </row>
-    <row r="8" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -16625,8 +18013,14 @@
       <c r="W8" s="1">
         <v>67.949996948242102</v>
       </c>
+      <c r="X8" s="1">
+        <v>1.61105606738169</v>
+      </c>
+      <c r="Y8" s="1">
+        <v>57</v>
+      </c>
     </row>
-    <row r="9" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -16696,8 +18090,14 @@
       <c r="W9" s="1">
         <v>67.269996643066406</v>
       </c>
+      <c r="X9" s="1">
+        <v>1.5841799048101799</v>
+      </c>
+      <c r="Y9" s="1">
+        <v>54.580001831054602</v>
+      </c>
     </row>
-    <row r="10" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -16767,8 +18167,14 @@
       <c r="W10" s="1">
         <v>65.569999694824205</v>
       </c>
+      <c r="X10" s="1">
+        <v>1.58247826889062</v>
+      </c>
+      <c r="Y10" s="1">
+        <v>56.2299995422363</v>
+      </c>
     </row>
-    <row r="11" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -16838,8 +18244,14 @@
       <c r="W11" s="1">
         <v>64.120002746582003</v>
       </c>
+      <c r="X11" s="1">
+        <v>1.5086244671208</v>
+      </c>
+      <c r="Y11" s="1">
+        <v>52.950000762939403</v>
+      </c>
     </row>
-    <row r="12" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -16909,8 +18321,14 @@
       <c r="W12" s="1">
         <v>62.389999389648402</v>
       </c>
+      <c r="X12" s="1">
+        <v>1.4729612276052899</v>
+      </c>
+      <c r="Y12" s="1">
+        <v>51.319999694824197</v>
+      </c>
     </row>
-    <row r="13" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -16980,8 +18398,14 @@
       <c r="W13" s="1">
         <v>60.340000152587798</v>
       </c>
+      <c r="X13" s="1">
+        <v>1.4484195018270201</v>
+      </c>
+      <c r="Y13" s="1">
+        <v>50.560001373291001</v>
+      </c>
     </row>
-    <row r="14" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -17051,8 +18475,14 @@
       <c r="W14" s="1">
         <v>61.270000457763601</v>
       </c>
+      <c r="X14" s="1">
+        <v>1.4311328951720199</v>
+      </c>
+      <c r="Y14" s="1">
+        <v>49.360000610351499</v>
+      </c>
     </row>
-    <row r="15" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -17122,8 +18552,14 @@
       <c r="W15" s="1">
         <v>59.930000305175703</v>
       </c>
+      <c r="X15" s="1">
+        <v>1.41869857736453</v>
+      </c>
+      <c r="Y15" s="1">
+        <v>48.5</v>
+      </c>
     </row>
-    <row r="16" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -17193,8 +18629,14 @@
       <c r="W16" s="1">
         <v>61.880001068115199</v>
       </c>
+      <c r="X16" s="1">
+        <v>1.4038364150721501</v>
+      </c>
+      <c r="Y16" s="1">
+        <v>48.029998779296797</v>
+      </c>
     </row>
-    <row r="17" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -17264,8 +18706,14 @@
       <c r="W17" s="1">
         <v>61.610000610351499</v>
       </c>
+      <c r="X17" s="1">
+        <v>1.3642808085034599</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>46.470001220703097</v>
+      </c>
     </row>
-    <row r="18" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -17335,8 +18783,14 @@
       <c r="W18" s="1">
         <v>59.639999389648402</v>
       </c>
+      <c r="X18" s="1">
+        <v>1.34375179952876</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>46.409999847412102</v>
+      </c>
     </row>
-    <row r="19" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -17406,8 +18860,14 @@
       <c r="W19" s="1">
         <v>59.290000915527301</v>
       </c>
+      <c r="X19" s="1">
+        <v>1.3294744658622</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>44.990001678466797</v>
+      </c>
     </row>
-    <row r="20" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -17477,8 +18937,14 @@
       <c r="W20" s="1">
         <v>58.549999237060497</v>
       </c>
+      <c r="X20" s="1">
+        <v>1.3195840370882801</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>44.240001678466797</v>
+      </c>
     </row>
-    <row r="21" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -17548,8 +19014,14 @@
       <c r="W21" s="1">
         <v>57.439998626708899</v>
       </c>
+      <c r="X21" s="1">
+        <v>1.2809175275693201</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>43.689998626708899</v>
+      </c>
     </row>
-    <row r="22" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -17619,8 +19091,14 @@
       <c r="W22" s="1">
         <v>56.540000915527301</v>
       </c>
+      <c r="X22" s="1">
+        <v>1.29929374813274</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>44.409999847412102</v>
+      </c>
     </row>
-    <row r="23" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -17690,8 +19168,14 @@
       <c r="W23" s="1">
         <v>56.409999847412102</v>
       </c>
+      <c r="X23" s="1">
+        <v>1.25717726178989</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>42.569999694824197</v>
+      </c>
     </row>
-    <row r="24" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -17761,8 +19245,14 @@
       <c r="W24" s="1">
         <v>57.150001525878899</v>
       </c>
+      <c r="X24" s="1">
+        <v>1.2432033567671501</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>41.419998168945298</v>
+      </c>
     </row>
-    <row r="25" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -17832,8 +19322,14 @@
       <c r="W25" s="1">
         <v>55.340000152587798</v>
       </c>
+      <c r="X25" s="1">
+        <v>1.2446383283396401</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>41.580001831054602</v>
+      </c>
     </row>
-    <row r="26" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -17903,8 +19399,14 @@
       <c r="W26" s="1">
         <v>55.299999237060497</v>
       </c>
+      <c r="X26" s="1">
+        <v>1.22923144337477</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>41.310001373291001</v>
+      </c>
     </row>
-    <row r="27" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -17974,8 +19476,14 @@
       <c r="W27" s="1">
         <v>54.610000610351499</v>
       </c>
+      <c r="X27" s="1">
+        <v>1.1879591444495301</v>
+      </c>
+      <c r="Y27" s="1">
+        <v>39.909999847412102</v>
+      </c>
     </row>
-    <row r="28" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -18045,8 +19553,14 @@
       <c r="W28" s="1">
         <v>53.180000305175703</v>
       </c>
+      <c r="X28" s="1">
+        <v>1.1784578315012</v>
+      </c>
+      <c r="Y28" s="1">
+        <v>40.2299995422363</v>
+      </c>
     </row>
-    <row r="29" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -18116,8 +19630,14 @@
       <c r="W29" s="1">
         <v>54.009998321533203</v>
       </c>
+      <c r="X29" s="1">
+        <v>1.1507482733696099</v>
+      </c>
+      <c r="Y29" s="1">
+        <v>38.520000457763601</v>
+      </c>
     </row>
-    <row r="30" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -18187,8 +19707,14 @@
       <c r="W30" s="1">
         <v>51.779998779296797</v>
       </c>
+      <c r="X30" s="1">
+        <v>1.1407579251915001</v>
+      </c>
+      <c r="Y30" s="1">
+        <v>37.950000762939403</v>
+      </c>
     </row>
-    <row r="31" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -18258,8 +19784,14 @@
       <c r="W31" s="1">
         <v>50.7299995422363</v>
       </c>
+      <c r="X31" s="1">
+        <v>1.1306067420418799</v>
+      </c>
+      <c r="Y31" s="1">
+        <v>37.700000762939403</v>
+      </c>
     </row>
-    <row r="32" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -18329,8 +19861,14 @@
       <c r="W32" s="1">
         <v>50.450000762939403</v>
       </c>
+      <c r="X32" s="1">
+        <v>1.13790915042731</v>
+      </c>
+      <c r="Y32" s="1">
+        <v>37.5</v>
+      </c>
     </row>
-    <row r="33" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -18400,8 +19938,14 @@
       <c r="W33" s="1">
         <v>49.340000152587798</v>
       </c>
+      <c r="X33" s="1">
+        <v>1.1142275044872501</v>
+      </c>
+      <c r="Y33" s="1">
+        <v>36.950000762939403</v>
+      </c>
     </row>
-    <row r="34" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -18471,8 +20015,14 @@
       <c r="W34" s="1">
         <v>49.430000305175703</v>
       </c>
+      <c r="X34" s="1">
+        <v>1.0927538685737901</v>
+      </c>
+      <c r="Y34" s="1">
+        <v>36.650001525878899</v>
+      </c>
     </row>
-    <row r="35" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -18542,8 +20092,14 @@
       <c r="W35" s="1">
         <v>50.189998626708899</v>
       </c>
+      <c r="X35" s="1">
+        <v>1.0787174952257901</v>
+      </c>
+      <c r="Y35" s="1">
+        <v>36.180000305175703</v>
+      </c>
     </row>
-    <row r="36" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -18613,8 +20169,14 @@
       <c r="W36" s="1">
         <v>49.349998474121001</v>
       </c>
+      <c r="X36" s="1">
+        <v>1.06278266724507</v>
+      </c>
+      <c r="Y36" s="1">
+        <v>35.840000152587798</v>
+      </c>
     </row>
-    <row r="37" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -18684,8 +20246,14 @@
       <c r="W37" s="1">
         <v>50.849998474121001</v>
       </c>
+      <c r="X37" s="1">
+        <v>1.06321645997891</v>
+      </c>
+      <c r="Y37" s="1">
+        <v>35.650001525878899</v>
+      </c>
     </row>
-    <row r="38" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -18755,8 +20323,14 @@
       <c r="W38" s="1">
         <v>50.540000915527301</v>
       </c>
+      <c r="X38" s="1">
+        <v>1.0445983531368701</v>
+      </c>
+      <c r="Y38" s="1">
+        <v>34.959999084472599</v>
+      </c>
     </row>
-    <row r="39" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -18826,8 +20400,14 @@
       <c r="W39" s="1">
         <v>50.630001068115199</v>
       </c>
+      <c r="X39" s="1">
+        <v>1.0262594169871799</v>
+      </c>
+      <c r="Y39" s="1">
+        <v>34.840000152587798</v>
+      </c>
     </row>
-    <row r="40" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -18897,8 +20477,14 @@
       <c r="W40" s="1">
         <v>48.439998626708899</v>
       </c>
+      <c r="X40" s="1">
+        <v>1.0407135190477701</v>
+      </c>
+      <c r="Y40" s="1">
+        <v>34.439998626708899</v>
+      </c>
     </row>
-    <row r="41" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -18968,8 +20554,14 @@
       <c r="W41" s="1">
         <v>48.75</v>
       </c>
+      <c r="X41" s="1">
+        <v>1.00746296431608</v>
+      </c>
+      <c r="Y41" s="1">
+        <v>33.180000305175703</v>
+      </c>
     </row>
-    <row r="42" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -19039,8 +20631,14 @@
       <c r="W42" s="1">
         <v>47.439998626708899</v>
       </c>
+      <c r="X42" s="1">
+        <v>1.0151535906609399</v>
+      </c>
+      <c r="Y42" s="1">
+        <v>34.25</v>
+      </c>
     </row>
-    <row r="43" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -19110,8 +20708,14 @@
       <c r="W43" s="1">
         <v>47.200000762939403</v>
       </c>
+      <c r="X43" s="1">
+        <v>1.01458524974288</v>
+      </c>
+      <c r="Y43" s="1">
+        <v>33.779998779296797</v>
+      </c>
     </row>
-    <row r="44" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -19181,8 +20785,14 @@
       <c r="W44" s="1">
         <v>47.080001831054602</v>
       </c>
+      <c r="X44" s="1">
+        <v>0.99313173552227596</v>
+      </c>
+      <c r="Y44" s="1">
+        <v>32.909999847412102</v>
+      </c>
     </row>
-    <row r="45" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -19252,8 +20862,14 @@
       <c r="W45" s="1">
         <v>46.540000915527301</v>
       </c>
+      <c r="X45" s="1">
+        <v>0.97513460505540195</v>
+      </c>
+      <c r="Y45" s="1">
+        <v>32.790000915527301</v>
+      </c>
     </row>
-    <row r="46" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -19323,8 +20939,14 @@
       <c r="W46" s="1">
         <v>46.319999694824197</v>
       </c>
+      <c r="X46" s="1">
+        <v>0.97078219568653401</v>
+      </c>
+      <c r="Y46" s="1">
+        <v>32.4799995422363</v>
+      </c>
     </row>
-    <row r="47" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -19394,8 +21016,14 @@
       <c r="W47" s="1">
         <v>45.900001525878899</v>
       </c>
+      <c r="X47" s="1">
+        <v>0.96514768015806796</v>
+      </c>
+      <c r="Y47" s="1">
+        <v>32.7299995422363</v>
+      </c>
     </row>
-    <row r="48" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -19465,8 +21093,14 @@
       <c r="W48" s="1">
         <v>46.290000915527301</v>
       </c>
+      <c r="X48" s="1">
+        <v>0.96593859962596995</v>
+      </c>
+      <c r="Y48" s="1">
+        <v>32.7299995422363</v>
+      </c>
     </row>
-    <row r="49" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -19536,8 +21170,14 @@
       <c r="W49" s="1">
         <v>43.990001678466797</v>
       </c>
+      <c r="X49" s="1">
+        <v>0.94310510841904105</v>
+      </c>
+      <c r="Y49" s="1">
+        <v>31.9699993133544</v>
+      </c>
     </row>
-    <row r="50" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -19607,8 +21247,14 @@
       <c r="W50" s="1">
         <v>44.909999847412102</v>
       </c>
+      <c r="X50" s="1">
+        <v>0.93361575208651704</v>
+      </c>
+      <c r="Y50" s="1">
+        <v>31.7399997711181</v>
+      </c>
     </row>
-    <row r="51" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -19678,8 +21324,14 @@
       <c r="W51" s="1">
         <v>44.220001220703097</v>
       </c>
+      <c r="X51" s="1">
+        <v>0.93200103986035399</v>
+      </c>
+      <c r="Y51" s="1">
+        <v>31.309999465942301</v>
+      </c>
     </row>
-    <row r="52" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -19749,8 +21401,14 @@
       <c r="W52" s="1">
         <v>44.069999694824197</v>
       </c>
+      <c r="X52" s="1">
+        <v>0.93393537307241103</v>
+      </c>
+      <c r="Y52" s="1">
+        <v>31.770000457763601</v>
+      </c>
     </row>
-    <row r="53" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -19820,8 +21478,14 @@
       <c r="W53" s="1">
         <v>43.639999389648402</v>
       </c>
+      <c r="X53" s="1">
+        <v>0.92250637529761903</v>
+      </c>
+      <c r="Y53" s="1">
+        <v>30.620000839233398</v>
+      </c>
     </row>
-    <row r="54" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -19891,8 +21555,14 @@
       <c r="W54" s="1">
         <v>43.060001373291001</v>
       </c>
+      <c r="X54" s="1">
+        <v>0.91401099779043904</v>
+      </c>
+      <c r="Y54" s="1">
+        <v>31.270000457763601</v>
+      </c>
     </row>
-    <row r="55" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -19962,8 +21632,14 @@
       <c r="W55" s="1">
         <v>43.639999389648402</v>
       </c>
+      <c r="X55" s="1">
+        <v>0.91522874194345605</v>
+      </c>
+      <c r="Y55" s="1">
+        <v>31.2199993133544</v>
+      </c>
     </row>
-    <row r="56" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -20033,8 +21709,14 @@
       <c r="W56" s="1">
         <v>43.009998321533203</v>
       </c>
+      <c r="X56" s="1">
+        <v>0.90429236820548897</v>
+      </c>
+      <c r="Y56" s="1">
+        <v>30.790000915527301</v>
+      </c>
     </row>
-    <row r="57" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -20104,8 +21786,14 @@
       <c r="W57" s="1">
         <v>43.950000762939403</v>
       </c>
+      <c r="X57" s="1">
+        <v>0.90744877886620301</v>
+      </c>
+      <c r="Y57" s="1">
+        <v>30.639999389648398</v>
+      </c>
     </row>
-    <row r="58" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -20175,8 +21863,14 @@
       <c r="W58" s="1">
         <v>42.75</v>
       </c>
+      <c r="X58" s="1">
+        <v>0.88652468866603296</v>
+      </c>
+      <c r="Y58" s="1">
+        <v>30.069999694824201</v>
+      </c>
     </row>
-    <row r="59" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -20246,8 +21940,14 @@
       <c r="W59" s="1">
         <v>44.770000457763601</v>
       </c>
+      <c r="X59" s="1">
+        <v>0.89125181079670102</v>
+      </c>
+      <c r="Y59" s="1">
+        <v>30.4899997711181</v>
+      </c>
     </row>
-    <row r="60" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -20317,8 +22017,14 @@
       <c r="W60" s="1">
         <v>42.159999847412102</v>
       </c>
+      <c r="X60" s="1">
+        <v>0.89053850530818701</v>
+      </c>
+      <c r="Y60" s="1">
+        <v>30.5100002288818</v>
+      </c>
     </row>
-    <row r="61" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -20388,8 +22094,14 @@
       <c r="W61" s="1">
         <v>41.529998779296797</v>
       </c>
+      <c r="X61" s="1">
+        <v>0.89615492380348705</v>
+      </c>
+      <c r="Y61" s="1">
+        <v>30.520000457763601</v>
+      </c>
     </row>
-    <row r="62" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -20459,8 +22171,14 @@
       <c r="W62" s="1">
         <v>41.330001831054602</v>
       </c>
+      <c r="X62" s="1">
+        <v>0.89051224129974405</v>
+      </c>
+      <c r="Y62" s="1">
+        <v>30.2399997711181</v>
+      </c>
     </row>
-    <row r="63" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -20530,8 +22248,14 @@
       <c r="W63" s="1">
         <v>41.159999847412102</v>
       </c>
+      <c r="X63" s="1">
+        <v>0.887306820055481</v>
+      </c>
+      <c r="Y63" s="1">
+        <v>29.75</v>
+      </c>
     </row>
-    <row r="64" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -20601,8 +22325,14 @@
       <c r="W64" s="1">
         <v>42.400001525878899</v>
       </c>
+      <c r="X64" s="1">
+        <v>0.87847607075029099</v>
+      </c>
+      <c r="Y64" s="1">
+        <v>29.6800003051757</v>
+      </c>
     </row>
-    <row r="65" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -20672,8 +22402,14 @@
       <c r="W65" s="1">
         <v>42.110000610351499</v>
       </c>
+      <c r="X65" s="1">
+        <v>0.87219720395507305</v>
+      </c>
+      <c r="Y65" s="1">
+        <v>29.270000457763601</v>
+      </c>
     </row>
-    <row r="66" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -20743,8 +22479,14 @@
       <c r="W66" s="1">
         <v>41.419998168945298</v>
       </c>
+      <c r="X66" s="1">
+        <v>0.87013873097243499</v>
+      </c>
+      <c r="Y66" s="1">
+        <v>30.030000686645501</v>
+      </c>
     </row>
-    <row r="67" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -20814,8 +22556,14 @@
       <c r="W67" s="1">
         <v>41.779998779296797</v>
       </c>
+      <c r="X67" s="1">
+        <v>0.86365489120696004</v>
+      </c>
+      <c r="Y67" s="1">
+        <v>29.75</v>
+      </c>
     </row>
-    <row r="68" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -20885,8 +22633,14 @@
       <c r="W68" s="1">
         <v>42.330001831054602</v>
       </c>
+      <c r="X68" s="1">
+        <v>0.85790090120522</v>
+      </c>
+      <c r="Y68" s="1">
+        <v>28.920000076293899</v>
+      </c>
     </row>
-    <row r="69" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -20956,8 +22710,14 @@
       <c r="W69" s="1">
         <v>41.2299995422363</v>
       </c>
+      <c r="X69" s="1">
+        <v>0.85012778013375101</v>
+      </c>
+      <c r="Y69" s="1">
+        <v>29.299999237060501</v>
+      </c>
     </row>
-    <row r="70" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -21027,8 +22787,14 @@
       <c r="W70" s="1">
         <v>40.490001678466797</v>
       </c>
+      <c r="X70" s="1">
+        <v>0.85289461559550706</v>
+      </c>
+      <c r="Y70" s="1">
+        <v>29.110000610351499</v>
+      </c>
     </row>
-    <row r="71" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -21098,8 +22864,14 @@
       <c r="W71" s="1">
         <v>40.779998779296797</v>
       </c>
+      <c r="X71" s="1">
+        <v>0.84258607960051002</v>
+      </c>
+      <c r="Y71" s="1">
+        <v>28.850000381469702</v>
+      </c>
     </row>
-    <row r="72" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -21169,8 +22941,14 @@
       <c r="W72" s="1">
         <v>40.900001525878899</v>
       </c>
+      <c r="X72" s="1">
+        <v>0.84356591048513996</v>
+      </c>
+      <c r="Y72" s="1">
+        <v>28.7299995422363</v>
+      </c>
     </row>
-    <row r="73" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -21240,8 +23018,14 @@
       <c r="W73" s="1">
         <v>40.340000152587798</v>
       </c>
+      <c r="X73" s="1">
+        <v>0.837679905496585</v>
+      </c>
+      <c r="Y73" s="1">
+        <v>28.4899997711181</v>
+      </c>
     </row>
-    <row r="74" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -21311,8 +23095,14 @@
       <c r="W74" s="1">
         <v>42.040000915527301</v>
       </c>
+      <c r="X74" s="1">
+        <v>0.84921401321508305</v>
+      </c>
+      <c r="Y74" s="1">
+        <v>28.670000076293899</v>
+      </c>
     </row>
-    <row r="75" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -21382,8 +23172,14 @@
       <c r="W75" s="1">
         <v>39.860000610351499</v>
       </c>
+      <c r="X75" s="1">
+        <v>0.84621192771158404</v>
+      </c>
+      <c r="Y75" s="1">
+        <v>28.420000076293899</v>
+      </c>
     </row>
-    <row r="76" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -21453,8 +23249,14 @@
       <c r="W76" s="1">
         <v>39.950000762939403</v>
       </c>
+      <c r="X76" s="1">
+        <v>0.84135611174972103</v>
+      </c>
+      <c r="Y76" s="1">
+        <v>28.389999389648398</v>
+      </c>
     </row>
-    <row r="77" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -21524,8 +23326,14 @@
       <c r="W77" s="1">
         <v>39.939998626708899</v>
       </c>
+      <c r="X77" s="1">
+        <v>0.83540590515561897</v>
+      </c>
+      <c r="Y77" s="1">
+        <v>28.399999618530199</v>
+      </c>
     </row>
-    <row r="78" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -21595,8 +23403,14 @@
       <c r="W78" s="1">
         <v>39.770000457763601</v>
       </c>
+      <c r="X78" s="1">
+        <v>0.84337314336922498</v>
+      </c>
+      <c r="Y78" s="1">
+        <v>29.110000610351499</v>
+      </c>
     </row>
-    <row r="79" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -21666,8 +23480,14 @@
       <c r="W79" s="1">
         <v>39.950000762939403</v>
       </c>
+      <c r="X79" s="1">
+        <v>0.83811241843897799</v>
+      </c>
+      <c r="Y79" s="1">
+        <v>28.030000686645501</v>
+      </c>
     </row>
-    <row r="80" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -21737,8 +23557,14 @@
       <c r="W80" s="1">
         <v>39.139999389648402</v>
       </c>
+      <c r="X80" s="1">
+        <v>0.83315340234975099</v>
+      </c>
+      <c r="Y80" s="1">
+        <v>28.4799995422363</v>
+      </c>
     </row>
-    <row r="81" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -21808,8 +23634,14 @@
       <c r="W81" s="1">
         <v>39.119998931884702</v>
       </c>
+      <c r="X81" s="1">
+        <v>0.83009576607661595</v>
+      </c>
+      <c r="Y81" s="1">
+        <v>27.899999618530199</v>
+      </c>
     </row>
-    <row r="82" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -21879,8 +23711,14 @@
       <c r="W82" s="1">
         <v>39.669998168945298</v>
       </c>
+      <c r="X82" s="1">
+        <v>0.83037085973533098</v>
+      </c>
+      <c r="Y82" s="1">
+        <v>28.309999465942301</v>
+      </c>
     </row>
-    <row r="83" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -21950,8 +23788,14 @@
       <c r="W83" s="1">
         <v>38.819999694824197</v>
       </c>
+      <c r="X83" s="1">
+        <v>0.82760444264502997</v>
+      </c>
+      <c r="Y83" s="1">
+        <v>28.190000534057599</v>
+      </c>
     </row>
-    <row r="84" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -22021,8 +23865,14 @@
       <c r="W84" s="1">
         <v>37.990001678466797</v>
       </c>
+      <c r="X84" s="1">
+        <v>0.83994574019103996</v>
+      </c>
+      <c r="Y84" s="1">
+        <v>28.2199993133544</v>
+      </c>
     </row>
-    <row r="85" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -22092,8 +23942,14 @@
       <c r="W85" s="1">
         <v>40.009998321533203</v>
       </c>
+      <c r="X85" s="1">
+        <v>0.82247580654302199</v>
+      </c>
+      <c r="Y85" s="1">
+        <v>27.7399997711181</v>
+      </c>
     </row>
-    <row r="86" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -22163,8 +24019,14 @@
       <c r="W86" s="1">
         <v>39.990001678466797</v>
       </c>
+      <c r="X86" s="1">
+        <v>0.82328448743577198</v>
+      </c>
+      <c r="Y86" s="1">
+        <v>27.809999465942301</v>
+      </c>
     </row>
-    <row r="87" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -22234,8 +24096,14 @@
       <c r="W87" s="1">
         <v>39.669998168945298</v>
       </c>
+      <c r="X87" s="1">
+        <v>0.81840225465738003</v>
+      </c>
+      <c r="Y87" s="1">
+        <v>27.530000686645501</v>
+      </c>
     </row>
-    <row r="88" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -22305,8 +24173,14 @@
       <c r="W88" s="1">
         <v>39.189998626708899</v>
       </c>
+      <c r="X88" s="1">
+        <v>0.82877151221986001</v>
+      </c>
+      <c r="Y88" s="1">
+        <v>28.079999923706001</v>
+      </c>
     </row>
-    <row r="89" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -22376,8 +24250,14 @@
       <c r="W89" s="1">
         <v>38.049999237060497</v>
       </c>
+      <c r="X89" s="1">
+        <v>0.82786457515825895</v>
+      </c>
+      <c r="Y89" s="1">
+        <v>27.840000152587798</v>
+      </c>
     </row>
-    <row r="90" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -22447,8 +24327,14 @@
       <c r="W90" s="1">
         <v>38.590000152587798</v>
       </c>
+      <c r="X90" s="1">
+        <v>0.81999353922096696</v>
+      </c>
+      <c r="Y90" s="1">
+        <v>27.600000381469702</v>
+      </c>
     </row>
-    <row r="91" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -22518,8 +24404,14 @@
       <c r="W91" s="1">
         <v>38.490001678466797</v>
       </c>
+      <c r="X91" s="1">
+        <v>0.82810106930459304</v>
+      </c>
+      <c r="Y91" s="1">
+        <v>28.100000381469702</v>
+      </c>
     </row>
-    <row r="92" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -22589,8 +24481,14 @@
       <c r="W92" s="1">
         <v>37.930000305175703</v>
       </c>
+      <c r="X92" s="1">
+        <v>0.83362152678951296</v>
+      </c>
+      <c r="Y92" s="1">
+        <v>27.6800003051757</v>
+      </c>
     </row>
-    <row r="93" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -22660,8 +24558,14 @@
       <c r="W93" s="1">
         <v>39.029998779296797</v>
       </c>
+      <c r="X93" s="1">
+        <v>0.81632040032915199</v>
+      </c>
+      <c r="Y93" s="1">
+        <v>27.5</v>
+      </c>
     </row>
-    <row r="94" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -22731,8 +24635,14 @@
       <c r="W94" s="1">
         <v>39.340000152587798</v>
       </c>
+      <c r="X94" s="1">
+        <v>0.81606876166762798</v>
+      </c>
+      <c r="Y94" s="1">
+        <v>27.610000610351499</v>
+      </c>
     </row>
-    <row r="95" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -22802,8 +24712,14 @@
       <c r="W95" s="1">
         <v>38.2299995422363</v>
       </c>
+      <c r="X95" s="1">
+        <v>0.80983174245828204</v>
+      </c>
+      <c r="Y95" s="1">
+        <v>27.290000915527301</v>
+      </c>
     </row>
-    <row r="96" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -22873,8 +24789,14 @@
       <c r="W96" s="1">
         <v>38.209999084472599</v>
       </c>
+      <c r="X96" s="1">
+        <v>0.82003437637523402</v>
+      </c>
+      <c r="Y96" s="1">
+        <v>27.280000686645501</v>
+      </c>
     </row>
-    <row r="97" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -22944,8 +24866,14 @@
       <c r="W97" s="1">
         <v>38.169998168945298</v>
       </c>
+      <c r="X97" s="1">
+        <v>0.81567789130150103</v>
+      </c>
+      <c r="Y97" s="1">
+        <v>26.889999389648398</v>
+      </c>
     </row>
-    <row r="98" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -23015,8 +24943,14 @@
       <c r="W98" s="1">
         <v>37.25</v>
       </c>
+      <c r="X98" s="1">
+        <v>0.83082316749414797</v>
+      </c>
+      <c r="Y98" s="1">
+        <v>28.120000839233398</v>
+      </c>
     </row>
-    <row r="99" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -23086,8 +25020,14 @@
       <c r="W99" s="1">
         <v>36.860000610351499</v>
       </c>
+      <c r="X99" s="1">
+        <v>0.81838810956402097</v>
+      </c>
+      <c r="Y99" s="1">
+        <v>27.25</v>
+      </c>
     </row>
-    <row r="100" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -23157,8 +25097,14 @@
       <c r="W100" s="1">
         <v>41.419998168945298</v>
       </c>
+      <c r="X100" s="1">
+        <v>0.81365070411354101</v>
+      </c>
+      <c r="Y100" s="1">
+        <v>27.299999237060501</v>
+      </c>
     </row>
-    <row r="101" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -23228,8 +25174,14 @@
       <c r="W101" s="1">
         <v>42.869998931884702</v>
       </c>
+      <c r="X101" s="1">
+        <v>0.81237312581888399</v>
+      </c>
+      <c r="Y101" s="1">
+        <v>27.340000152587798</v>
+      </c>
     </row>
-    <row r="102" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -23240,7 +25192,7 @@
         <v>32.360000610351499</v>
       </c>
     </row>
-    <row r="103" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -23251,7 +25203,7 @@
         <v>32.740001678466797</v>
       </c>
     </row>
-    <row r="104" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -23262,7 +25214,7 @@
         <v>32.330001831054602</v>
       </c>
     </row>
-    <row r="105" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -23273,7 +25225,7 @@
         <v>32.349998474121001</v>
       </c>
     </row>
-    <row r="106" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -23284,7 +25236,7 @@
         <v>32.639999389648402</v>
       </c>
     </row>
-    <row r="107" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -23295,7 +25247,7 @@
         <v>32.599998474121001</v>
       </c>
     </row>
-    <row r="108" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -23306,7 +25258,7 @@
         <v>32.389999389648402</v>
       </c>
     </row>
-    <row r="109" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -23317,7 +25269,7 @@
         <v>32.490001678466797</v>
       </c>
     </row>
-    <row r="110" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -23328,7 +25280,7 @@
         <v>32.029998779296797</v>
       </c>
     </row>
-    <row r="111" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -23339,7 +25291,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:23" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{84FA59C0-5727-4559-915B-AE4727BE43A1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F5748B-2DCE-4637-96EF-449DAEF8270C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8193,6 +8193,876 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-FE23-40E3-B4D7-7E1C9E6BF403}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="24"/>
+          <c:order val="24"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$Z$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$Z$2:$Z$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>2.31082412695429</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>2.2072040586714499</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.9886049753541399</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1.8321892539407001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1.76379030829022</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1.7145880445553201</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1.6401389632255401</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1.6045686894920901</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1.5645778984021199</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1.5251206850549901</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1.499636244622</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1.48861216435766</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1.44891641170355</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1.41827709583719</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1.3984738375730501</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1.3738584267865299</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1.3503492015182501</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1.3289494256304999</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1.3243201082679099</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1.3236665983868201</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1.30847985577431</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1.2897445540519199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>1.27387462262135</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>1.2656071694793201</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>1.2231807488544699</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>1.21016639243265</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-54C0-4CE6-8048-C4A5A7E2E0DA}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="25"/>
+          <c:order val="25"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AA$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AA$2:$AA$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>90.75</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>77.379997253417898</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>71.580001831054602</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>66.400001525878906</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>64.080001831054602</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>62.240001678466797</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>58.630001068115199</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>57.090000152587798</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>55.4799995422363</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>55.240001678466797</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>53.279998779296797</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>52.029998779296797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>50.349998474121001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>48.919998168945298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>47.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.470001220703097</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>46.630001068115199</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>46.680000305175703</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>45.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>44.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43.2299995422363</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>42.840000152587798</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-54C0-4CE6-8048-C4A5A7E2E0DA}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -17088,16 +17958,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>11</xdr:col>
-      <xdr:colOff>542923</xdr:colOff>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>368989</xdr:colOff>
       <xdr:row>3</xdr:row>
-      <xdr:rowOff>104775</xdr:rowOff>
+      <xdr:rowOff>30232</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>23</xdr:col>
-      <xdr:colOff>457200</xdr:colOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>142462</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>85724</xdr:rowOff>
+      <xdr:rowOff>11181</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -17390,10 +18260,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Y201"/>
+  <dimension ref="A1:AA201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
-      <selection activeCell="AB14" sqref="AB14"/>
+    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="X7" sqref="X7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -17404,7 +18274,7 @@
     <col min="12" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -17481,7 +18351,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -17557,8 +18427,14 @@
       <c r="Y2" s="1">
         <v>90.169998168945298</v>
       </c>
+      <c r="Z2" s="1">
+        <v>2.31082412695429</v>
+      </c>
+      <c r="AA2" s="1">
+        <v>90.75</v>
+      </c>
     </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -17634,8 +18510,14 @@
       <c r="Y3" s="1">
         <v>76.540000915527301</v>
       </c>
+      <c r="Z3" s="1">
+        <v>2.2072040586714499</v>
+      </c>
+      <c r="AA3" s="1">
+        <v>77.379997253417898</v>
+      </c>
     </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -17711,8 +18593,14 @@
       <c r="Y4" s="1">
         <v>73</v>
       </c>
+      <c r="Z4" s="1">
+        <v>1.9886049753541399</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>71.580001831054602</v>
+      </c>
     </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -17788,8 +18676,14 @@
       <c r="Y5" s="1">
         <v>66.110000610351506</v>
       </c>
+      <c r="Z5" s="1">
+        <v>1.8321892539407001</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>66.400001525878906</v>
+      </c>
     </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -17865,8 +18759,14 @@
       <c r="Y6" s="1">
         <v>65.430000305175696</v>
       </c>
+      <c r="Z6" s="1">
+        <v>1.76379030829022</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>64.080001831054602</v>
+      </c>
     </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -17942,8 +18842,14 @@
       <c r="Y7" s="1">
         <v>60.639999389648402</v>
       </c>
+      <c r="Z7" s="1">
+        <v>1.7145880445553201</v>
+      </c>
+      <c r="AA7" s="1">
+        <v>62.240001678466797</v>
+      </c>
     </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -18019,8 +18925,14 @@
       <c r="Y8" s="1">
         <v>57</v>
       </c>
+      <c r="Z8" s="1">
+        <v>1.6401389632255401</v>
+      </c>
+      <c r="AA8" s="1">
+        <v>60.220001220703097</v>
+      </c>
     </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -18096,8 +19008,14 @@
       <c r="Y9" s="1">
         <v>54.580001831054602</v>
       </c>
+      <c r="Z9" s="1">
+        <v>1.6045686894920901</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>58.630001068115199</v>
+      </c>
     </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -18173,8 +19091,14 @@
       <c r="Y10" s="1">
         <v>56.2299995422363</v>
       </c>
+      <c r="Z10" s="1">
+        <v>1.5645778984021199</v>
+      </c>
+      <c r="AA10" s="1">
+        <v>57.090000152587798</v>
+      </c>
     </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -18250,8 +19174,14 @@
       <c r="Y11" s="1">
         <v>52.950000762939403</v>
       </c>
+      <c r="Z11" s="1">
+        <v>1.5251206850549901</v>
+      </c>
+      <c r="AA11" s="1">
+        <v>55.4799995422363</v>
+      </c>
     </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -18327,8 +19257,14 @@
       <c r="Y12" s="1">
         <v>51.319999694824197</v>
       </c>
+      <c r="Z12" s="1">
+        <v>1.499636244622</v>
+      </c>
+      <c r="AA12" s="1">
+        <v>55.240001678466797</v>
+      </c>
     </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -18404,8 +19340,14 @@
       <c r="Y13" s="1">
         <v>50.560001373291001</v>
       </c>
+      <c r="Z13" s="1">
+        <v>1.48861216435766</v>
+      </c>
+      <c r="AA13" s="1">
+        <v>53.279998779296797</v>
+      </c>
     </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -18481,8 +19423,14 @@
       <c r="Y14" s="1">
         <v>49.360000610351499</v>
       </c>
+      <c r="Z14" s="1">
+        <v>1.44891641170355</v>
+      </c>
+      <c r="AA14" s="1">
+        <v>52.029998779296797</v>
+      </c>
     </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -18558,8 +19506,14 @@
       <c r="Y15" s="1">
         <v>48.5</v>
       </c>
+      <c r="Z15" s="1">
+        <v>1.41827709583719</v>
+      </c>
+      <c r="AA15" s="1">
+        <v>51.220001220703097</v>
+      </c>
     </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -18635,8 +19589,14 @@
       <c r="Y16" s="1">
         <v>48.029998779296797</v>
       </c>
+      <c r="Z16" s="1">
+        <v>1.3984738375730501</v>
+      </c>
+      <c r="AA16" s="1">
+        <v>50.349998474121001</v>
+      </c>
     </row>
-    <row r="17" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -18712,8 +19672,14 @@
       <c r="Y17" s="1">
         <v>46.470001220703097</v>
       </c>
+      <c r="Z17" s="1">
+        <v>1.3738584267865299</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>49.439998626708899</v>
+      </c>
     </row>
-    <row r="18" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -18789,8 +19755,14 @@
       <c r="Y18" s="1">
         <v>46.409999847412102</v>
       </c>
+      <c r="Z18" s="1">
+        <v>1.3503492015182501</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>48.919998168945298</v>
+      </c>
     </row>
-    <row r="19" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -18866,8 +19838,14 @@
       <c r="Y19" s="1">
         <v>44.990001678466797</v>
       </c>
+      <c r="Z19" s="1">
+        <v>1.3289494256304999</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>47.700000762939403</v>
+      </c>
     </row>
-    <row r="20" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -18943,8 +19921,14 @@
       <c r="Y20" s="1">
         <v>44.240001678466797</v>
       </c>
+      <c r="Z20" s="1">
+        <v>1.3243201082679099</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>47.340000152587798</v>
+      </c>
     </row>
-    <row r="21" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -19020,8 +20004,14 @@
       <c r="Y21" s="1">
         <v>43.689998626708899</v>
       </c>
+      <c r="Z21" s="1">
+        <v>1.3236665983868201</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>47.470001220703097</v>
+      </c>
     </row>
-    <row r="22" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -19097,8 +20087,14 @@
       <c r="Y22" s="1">
         <v>44.409999847412102</v>
       </c>
+      <c r="Z22" s="1">
+        <v>1.30847985577431</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>46.630001068115199</v>
+      </c>
     </row>
-    <row r="23" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -19174,8 +20170,14 @@
       <c r="Y23" s="1">
         <v>42.569999694824197</v>
       </c>
+      <c r="Z23" s="1">
+        <v>1.2897445540519199</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>46.680000305175703</v>
+      </c>
     </row>
-    <row r="24" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -19251,8 +20253,14 @@
       <c r="Y24" s="1">
         <v>41.419998168945298</v>
       </c>
+      <c r="Z24" s="1">
+        <v>1.27387462262135</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>45.400001525878899</v>
+      </c>
     </row>
-    <row r="25" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -19328,8 +20336,14 @@
       <c r="Y25" s="1">
         <v>41.580001831054602</v>
       </c>
+      <c r="Z25" s="1">
+        <v>1.2656071694793201</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>44.799999237060497</v>
+      </c>
     </row>
-    <row r="26" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -19405,8 +20419,14 @@
       <c r="Y26" s="1">
         <v>41.310001373291001</v>
       </c>
+      <c r="Z26" s="1">
+        <v>1.2231807488544699</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>43.2299995422363</v>
+      </c>
     </row>
-    <row r="27" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -19482,8 +20502,14 @@
       <c r="Y27" s="1">
         <v>39.909999847412102</v>
       </c>
+      <c r="Z27" s="1">
+        <v>1.21016639243265</v>
+      </c>
+      <c r="AA27" s="1">
+        <v>42.840000152587798</v>
+      </c>
     </row>
-    <row r="28" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -19560,7 +20586,7 @@
         <v>40.2299995422363</v>
       </c>
     </row>
-    <row r="29" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -19637,7 +20663,7 @@
         <v>38.520000457763601</v>
       </c>
     </row>
-    <row r="30" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -19714,7 +20740,7 @@
         <v>37.950000762939403</v>
       </c>
     </row>
-    <row r="31" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -19791,7 +20817,7 @@
         <v>37.700000762939403</v>
       </c>
     </row>
-    <row r="32" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{02F5748B-2DCE-4637-96EF-449DAEF8270C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5971C6-42B5-488B-B02B-FCA04FFB60F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8621,6 +8621,159 @@
                 <c:pt idx="25">
                   <c:v>1.21016639243265</c:v>
                 </c:pt>
+                <c:pt idx="26">
+                  <c:v>1.20692436444531</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>1.1762434620006801</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>1.1655388595951499</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>1.1429706075388899</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>1.1305417760162499</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>1.11810380751919</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>1.10982260924236</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>1.08219442208101</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>1.0830884834004</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>1.06840022620122</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>1.0612106938271</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>1.0470551575065401</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>1.02957762920173</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>1.0237501237043101</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>1.02829679372204</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>1.0140314679236899</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>0.99917620648244299</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>0.99339074427914398</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>0.98325149724437899</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>0.969441728227457</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>0.95755497133655898</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>0.95680723676256296</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>0.94533060538540903</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>0.94638702444210099</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>0.94106734064733899</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>0.92470239036402102</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>0.90645362275421204</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>0.92174944945961002</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>0.94938899794961196</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>0.93234860897064198</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>0.91742125039647304</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>0.91653264100384502</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>0.89865072707461702</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>0.895980963661412</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>0.89570898197259097</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>0.88527375611529902</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>0.88038897324519505</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>0.88180832878039905</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>0.890973494311047</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>0.86706271748633901</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>0.87329714882905296</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>0.86587252947175497</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>0.86272853802723404</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>0.85904308014614505</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>0.86457039729045404</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>0.86060231164762102</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>0.85288356709632096</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>0.85757276358877699</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>0.85311425814203401</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>0.85551663492895202</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>0.86163694159999704</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9055,6 +9208,159 @@
                 </c:pt>
                 <c:pt idx="25">
                   <c:v>42.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42.779998779296797</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>41.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41.119998931884702</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40.090000152587798</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>39.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>39.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38.080001831054602</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>37.939998626708899</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>37.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>37.830001831054602</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36.889999389648402</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36.430000305175703</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>36.369998931884702</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>36.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35.880001068115199</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>35.090000152587798</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>34.540000915527301</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>33.4799995422363</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33.939998626708899</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>33.810001373291001</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>33.180000305175703</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>32.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>32.389999389648402</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>32.090000152587798</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>33.139999389648402</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>33.270000457763601</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>32.680000305175703</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.540000915527301</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>31.559999465942301</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>31.6800003051757</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31.4300003051757</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>31.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>31.379999160766602</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>30.7399997711181</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31.319999694824201</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>29.879999160766602</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>30.4799995422363</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>30.2000007629394</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30.2600002288818</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>30.170000076293899</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>30.170000076293899</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>29.690000534057599</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>29.920000076293899</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>29.9699993133544</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>29.579999923706001</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>29.9799995422363</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>29.75</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17960,12 +18266,12 @@
     <xdr:from>
       <xdr:col>10</xdr:col>
       <xdr:colOff>368989</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>30232</xdr:rowOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>182218</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>142462</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>414131</xdr:colOff>
       <xdr:row>30</xdr:row>
       <xdr:rowOff>11181</xdr:rowOff>
     </xdr:to>
@@ -18263,7 +18569,7 @@
   <dimension ref="A1:AA201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="X7" sqref="X7"/>
+      <selection activeCell="Y11" sqref="Y11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20585,6 +20891,12 @@
       <c r="Y28" s="1">
         <v>40.2299995422363</v>
       </c>
+      <c r="Z28" s="1">
+        <v>1.20692436444531</v>
+      </c>
+      <c r="AA28" s="1">
+        <v>42.779998779296797</v>
+      </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -20662,6 +20974,12 @@
       <c r="Y29" s="1">
         <v>38.520000457763601</v>
       </c>
+      <c r="Z29" s="1">
+        <v>1.1762434620006801</v>
+      </c>
+      <c r="AA29" s="1">
+        <v>41.700000762939403</v>
+      </c>
     </row>
     <row r="30" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -20739,6 +21057,12 @@
       <c r="Y30" s="1">
         <v>37.950000762939403</v>
       </c>
+      <c r="Z30" s="1">
+        <v>1.1655388595951499</v>
+      </c>
+      <c r="AA30" s="1">
+        <v>41.119998931884702</v>
+      </c>
     </row>
     <row r="31" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -20816,6 +21140,12 @@
       <c r="Y31" s="1">
         <v>37.700000762939403</v>
       </c>
+      <c r="Z31" s="1">
+        <v>1.1429706075388899</v>
+      </c>
+      <c r="AA31" s="1">
+        <v>40.090000152587798</v>
+      </c>
     </row>
     <row r="32" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -20893,8 +21223,14 @@
       <c r="Y32" s="1">
         <v>37.5</v>
       </c>
+      <c r="Z32" s="1">
+        <v>1.1305417760162499</v>
+      </c>
+      <c r="AA32" s="1">
+        <v>39.860000610351499</v>
+      </c>
     </row>
-    <row r="33" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -20970,8 +21306,14 @@
       <c r="Y33" s="1">
         <v>36.950000762939403</v>
       </c>
+      <c r="Z33" s="1">
+        <v>1.11810380751919</v>
+      </c>
+      <c r="AA33" s="1">
+        <v>39.799999237060497</v>
+      </c>
     </row>
-    <row r="34" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -21047,8 +21389,14 @@
       <c r="Y34" s="1">
         <v>36.650001525878899</v>
       </c>
+      <c r="Z34" s="1">
+        <v>1.10982260924236</v>
+      </c>
+      <c r="AA34" s="1">
+        <v>39.650001525878899</v>
+      </c>
     </row>
-    <row r="35" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -21124,8 +21472,14 @@
       <c r="Y35" s="1">
         <v>36.180000305175703</v>
       </c>
+      <c r="Z35" s="1">
+        <v>1.08219442208101</v>
+      </c>
+      <c r="AA35" s="1">
+        <v>38.080001831054602</v>
+      </c>
     </row>
-    <row r="36" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -21201,8 +21555,14 @@
       <c r="Y36" s="1">
         <v>35.840000152587798</v>
       </c>
+      <c r="Z36" s="1">
+        <v>1.0830884834004</v>
+      </c>
+      <c r="AA36" s="1">
+        <v>37.939998626708899</v>
+      </c>
     </row>
-    <row r="37" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -21278,8 +21638,14 @@
       <c r="Y37" s="1">
         <v>35.650001525878899</v>
       </c>
+      <c r="Z37" s="1">
+        <v>1.06840022620122</v>
+      </c>
+      <c r="AA37" s="1">
+        <v>37.220001220703097</v>
+      </c>
     </row>
-    <row r="38" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -21355,8 +21721,14 @@
       <c r="Y38" s="1">
         <v>34.959999084472599</v>
       </c>
+      <c r="Z38" s="1">
+        <v>1.0612106938271</v>
+      </c>
+      <c r="AA38" s="1">
+        <v>37.830001831054602</v>
+      </c>
     </row>
-    <row r="39" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -21432,8 +21804,14 @@
       <c r="Y39" s="1">
         <v>34.840000152587798</v>
       </c>
+      <c r="Z39" s="1">
+        <v>1.0470551575065401</v>
+      </c>
+      <c r="AA39" s="1">
+        <v>36.889999389648402</v>
+      </c>
     </row>
-    <row r="40" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -21509,8 +21887,14 @@
       <c r="Y40" s="1">
         <v>34.439998626708899</v>
       </c>
+      <c r="Z40" s="1">
+        <v>1.02957762920173</v>
+      </c>
+      <c r="AA40" s="1">
+        <v>36.819999694824197</v>
+      </c>
     </row>
-    <row r="41" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -21586,8 +21970,14 @@
       <c r="Y41" s="1">
         <v>33.180000305175703</v>
       </c>
+      <c r="Z41" s="1">
+        <v>1.0237501237043101</v>
+      </c>
+      <c r="AA41" s="1">
+        <v>36.430000305175703</v>
+      </c>
     </row>
-    <row r="42" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -21663,8 +22053,14 @@
       <c r="Y42" s="1">
         <v>34.25</v>
       </c>
+      <c r="Z42" s="1">
+        <v>1.02829679372204</v>
+      </c>
+      <c r="AA42" s="1">
+        <v>36.369998931884702</v>
+      </c>
     </row>
-    <row r="43" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -21740,8 +22136,14 @@
       <c r="Y43" s="1">
         <v>33.779998779296797</v>
       </c>
+      <c r="Z43" s="1">
+        <v>1.0140314679236899</v>
+      </c>
+      <c r="AA43" s="1">
+        <v>36.290000915527301</v>
+      </c>
     </row>
-    <row r="44" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -21817,8 +22219,14 @@
       <c r="Y44" s="1">
         <v>32.909999847412102</v>
       </c>
+      <c r="Z44" s="1">
+        <v>0.99917620648244299</v>
+      </c>
+      <c r="AA44" s="1">
+        <v>35.880001068115199</v>
+      </c>
     </row>
-    <row r="45" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -21894,8 +22302,14 @@
       <c r="Y45" s="1">
         <v>32.790000915527301</v>
       </c>
+      <c r="Z45" s="1">
+        <v>0.99339074427914398</v>
+      </c>
+      <c r="AA45" s="1">
+        <v>35.090000152587798</v>
+      </c>
     </row>
-    <row r="46" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -21971,8 +22385,14 @@
       <c r="Y46" s="1">
         <v>32.4799995422363</v>
       </c>
+      <c r="Z46" s="1">
+        <v>0.98325149724437899</v>
+      </c>
+      <c r="AA46" s="1">
+        <v>34.540000915527301</v>
+      </c>
     </row>
-    <row r="47" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -22048,8 +22468,14 @@
       <c r="Y47" s="1">
         <v>32.7299995422363</v>
       </c>
+      <c r="Z47" s="1">
+        <v>0.969441728227457</v>
+      </c>
+      <c r="AA47" s="1">
+        <v>33.4799995422363</v>
+      </c>
     </row>
-    <row r="48" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -22125,8 +22551,14 @@
       <c r="Y48" s="1">
         <v>32.7299995422363</v>
       </c>
+      <c r="Z48" s="1">
+        <v>0.95755497133655898</v>
+      </c>
+      <c r="AA48" s="1">
+        <v>33.939998626708899</v>
+      </c>
     </row>
-    <row r="49" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -22202,8 +22634,14 @@
       <c r="Y49" s="1">
         <v>31.9699993133544</v>
       </c>
+      <c r="Z49" s="1">
+        <v>0.95680723676256296</v>
+      </c>
+      <c r="AA49" s="1">
+        <v>33.810001373291001</v>
+      </c>
     </row>
-    <row r="50" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -22279,8 +22717,14 @@
       <c r="Y50" s="1">
         <v>31.7399997711181</v>
       </c>
+      <c r="Z50" s="1">
+        <v>0.94533060538540903</v>
+      </c>
+      <c r="AA50" s="1">
+        <v>33.180000305175703</v>
+      </c>
     </row>
-    <row r="51" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -22356,8 +22800,14 @@
       <c r="Y51" s="1">
         <v>31.309999465942301</v>
       </c>
+      <c r="Z51" s="1">
+        <v>0.94638702444210099</v>
+      </c>
+      <c r="AA51" s="1">
+        <v>33.860000610351499</v>
+      </c>
     </row>
-    <row r="52" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -22433,8 +22883,14 @@
       <c r="Y52" s="1">
         <v>31.770000457763601</v>
       </c>
+      <c r="Z52" s="1">
+        <v>0.94106734064733899</v>
+      </c>
+      <c r="AA52" s="1">
+        <v>32.950000762939403</v>
+      </c>
     </row>
-    <row r="53" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -22510,8 +22966,14 @@
       <c r="Y53" s="1">
         <v>30.620000839233398</v>
       </c>
+      <c r="Z53" s="1">
+        <v>0.92470239036402102</v>
+      </c>
+      <c r="AA53" s="1">
+        <v>32.389999389648402</v>
+      </c>
     </row>
-    <row r="54" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -22587,8 +23049,14 @@
       <c r="Y54" s="1">
         <v>31.270000457763601</v>
       </c>
+      <c r="Z54" s="1">
+        <v>0.90645362275421204</v>
+      </c>
+      <c r="AA54" s="1">
+        <v>32.220001220703097</v>
+      </c>
     </row>
-    <row r="55" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -22664,8 +23132,14 @@
       <c r="Y55" s="1">
         <v>31.2199993133544</v>
       </c>
+      <c r="Z55" s="1">
+        <v>0.92174944945961002</v>
+      </c>
+      <c r="AA55" s="1">
+        <v>32.090000152587798</v>
+      </c>
     </row>
-    <row r="56" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -22741,8 +23215,14 @@
       <c r="Y56" s="1">
         <v>30.790000915527301</v>
       </c>
+      <c r="Z56" s="1">
+        <v>0.94938899794961196</v>
+      </c>
+      <c r="AA56" s="1">
+        <v>33.139999389648402</v>
+      </c>
     </row>
-    <row r="57" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -22818,8 +23298,14 @@
       <c r="Y57" s="1">
         <v>30.639999389648398</v>
       </c>
+      <c r="Z57" s="1">
+        <v>0.93234860897064198</v>
+      </c>
+      <c r="AA57" s="1">
+        <v>33.270000457763601</v>
+      </c>
     </row>
-    <row r="58" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -22895,8 +23381,14 @@
       <c r="Y58" s="1">
         <v>30.069999694824201</v>
       </c>
+      <c r="Z58" s="1">
+        <v>0.91742125039647304</v>
+      </c>
+      <c r="AA58" s="1">
+        <v>32.680000305175703</v>
+      </c>
     </row>
-    <row r="59" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -22972,8 +23464,14 @@
       <c r="Y59" s="1">
         <v>30.4899997711181</v>
       </c>
+      <c r="Z59" s="1">
+        <v>0.91653264100384502</v>
+      </c>
+      <c r="AA59" s="1">
+        <v>32.540000915527301</v>
+      </c>
     </row>
-    <row r="60" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -23049,8 +23547,14 @@
       <c r="Y60" s="1">
         <v>30.5100002288818</v>
       </c>
+      <c r="Z60" s="1">
+        <v>0.89865072707461702</v>
+      </c>
+      <c r="AA60" s="1">
+        <v>31.559999465942301</v>
+      </c>
     </row>
-    <row r="61" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -23126,8 +23630,14 @@
       <c r="Y61" s="1">
         <v>30.520000457763601</v>
       </c>
+      <c r="Z61" s="1">
+        <v>0.895980963661412</v>
+      </c>
+      <c r="AA61" s="1">
+        <v>31.6800003051757</v>
+      </c>
     </row>
-    <row r="62" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -23203,8 +23713,14 @@
       <c r="Y62" s="1">
         <v>30.2399997711181</v>
       </c>
+      <c r="Z62" s="1">
+        <v>0.89570898197259097</v>
+      </c>
+      <c r="AA62" s="1">
+        <v>31.4300003051757</v>
+      </c>
     </row>
-    <row r="63" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -23280,8 +23796,14 @@
       <c r="Y63" s="1">
         <v>29.75</v>
       </c>
+      <c r="Z63" s="1">
+        <v>0.88527375611529902</v>
+      </c>
+      <c r="AA63" s="1">
+        <v>31.290000915527301</v>
+      </c>
     </row>
-    <row r="64" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -23357,8 +23879,14 @@
       <c r="Y64" s="1">
         <v>29.6800003051757</v>
       </c>
+      <c r="Z64" s="1">
+        <v>0.88038897324519505</v>
+      </c>
+      <c r="AA64" s="1">
+        <v>31.379999160766602</v>
+      </c>
     </row>
-    <row r="65" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -23434,8 +23962,14 @@
       <c r="Y65" s="1">
         <v>29.270000457763601</v>
       </c>
+      <c r="Z65" s="1">
+        <v>0.88180832878039905</v>
+      </c>
+      <c r="AA65" s="1">
+        <v>30.7399997711181</v>
+      </c>
     </row>
-    <row r="66" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -23511,8 +24045,14 @@
       <c r="Y66" s="1">
         <v>30.030000686645501</v>
       </c>
+      <c r="Z66" s="1">
+        <v>0.890973494311047</v>
+      </c>
+      <c r="AA66" s="1">
+        <v>31.319999694824201</v>
+      </c>
     </row>
-    <row r="67" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -23588,8 +24128,14 @@
       <c r="Y67" s="1">
         <v>29.75</v>
       </c>
+      <c r="Z67" s="1">
+        <v>0.86706271748633901</v>
+      </c>
+      <c r="AA67" s="1">
+        <v>29.879999160766602</v>
+      </c>
     </row>
-    <row r="68" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -23665,8 +24211,14 @@
       <c r="Y68" s="1">
         <v>28.920000076293899</v>
       </c>
+      <c r="Z68" s="1">
+        <v>0.87329714882905296</v>
+      </c>
+      <c r="AA68" s="1">
+        <v>30.4799995422363</v>
+      </c>
     </row>
-    <row r="69" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -23742,8 +24294,14 @@
       <c r="Y69" s="1">
         <v>29.299999237060501</v>
       </c>
+      <c r="Z69" s="1">
+        <v>0.86587252947175497</v>
+      </c>
+      <c r="AA69" s="1">
+        <v>30.2000007629394</v>
+      </c>
     </row>
-    <row r="70" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -23819,8 +24377,14 @@
       <c r="Y70" s="1">
         <v>29.110000610351499</v>
       </c>
+      <c r="Z70" s="1">
+        <v>0.86272853802723404</v>
+      </c>
+      <c r="AA70" s="1">
+        <v>30.2600002288818</v>
+      </c>
     </row>
-    <row r="71" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -23896,8 +24460,14 @@
       <c r="Y71" s="1">
         <v>28.850000381469702</v>
       </c>
+      <c r="Z71" s="1">
+        <v>0.85904308014614505</v>
+      </c>
+      <c r="AA71" s="1">
+        <v>30.170000076293899</v>
+      </c>
     </row>
-    <row r="72" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -23973,8 +24543,14 @@
       <c r="Y72" s="1">
         <v>28.7299995422363</v>
       </c>
+      <c r="Z72" s="1">
+        <v>0.86457039729045404</v>
+      </c>
+      <c r="AA72" s="1">
+        <v>30.170000076293899</v>
+      </c>
     </row>
-    <row r="73" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -24050,8 +24626,14 @@
       <c r="Y73" s="1">
         <v>28.4899997711181</v>
       </c>
+      <c r="Z73" s="1">
+        <v>0.86060231164762102</v>
+      </c>
+      <c r="AA73" s="1">
+        <v>29.690000534057599</v>
+      </c>
     </row>
-    <row r="74" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -24127,8 +24709,14 @@
       <c r="Y74" s="1">
         <v>28.670000076293899</v>
       </c>
+      <c r="Z74" s="1">
+        <v>0.85288356709632096</v>
+      </c>
+      <c r="AA74" s="1">
+        <v>29.920000076293899</v>
+      </c>
     </row>
-    <row r="75" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -24204,8 +24792,14 @@
       <c r="Y75" s="1">
         <v>28.420000076293899</v>
       </c>
+      <c r="Z75" s="1">
+        <v>0.85757276358877699</v>
+      </c>
+      <c r="AA75" s="1">
+        <v>29.9699993133544</v>
+      </c>
     </row>
-    <row r="76" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -24281,8 +24875,14 @@
       <c r="Y76" s="1">
         <v>28.389999389648398</v>
       </c>
+      <c r="Z76" s="1">
+        <v>0.85311425814203401</v>
+      </c>
+      <c r="AA76" s="1">
+        <v>29.579999923706001</v>
+      </c>
     </row>
-    <row r="77" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -24358,8 +24958,14 @@
       <c r="Y77" s="1">
         <v>28.399999618530199</v>
       </c>
+      <c r="Z77" s="1">
+        <v>0.85551663492895202</v>
+      </c>
+      <c r="AA77" s="1">
+        <v>29.9799995422363</v>
+      </c>
     </row>
-    <row r="78" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -24435,8 +25041,14 @@
       <c r="Y78" s="1">
         <v>29.110000610351499</v>
       </c>
+      <c r="Z78" s="1">
+        <v>0.86163694159999704</v>
+      </c>
+      <c r="AA78" s="1">
+        <v>29.75</v>
+      </c>
     </row>
-    <row r="79" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -24513,7 +25125,7 @@
         <v>28.030000686645501</v>
       </c>
     </row>
-    <row r="80" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FB5971C6-42B5-488B-B02B-FCA04FFB60F1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6266041C-E64D-466A-8578-B21E4575D9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -124,6 +124,14 @@
   </si>
   <si>
     <t>efl_err_#9</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_loss_#10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_err_#10</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8197,594 +8205,6 @@
           </c:extLst>
         </c:ser>
         <c:ser>
-          <c:idx val="24"/>
-          <c:order val="24"/>
-          <c:tx>
-            <c:strRef>
-              <c:f>Sheet1!$Z$1</c:f>
-              <c:strCache>
-                <c:ptCount val="1"/>
-              </c:strCache>
-            </c:strRef>
-          </c:tx>
-          <c:spPr>
-            <a:ln w="34925" cap="rnd">
-              <a:solidFill>
-                <a:schemeClr val="accent1">
-                  <a:lumMod val="60000"/>
-                  <a:lumOff val="40000"/>
-                </a:schemeClr>
-              </a:solidFill>
-              <a:round/>
-            </a:ln>
-            <a:effectLst>
-              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
-                <a:srgbClr val="000000">
-                  <a:alpha val="63000"/>
-                </a:srgbClr>
-              </a:outerShdw>
-            </a:effectLst>
-          </c:spPr>
-          <c:marker>
-            <c:symbol val="none"/>
-          </c:marker>
-          <c:cat>
-            <c:numRef>
-              <c:f>Sheet1!$A$2:$A$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>0</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>1</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>2</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>3</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>4</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>5</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>6</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>7</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>8</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>9</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>10</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>11</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>12</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>13</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>14</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>15</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>16</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>17</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>18</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>19</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>20</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>21</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>22</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>23</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>24</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>25</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>26</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>27</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>28</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>29</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>30</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>31</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>32</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>33</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>34</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>35</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>36</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>37</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>38</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>39</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>40</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>41</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>42</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>43</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>44</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>45</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>46</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>47</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>48</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>49</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>50</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>51</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>52</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>53</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>54</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>55</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>56</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>57</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>58</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>59</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>60</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>61</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>62</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>63</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>64</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>65</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>66</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>67</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>68</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>69</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>70</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>71</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>72</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>73</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>74</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>75</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>76</c:v>
-                </c:pt>
-                <c:pt idx="77">
-                  <c:v>77</c:v>
-                </c:pt>
-                <c:pt idx="78">
-                  <c:v>78</c:v>
-                </c:pt>
-                <c:pt idx="79">
-                  <c:v>79</c:v>
-                </c:pt>
-                <c:pt idx="80">
-                  <c:v>80</c:v>
-                </c:pt>
-                <c:pt idx="81">
-                  <c:v>81</c:v>
-                </c:pt>
-                <c:pt idx="82">
-                  <c:v>82</c:v>
-                </c:pt>
-                <c:pt idx="83">
-                  <c:v>83</c:v>
-                </c:pt>
-                <c:pt idx="84">
-                  <c:v>84</c:v>
-                </c:pt>
-                <c:pt idx="85">
-                  <c:v>85</c:v>
-                </c:pt>
-                <c:pt idx="86">
-                  <c:v>86</c:v>
-                </c:pt>
-                <c:pt idx="87">
-                  <c:v>87</c:v>
-                </c:pt>
-                <c:pt idx="88">
-                  <c:v>88</c:v>
-                </c:pt>
-                <c:pt idx="89">
-                  <c:v>89</c:v>
-                </c:pt>
-                <c:pt idx="90">
-                  <c:v>90</c:v>
-                </c:pt>
-                <c:pt idx="91">
-                  <c:v>91</c:v>
-                </c:pt>
-                <c:pt idx="92">
-                  <c:v>92</c:v>
-                </c:pt>
-                <c:pt idx="93">
-                  <c:v>93</c:v>
-                </c:pt>
-                <c:pt idx="94">
-                  <c:v>94</c:v>
-                </c:pt>
-                <c:pt idx="95">
-                  <c:v>95</c:v>
-                </c:pt>
-                <c:pt idx="96">
-                  <c:v>96</c:v>
-                </c:pt>
-                <c:pt idx="97">
-                  <c:v>97</c:v>
-                </c:pt>
-                <c:pt idx="98">
-                  <c:v>98</c:v>
-                </c:pt>
-                <c:pt idx="99">
-                  <c:v>99</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:cat>
-          <c:val>
-            <c:numRef>
-              <c:f>Sheet1!$Z$2:$Z$101</c:f>
-              <c:numCache>
-                <c:formatCode>General</c:formatCode>
-                <c:ptCount val="100"/>
-                <c:pt idx="0">
-                  <c:v>2.31082412695429</c:v>
-                </c:pt>
-                <c:pt idx="1">
-                  <c:v>2.2072040586714499</c:v>
-                </c:pt>
-                <c:pt idx="2">
-                  <c:v>1.9886049753541399</c:v>
-                </c:pt>
-                <c:pt idx="3">
-                  <c:v>1.8321892539407001</c:v>
-                </c:pt>
-                <c:pt idx="4">
-                  <c:v>1.76379030829022</c:v>
-                </c:pt>
-                <c:pt idx="5">
-                  <c:v>1.7145880445553201</c:v>
-                </c:pt>
-                <c:pt idx="6">
-                  <c:v>1.6401389632255401</c:v>
-                </c:pt>
-                <c:pt idx="7">
-                  <c:v>1.6045686894920901</c:v>
-                </c:pt>
-                <c:pt idx="8">
-                  <c:v>1.5645778984021199</c:v>
-                </c:pt>
-                <c:pt idx="9">
-                  <c:v>1.5251206850549901</c:v>
-                </c:pt>
-                <c:pt idx="10">
-                  <c:v>1.499636244622</c:v>
-                </c:pt>
-                <c:pt idx="11">
-                  <c:v>1.48861216435766</c:v>
-                </c:pt>
-                <c:pt idx="12">
-                  <c:v>1.44891641170355</c:v>
-                </c:pt>
-                <c:pt idx="13">
-                  <c:v>1.41827709583719</c:v>
-                </c:pt>
-                <c:pt idx="14">
-                  <c:v>1.3984738375730501</c:v>
-                </c:pt>
-                <c:pt idx="15">
-                  <c:v>1.3738584267865299</c:v>
-                </c:pt>
-                <c:pt idx="16">
-                  <c:v>1.3503492015182501</c:v>
-                </c:pt>
-                <c:pt idx="17">
-                  <c:v>1.3289494256304999</c:v>
-                </c:pt>
-                <c:pt idx="18">
-                  <c:v>1.3243201082679099</c:v>
-                </c:pt>
-                <c:pt idx="19">
-                  <c:v>1.3236665983868201</c:v>
-                </c:pt>
-                <c:pt idx="20">
-                  <c:v>1.30847985577431</c:v>
-                </c:pt>
-                <c:pt idx="21">
-                  <c:v>1.2897445540519199</c:v>
-                </c:pt>
-                <c:pt idx="22">
-                  <c:v>1.27387462262135</c:v>
-                </c:pt>
-                <c:pt idx="23">
-                  <c:v>1.2656071694793201</c:v>
-                </c:pt>
-                <c:pt idx="24">
-                  <c:v>1.2231807488544699</c:v>
-                </c:pt>
-                <c:pt idx="25">
-                  <c:v>1.21016639243265</c:v>
-                </c:pt>
-                <c:pt idx="26">
-                  <c:v>1.20692436444531</c:v>
-                </c:pt>
-                <c:pt idx="27">
-                  <c:v>1.1762434620006801</c:v>
-                </c:pt>
-                <c:pt idx="28">
-                  <c:v>1.1655388595951499</c:v>
-                </c:pt>
-                <c:pt idx="29">
-                  <c:v>1.1429706075388899</c:v>
-                </c:pt>
-                <c:pt idx="30">
-                  <c:v>1.1305417760162499</c:v>
-                </c:pt>
-                <c:pt idx="31">
-                  <c:v>1.11810380751919</c:v>
-                </c:pt>
-                <c:pt idx="32">
-                  <c:v>1.10982260924236</c:v>
-                </c:pt>
-                <c:pt idx="33">
-                  <c:v>1.08219442208101</c:v>
-                </c:pt>
-                <c:pt idx="34">
-                  <c:v>1.0830884834004</c:v>
-                </c:pt>
-                <c:pt idx="35">
-                  <c:v>1.06840022620122</c:v>
-                </c:pt>
-                <c:pt idx="36">
-                  <c:v>1.0612106938271</c:v>
-                </c:pt>
-                <c:pt idx="37">
-                  <c:v>1.0470551575065401</c:v>
-                </c:pt>
-                <c:pt idx="38">
-                  <c:v>1.02957762920173</c:v>
-                </c:pt>
-                <c:pt idx="39">
-                  <c:v>1.0237501237043101</c:v>
-                </c:pt>
-                <c:pt idx="40">
-                  <c:v>1.02829679372204</c:v>
-                </c:pt>
-                <c:pt idx="41">
-                  <c:v>1.0140314679236899</c:v>
-                </c:pt>
-                <c:pt idx="42">
-                  <c:v>0.99917620648244299</c:v>
-                </c:pt>
-                <c:pt idx="43">
-                  <c:v>0.99339074427914398</c:v>
-                </c:pt>
-                <c:pt idx="44">
-                  <c:v>0.98325149724437899</c:v>
-                </c:pt>
-                <c:pt idx="45">
-                  <c:v>0.969441728227457</c:v>
-                </c:pt>
-                <c:pt idx="46">
-                  <c:v>0.95755497133655898</c:v>
-                </c:pt>
-                <c:pt idx="47">
-                  <c:v>0.95680723676256296</c:v>
-                </c:pt>
-                <c:pt idx="48">
-                  <c:v>0.94533060538540903</c:v>
-                </c:pt>
-                <c:pt idx="49">
-                  <c:v>0.94638702444210099</c:v>
-                </c:pt>
-                <c:pt idx="50">
-                  <c:v>0.94106734064733899</c:v>
-                </c:pt>
-                <c:pt idx="51">
-                  <c:v>0.92470239036402102</c:v>
-                </c:pt>
-                <c:pt idx="52">
-                  <c:v>0.90645362275421204</c:v>
-                </c:pt>
-                <c:pt idx="53">
-                  <c:v>0.92174944945961002</c:v>
-                </c:pt>
-                <c:pt idx="54">
-                  <c:v>0.94938899794961196</c:v>
-                </c:pt>
-                <c:pt idx="55">
-                  <c:v>0.93234860897064198</c:v>
-                </c:pt>
-                <c:pt idx="56">
-                  <c:v>0.91742125039647304</c:v>
-                </c:pt>
-                <c:pt idx="57">
-                  <c:v>0.91653264100384502</c:v>
-                </c:pt>
-                <c:pt idx="58">
-                  <c:v>0.89865072707461702</c:v>
-                </c:pt>
-                <c:pt idx="59">
-                  <c:v>0.895980963661412</c:v>
-                </c:pt>
-                <c:pt idx="60">
-                  <c:v>0.89570898197259097</c:v>
-                </c:pt>
-                <c:pt idx="61">
-                  <c:v>0.88527375611529902</c:v>
-                </c:pt>
-                <c:pt idx="62">
-                  <c:v>0.88038897324519505</c:v>
-                </c:pt>
-                <c:pt idx="63">
-                  <c:v>0.88180832878039905</c:v>
-                </c:pt>
-                <c:pt idx="64">
-                  <c:v>0.890973494311047</c:v>
-                </c:pt>
-                <c:pt idx="65">
-                  <c:v>0.86706271748633901</c:v>
-                </c:pt>
-                <c:pt idx="66">
-                  <c:v>0.87329714882905296</c:v>
-                </c:pt>
-                <c:pt idx="67">
-                  <c:v>0.86587252947175497</c:v>
-                </c:pt>
-                <c:pt idx="68">
-                  <c:v>0.86272853802723404</c:v>
-                </c:pt>
-                <c:pt idx="69">
-                  <c:v>0.85904308014614505</c:v>
-                </c:pt>
-                <c:pt idx="70">
-                  <c:v>0.86457039729045404</c:v>
-                </c:pt>
-                <c:pt idx="71">
-                  <c:v>0.86060231164762102</c:v>
-                </c:pt>
-                <c:pt idx="72">
-                  <c:v>0.85288356709632096</c:v>
-                </c:pt>
-                <c:pt idx="73">
-                  <c:v>0.85757276358877699</c:v>
-                </c:pt>
-                <c:pt idx="74">
-                  <c:v>0.85311425814203401</c:v>
-                </c:pt>
-                <c:pt idx="75">
-                  <c:v>0.85551663492895202</c:v>
-                </c:pt>
-                <c:pt idx="76">
-                  <c:v>0.86163694159999704</c:v>
-                </c:pt>
-              </c:numCache>
-            </c:numRef>
-          </c:val>
-          <c:smooth val="0"/>
-          <c:extLst>
-            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-              <c16:uniqueId val="{00000001-54C0-4CE6-8048-C4A5A7E2E0DA}"/>
-            </c:ext>
-          </c:extLst>
-        </c:ser>
-        <c:ser>
           <c:idx val="25"/>
           <c:order val="25"/>
           <c:tx>
@@ -8792,6 +8212,9 @@
               <c:f>Sheet1!$AA$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efl_err_#10</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -9361,6 +8784,75 @@
                 </c:pt>
                 <c:pt idx="76">
                   <c:v>29.75</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>29.940000534057599</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>29.280000686645501</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>29.190000534057599</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>28.870000839233398</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>29.420000076293899</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>29.280000686645501</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>29.159999847412099</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>28.75</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>29.139999389648398</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>28.6800003051757</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28.850000381469702</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>28.409999847412099</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>28.690000534057599</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27.569999694824201</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>28.129999160766602</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>28.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>28.389999389648398</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>27.940000534057599</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>28.049999237060501</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>27.7600002288818</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>27.9699993133544</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28.2199993133544</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>27.809999465942301</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -17526,6 +17018,686 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-FE23-40E3-B4D7-7E1C9E6BF403}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="24"/>
+                <c:order val="24"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$Z$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>efl_loss_#10</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>99</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$Z$2:$Z$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>2.31082412695429</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.2072040586714499</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.9886049753541399</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.8321892539407001</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.76379030829022</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.7145880445553201</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.6401389632255401</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.6045686894920901</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5645778984021199</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.5251206850549901</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.499636244622</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.48861216435766</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.44891641170355</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.41827709583719</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.3984738375730501</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.3738584267865299</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.3503492015182501</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.3289494256304999</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.3243201082679099</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.3236665983868201</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.30847985577431</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.2897445540519199</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.27387462262135</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.2656071694793201</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.2231807488544699</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.21016639243265</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.20692436444531</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.1762434620006801</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1.1655388595951499</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.1429706075388899</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.1305417760162499</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1.11810380751919</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1.10982260924236</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>1.08219442208101</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>1.0830884834004</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1.06840022620122</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>1.0612106938271</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1.0470551575065401</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>1.02957762920173</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1.0237501237043101</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>1.02829679372204</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>1.0140314679236899</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.99917620648244299</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.99339074427914398</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.98325149724437899</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.969441728227457</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.95755497133655898</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.95680723676256296</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.94533060538540903</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.94638702444210099</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.94106734064733899</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.92470239036402102</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.90645362275421204</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.92174944945961002</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.94938899794961196</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.93234860897064198</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.91742125039647304</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.91653264100384502</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.89865072707461702</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.895980963661412</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.89570898197259097</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0.88527375611529902</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0.88038897324519505</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0.88180832878039905</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.890973494311047</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0.86706271748633901</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0.87329714882905296</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0.86587252947175497</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.86272853802723404</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0.85904308014614505</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0.86457039729045404</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0.86060231164762102</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0.85288356709632096</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0.85757276358877699</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0.85311425814203401</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0.85551663492895202</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0.86163694159999704</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0.86419350060687705</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0.84956140578932005</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0.85278798554353596</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0.84645105110611796</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0.85018693489633501</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0.85015256807302897</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0.84326493872958297</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0.84756122083420904</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.85404881018741796</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0.83205923495019296</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0.84100148973950895</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0.82788346964082904</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0.83450540729389</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0.81856154503336298</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0.84195894952032901</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0.83067291177761704</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0.84371282416544102</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0.83244873118248697</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0.85441615532158199</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0.82498583406399695</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0.825482747167538</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0.83885821548237105</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0.82750658187896498</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-54C0-4CE6-8048-C4A5A7E2E0DA}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -18569,7 +18741,7 @@
   <dimension ref="A1:AA201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="Y11" sqref="Y11"/>
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18656,6 +18828,12 @@
       <c r="Y1" t="s">
         <v>24</v>
       </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
@@ -25124,6 +25302,12 @@
       <c r="Y79" s="1">
         <v>28.030000686645501</v>
       </c>
+      <c r="Z79" s="1">
+        <v>0.86419350060687705</v>
+      </c>
+      <c r="AA79" s="1">
+        <v>29.940000534057599</v>
+      </c>
     </row>
     <row r="80" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
@@ -25201,8 +25385,14 @@
       <c r="Y80" s="1">
         <v>28.4799995422363</v>
       </c>
+      <c r="Z80" s="1">
+        <v>0.84956140578932005</v>
+      </c>
+      <c r="AA80" s="1">
+        <v>29.280000686645501</v>
+      </c>
     </row>
-    <row r="81" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -25278,8 +25468,14 @@
       <c r="Y81" s="1">
         <v>27.899999618530199</v>
       </c>
+      <c r="Z81" s="1">
+        <v>0.85278798554353596</v>
+      </c>
+      <c r="AA81" s="1">
+        <v>29.190000534057599</v>
+      </c>
     </row>
-    <row r="82" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -25355,8 +25551,14 @@
       <c r="Y82" s="1">
         <v>28.309999465942301</v>
       </c>
+      <c r="Z82" s="1">
+        <v>0.84645105110611796</v>
+      </c>
+      <c r="AA82" s="1">
+        <v>28.870000839233398</v>
+      </c>
     </row>
-    <row r="83" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -25432,8 +25634,14 @@
       <c r="Y83" s="1">
         <v>28.190000534057599</v>
       </c>
+      <c r="Z83" s="1">
+        <v>0.85018693489633501</v>
+      </c>
+      <c r="AA83" s="1">
+        <v>29.420000076293899</v>
+      </c>
     </row>
-    <row r="84" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -25509,8 +25717,14 @@
       <c r="Y84" s="1">
         <v>28.2199993133544</v>
       </c>
+      <c r="Z84" s="1">
+        <v>0.85015256807302897</v>
+      </c>
+      <c r="AA84" s="1">
+        <v>29.280000686645501</v>
+      </c>
     </row>
-    <row r="85" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -25586,8 +25800,14 @@
       <c r="Y85" s="1">
         <v>27.7399997711181</v>
       </c>
+      <c r="Z85" s="1">
+        <v>0.84326493872958297</v>
+      </c>
+      <c r="AA85" s="1">
+        <v>29.159999847412099</v>
+      </c>
     </row>
-    <row r="86" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -25663,8 +25883,14 @@
       <c r="Y86" s="1">
         <v>27.809999465942301</v>
       </c>
+      <c r="Z86" s="1">
+        <v>0.84756122083420904</v>
+      </c>
+      <c r="AA86" s="1">
+        <v>28.75</v>
+      </c>
     </row>
-    <row r="87" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -25740,8 +25966,14 @@
       <c r="Y87" s="1">
         <v>27.530000686645501</v>
       </c>
+      <c r="Z87" s="1">
+        <v>0.85404881018741796</v>
+      </c>
+      <c r="AA87" s="1">
+        <v>29.139999389648398</v>
+      </c>
     </row>
-    <row r="88" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -25817,8 +26049,14 @@
       <c r="Y88" s="1">
         <v>28.079999923706001</v>
       </c>
+      <c r="Z88" s="1">
+        <v>0.83205923495019296</v>
+      </c>
+      <c r="AA88" s="1">
+        <v>28.6800003051757</v>
+      </c>
     </row>
-    <row r="89" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -25894,8 +26132,14 @@
       <c r="Y89" s="1">
         <v>27.840000152587798</v>
       </c>
+      <c r="Z89" s="1">
+        <v>0.84100148973950895</v>
+      </c>
+      <c r="AA89" s="1">
+        <v>28.850000381469702</v>
+      </c>
     </row>
-    <row r="90" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -25971,8 +26215,14 @@
       <c r="Y90" s="1">
         <v>27.600000381469702</v>
       </c>
+      <c r="Z90" s="1">
+        <v>0.82788346964082904</v>
+      </c>
+      <c r="AA90" s="1">
+        <v>28.409999847412099</v>
+      </c>
     </row>
-    <row r="91" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -26048,8 +26298,14 @@
       <c r="Y91" s="1">
         <v>28.100000381469702</v>
       </c>
+      <c r="Z91" s="1">
+        <v>0.83450540729389</v>
+      </c>
+      <c r="AA91" s="1">
+        <v>28.690000534057599</v>
+      </c>
     </row>
-    <row r="92" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -26125,8 +26381,14 @@
       <c r="Y92" s="1">
         <v>27.6800003051757</v>
       </c>
+      <c r="Z92" s="1">
+        <v>0.81856154503336298</v>
+      </c>
+      <c r="AA92" s="1">
+        <v>27.569999694824201</v>
+      </c>
     </row>
-    <row r="93" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -26202,8 +26464,14 @@
       <c r="Y93" s="1">
         <v>27.5</v>
       </c>
+      <c r="Z93" s="1">
+        <v>0.84195894952032901</v>
+      </c>
+      <c r="AA93" s="1">
+        <v>28.129999160766602</v>
+      </c>
     </row>
-    <row r="94" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -26279,8 +26547,14 @@
       <c r="Y94" s="1">
         <v>27.610000610351499</v>
       </c>
+      <c r="Z94" s="1">
+        <v>0.83067291177761704</v>
+      </c>
+      <c r="AA94" s="1">
+        <v>28.340000152587798</v>
+      </c>
     </row>
-    <row r="95" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -26356,8 +26630,14 @@
       <c r="Y95" s="1">
         <v>27.290000915527301</v>
       </c>
+      <c r="Z95" s="1">
+        <v>0.84371282416544102</v>
+      </c>
+      <c r="AA95" s="1">
+        <v>28.389999389648398</v>
+      </c>
     </row>
-    <row r="96" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -26433,8 +26713,14 @@
       <c r="Y96" s="1">
         <v>27.280000686645501</v>
       </c>
+      <c r="Z96" s="1">
+        <v>0.83244873118248697</v>
+      </c>
+      <c r="AA96" s="1">
+        <v>27.940000534057599</v>
+      </c>
     </row>
-    <row r="97" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -26510,8 +26796,14 @@
       <c r="Y97" s="1">
         <v>26.889999389648398</v>
       </c>
+      <c r="Z97" s="1">
+        <v>0.85441615532158199</v>
+      </c>
+      <c r="AA97" s="1">
+        <v>28.049999237060501</v>
+      </c>
     </row>
-    <row r="98" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -26587,8 +26879,14 @@
       <c r="Y98" s="1">
         <v>28.120000839233398</v>
       </c>
+      <c r="Z98" s="1">
+        <v>0.82498583406399695</v>
+      </c>
+      <c r="AA98" s="1">
+        <v>27.7600002288818</v>
+      </c>
     </row>
-    <row r="99" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -26664,8 +26962,14 @@
       <c r="Y99" s="1">
         <v>27.25</v>
       </c>
+      <c r="Z99" s="1">
+        <v>0.825482747167538</v>
+      </c>
+      <c r="AA99" s="1">
+        <v>27.9699993133544</v>
+      </c>
     </row>
-    <row r="100" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -26741,8 +27045,14 @@
       <c r="Y100" s="1">
         <v>27.299999237060501</v>
       </c>
+      <c r="Z100" s="1">
+        <v>0.83885821548237105</v>
+      </c>
+      <c r="AA100" s="1">
+        <v>28.2199993133544</v>
+      </c>
     </row>
-    <row r="101" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -26818,8 +27128,14 @@
       <c r="Y101" s="1">
         <v>27.340000152587798</v>
       </c>
+      <c r="Z101" s="1">
+        <v>0.82750658187896498</v>
+      </c>
+      <c r="AA101" s="1">
+        <v>27.809999465942301</v>
+      </c>
     </row>
-    <row r="102" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -26830,7 +27146,7 @@
         <v>32.360000610351499</v>
       </c>
     </row>
-    <row r="103" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -26841,7 +27157,7 @@
         <v>32.740001678466797</v>
       </c>
     </row>
-    <row r="104" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -26852,7 +27168,7 @@
         <v>32.330001831054602</v>
       </c>
     </row>
-    <row r="105" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -26863,7 +27179,7 @@
         <v>32.349998474121001</v>
       </c>
     </row>
-    <row r="106" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -26874,7 +27190,7 @@
         <v>32.639999389648402</v>
       </c>
     </row>
-    <row r="107" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -26885,7 +27201,7 @@
         <v>32.599998474121001</v>
       </c>
     </row>
-    <row r="108" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -26896,7 +27212,7 @@
         <v>32.389999389648402</v>
       </c>
     </row>
-    <row r="109" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -26907,7 +27223,7 @@
         <v>32.490001678466797</v>
       </c>
     </row>
-    <row r="110" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -26918,7 +27234,7 @@
         <v>32.029998779296797</v>
       </c>
     </row>
-    <row r="111" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -26929,7 +27245,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:25" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6266041C-E64D-466A-8578-B21E4575D9E2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10720CA9-49FF-46B2-9394-027392C301B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -8864,6 +8864,393 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="27"/>
+          <c:order val="27"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AC$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AC$2:$AC$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>90.660003662109304</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>84.089996337890597</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>72.910003662109304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>70.870002746582003</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.349998474121094</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.110000610351506</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>64.739997863769503</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>62.419998168945298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.369998931884702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.959999084472599</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-E084-41D2-B6E0-62DA85575879}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -9560,7 +9947,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$1</c15:sqref>
@@ -9595,7 +9982,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -9910,7 +10297,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$2:$D$101</c15:sqref>
@@ -10237,7 +10624,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$1</c15:sqref>
@@ -10272,7 +10659,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -10587,7 +10974,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$2:$F$101</c15:sqref>
@@ -10914,7 +11301,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$1</c15:sqref>
@@ -10951,7 +11338,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -11266,7 +11653,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$2:$H$101</c15:sqref>
@@ -11593,7 +11980,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$1</c15:sqref>
@@ -11630,7 +12017,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -11945,7 +12332,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$101</c15:sqref>
@@ -12272,7 +12659,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$1</c15:sqref>
@@ -12309,7 +12696,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -12624,7 +13011,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$2:$L$101</c15:sqref>
@@ -12951,7 +13338,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$1</c15:sqref>
@@ -12989,7 +13376,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -13304,7 +13691,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$2:$N$101</c15:sqref>
@@ -13631,7 +14018,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$1</c15:sqref>
@@ -13669,7 +14056,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -13984,7 +14371,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$2:$P$101</c15:sqref>
@@ -14311,7 +14698,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$R$1</c15:sqref>
@@ -14349,7 +14736,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -14664,7 +15051,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$R$2:$R$101</c15:sqref>
@@ -14991,7 +15378,7 @@
                 <c:order val="18"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$T$1</c15:sqref>
@@ -15028,7 +15415,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -15343,7 +15730,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$T$2:$T$101</c15:sqref>
@@ -15670,7 +16057,7 @@
                 <c:order val="20"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$V$1</c15:sqref>
@@ -15707,7 +16094,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -16022,7 +16409,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$V$2:$V$101</c15:sqref>
@@ -16349,7 +16736,7 @@
                 <c:order val="22"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$X$1</c15:sqref>
@@ -16386,7 +16773,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -16701,7 +17088,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$X$2:$X$101</c15:sqref>
@@ -17695,9 +18082,416 @@
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-54C0-4CE6-8048-C4A5A7E2E0DA}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="26"/>
+                <c:order val="26"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AB$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>99</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AB$2:$AB$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>2.3075962810759298</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>8.4688436316836402</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.0188983208054898</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.9270735698141099</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.8752875571038301</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.82358832799704</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.7919948442726299</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.73605519191474</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.6767343943285999</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.6775184118064299</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
                 <c:extLst>
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
-                    <c16:uniqueId val="{00000001-54C0-4CE6-8048-C4A5A7E2E0DA}"/>
+                    <c16:uniqueId val="{00000001-E084-41D2-B6E0-62DA85575879}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -18436,16 +19230,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>10</xdr:col>
-      <xdr:colOff>368989</xdr:colOff>
-      <xdr:row>1</xdr:row>
-      <xdr:rowOff>182218</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>311010</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>140805</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>414131</xdr:colOff>
+      <xdr:col>26</xdr:col>
+      <xdr:colOff>57979</xdr:colOff>
       <xdr:row>30</xdr:row>
-      <xdr:rowOff>11181</xdr:rowOff>
+      <xdr:rowOff>176833</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -18738,10 +19532,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AA201"/>
+  <dimension ref="A1:AC201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="H1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AA7" sqref="AA7"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AC3" sqref="AC3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -18752,7 +19546,7 @@
     <col min="12" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -18835,7 +19629,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -18917,8 +19711,14 @@
       <c r="AA2" s="1">
         <v>90.75</v>
       </c>
+      <c r="AB2" s="1">
+        <v>2.3075962810759298</v>
+      </c>
+      <c r="AC2" s="1">
+        <v>90.660003662109304</v>
+      </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -19000,8 +19800,14 @@
       <c r="AA3" s="1">
         <v>77.379997253417898</v>
       </c>
+      <c r="AB3" s="1">
+        <v>8.4688436316836402</v>
+      </c>
+      <c r="AC3" s="1">
+        <v>84.089996337890597</v>
+      </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -19083,8 +19889,14 @@
       <c r="AA4" s="1">
         <v>71.580001831054602</v>
       </c>
+      <c r="AB4" s="1">
+        <v>2.0188983208054898</v>
+      </c>
+      <c r="AC4" s="1">
+        <v>72.910003662109304</v>
+      </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -19166,8 +19978,14 @@
       <c r="AA5" s="1">
         <v>66.400001525878906</v>
       </c>
+      <c r="AB5" s="1">
+        <v>1.9270735698141099</v>
+      </c>
+      <c r="AC5" s="1">
+        <v>70.870002746582003</v>
+      </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -19249,8 +20067,14 @@
       <c r="AA6" s="1">
         <v>64.080001831054602</v>
       </c>
+      <c r="AB6" s="1">
+        <v>1.8752875571038301</v>
+      </c>
+      <c r="AC6" s="1">
+        <v>69.349998474121094</v>
+      </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -19332,8 +20156,14 @@
       <c r="AA7" s="1">
         <v>62.240001678466797</v>
       </c>
+      <c r="AB7" s="1">
+        <v>1.82358832799704</v>
+      </c>
+      <c r="AC7" s="1">
+        <v>66.110000610351506</v>
+      </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -19415,8 +20245,14 @@
       <c r="AA8" s="1">
         <v>60.220001220703097</v>
       </c>
+      <c r="AB8" s="1">
+        <v>1.7919948442726299</v>
+      </c>
+      <c r="AC8" s="1">
+        <v>64.739997863769503</v>
+      </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -19498,8 +20334,14 @@
       <c r="AA9" s="1">
         <v>58.630001068115199</v>
       </c>
+      <c r="AB9" s="1">
+        <v>1.73605519191474</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>62.419998168945298</v>
+      </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -19581,8 +20423,14 @@
       <c r="AA10" s="1">
         <v>57.090000152587798</v>
       </c>
+      <c r="AB10" s="1">
+        <v>1.6767343943285999</v>
+      </c>
+      <c r="AC10" s="1">
+        <v>60.369998931884702</v>
+      </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -19664,8 +20512,14 @@
       <c r="AA11" s="1">
         <v>55.4799995422363</v>
       </c>
+      <c r="AB11" s="1">
+        <v>1.6775184118064299</v>
+      </c>
+      <c r="AC11" s="1">
+        <v>59.959999084472599</v>
+      </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -19748,7 +20602,7 @@
         <v>55.240001678466797</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -19831,7 +20685,7 @@
         <v>53.279998779296797</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -19914,7 +20768,7 @@
         <v>52.029998779296797</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -19997,7 +20851,7 @@
         <v>51.220001220703097</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{10720CA9-49FF-46B2-9394-027392C301B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC91AF5A-ABFF-409C-9986-60EDE1F768B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -132,6 +132,10 @@
   </si>
   <si>
     <t>efl_err_#10</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>0.01 &amp; 25</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9241,6 +9245,42 @@
                 <c:pt idx="9">
                   <c:v>59.959999084472599</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>59.5</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>59.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>57.369998931884702</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>56.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>56.279998779296797</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>53.909999847412102</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>53.709999084472599</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>53.450000762939403</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>52.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.619998931884702</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>52.590000152587798</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>53.799999237060497</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -9248,6 +9288,420 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-E084-41D2-B6E0-62DA85575879}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="29"/>
+          <c:order val="29"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AE$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>0.01 &amp; 25</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="60000"/>
+                  <a:lumOff val="40000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AE$2:$AE$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>90.059997558593693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>76.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>67.260002136230398</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>65.709999084472599</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>62.409999847412102</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>59.069999694824197</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>56.790000915527301</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>55.4799995422363</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>53.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>52.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>50.060001373291001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>51.060001373291001</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>50.779998779296797</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>48.770000457763601</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>45.990001678466797</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>44.490001678466797</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>44.639999389648402</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>43.299999237060497</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-943F-4B8D-856E-201E220A061A}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -9947,7 +10401,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$1</c15:sqref>
@@ -9982,7 +10436,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -10297,7 +10751,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$2:$D$101</c15:sqref>
@@ -10624,7 +11078,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$1</c15:sqref>
@@ -10659,7 +11113,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -10974,7 +11428,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$2:$F$101</c15:sqref>
@@ -11301,7 +11755,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$1</c15:sqref>
@@ -11338,7 +11792,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -11653,7 +12107,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$2:$H$101</c15:sqref>
@@ -11980,7 +12434,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$1</c15:sqref>
@@ -12017,7 +12471,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -12332,7 +12786,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$101</c15:sqref>
@@ -12659,7 +13113,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$1</c15:sqref>
@@ -12696,7 +13150,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -13011,7 +13465,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$2:$L$101</c15:sqref>
@@ -13338,7 +13792,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$1</c15:sqref>
@@ -13376,7 +13830,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -13691,7 +14145,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$2:$N$101</c15:sqref>
@@ -14018,7 +14472,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$1</c15:sqref>
@@ -14056,7 +14510,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -14371,7 +14825,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$2:$P$101</c15:sqref>
@@ -14698,7 +15152,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$R$1</c15:sqref>
@@ -14736,7 +15190,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -15051,7 +15505,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$R$2:$R$101</c15:sqref>
@@ -15378,7 +15832,7 @@
                 <c:order val="18"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$T$1</c15:sqref>
@@ -15415,7 +15869,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -15730,7 +16184,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$T$2:$T$101</c15:sqref>
@@ -16057,7 +16511,7 @@
                 <c:order val="20"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$V$1</c15:sqref>
@@ -16094,7 +16548,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -16409,7 +16863,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$V$2:$V$101</c15:sqref>
@@ -16736,7 +17190,7 @@
                 <c:order val="22"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$X$1</c15:sqref>
@@ -16773,7 +17227,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -17088,7 +17542,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$X$2:$X$101</c15:sqref>
@@ -17415,7 +17869,7 @@
                 <c:order val="24"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$Z$1</c15:sqref>
@@ -17453,7 +17907,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -17768,7 +18222,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$Z$2:$Z$101</c15:sqref>
@@ -18095,7 +18549,7 @@
                 <c:order val="26"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AB$1</c15:sqref>
@@ -18130,7 +18584,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -18445,7 +18899,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AB$2:$AB$101</c15:sqref>
@@ -18485,13 +18939,483 @@
                       <c:pt idx="9">
                         <c:v>1.6775184118064299</c:v>
                       </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.68579550002031</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.66320335713161</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.61927301640723</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.5981844177671201</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.5891696632287999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.5442971431525601</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.5420644465525399</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.52848475146445</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.5311986033324201</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.5159796385248701</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.5070470427251901</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.5333074915940501</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-E084-41D2-B6E0-62DA85575879}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="28"/>
+                <c:order val="28"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AD$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>0.01 &amp; 25</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="60000"/>
+                        <a:lumOff val="40000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>99</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AD$2:$AD$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>2.3035999210017502</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.0000329139126301</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.8175939131694201</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.74960795253705</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.6698962191867199</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.5995767200069</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.55209791052872</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.5244052630321201</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.50231205733718</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.4881115362143</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.4134631733985401</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.4197798557342201</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.4033708967220999</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.3628258644395499</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.31770799645952</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.2890290682482799</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.2773814740454299</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.2404956885963401</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-943F-4B8D-856E-201E220A061A}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -19230,16 +20154,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>311010</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>140805</xdr:rowOff>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>559488</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>66261</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>26</xdr:col>
-      <xdr:colOff>57979</xdr:colOff>
-      <xdr:row>30</xdr:row>
-      <xdr:rowOff>176833</xdr:rowOff>
+      <xdr:col>28</xdr:col>
+      <xdr:colOff>306457</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>102290</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -19532,10 +20456,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AC201"/>
+  <dimension ref="A1:AE201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AC3" sqref="AC3"/>
+    <sheetView tabSelected="1" topLeftCell="Q10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AD25" sqref="AD25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -19546,7 +20470,7 @@
     <col min="12" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -19628,8 +20552,14 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
+      <c r="AD1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>27</v>
+      </c>
     </row>
-    <row r="2" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -19717,8 +20647,14 @@
       <c r="AC2" s="1">
         <v>90.660003662109304</v>
       </c>
+      <c r="AD2" s="1">
+        <v>2.3035999210017502</v>
+      </c>
+      <c r="AE2" s="1">
+        <v>90.059997558593693</v>
+      </c>
     </row>
-    <row r="3" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -19806,8 +20742,14 @@
       <c r="AC3" s="1">
         <v>84.089996337890597</v>
       </c>
+      <c r="AD3" s="1">
+        <v>2.0000329139126301</v>
+      </c>
+      <c r="AE3" s="1">
+        <v>76.290000915527301</v>
+      </c>
     </row>
-    <row r="4" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -19895,8 +20837,14 @@
       <c r="AC4" s="1">
         <v>72.910003662109304</v>
       </c>
+      <c r="AD4" s="1">
+        <v>1.8175939131694201</v>
+      </c>
+      <c r="AE4" s="1">
+        <v>67.260002136230398</v>
+      </c>
     </row>
-    <row r="5" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -19984,8 +20932,14 @@
       <c r="AC5" s="1">
         <v>70.870002746582003</v>
       </c>
+      <c r="AD5" s="1">
+        <v>1.74960795253705</v>
+      </c>
+      <c r="AE5" s="1">
+        <v>65.709999084472599</v>
+      </c>
     </row>
-    <row r="6" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -20073,8 +21027,14 @@
       <c r="AC6" s="1">
         <v>69.349998474121094</v>
       </c>
+      <c r="AD6" s="1">
+        <v>1.6698962191867199</v>
+      </c>
+      <c r="AE6" s="1">
+        <v>62.409999847412102</v>
+      </c>
     </row>
-    <row r="7" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -20162,8 +21122,14 @@
       <c r="AC7" s="1">
         <v>66.110000610351506</v>
       </c>
+      <c r="AD7" s="1">
+        <v>1.5995767200069</v>
+      </c>
+      <c r="AE7" s="1">
+        <v>59.069999694824197</v>
+      </c>
     </row>
-    <row r="8" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -20251,8 +21217,14 @@
       <c r="AC8" s="1">
         <v>64.739997863769503</v>
       </c>
+      <c r="AD8" s="1">
+        <v>1.55209791052872</v>
+      </c>
+      <c r="AE8" s="1">
+        <v>56.790000915527301</v>
+      </c>
     </row>
-    <row r="9" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -20340,8 +21312,14 @@
       <c r="AC9" s="1">
         <v>62.419998168945298</v>
       </c>
+      <c r="AD9" s="1">
+        <v>1.5244052630321201</v>
+      </c>
+      <c r="AE9" s="1">
+        <v>55.4799995422363</v>
+      </c>
     </row>
-    <row r="10" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -20429,8 +21407,14 @@
       <c r="AC10" s="1">
         <v>60.369998931884702</v>
       </c>
+      <c r="AD10" s="1">
+        <v>1.50231205733718</v>
+      </c>
+      <c r="AE10" s="1">
+        <v>53.900001525878899</v>
+      </c>
     </row>
-    <row r="11" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -20518,8 +21502,14 @@
       <c r="AC11" s="1">
         <v>59.959999084472599</v>
       </c>
+      <c r="AD11" s="1">
+        <v>1.4881115362143</v>
+      </c>
+      <c r="AE11" s="1">
+        <v>52.650001525878899</v>
+      </c>
     </row>
-    <row r="12" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -20601,8 +21591,20 @@
       <c r="AA12" s="1">
         <v>55.240001678466797</v>
       </c>
+      <c r="AB12" s="1">
+        <v>1.68579550002031</v>
+      </c>
+      <c r="AC12" s="1">
+        <v>59.5</v>
+      </c>
+      <c r="AD12" s="1">
+        <v>1.4134631733985401</v>
+      </c>
+      <c r="AE12" s="1">
+        <v>50.060001373291001</v>
+      </c>
     </row>
-    <row r="13" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -20684,8 +21686,20 @@
       <c r="AA13" s="1">
         <v>53.279998779296797</v>
       </c>
+      <c r="AB13" s="1">
+        <v>1.66320335713161</v>
+      </c>
+      <c r="AC13" s="1">
+        <v>59.599998474121001</v>
+      </c>
+      <c r="AD13" s="1">
+        <v>1.4197798557342201</v>
+      </c>
+      <c r="AE13" s="1">
+        <v>51.060001373291001</v>
+      </c>
     </row>
-    <row r="14" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -20767,8 +21781,20 @@
       <c r="AA14" s="1">
         <v>52.029998779296797</v>
       </c>
+      <c r="AB14" s="1">
+        <v>1.61927301640723</v>
+      </c>
+      <c r="AC14" s="1">
+        <v>57.369998931884702</v>
+      </c>
+      <c r="AD14" s="1">
+        <v>1.4033708967220999</v>
+      </c>
+      <c r="AE14" s="1">
+        <v>50.779998779296797</v>
+      </c>
     </row>
-    <row r="15" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -20850,8 +21876,20 @@
       <c r="AA15" s="1">
         <v>51.220001220703097</v>
       </c>
+      <c r="AB15" s="1">
+        <v>1.5981844177671201</v>
+      </c>
+      <c r="AC15" s="1">
+        <v>56.599998474121001</v>
+      </c>
+      <c r="AD15" s="1">
+        <v>1.3628258644395499</v>
+      </c>
+      <c r="AE15" s="1">
+        <v>48.770000457763601</v>
+      </c>
     </row>
-    <row r="16" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -20933,8 +21971,20 @@
       <c r="AA16" s="1">
         <v>50.349998474121001</v>
       </c>
+      <c r="AB16" s="1">
+        <v>1.5891696632287999</v>
+      </c>
+      <c r="AC16" s="1">
+        <v>56.279998779296797</v>
+      </c>
+      <c r="AD16" s="1">
+        <v>1.31770799645952</v>
+      </c>
+      <c r="AE16" s="1">
+        <v>45.990001678466797</v>
+      </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -21016,8 +22066,20 @@
       <c r="AA17" s="1">
         <v>49.439998626708899</v>
       </c>
+      <c r="AB17" s="1">
+        <v>1.5442971431525601</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>53.909999847412102</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>1.2890290682482799</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>44.490001678466797</v>
+      </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -21099,8 +22161,20 @@
       <c r="AA18" s="1">
         <v>48.919998168945298</v>
       </c>
+      <c r="AB18" s="1">
+        <v>1.5420644465525399</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>53.709999084472599</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>1.2773814740454299</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>44.639999389648402</v>
+      </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -21182,8 +22256,20 @@
       <c r="AA19" s="1">
         <v>47.700000762939403</v>
       </c>
+      <c r="AB19" s="1">
+        <v>1.52848475146445</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>53.450000762939403</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>1.2404956885963401</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>43.299999237060497</v>
+      </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -21265,8 +22351,14 @@
       <c r="AA20" s="1">
         <v>47.340000152587798</v>
       </c>
+      <c r="AB20" s="1">
+        <v>1.5311986033324201</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>52.659999847412102</v>
+      </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -21348,8 +22440,14 @@
       <c r="AA21" s="1">
         <v>47.470001220703097</v>
       </c>
+      <c r="AB21" s="1">
+        <v>1.5159796385248701</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>52.619998931884702</v>
+      </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -21431,8 +22529,14 @@
       <c r="AA22" s="1">
         <v>46.630001068115199</v>
       </c>
+      <c r="AB22" s="1">
+        <v>1.5070470427251901</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>52.590000152587798</v>
+      </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -21514,8 +22618,14 @@
       <c r="AA23" s="1">
         <v>46.680000305175703</v>
       </c>
+      <c r="AB23" s="1">
+        <v>1.5333074915940501</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>53.799999237060497</v>
+      </c>
     </row>
-    <row r="24" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -21598,7 +22708,7 @@
         <v>45.400001525878899</v>
       </c>
     </row>
-    <row r="25" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -21681,7 +22791,7 @@
         <v>44.799999237060497</v>
       </c>
     </row>
-    <row r="26" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -21764,7 +22874,7 @@
         <v>43.2299995422363</v>
       </c>
     </row>
-    <row r="27" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -21847,7 +22957,7 @@
         <v>42.840000152587798</v>
       </c>
     </row>
-    <row r="28" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -21930,7 +23040,7 @@
         <v>42.779998779296797</v>
       </c>
     </row>
-    <row r="29" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -22013,7 +23123,7 @@
         <v>41.700000762939403</v>
       </c>
     </row>
-    <row r="30" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -22096,7 +23206,7 @@
         <v>41.119998931884702</v>
       </c>
     </row>
-    <row r="31" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -22179,7 +23289,7 @@
         <v>40.090000152587798</v>
       </c>
     </row>
-    <row r="32" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC91AF5A-ABFF-409C-9986-60EDE1F768B9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE9255D-5D5B-46E1-A91F-6405435562E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1950" yWindow="1950" windowWidth="21600" windowHeight="11385" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -9695,6 +9695,69 @@
                 <c:pt idx="17">
                   <c:v>43.299999237060497</c:v>
                 </c:pt>
+                <c:pt idx="18">
+                  <c:v>43.450000762939403</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>42.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>40.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>41.130001068115199</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>40.139999389648402</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>38.689998626708899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>37.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>37.770000457763601</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>37.75</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>36.919998168945298</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>35.319999694824197</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>35.540000915527301</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>34.119998931884702</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>35.159999847412102</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>33.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33.330001831054602</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>35.119998931884702</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35.180000305175703</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>34.4799995422363</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>34.009998321533203</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>33.380001068115199</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -19408,6 +19471,69 @@
                       </c:pt>
                       <c:pt idx="17">
                         <c:v>1.2404956885963401</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.24047742148113</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.21971618104132</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.18627414050375</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.1902617478066899</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.1493134696012799</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.1157677944298701</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.08710358894554</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.0966896262897801</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.11277393816383</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.0780836537385401</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1.0485424099454399</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.0206938351795101</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.0214343769535099</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1.0269038354515201</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1.00985325293935</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.99309669938056999</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>1.0387912161031301</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1.03925069995746</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>1.0086081176047099</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1.00284004477178</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.99193789814687805</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20458,8 +20584,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AE201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q10" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD25" sqref="AD25"/>
+    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AG20" sqref="AG20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22357,6 +22483,12 @@
       <c r="AC20" s="1">
         <v>52.659999847412102</v>
       </c>
+      <c r="AD20" s="1">
+        <v>1.24047742148113</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>43.450000762939403</v>
+      </c>
     </row>
     <row r="21" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
@@ -22446,6 +22578,12 @@
       <c r="AC21" s="1">
         <v>52.619998931884702</v>
       </c>
+      <c r="AD21" s="1">
+        <v>1.21971618104132</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>42.520000457763601</v>
+      </c>
     </row>
     <row r="22" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
@@ -22535,6 +22673,12 @@
       <c r="AC22" s="1">
         <v>52.590000152587798</v>
       </c>
+      <c r="AD22" s="1">
+        <v>1.18627414050375</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>40.700000762939403</v>
+      </c>
     </row>
     <row r="23" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
@@ -22624,6 +22768,12 @@
       <c r="AC23" s="1">
         <v>53.799999237060497</v>
       </c>
+      <c r="AD23" s="1">
+        <v>1.1902617478066899</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>41.130001068115199</v>
+      </c>
     </row>
     <row r="24" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
@@ -22707,6 +22857,12 @@
       <c r="AA24" s="1">
         <v>45.400001525878899</v>
       </c>
+      <c r="AD24" s="1">
+        <v>1.1493134696012799</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>40.139999389648402</v>
+      </c>
     </row>
     <row r="25" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
@@ -22790,6 +22946,12 @@
       <c r="AA25" s="1">
         <v>44.799999237060497</v>
       </c>
+      <c r="AD25" s="1">
+        <v>1.1157677944298701</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>38.689998626708899</v>
+      </c>
     </row>
     <row r="26" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
@@ -22873,6 +23035,12 @@
       <c r="AA26" s="1">
         <v>43.2299995422363</v>
       </c>
+      <c r="AD26" s="1">
+        <v>1.08710358894554</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>37.599998474121001</v>
+      </c>
     </row>
     <row r="27" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
@@ -22956,6 +23124,12 @@
       <c r="AA27" s="1">
         <v>42.840000152587798</v>
       </c>
+      <c r="AD27" s="1">
+        <v>1.0966896262897801</v>
+      </c>
+      <c r="AE27" s="1">
+        <v>37.770000457763601</v>
+      </c>
     </row>
     <row r="28" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
@@ -23039,6 +23213,12 @@
       <c r="AA28" s="1">
         <v>42.779998779296797</v>
       </c>
+      <c r="AD28" s="1">
+        <v>1.11277393816383</v>
+      </c>
+      <c r="AE28" s="1">
+        <v>37.75</v>
+      </c>
     </row>
     <row r="29" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
@@ -23122,6 +23302,12 @@
       <c r="AA29" s="1">
         <v>41.700000762939403</v>
       </c>
+      <c r="AD29" s="1">
+        <v>1.0780836537385401</v>
+      </c>
+      <c r="AE29" s="1">
+        <v>36.919998168945298</v>
+      </c>
     </row>
     <row r="30" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
@@ -23205,6 +23391,12 @@
       <c r="AA30" s="1">
         <v>41.119998931884702</v>
       </c>
+      <c r="AD30" s="1">
+        <v>1.0485424099454399</v>
+      </c>
+      <c r="AE30" s="1">
+        <v>35.319999694824197</v>
+      </c>
     </row>
     <row r="31" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
@@ -23288,6 +23480,12 @@
       <c r="AA31" s="1">
         <v>40.090000152587798</v>
       </c>
+      <c r="AD31" s="1">
+        <v>1.0206938351795101</v>
+      </c>
+      <c r="AE31" s="1">
+        <v>35.540000915527301</v>
+      </c>
     </row>
     <row r="32" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
@@ -23371,8 +23569,14 @@
       <c r="AA32" s="1">
         <v>39.860000610351499</v>
       </c>
+      <c r="AD32" s="1">
+        <v>1.0214343769535099</v>
+      </c>
+      <c r="AE32" s="1">
+        <v>34.119998931884702</v>
+      </c>
     </row>
-    <row r="33" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -23454,8 +23658,14 @@
       <c r="AA33" s="1">
         <v>39.799999237060497</v>
       </c>
+      <c r="AD33" s="1">
+        <v>1.0269038354515201</v>
+      </c>
+      <c r="AE33" s="1">
+        <v>35.159999847412102</v>
+      </c>
     </row>
-    <row r="34" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -23537,8 +23747,14 @@
       <c r="AA34" s="1">
         <v>39.650001525878899</v>
       </c>
+      <c r="AD34" s="1">
+        <v>1.00985325293935</v>
+      </c>
+      <c r="AE34" s="1">
+        <v>33.900001525878899</v>
+      </c>
     </row>
-    <row r="35" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -23620,8 +23836,14 @@
       <c r="AA35" s="1">
         <v>38.080001831054602</v>
       </c>
+      <c r="AD35" s="1">
+        <v>0.99309669938056999</v>
+      </c>
+      <c r="AE35" s="1">
+        <v>33.330001831054602</v>
+      </c>
     </row>
-    <row r="36" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -23703,8 +23925,14 @@
       <c r="AA36" s="1">
         <v>37.939998626708899</v>
       </c>
+      <c r="AD36" s="1">
+        <v>1.0387912161031301</v>
+      </c>
+      <c r="AE36" s="1">
+        <v>35.119998931884702</v>
+      </c>
     </row>
-    <row r="37" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -23786,8 +24014,14 @@
       <c r="AA37" s="1">
         <v>37.220001220703097</v>
       </c>
+      <c r="AD37" s="1">
+        <v>1.03925069995746</v>
+      </c>
+      <c r="AE37" s="1">
+        <v>35.180000305175703</v>
+      </c>
     </row>
-    <row r="38" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -23869,8 +24103,14 @@
       <c r="AA38" s="1">
         <v>37.830001831054602</v>
       </c>
+      <c r="AD38" s="1">
+        <v>1.0086081176047099</v>
+      </c>
+      <c r="AE38" s="1">
+        <v>34.4799995422363</v>
+      </c>
     </row>
-    <row r="39" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -23952,8 +24192,14 @@
       <c r="AA39" s="1">
         <v>36.889999389648402</v>
       </c>
+      <c r="AD39" s="1">
+        <v>1.00284004477178</v>
+      </c>
+      <c r="AE39" s="1">
+        <v>34.009998321533203</v>
+      </c>
     </row>
-    <row r="40" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -24035,8 +24281,14 @@
       <c r="AA40" s="1">
         <v>36.819999694824197</v>
       </c>
+      <c r="AD40" s="1">
+        <v>0.99193789814687805</v>
+      </c>
+      <c r="AE40" s="1">
+        <v>33.380001068115199</v>
+      </c>
     </row>
-    <row r="41" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -24119,7 +24371,7 @@
         <v>36.430000305175703</v>
       </c>
     </row>
-    <row r="42" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -24202,7 +24454,7 @@
         <v>36.369998931884702</v>
       </c>
     </row>
-    <row r="43" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -24285,7 +24537,7 @@
         <v>36.290000915527301</v>
       </c>
     </row>
-    <row r="44" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -24368,7 +24620,7 @@
         <v>35.880001068115199</v>
       </c>
     </row>
-    <row r="45" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -24451,7 +24703,7 @@
         <v>35.090000152587798</v>
       </c>
     </row>
-    <row r="46" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -24534,7 +24786,7 @@
         <v>34.540000915527301</v>
       </c>
     </row>
-    <row r="47" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -24617,7 +24869,7 @@
         <v>33.4799995422363</v>
       </c>
     </row>
-    <row r="48" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDE9255D-5D5B-46E1-A91F-6405435562E9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7337CA87-64BE-4C7E-9B4A-D4A2C345BF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -135,7 +135,11 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>0.01 &amp; 25</t>
+    <t>efl_loss_#12</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_err_#12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9300,7 +9304,7 @@
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
-                  <c:v>0.01 &amp; 25</c:v>
+                  <c:v>efl_err_#12</c:v>
                 </c:pt>
               </c:strCache>
             </c:strRef>
@@ -9757,6 +9761,189 @@
                 </c:pt>
                 <c:pt idx="38">
                   <c:v>33.380001068115199</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>33.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>33.060001373291001</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>33.430000305175703</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>32.75</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>32.419998168945298</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>31.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>31.25</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>31.299999237060501</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>32.319999694824197</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>31.629999160766602</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>31.319999694824201</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>30.9500007629394</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>30.1800003051757</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>30.110000610351499</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>29.9500007629394</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>30.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>30.2000007629394</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>29.879999160766602</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>30.409999847412099</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>29.159999847412099</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>29.159999847412099</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>29.579999923706001</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>29.280000686645501</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>29.590000152587798</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>29.4300003051757</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>29.110000610351499</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>29.149999618530199</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>28.709999084472599</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>28.829999923706001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>29.1800003051757</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>28.659999847412099</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>28.079999923706001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>28.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>27.9799995422363</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>27.9899997711181</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>27.870000839233398</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>28.170000076293899</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>27.2199993133544</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>27.139999389648398</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>27.799999237060501</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>29.059999465942301</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>27.350000381469702</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>28.0100002288818</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>27.780000686645501</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>27.770000457763601</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>27.270000457763601</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>27.129999160766602</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>27.909999847412099</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>27.270000457763601</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>26.889999389648398</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>27.319999694824201</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>27.030000686645501</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>27.2600002288818</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>27.299999237060501</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>27.280000686645501</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>27.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>27.020000457763601</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>27.149999618530199</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>26.9699993133544</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>26.629999160766602</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -19065,7 +19252,7 @@
                     <c:strCache>
                       <c:ptCount val="1"/>
                       <c:pt idx="0">
-                        <c:v>0.01 &amp; 25</c:v>
+                        <c:v>efl_loss_#12</c:v>
                       </c:pt>
                     </c:strCache>
                   </c:strRef>
@@ -19534,6 +19721,189 @@
                       </c:pt>
                       <c:pt idx="38">
                         <c:v>0.99193789814687805</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.967238978975138</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.96769758014921903</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.96544649190963405</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.95832824555172202</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.93386184789572502</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.92961891023975995</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.93326265037439404</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.914109523888606</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.91287263259766205</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.926840850502062</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.91949464902756295</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.90342324668434704</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.89697378873824996</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.882415809828764</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.87552632647714801</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.86364481365604695</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.86909534502181196</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.87034479789673103</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.852175786996343</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.86924734085228705</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.84790616715030298</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.83946181501552497</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0.84970618699006895</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0.83573439071892097</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0.83852958109728004</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.83322789752559301</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0.82923621584655305</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0.83190485967951899</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0.82539732782704001</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.82935209904506701</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0.83162701623454904</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0.82789525674406805</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0.81061102269561403</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0.81600701846894097</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0.80818693899804595</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0.81189550829541102</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0.81168007660823205</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0.80864264156408305</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0.79949272741937305</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0.802294853386605</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0.81310190231936696</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0.81538100683005699</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0.80334784802357795</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0.81067270249318102</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0.79502846063322297</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0.80160388749116496</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.805117836803387</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0.79915598737206395</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0.80066042379209101</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0.80093837410780999</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0.79748217239501296</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0.80293566558011698</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0.79877213061235497</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0.80227466449616003</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0.80125166902876199</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0.79629716941505402</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0.80531097673306795</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0.79473302053038397</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0.78741174917312096</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0.80056190376828396</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0.79121812209961495</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -20585,7 +20955,7 @@
   <dimension ref="A1:AE201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AG20" sqref="AG20"/>
+      <selection activeCell="AD7" sqref="AD7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20682,7 +21052,7 @@
         <v>27</v>
       </c>
       <c r="AE1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:31" x14ac:dyDescent="0.3">
@@ -24370,6 +24740,12 @@
       <c r="AA41" s="1">
         <v>36.430000305175703</v>
       </c>
+      <c r="AD41" s="1">
+        <v>0.967238978975138</v>
+      </c>
+      <c r="AE41" s="1">
+        <v>33.290000915527301</v>
+      </c>
     </row>
     <row r="42" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -24453,6 +24829,12 @@
       <c r="AA42" s="1">
         <v>36.369998931884702</v>
       </c>
+      <c r="AD42" s="1">
+        <v>0.96769758014921903</v>
+      </c>
+      <c r="AE42" s="1">
+        <v>33.060001373291001</v>
+      </c>
     </row>
     <row r="43" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -24536,6 +24918,12 @@
       <c r="AA43" s="1">
         <v>36.290000915527301</v>
       </c>
+      <c r="AD43" s="1">
+        <v>0.96544649190963405</v>
+      </c>
+      <c r="AE43" s="1">
+        <v>33.430000305175703</v>
+      </c>
     </row>
     <row r="44" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
@@ -24619,6 +25007,12 @@
       <c r="AA44" s="1">
         <v>35.880001068115199</v>
       </c>
+      <c r="AD44" s="1">
+        <v>0.95832824555172202</v>
+      </c>
+      <c r="AE44" s="1">
+        <v>32.75</v>
+      </c>
     </row>
     <row r="45" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
@@ -24702,6 +25096,12 @@
       <c r="AA45" s="1">
         <v>35.090000152587798</v>
       </c>
+      <c r="AD45" s="1">
+        <v>0.93386184789572502</v>
+      </c>
+      <c r="AE45" s="1">
+        <v>32.419998168945298</v>
+      </c>
     </row>
     <row r="46" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
@@ -24785,6 +25185,12 @@
       <c r="AA46" s="1">
         <v>34.540000915527301</v>
       </c>
+      <c r="AD46" s="1">
+        <v>0.92961891023975995</v>
+      </c>
+      <c r="AE46" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="47" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
@@ -24868,6 +25274,12 @@
       <c r="AA47" s="1">
         <v>33.4799995422363</v>
       </c>
+      <c r="AD47" s="1">
+        <v>0.93326265037439404</v>
+      </c>
+      <c r="AE47" s="1">
+        <v>31.860000610351499</v>
+      </c>
     </row>
     <row r="48" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
@@ -24951,8 +25363,14 @@
       <c r="AA48" s="1">
         <v>33.939998626708899</v>
       </c>
+      <c r="AD48" s="1">
+        <v>0.914109523888606</v>
+      </c>
+      <c r="AE48" s="1">
+        <v>31.25</v>
+      </c>
     </row>
-    <row r="49" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -25034,8 +25452,14 @@
       <c r="AA49" s="1">
         <v>33.810001373291001</v>
       </c>
+      <c r="AD49" s="1">
+        <v>0.91287263259766205</v>
+      </c>
+      <c r="AE49" s="1">
+        <v>31.299999237060501</v>
+      </c>
     </row>
-    <row r="50" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -25117,8 +25541,14 @@
       <c r="AA50" s="1">
         <v>33.180000305175703</v>
       </c>
+      <c r="AD50" s="1">
+        <v>0.926840850502062</v>
+      </c>
+      <c r="AE50" s="1">
+        <v>32.319999694824197</v>
+      </c>
     </row>
-    <row r="51" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -25200,8 +25630,14 @@
       <c r="AA51" s="1">
         <v>33.860000610351499</v>
       </c>
+      <c r="AD51" s="1">
+        <v>0.91949464902756295</v>
+      </c>
+      <c r="AE51" s="1">
+        <v>31.629999160766602</v>
+      </c>
     </row>
-    <row r="52" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -25283,8 +25719,14 @@
       <c r="AA52" s="1">
         <v>32.950000762939403</v>
       </c>
+      <c r="AD52" s="1">
+        <v>0.90342324668434704</v>
+      </c>
+      <c r="AE52" s="1">
+        <v>31.319999694824201</v>
+      </c>
     </row>
-    <row r="53" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -25366,8 +25808,14 @@
       <c r="AA53" s="1">
         <v>32.389999389648402</v>
       </c>
+      <c r="AD53" s="1">
+        <v>0.89697378873824996</v>
+      </c>
+      <c r="AE53" s="1">
+        <v>30.9500007629394</v>
+      </c>
     </row>
-    <row r="54" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -25449,8 +25897,14 @@
       <c r="AA54" s="1">
         <v>32.220001220703097</v>
       </c>
+      <c r="AD54" s="1">
+        <v>0.882415809828764</v>
+      </c>
+      <c r="AE54" s="1">
+        <v>30.1800003051757</v>
+      </c>
     </row>
-    <row r="55" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -25532,8 +25986,14 @@
       <c r="AA55" s="1">
         <v>32.090000152587798</v>
       </c>
+      <c r="AD55" s="1">
+        <v>0.87552632647714801</v>
+      </c>
+      <c r="AE55" s="1">
+        <v>30.110000610351499</v>
+      </c>
     </row>
-    <row r="56" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -25615,8 +26075,14 @@
       <c r="AA56" s="1">
         <v>33.139999389648402</v>
       </c>
+      <c r="AD56" s="1">
+        <v>0.86364481365604695</v>
+      </c>
+      <c r="AE56" s="1">
+        <v>29.9500007629394</v>
+      </c>
     </row>
-    <row r="57" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -25698,8 +26164,14 @@
       <c r="AA57" s="1">
         <v>33.270000457763601</v>
       </c>
+      <c r="AD57" s="1">
+        <v>0.86909534502181196</v>
+      </c>
+      <c r="AE57" s="1">
+        <v>30.459999084472599</v>
+      </c>
     </row>
-    <row r="58" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -25781,8 +26253,14 @@
       <c r="AA58" s="1">
         <v>32.680000305175703</v>
       </c>
+      <c r="AD58" s="1">
+        <v>0.87034479789673103</v>
+      </c>
+      <c r="AE58" s="1">
+        <v>30.2000007629394</v>
+      </c>
     </row>
-    <row r="59" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -25864,8 +26342,14 @@
       <c r="AA59" s="1">
         <v>32.540000915527301</v>
       </c>
+      <c r="AD59" s="1">
+        <v>0.852175786996343</v>
+      </c>
+      <c r="AE59" s="1">
+        <v>29.879999160766602</v>
+      </c>
     </row>
-    <row r="60" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -25947,8 +26431,14 @@
       <c r="AA60" s="1">
         <v>31.559999465942301</v>
       </c>
+      <c r="AD60" s="1">
+        <v>0.86924734085228705</v>
+      </c>
+      <c r="AE60" s="1">
+        <v>30.409999847412099</v>
+      </c>
     </row>
-    <row r="61" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -26030,8 +26520,14 @@
       <c r="AA61" s="1">
         <v>31.6800003051757</v>
       </c>
+      <c r="AD61" s="1">
+        <v>0.84790616715030298</v>
+      </c>
+      <c r="AE61" s="1">
+        <v>29.159999847412099</v>
+      </c>
     </row>
-    <row r="62" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -26113,8 +26609,14 @@
       <c r="AA62" s="1">
         <v>31.4300003051757</v>
       </c>
+      <c r="AD62" s="1">
+        <v>0.83946181501552497</v>
+      </c>
+      <c r="AE62" s="1">
+        <v>29.159999847412099</v>
+      </c>
     </row>
-    <row r="63" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -26196,8 +26698,14 @@
       <c r="AA63" s="1">
         <v>31.290000915527301</v>
       </c>
+      <c r="AD63" s="1">
+        <v>0.84970618699006895</v>
+      </c>
+      <c r="AE63" s="1">
+        <v>29.579999923706001</v>
+      </c>
     </row>
-    <row r="64" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -26279,8 +26787,14 @@
       <c r="AA64" s="1">
         <v>31.379999160766602</v>
       </c>
+      <c r="AD64" s="1">
+        <v>0.83573439071892097</v>
+      </c>
+      <c r="AE64" s="1">
+        <v>29.280000686645501</v>
+      </c>
     </row>
-    <row r="65" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -26362,8 +26876,14 @@
       <c r="AA65" s="1">
         <v>30.7399997711181</v>
       </c>
+      <c r="AD65" s="1">
+        <v>0.83852958109728004</v>
+      </c>
+      <c r="AE65" s="1">
+        <v>29.590000152587798</v>
+      </c>
     </row>
-    <row r="66" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -26445,8 +26965,14 @@
       <c r="AA66" s="1">
         <v>31.319999694824201</v>
       </c>
+      <c r="AD66" s="1">
+        <v>0.83322789752559301</v>
+      </c>
+      <c r="AE66" s="1">
+        <v>29.4300003051757</v>
+      </c>
     </row>
-    <row r="67" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -26528,8 +27054,14 @@
       <c r="AA67" s="1">
         <v>29.879999160766602</v>
       </c>
+      <c r="AD67" s="1">
+        <v>0.82923621584655305</v>
+      </c>
+      <c r="AE67" s="1">
+        <v>29.110000610351499</v>
+      </c>
     </row>
-    <row r="68" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -26611,8 +27143,14 @@
       <c r="AA68" s="1">
         <v>30.4799995422363</v>
       </c>
+      <c r="AD68" s="1">
+        <v>0.83190485967951899</v>
+      </c>
+      <c r="AE68" s="1">
+        <v>29.149999618530199</v>
+      </c>
     </row>
-    <row r="69" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -26694,8 +27232,14 @@
       <c r="AA69" s="1">
         <v>30.2000007629394</v>
       </c>
+      <c r="AD69" s="1">
+        <v>0.82539732782704001</v>
+      </c>
+      <c r="AE69" s="1">
+        <v>28.709999084472599</v>
+      </c>
     </row>
-    <row r="70" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -26777,8 +27321,14 @@
       <c r="AA70" s="1">
         <v>30.2600002288818</v>
       </c>
+      <c r="AD70" s="1">
+        <v>0.82935209904506701</v>
+      </c>
+      <c r="AE70" s="1">
+        <v>28.829999923706001</v>
+      </c>
     </row>
-    <row r="71" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -26860,8 +27410,14 @@
       <c r="AA71" s="1">
         <v>30.170000076293899</v>
       </c>
+      <c r="AD71" s="1">
+        <v>0.83162701623454904</v>
+      </c>
+      <c r="AE71" s="1">
+        <v>29.1800003051757</v>
+      </c>
     </row>
-    <row r="72" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -26943,8 +27499,14 @@
       <c r="AA72" s="1">
         <v>30.170000076293899</v>
       </c>
+      <c r="AD72" s="1">
+        <v>0.82789525674406805</v>
+      </c>
+      <c r="AE72" s="1">
+        <v>28.659999847412099</v>
+      </c>
     </row>
-    <row r="73" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -27026,8 +27588,14 @@
       <c r="AA73" s="1">
         <v>29.690000534057599</v>
       </c>
+      <c r="AD73" s="1">
+        <v>0.81061102269561403</v>
+      </c>
+      <c r="AE73" s="1">
+        <v>28.079999923706001</v>
+      </c>
     </row>
-    <row r="74" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -27109,8 +27677,14 @@
       <c r="AA74" s="1">
         <v>29.920000076293899</v>
       </c>
+      <c r="AD74" s="1">
+        <v>0.81600701846894097</v>
+      </c>
+      <c r="AE74" s="1">
+        <v>28.209999084472599</v>
+      </c>
     </row>
-    <row r="75" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -27192,8 +27766,14 @@
       <c r="AA75" s="1">
         <v>29.9699993133544</v>
       </c>
+      <c r="AD75" s="1">
+        <v>0.80818693899804595</v>
+      </c>
+      <c r="AE75" s="1">
+        <v>27.9799995422363</v>
+      </c>
     </row>
-    <row r="76" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -27275,8 +27855,14 @@
       <c r="AA76" s="1">
         <v>29.579999923706001</v>
       </c>
+      <c r="AD76" s="1">
+        <v>0.81189550829541102</v>
+      </c>
+      <c r="AE76" s="1">
+        <v>27.9899997711181</v>
+      </c>
     </row>
-    <row r="77" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -27358,8 +27944,14 @@
       <c r="AA77" s="1">
         <v>29.9799995422363</v>
       </c>
+      <c r="AD77" s="1">
+        <v>0.81168007660823205</v>
+      </c>
+      <c r="AE77" s="1">
+        <v>27.870000839233398</v>
+      </c>
     </row>
-    <row r="78" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -27441,8 +28033,14 @@
       <c r="AA78" s="1">
         <v>29.75</v>
       </c>
+      <c r="AD78" s="1">
+        <v>0.80864264156408305</v>
+      </c>
+      <c r="AE78" s="1">
+        <v>28.170000076293899</v>
+      </c>
     </row>
-    <row r="79" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -27524,8 +28122,14 @@
       <c r="AA79" s="1">
         <v>29.940000534057599</v>
       </c>
+      <c r="AD79" s="1">
+        <v>0.79949272741937305</v>
+      </c>
+      <c r="AE79" s="1">
+        <v>27.2199993133544</v>
+      </c>
     </row>
-    <row r="80" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -27607,8 +28211,14 @@
       <c r="AA80" s="1">
         <v>29.280000686645501</v>
       </c>
+      <c r="AD80" s="1">
+        <v>0.802294853386605</v>
+      </c>
+      <c r="AE80" s="1">
+        <v>27.139999389648398</v>
+      </c>
     </row>
-    <row r="81" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -27690,8 +28300,14 @@
       <c r="AA81" s="1">
         <v>29.190000534057599</v>
       </c>
+      <c r="AD81" s="1">
+        <v>0.81310190231936696</v>
+      </c>
+      <c r="AE81" s="1">
+        <v>27.799999237060501</v>
+      </c>
     </row>
-    <row r="82" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -27773,8 +28389,14 @@
       <c r="AA82" s="1">
         <v>28.870000839233398</v>
       </c>
+      <c r="AD82" s="1">
+        <v>0.81538100683005699</v>
+      </c>
+      <c r="AE82" s="1">
+        <v>29.059999465942301</v>
+      </c>
     </row>
-    <row r="83" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -27856,8 +28478,14 @@
       <c r="AA83" s="1">
         <v>29.420000076293899</v>
       </c>
+      <c r="AD83" s="1">
+        <v>0.80334784802357795</v>
+      </c>
+      <c r="AE83" s="1">
+        <v>27.350000381469702</v>
+      </c>
     </row>
-    <row r="84" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -27939,8 +28567,14 @@
       <c r="AA84" s="1">
         <v>29.280000686645501</v>
       </c>
+      <c r="AD84" s="1">
+        <v>0.81067270249318102</v>
+      </c>
+      <c r="AE84" s="1">
+        <v>28.0100002288818</v>
+      </c>
     </row>
-    <row r="85" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -28022,8 +28656,14 @@
       <c r="AA85" s="1">
         <v>29.159999847412099</v>
       </c>
+      <c r="AD85" s="1">
+        <v>0.79502846063322297</v>
+      </c>
+      <c r="AE85" s="1">
+        <v>27.780000686645501</v>
+      </c>
     </row>
-    <row r="86" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -28105,8 +28745,14 @@
       <c r="AA86" s="1">
         <v>28.75</v>
       </c>
+      <c r="AD86" s="1">
+        <v>0.80160388749116496</v>
+      </c>
+      <c r="AE86" s="1">
+        <v>27.770000457763601</v>
+      </c>
     </row>
-    <row r="87" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -28188,8 +28834,14 @@
       <c r="AA87" s="1">
         <v>29.139999389648398</v>
       </c>
+      <c r="AD87" s="1">
+        <v>0.805117836803387</v>
+      </c>
+      <c r="AE87" s="1">
+        <v>27.270000457763601</v>
+      </c>
     </row>
-    <row r="88" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -28271,8 +28923,14 @@
       <c r="AA88" s="1">
         <v>28.6800003051757</v>
       </c>
+      <c r="AD88" s="1">
+        <v>0.79915598737206395</v>
+      </c>
+      <c r="AE88" s="1">
+        <v>27.129999160766602</v>
+      </c>
     </row>
-    <row r="89" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -28354,8 +29012,14 @@
       <c r="AA89" s="1">
         <v>28.850000381469702</v>
       </c>
+      <c r="AD89" s="1">
+        <v>0.80066042379209101</v>
+      </c>
+      <c r="AE89" s="1">
+        <v>27.909999847412099</v>
+      </c>
     </row>
-    <row r="90" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -28437,8 +29101,14 @@
       <c r="AA90" s="1">
         <v>28.409999847412099</v>
       </c>
+      <c r="AD90" s="1">
+        <v>0.80093837410780999</v>
+      </c>
+      <c r="AE90" s="1">
+        <v>27.270000457763601</v>
+      </c>
     </row>
-    <row r="91" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -28520,8 +29190,14 @@
       <c r="AA91" s="1">
         <v>28.690000534057599</v>
       </c>
+      <c r="AD91" s="1">
+        <v>0.79748217239501296</v>
+      </c>
+      <c r="AE91" s="1">
+        <v>26.889999389648398</v>
+      </c>
     </row>
-    <row r="92" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -28603,8 +29279,14 @@
       <c r="AA92" s="1">
         <v>27.569999694824201</v>
       </c>
+      <c r="AD92" s="1">
+        <v>0.80293566558011698</v>
+      </c>
+      <c r="AE92" s="1">
+        <v>27.319999694824201</v>
+      </c>
     </row>
-    <row r="93" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -28686,8 +29368,14 @@
       <c r="AA93" s="1">
         <v>28.129999160766602</v>
       </c>
+      <c r="AD93" s="1">
+        <v>0.79877213061235497</v>
+      </c>
+      <c r="AE93" s="1">
+        <v>27.030000686645501</v>
+      </c>
     </row>
-    <row r="94" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -28769,8 +29457,14 @@
       <c r="AA94" s="1">
         <v>28.340000152587798</v>
       </c>
+      <c r="AD94" s="1">
+        <v>0.80227466449616003</v>
+      </c>
+      <c r="AE94" s="1">
+        <v>27.2600002288818</v>
+      </c>
     </row>
-    <row r="95" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -28852,8 +29546,14 @@
       <c r="AA95" s="1">
         <v>28.389999389648398</v>
       </c>
+      <c r="AD95" s="1">
+        <v>0.80125166902876199</v>
+      </c>
+      <c r="AE95" s="1">
+        <v>27.299999237060501</v>
+      </c>
     </row>
-    <row r="96" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -28935,8 +29635,14 @@
       <c r="AA96" s="1">
         <v>27.940000534057599</v>
       </c>
+      <c r="AD96" s="1">
+        <v>0.79629716941505402</v>
+      </c>
+      <c r="AE96" s="1">
+        <v>27.280000686645501</v>
+      </c>
     </row>
-    <row r="97" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -29018,8 +29724,14 @@
       <c r="AA97" s="1">
         <v>28.049999237060501</v>
       </c>
+      <c r="AD97" s="1">
+        <v>0.80531097673306795</v>
+      </c>
+      <c r="AE97" s="1">
+        <v>27.520000457763601</v>
+      </c>
     </row>
-    <row r="98" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -29101,8 +29813,14 @@
       <c r="AA98" s="1">
         <v>27.7600002288818</v>
       </c>
+      <c r="AD98" s="1">
+        <v>0.79473302053038397</v>
+      </c>
+      <c r="AE98" s="1">
+        <v>27.020000457763601</v>
+      </c>
     </row>
-    <row r="99" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -29184,8 +29902,14 @@
       <c r="AA99" s="1">
         <v>27.9699993133544</v>
       </c>
+      <c r="AD99" s="1">
+        <v>0.78741174917312096</v>
+      </c>
+      <c r="AE99" s="1">
+        <v>27.149999618530199</v>
+      </c>
     </row>
-    <row r="100" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -29267,8 +29991,14 @@
       <c r="AA100" s="1">
         <v>28.2199993133544</v>
       </c>
+      <c r="AD100" s="1">
+        <v>0.80056190376828396</v>
+      </c>
+      <c r="AE100" s="1">
+        <v>26.9699993133544</v>
+      </c>
     </row>
-    <row r="101" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -29350,8 +30080,14 @@
       <c r="AA101" s="1">
         <v>27.809999465942301</v>
       </c>
+      <c r="AD101" s="1">
+        <v>0.79121812209961495</v>
+      </c>
+      <c r="AE101" s="1">
+        <v>26.629999160766602</v>
+      </c>
     </row>
-    <row r="102" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -29362,7 +30098,7 @@
         <v>32.360000610351499</v>
       </c>
     </row>
-    <row r="103" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -29373,7 +30109,7 @@
         <v>32.740001678466797</v>
       </c>
     </row>
-    <row r="104" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -29384,7 +30120,7 @@
         <v>32.330001831054602</v>
       </c>
     </row>
-    <row r="105" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -29395,7 +30131,7 @@
         <v>32.349998474121001</v>
       </c>
     </row>
-    <row r="106" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -29406,7 +30142,7 @@
         <v>32.639999389648402</v>
       </c>
     </row>
-    <row r="107" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -29417,7 +30153,7 @@
         <v>32.599998474121001</v>
       </c>
     </row>
-    <row r="108" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -29428,7 +30164,7 @@
         <v>32.389999389648402</v>
       </c>
     </row>
-    <row r="109" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -29439,7 +30175,7 @@
         <v>32.490001678466797</v>
       </c>
     </row>
-    <row r="110" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -29450,7 +30186,7 @@
         <v>32.029998779296797</v>
       </c>
     </row>
-    <row r="111" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -29461,7 +30197,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7337CA87-64BE-4C7E-9B4A-D4A2C345BF29}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B111C9-20CC-478F-8AD6-34248454C482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -9955,6 +9955,368 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="31"/>
+          <c:order val="31"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AG$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AG$2:$AG$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>89.819999694824205</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>79.290000915527301</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-96EE-4573-9CDE-1B0303DFE592}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -10651,7 +11013,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$1</c15:sqref>
@@ -10686,7 +11048,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -11001,7 +11363,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$2:$D$101</c15:sqref>
@@ -11328,7 +11690,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$1</c15:sqref>
@@ -11363,7 +11725,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -11678,7 +12040,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$2:$F$101</c15:sqref>
@@ -12005,7 +12367,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$1</c15:sqref>
@@ -12042,7 +12404,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -12357,7 +12719,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$2:$H$101</c15:sqref>
@@ -12684,7 +13046,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$1</c15:sqref>
@@ -12721,7 +13083,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -13036,7 +13398,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$101</c15:sqref>
@@ -13363,7 +13725,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$1</c15:sqref>
@@ -13400,7 +13762,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -13715,7 +14077,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$2:$L$101</c15:sqref>
@@ -14042,7 +14404,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$1</c15:sqref>
@@ -14080,7 +14442,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -14395,7 +14757,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$2:$N$101</c15:sqref>
@@ -14722,7 +15084,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$1</c15:sqref>
@@ -14760,7 +15122,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -15075,7 +15437,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$2:$P$101</c15:sqref>
@@ -15402,7 +15764,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$R$1</c15:sqref>
@@ -15440,7 +15802,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -15755,7 +16117,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$R$2:$R$101</c15:sqref>
@@ -16082,7 +16444,7 @@
                 <c:order val="18"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$T$1</c15:sqref>
@@ -16119,7 +16481,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -16434,7 +16796,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$T$2:$T$101</c15:sqref>
@@ -16761,7 +17123,7 @@
                 <c:order val="20"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$V$1</c15:sqref>
@@ -16798,7 +17160,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -17113,7 +17475,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$V$2:$V$101</c15:sqref>
@@ -17440,7 +17802,7 @@
                 <c:order val="22"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$X$1</c15:sqref>
@@ -17477,7 +17839,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -17792,7 +18154,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$X$2:$X$101</c15:sqref>
@@ -18119,7 +18481,7 @@
                 <c:order val="24"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$Z$1</c15:sqref>
@@ -18157,7 +18519,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -18472,7 +18834,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$Z$2:$Z$101</c15:sqref>
@@ -18799,7 +19161,7 @@
                 <c:order val="26"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AB$1</c15:sqref>
@@ -18834,7 +19196,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -19149,7 +19511,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AB$2:$AB$101</c15:sqref>
@@ -19242,7 +19604,7 @@
                 <c:order val="28"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AD$1</c15:sqref>
@@ -19280,7 +19642,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -19595,7 +19957,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                    <c:extLst>
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AD$2:$AD$101</c15:sqref>
@@ -19912,6 +20274,388 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-943F-4B8D-856E-201E220A061A}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="30"/>
+                <c:order val="30"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AF$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>99</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst>
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AF$2:$AF$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>2.3051873665706299</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.18535138619173</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst>
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-96EE-4573-9CDE-1B0303DFE592}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -20952,10 +21696,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AE201"/>
+  <dimension ref="A1:AG201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AD7" sqref="AD7"/>
+      <selection activeCell="AG4" sqref="AG4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -20966,7 +21710,7 @@
     <col min="12" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -21055,7 +21799,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="2" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -21149,8 +21893,14 @@
       <c r="AE2" s="1">
         <v>90.059997558593693</v>
       </c>
+      <c r="AF2" s="1">
+        <v>2.3051873665706299</v>
+      </c>
+      <c r="AG2" s="1">
+        <v>89.819999694824205</v>
+      </c>
     </row>
-    <row r="3" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -21244,8 +21994,14 @@
       <c r="AE3" s="1">
         <v>76.290000915527301</v>
       </c>
+      <c r="AF3" s="1">
+        <v>2.18535138619173</v>
+      </c>
+      <c r="AG3" s="1">
+        <v>79.290000915527301</v>
+      </c>
     </row>
-    <row r="4" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -21340,7 +22096,7 @@
         <v>67.260002136230398</v>
       </c>
     </row>
-    <row r="5" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -21435,7 +22191,7 @@
         <v>65.709999084472599</v>
       </c>
     </row>
-    <row r="6" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -21530,7 +22286,7 @@
         <v>62.409999847412102</v>
       </c>
     </row>
-    <row r="7" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -21625,7 +22381,7 @@
         <v>59.069999694824197</v>
       </c>
     </row>
-    <row r="8" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -21720,7 +22476,7 @@
         <v>56.790000915527301</v>
       </c>
     </row>
-    <row r="9" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -21815,7 +22571,7 @@
         <v>55.4799995422363</v>
       </c>
     </row>
-    <row r="10" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -21910,7 +22666,7 @@
         <v>53.900001525878899</v>
       </c>
     </row>
-    <row r="11" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -22005,7 +22761,7 @@
         <v>52.650001525878899</v>
       </c>
     </row>
-    <row r="12" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -22100,7 +22856,7 @@
         <v>50.060001373291001</v>
       </c>
     </row>
-    <row r="13" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -22195,7 +22951,7 @@
         <v>51.060001373291001</v>
       </c>
     </row>
-    <row r="14" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -22290,7 +23046,7 @@
         <v>50.779998779296797</v>
       </c>
     </row>
-    <row r="15" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -22385,7 +23141,7 @@
         <v>48.770000457763601</v>
       </c>
     </row>
-    <row r="16" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0B111C9-20CC-478F-8AD6-34248454C482}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D204742-8685-4678-A056-BEB9F05DE838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10307,6 +10307,30 @@
                 <c:pt idx="1">
                   <c:v>79.290000915527301</c:v>
                 </c:pt>
+                <c:pt idx="2">
+                  <c:v>73.559997558593693</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>69.989997863769503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>65.690002441406193</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>64.580001831054602</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.080001831054602</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.849998474121001</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>62.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>59.409999847412102</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -11013,7 +11037,7 @@
                 <c:order val="2"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$1</c15:sqref>
@@ -11048,7 +11072,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -11363,7 +11387,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$D$2:$D$101</c15:sqref>
@@ -11690,7 +11714,7 @@
                 <c:order val="4"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$1</c15:sqref>
@@ -11725,7 +11749,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -12040,7 +12064,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$F$2:$F$101</c15:sqref>
@@ -12367,7 +12391,7 @@
                 <c:order val="6"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$1</c15:sqref>
@@ -12404,7 +12428,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -12719,7 +12743,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$H$2:$H$101</c15:sqref>
@@ -13046,7 +13070,7 @@
                 <c:order val="8"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$1</c15:sqref>
@@ -13083,7 +13107,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -13398,7 +13422,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$J$2:$J$101</c15:sqref>
@@ -13725,7 +13749,7 @@
                 <c:order val="10"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$1</c15:sqref>
@@ -13762,7 +13786,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -14077,7 +14101,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$L$2:$L$101</c15:sqref>
@@ -14404,7 +14428,7 @@
                 <c:order val="12"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$1</c15:sqref>
@@ -14442,7 +14466,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -14757,7 +14781,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$N$2:$N$101</c15:sqref>
@@ -15084,7 +15108,7 @@
                 <c:order val="14"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$1</c15:sqref>
@@ -15122,7 +15146,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -15437,7 +15461,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$P$2:$P$101</c15:sqref>
@@ -15764,7 +15788,7 @@
                 <c:order val="16"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$R$1</c15:sqref>
@@ -15802,7 +15826,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -16117,7 +16141,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$R$2:$R$101</c15:sqref>
@@ -16444,7 +16468,7 @@
                 <c:order val="18"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$T$1</c15:sqref>
@@ -16481,7 +16505,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -16796,7 +16820,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$T$2:$T$101</c15:sqref>
@@ -17123,7 +17147,7 @@
                 <c:order val="20"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$V$1</c15:sqref>
@@ -17160,7 +17184,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -17475,7 +17499,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$V$2:$V$101</c15:sqref>
@@ -17802,7 +17826,7 @@
                 <c:order val="22"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$X$1</c15:sqref>
@@ -17839,7 +17863,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -18154,7 +18178,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$X$2:$X$101</c15:sqref>
@@ -18481,7 +18505,7 @@
                 <c:order val="24"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$Z$1</c15:sqref>
@@ -18519,7 +18543,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -18834,7 +18858,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$Z$2:$Z$101</c15:sqref>
@@ -19161,7 +19185,7 @@
                 <c:order val="26"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AB$1</c15:sqref>
@@ -19196,7 +19220,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -19511,7 +19535,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AB$2:$AB$101</c15:sqref>
@@ -19604,7 +19628,7 @@
                 <c:order val="28"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AD$1</c15:sqref>
@@ -19642,7 +19666,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -19957,7 +19981,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AD$2:$AD$101</c15:sqref>
@@ -20284,7 +20308,7 @@
                 <c:order val="30"/>
                 <c:tx>
                   <c:strRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AF$1</c15:sqref>
@@ -20318,7 +20342,7 @@
                 </c:marker>
                 <c:cat>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
@@ -20633,7 +20657,7 @@
                 </c:cat>
                 <c:val>
                   <c:numRef>
-                    <c:extLst>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                       <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
                         <c15:formulaRef>
                           <c15:sqref>Sheet1!$AF$2:$AF$101</c15:sqref>
@@ -20649,11 +20673,35 @@
                       <c:pt idx="1">
                         <c:v>2.18535138619173</c:v>
                       </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.4048318847729102</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.8982613435975999</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.74235343933105</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.75926331729645</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.67014272881161</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.6157923800170799</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.66161812414788</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.6266745913560201</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
                 <c:smooth val="0"/>
-                <c:extLst>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-96EE-4573-9CDE-1B0303DFE592}"/>
                   </c:ext>
@@ -21699,7 +21747,7 @@
   <dimension ref="A1:AG201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AG4" sqref="AG4"/>
+      <selection activeCell="AG9" sqref="AG9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22095,6 +22143,12 @@
       <c r="AE4" s="1">
         <v>67.260002136230398</v>
       </c>
+      <c r="AF4" s="1">
+        <v>2.4048318847729102</v>
+      </c>
+      <c r="AG4" s="1">
+        <v>73.559997558593693</v>
+      </c>
     </row>
     <row r="5" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
@@ -22190,6 +22244,12 @@
       <c r="AE5" s="1">
         <v>65.709999084472599</v>
       </c>
+      <c r="AF5" s="1">
+        <v>1.8982613435975999</v>
+      </c>
+      <c r="AG5" s="1">
+        <v>69.989997863769503</v>
+      </c>
     </row>
     <row r="6" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
@@ -22285,6 +22345,12 @@
       <c r="AE6" s="1">
         <v>62.409999847412102</v>
       </c>
+      <c r="AF6" s="1">
+        <v>1.74235343933105</v>
+      </c>
+      <c r="AG6" s="1">
+        <v>65.690002441406193</v>
+      </c>
     </row>
     <row r="7" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
@@ -22380,6 +22446,12 @@
       <c r="AE7" s="1">
         <v>59.069999694824197</v>
       </c>
+      <c r="AF7" s="1">
+        <v>1.75926331729645</v>
+      </c>
+      <c r="AG7" s="1">
+        <v>64.580001831054602</v>
+      </c>
     </row>
     <row r="8" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
@@ -22475,6 +22547,12 @@
       <c r="AE8" s="1">
         <v>56.790000915527301</v>
       </c>
+      <c r="AF8" s="1">
+        <v>1.67014272881161</v>
+      </c>
+      <c r="AG8" s="1">
+        <v>62.080001831054602</v>
+      </c>
     </row>
     <row r="9" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
@@ -22570,6 +22648,12 @@
       <c r="AE9" s="1">
         <v>55.4799995422363</v>
       </c>
+      <c r="AF9" s="1">
+        <v>1.6157923800170799</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>60.849998474121001</v>
+      </c>
     </row>
     <row r="10" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
@@ -22665,6 +22749,12 @@
       <c r="AE10" s="1">
         <v>53.900001525878899</v>
       </c>
+      <c r="AF10" s="1">
+        <v>1.66161812414788</v>
+      </c>
+      <c r="AG10" s="1">
+        <v>62.150001525878899</v>
+      </c>
     </row>
     <row r="11" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
@@ -22759,6 +22849,12 @@
       </c>
       <c r="AE11" s="1">
         <v>52.650001525878899</v>
+      </c>
+      <c r="AF11" s="1">
+        <v>1.6266745913560201</v>
+      </c>
+      <c r="AG11" s="1">
+        <v>59.409999847412102</v>
       </c>
     </row>
     <row r="12" spans="1:33" x14ac:dyDescent="0.3">

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhl\Desktop\learningEFL-main\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3D204742-8685-4678-A056-BEB9F05DE838}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D43471D-558D-48CF-8C7F-C1837704F4D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10331,6 +10331,78 @@
                 <c:pt idx="9">
                   <c:v>59.409999847412102</c:v>
                 </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.240001678466797</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.919998168945298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.919998168945298</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>53.040000915527301</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>51.720001220703097</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>51.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>49.930000305175703</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>49.909999847412102</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>48.849998474121001</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>47.75</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>45.790000915527301</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>47.110000610351499</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>46.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>46.009998321533203</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>43.779998779296797</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>43.830001831054602</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>42.610000610351499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>42.029998779296797</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>43.040000915527301</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>42.919998168945298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.75</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>40.9799995422363</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>40.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>39.330001831054602</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20696,6 +20768,78 @@
                       </c:pt>
                       <c:pt idx="9">
                         <c:v>1.6266745913560201</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.5688353473213801</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.5419101403777</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.5115079082501099</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.5065076123377299</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.46838523551916</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.45729220672777</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.4376006141589699</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.3955516503874601</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.3832943120579799</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.3683830355383</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.33640818079565</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.3501187752766199</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.31767414026199</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.3285631784208201</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.2953015945519599</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.28379553594407</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.27340279415154</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.2239815266269001</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1.2647062729878</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.24093341713498</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.2067893887781</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1.20397472875133</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1.19355434976565</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>1.1576090363939799</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -21747,7 +21891,7 @@
   <dimension ref="A1:AG201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AG9" sqref="AG9"/>
+      <selection activeCell="AI20" sqref="AI20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -22951,6 +23095,12 @@
       <c r="AE12" s="1">
         <v>50.060001373291001</v>
       </c>
+      <c r="AF12" s="1">
+        <v>1.5688353473213801</v>
+      </c>
+      <c r="AG12" s="1">
+        <v>56.240001678466797</v>
+      </c>
     </row>
     <row r="13" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
@@ -23046,6 +23196,12 @@
       <c r="AE13" s="1">
         <v>51.060001373291001</v>
       </c>
+      <c r="AF13" s="1">
+        <v>1.5419101403777</v>
+      </c>
+      <c r="AG13" s="1">
+        <v>55.919998168945298</v>
+      </c>
     </row>
     <row r="14" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
@@ -23141,6 +23297,12 @@
       <c r="AE14" s="1">
         <v>50.779998779296797</v>
       </c>
+      <c r="AF14" s="1">
+        <v>1.5115079082501099</v>
+      </c>
+      <c r="AG14" s="1">
+        <v>53.919998168945298</v>
+      </c>
     </row>
     <row r="15" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
@@ -23236,6 +23398,12 @@
       <c r="AE15" s="1">
         <v>48.770000457763601</v>
       </c>
+      <c r="AF15" s="1">
+        <v>1.5065076123377299</v>
+      </c>
+      <c r="AG15" s="1">
+        <v>53.040000915527301</v>
+      </c>
     </row>
     <row r="16" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
@@ -23331,8 +23499,14 @@
       <c r="AE16" s="1">
         <v>45.990001678466797</v>
       </c>
+      <c r="AF16" s="1">
+        <v>1.46838523551916</v>
+      </c>
+      <c r="AG16" s="1">
+        <v>51.720001220703097</v>
+      </c>
     </row>
-    <row r="17" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -23426,8 +23600,14 @@
       <c r="AE17" s="1">
         <v>44.490001678466797</v>
       </c>
+      <c r="AF17" s="1">
+        <v>1.45729220672777</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>51.819999694824197</v>
+      </c>
     </row>
-    <row r="18" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -23521,8 +23701,14 @@
       <c r="AE18" s="1">
         <v>44.639999389648402</v>
       </c>
+      <c r="AF18" s="1">
+        <v>1.4376006141589699</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>49.930000305175703</v>
+      </c>
     </row>
-    <row r="19" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -23616,8 +23802,14 @@
       <c r="AE19" s="1">
         <v>43.299999237060497</v>
       </c>
+      <c r="AF19" s="1">
+        <v>1.3955516503874601</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>49.909999847412102</v>
+      </c>
     </row>
-    <row r="20" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -23711,8 +23903,14 @@
       <c r="AE20" s="1">
         <v>43.450000762939403</v>
       </c>
+      <c r="AF20" s="1">
+        <v>1.3832943120579799</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>48.849998474121001</v>
+      </c>
     </row>
-    <row r="21" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -23806,8 +24004,14 @@
       <c r="AE21" s="1">
         <v>42.520000457763601</v>
       </c>
+      <c r="AF21" s="1">
+        <v>1.3683830355383</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>47.75</v>
+      </c>
     </row>
-    <row r="22" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -23901,8 +24105,14 @@
       <c r="AE22" s="1">
         <v>40.700000762939403</v>
       </c>
+      <c r="AF22" s="1">
+        <v>1.33640818079565</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>45.790000915527301</v>
+      </c>
     </row>
-    <row r="23" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -23996,8 +24206,14 @@
       <c r="AE23" s="1">
         <v>41.130001068115199</v>
       </c>
+      <c r="AF23" s="1">
+        <v>1.3501187752766199</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>47.110000610351499</v>
+      </c>
     </row>
-    <row r="24" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -24085,8 +24301,14 @@
       <c r="AE24" s="1">
         <v>40.139999389648402</v>
       </c>
+      <c r="AF24" s="1">
+        <v>1.31767414026199</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>46.220001220703097</v>
+      </c>
     </row>
-    <row r="25" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -24174,8 +24396,14 @@
       <c r="AE25" s="1">
         <v>38.689998626708899</v>
       </c>
+      <c r="AF25" s="1">
+        <v>1.3285631784208201</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>46.009998321533203</v>
+      </c>
     </row>
-    <row r="26" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -24263,8 +24491,14 @@
       <c r="AE26" s="1">
         <v>37.599998474121001</v>
       </c>
+      <c r="AF26" s="1">
+        <v>1.2953015945519599</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>43.779998779296797</v>
+      </c>
     </row>
-    <row r="27" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -24352,8 +24586,14 @@
       <c r="AE27" s="1">
         <v>37.770000457763601</v>
       </c>
+      <c r="AF27" s="1">
+        <v>1.28379553594407</v>
+      </c>
+      <c r="AG27" s="1">
+        <v>43.830001831054602</v>
+      </c>
     </row>
-    <row r="28" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -24441,8 +24681,14 @@
       <c r="AE28" s="1">
         <v>37.75</v>
       </c>
+      <c r="AF28" s="1">
+        <v>1.27340279415154</v>
+      </c>
+      <c r="AG28" s="1">
+        <v>42.610000610351499</v>
+      </c>
     </row>
-    <row r="29" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -24530,8 +24776,14 @@
       <c r="AE29" s="1">
         <v>36.919998168945298</v>
       </c>
+      <c r="AF29" s="1">
+        <v>1.2239815266269001</v>
+      </c>
+      <c r="AG29" s="1">
+        <v>42.029998779296797</v>
+      </c>
     </row>
-    <row r="30" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -24619,8 +24871,14 @@
       <c r="AE30" s="1">
         <v>35.319999694824197</v>
       </c>
+      <c r="AF30" s="1">
+        <v>1.2647062729878</v>
+      </c>
+      <c r="AG30" s="1">
+        <v>43.040000915527301</v>
+      </c>
     </row>
-    <row r="31" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -24708,8 +24966,14 @@
       <c r="AE31" s="1">
         <v>35.540000915527301</v>
       </c>
+      <c r="AF31" s="1">
+        <v>1.24093341713498</v>
+      </c>
+      <c r="AG31" s="1">
+        <v>42.919998168945298</v>
+      </c>
     </row>
-    <row r="32" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -24797,8 +25061,14 @@
       <c r="AE32" s="1">
         <v>34.119998931884702</v>
       </c>
+      <c r="AF32" s="1">
+        <v>1.2067893887781</v>
+      </c>
+      <c r="AG32" s="1">
+        <v>40.75</v>
+      </c>
     </row>
-    <row r="33" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -24886,8 +25156,14 @@
       <c r="AE33" s="1">
         <v>35.159999847412102</v>
       </c>
+      <c r="AF33" s="1">
+        <v>1.20397472875133</v>
+      </c>
+      <c r="AG33" s="1">
+        <v>40.9799995422363</v>
+      </c>
     </row>
-    <row r="34" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -24975,8 +25251,14 @@
       <c r="AE34" s="1">
         <v>33.900001525878899</v>
       </c>
+      <c r="AF34" s="1">
+        <v>1.19355434976565</v>
+      </c>
+      <c r="AG34" s="1">
+        <v>40.599998474121001</v>
+      </c>
     </row>
-    <row r="35" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -25064,8 +25346,14 @@
       <c r="AE35" s="1">
         <v>33.330001831054602</v>
       </c>
+      <c r="AF35" s="1">
+        <v>1.1576090363939799</v>
+      </c>
+      <c r="AG35" s="1">
+        <v>39.330001831054602</v>
+      </c>
     </row>
-    <row r="36" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -25154,7 +25442,7 @@
         <v>35.119998931884702</v>
       </c>
     </row>
-    <row r="37" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -25243,7 +25531,7 @@
         <v>35.180000305175703</v>
       </c>
     </row>
-    <row r="38" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -25332,7 +25620,7 @@
         <v>34.4799995422363</v>
       </c>
     </row>
-    <row r="39" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -25421,7 +25709,7 @@
         <v>34.009998321533203</v>
       </c>
     </row>
-    <row r="40" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -25510,7 +25798,7 @@
         <v>33.380001068115199</v>
       </c>
     </row>
-    <row r="41" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -25599,7 +25887,7 @@
         <v>33.290000915527301</v>
       </c>
     </row>
-    <row r="42" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -25688,7 +25976,7 @@
         <v>33.060001373291001</v>
       </c>
     </row>
-    <row r="43" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -25777,7 +26065,7 @@
         <v>33.430000305175703</v>
       </c>
     </row>
-    <row r="44" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -25866,7 +26154,7 @@
         <v>32.75</v>
       </c>
     </row>
-    <row r="45" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -25955,7 +26243,7 @@
         <v>32.419998168945298</v>
       </c>
     </row>
-    <row r="46" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -26044,7 +26332,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="47" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -26133,7 +26421,7 @@
         <v>31.860000610351499</v>
       </c>
     </row>
-    <row r="48" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhl\Desktop\learningEFL-main\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1D43471D-558D-48CF-8C7F-C1837704F4D4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC16141F-6CD5-4B26-B0B5-082BF001316A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -10403,6 +10403,30 @@
                 <c:pt idx="33">
                   <c:v>39.330001831054602</c:v>
                 </c:pt>
+                <c:pt idx="34">
+                  <c:v>39.689998626708899</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38.349998474121001</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>39.020000457763601</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>38.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>37.180000305175703</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>37.869998931884702</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>38.020000457763601</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>36.25</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -20840,6 +20864,30 @@
                       </c:pt>
                       <c:pt idx="33">
                         <c:v>1.1576090363939799</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>1.17775132132183</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1.15243339728397</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>1.1356312347825099</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1.12697445017517</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>1.11960241141592</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1.1251327175243599</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>1.1025809596298599</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>1.0688439918931101</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -21891,7 +21939,7 @@
   <dimension ref="A1:AG201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AI20" sqref="AI20"/>
+      <selection activeCell="AI21" sqref="AI21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25441,6 +25489,12 @@
       <c r="AE36" s="1">
         <v>35.119998931884702</v>
       </c>
+      <c r="AF36" s="1">
+        <v>1.17775132132183</v>
+      </c>
+      <c r="AG36" s="1">
+        <v>39.689998626708899</v>
+      </c>
     </row>
     <row r="37" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
@@ -25530,6 +25584,12 @@
       <c r="AE37" s="1">
         <v>35.180000305175703</v>
       </c>
+      <c r="AF37" s="1">
+        <v>1.15243339728397</v>
+      </c>
+      <c r="AG37" s="1">
+        <v>38.349998474121001</v>
+      </c>
     </row>
     <row r="38" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
@@ -25619,6 +25679,12 @@
       <c r="AE38" s="1">
         <v>34.4799995422363</v>
       </c>
+      <c r="AF38" s="1">
+        <v>1.1356312347825099</v>
+      </c>
+      <c r="AG38" s="1">
+        <v>39.020000457763601</v>
+      </c>
     </row>
     <row r="39" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
@@ -25708,6 +25774,12 @@
       <c r="AE39" s="1">
         <v>34.009998321533203</v>
       </c>
+      <c r="AF39" s="1">
+        <v>1.12697445017517</v>
+      </c>
+      <c r="AG39" s="1">
+        <v>38.290000915527301</v>
+      </c>
     </row>
     <row r="40" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
@@ -25797,6 +25869,12 @@
       <c r="AE40" s="1">
         <v>33.380001068115199</v>
       </c>
+      <c r="AF40" s="1">
+        <v>1.11960241141592</v>
+      </c>
+      <c r="AG40" s="1">
+        <v>37.180000305175703</v>
+      </c>
     </row>
     <row r="41" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
@@ -25886,6 +25964,12 @@
       <c r="AE41" s="1">
         <v>33.290000915527301</v>
       </c>
+      <c r="AF41" s="1">
+        <v>1.1251327175243599</v>
+      </c>
+      <c r="AG41" s="1">
+        <v>37.869998931884702</v>
+      </c>
     </row>
     <row r="42" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
@@ -25975,6 +26059,12 @@
       <c r="AE42" s="1">
         <v>33.060001373291001</v>
       </c>
+      <c r="AF42" s="1">
+        <v>1.1025809596298599</v>
+      </c>
+      <c r="AG42" s="1">
+        <v>38.020000457763601</v>
+      </c>
     </row>
     <row r="43" spans="1:33" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
@@ -26063,6 +26153,12 @@
       </c>
       <c r="AE43" s="1">
         <v>33.430000305175703</v>
+      </c>
+      <c r="AF43" s="1">
+        <v>1.0688439918931101</v>
+      </c>
+      <c r="AG43" s="1">
+        <v>36.25</v>
       </c>
     </row>
     <row r="44" spans="1:33" x14ac:dyDescent="0.3">

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhl\Desktop\learningEFL-main\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FC16141F-6CD5-4B26-B0B5-082BF001316A}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4459FB17-00A2-470E-B368-5E4687F9A93C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="29" uniqueCount="29">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -142,6 +142,14 @@
     <t>efl_err_#12</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>central_loss</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>central_err</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
@@ -163,7 +171,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -182,6 +190,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -195,13 +209,14 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="표준" xfId="0" builtinId="0"/>
@@ -10427,6 +10442,99 @@
                 <c:pt idx="41">
                   <c:v>36.25</c:v>
                 </c:pt>
+                <c:pt idx="42">
+                  <c:v>37.319999694824197</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>36.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>35.349998474121001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.529998779296797</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>35.810001373291001</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>35.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>35.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>35.439998626708899</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33.880001068115199</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>34.369998931884702</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>33.569999694824197</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>33.689998626708899</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>33.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>33.110000610351499</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>32.259998321533203</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.450000762939403</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>32.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>32.639999389648402</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>33.020000457763601</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>32.880001068115199</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>32.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>32.009998321533203</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>32.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>31.629999160766602</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>31.4799995422363</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>31.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30.920000076293899</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>31.170000076293899</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>31.280000686645501</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>30.579999923706001</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>30.659999847412099</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -10434,6 +10542,665 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000002-96EE-4573-9CDE-1B0303DFE592}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="33"/>
+          <c:order val="33"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AI$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>central_err</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AI$2:$AI$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>63.110000610351499</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>57.270000457763601</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>49.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>45.310001373291001</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>42.950000762939403</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>37.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>34.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>32.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>32.889999389648402</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>30.9300003051757</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>29.409999847412099</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>30.4899997711181</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>27.899999618530199</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>27.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>26.809999465942301</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>27.809999465942301</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>25.850000381469702</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>25.670000076293899</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>24.389999389648398</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>24.360000610351499</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>22.600000381469702</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>23.139999389648398</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23.579999923706001</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>23.159999847412099</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>22.190000534057599</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>22.360000610351499</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>21.850000381469702</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>21.7600002288818</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>28.2600002288818</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>22.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>21.360000610351499</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>20.889999389648398</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>21.370000839233398</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>20.75</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>21.170000076293899</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>21.2000007629394</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>20.590000152587798</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>19.850000381469702</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>19.4899997711181</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>20.659999847412099</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>19.549999237060501</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>19.659999847412099</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>19.590000152587798</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>19.809999465942301</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>19.629999160766602</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>19.7000007629394</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>18.909999847412099</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>18.9899997711181</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>20.190000534057599</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>19.770000457763601</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>19.149999618530199</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>18.889999389648398</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>19.4500007629394</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>18.7000007629394</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>18.120000839233398</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>18.9300003051757</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>19.399999618530199</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>18.850000381469702</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>18.309999465942301</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>18.350000381469702</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>18.7600002288818</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>18.9300003051757</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>18.389999389648398</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>18.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>19.440000534057599</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>17.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>18.409999847412099</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>18.329999923706001</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>18.1800003051757</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>18.579999923706001</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>17.879999160766602</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>17.809999465942301</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>18.770000457763601</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>18.139999389648398</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>17.780000686645501</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>18.379999160766602</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>18.389999389648398</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>17.709999084472599</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>17.590000152587798</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>17.059999465942301</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>17.409999847412099</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>18.7000007629394</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>17.9300003051757</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>17.290000915527301</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>17.4699993133544</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>17.9899997711181</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>18.2399997711181</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>18.040000915527301</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>16.9500007629394</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>17.2199993133544</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>18.059999465942301</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>18.5100002288818</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>17.920000076293899</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>17.639999389648398</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>17.149999618530199</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>18.049999237060501</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>17.940000534057599</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>17.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>17.350000381469702</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-C319-4DC0-B96E-896611BDF3C2}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20889,6 +21656,99 @@
                       <c:pt idx="41">
                         <c:v>1.0688439918931101</c:v>
                       </c:pt>
+                      <c:pt idx="42">
+                        <c:v>1.07066606602091</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>1.0554694670021101</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>1.0289041464495801</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>1.04585851149953</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>1.0437214625109501</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>1.0396792319170201</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>1.02012335874472</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>1.02861781864409</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.98497715991014101</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.98722973446937101</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.98593144469959704</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.969937171526016</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.97188197617318195</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.96051577777619501</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.95002643963333899</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.94356845176903303</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.95099047528710301</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.94572635896646295</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.95017049456857505</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0.951266733324451</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0.94513062800571401</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0.93527172857029395</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.923894199216441</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0.92055062921183795</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0.90814074171576498</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0.89595701436328201</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.90187130574208096</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0.899025040447332</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0.90408910687562005</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0.88642827796328505</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0.89368294416719096</c:v>
+                      </c:pt>
                     </c:numCache>
                   </c:numRef>
                 </c:val>
@@ -20896,6 +21756,685 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000001-96EE-4573-9CDE-1B0303DFE592}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="32"/>
+                <c:order val="32"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AH$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>central_loss</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent3">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>99</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AH$2:$AH$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>1.6994182068830801</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1.54825577538484</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.37831470161486</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.2795488082679201</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.1976994158356</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.0818346545195101</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>0.99757980996635998</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>0.92900226526199603</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>0.96443972238309805</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>0.90640160422416205</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>0.85128058825328801</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>0.89720906231813302</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>0.79665368149994198</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>0.79428986967748805</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>0.78059723081102705</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>0.80071473653149405</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>0.75978715157812504</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>0.74601935751878501</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>0.70985189858515496</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>0.71428357871474701</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>0.69102547768574596</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>0.67189642616138301</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>0.68581465266312702</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>0.70008137727239295</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>0.68619322757811996</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>0.64656627671733702</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>0.64896345062620298</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>0.63968004941181</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>0.64786576598313195</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>0.91701466908120799</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>0.66415924953806904</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>0.64141881219140995</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>0.629023547005501</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>0.63578436120300497</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>0.62167297569429802</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>0.62977067072680004</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>0.63403754932865197</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>0.62484470939939896</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>0.60948384140327405</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>0.59469758154480301</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>0.62376790878119703</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>0.59242381202946803</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>0.59658769095779196</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.58298530984835994</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.61299526729401499</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>0.59714036762334699</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.61100565732284695</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.59895956952860396</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.58270488869232695</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.61550720633974498</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.62705459184707302</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.60040505145006096</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.58244043607620599</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.61038343314152599</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.57875170867154502</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.58323086978523597</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.61114601449222306</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.59052736250458204</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.616406549788584</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.58604381855126397</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.58097431281949297</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0.58769317199090398</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0.61994110826094395</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0.60477001224733395</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.62681335618921097</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0.65717108376846101</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0.57180071930596699</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0.59846885673179695</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.602510516146186</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0.60525868538838201</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0.62624309900080299</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0.59777676907314603</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0.60252983991507503</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0.607828851433316</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0.58853428265091701</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0.57760057460730196</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0.63037553638409605</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0.58911004909284503</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0.57263641847167002</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0.59620241782847405</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0.61191087496128804</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0.59279421085764605</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0.63877308881206796</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0.59593823381290301</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0.60893412921459</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.57904976198248004</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0.62023670885972904</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0.62161250535849499</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0.60578674685423495</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0.59469227378915002</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0.60442061466016495</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0.63758412079446602</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0.65700365517549397</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0.64064033851502</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0.61471875809180498</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0.63170836619131099</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0.63767221000543794</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0.64702981501627799</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0.62806137437653298</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0.61484517868916699</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-C319-4DC0-B96E-896611BDF3C2}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -21936,10 +23475,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AG201"/>
+  <dimension ref="A1:AI201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AI21" sqref="AI21"/>
+      <selection activeCell="AF2" sqref="AF2:AG74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -21950,7 +23489,7 @@
     <col min="12" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -22038,8 +23577,14 @@
       <c r="AE1" t="s">
         <v>28</v>
       </c>
+      <c r="AH1" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="AI1" s="4" t="s">
+        <v>30</v>
+      </c>
     </row>
-    <row r="2" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -22139,8 +23684,14 @@
       <c r="AG2" s="1">
         <v>89.819999694824205</v>
       </c>
+      <c r="AH2" s="1">
+        <v>1.6994182068830801</v>
+      </c>
+      <c r="AI2" s="1">
+        <v>63.110000610351499</v>
+      </c>
     </row>
-    <row r="3" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -22240,8 +23791,14 @@
       <c r="AG3" s="1">
         <v>79.290000915527301</v>
       </c>
+      <c r="AH3" s="1">
+        <v>1.54825577538484</v>
+      </c>
+      <c r="AI3" s="1">
+        <v>57.270000457763601</v>
+      </c>
     </row>
-    <row r="4" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -22341,8 +23898,14 @@
       <c r="AG4" s="1">
         <v>73.559997558593693</v>
       </c>
+      <c r="AH4" s="1">
+        <v>1.37831470161486</v>
+      </c>
+      <c r="AI4" s="1">
+        <v>49.599998474121001</v>
+      </c>
     </row>
-    <row r="5" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -22442,8 +24005,14 @@
       <c r="AG5" s="1">
         <v>69.989997863769503</v>
       </c>
+      <c r="AH5" s="1">
+        <v>1.2795488082679201</v>
+      </c>
+      <c r="AI5" s="1">
+        <v>45.310001373291001</v>
+      </c>
     </row>
-    <row r="6" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -22543,8 +24112,14 @@
       <c r="AG6" s="1">
         <v>65.690002441406193</v>
       </c>
+      <c r="AH6" s="1">
+        <v>1.1976994158356</v>
+      </c>
+      <c r="AI6" s="1">
+        <v>42.950000762939403</v>
+      </c>
     </row>
-    <row r="7" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -22644,8 +24219,14 @@
       <c r="AG7" s="1">
         <v>64.580001831054602</v>
       </c>
+      <c r="AH7" s="1">
+        <v>1.0818346545195101</v>
+      </c>
+      <c r="AI7" s="1">
+        <v>37.549999237060497</v>
+      </c>
     </row>
-    <row r="8" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -22745,8 +24326,14 @@
       <c r="AG8" s="1">
         <v>62.080001831054602</v>
       </c>
+      <c r="AH8" s="1">
+        <v>0.99757980996635998</v>
+      </c>
+      <c r="AI8" s="1">
+        <v>34.840000152587798</v>
+      </c>
     </row>
-    <row r="9" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -22846,8 +24433,14 @@
       <c r="AG9" s="1">
         <v>60.849998474121001</v>
       </c>
+      <c r="AH9" s="1">
+        <v>0.92900226526199603</v>
+      </c>
+      <c r="AI9" s="1">
+        <v>32.290000915527301</v>
+      </c>
     </row>
-    <row r="10" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -22947,8 +24540,14 @@
       <c r="AG10" s="1">
         <v>62.150001525878899</v>
       </c>
+      <c r="AH10" s="1">
+        <v>0.96443972238309805</v>
+      </c>
+      <c r="AI10" s="1">
+        <v>32.889999389648402</v>
+      </c>
     </row>
-    <row r="11" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -23048,8 +24647,14 @@
       <c r="AG11" s="1">
         <v>59.409999847412102</v>
       </c>
+      <c r="AH11" s="1">
+        <v>0.90640160422416205</v>
+      </c>
+      <c r="AI11" s="1">
+        <v>30.9300003051757</v>
+      </c>
     </row>
-    <row r="12" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -23149,8 +24754,14 @@
       <c r="AG12" s="1">
         <v>56.240001678466797</v>
       </c>
+      <c r="AH12" s="1">
+        <v>0.85128058825328801</v>
+      </c>
+      <c r="AI12" s="1">
+        <v>29.409999847412099</v>
+      </c>
     </row>
-    <row r="13" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -23250,8 +24861,14 @@
       <c r="AG13" s="1">
         <v>55.919998168945298</v>
       </c>
+      <c r="AH13" s="1">
+        <v>0.89720906231813302</v>
+      </c>
+      <c r="AI13" s="1">
+        <v>30.4899997711181</v>
+      </c>
     </row>
-    <row r="14" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -23351,8 +24968,14 @@
       <c r="AG14" s="1">
         <v>53.919998168945298</v>
       </c>
+      <c r="AH14" s="1">
+        <v>0.79665368149994198</v>
+      </c>
+      <c r="AI14" s="1">
+        <v>27.899999618530199</v>
+      </c>
     </row>
-    <row r="15" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -23452,8 +25075,14 @@
       <c r="AG15" s="1">
         <v>53.040000915527301</v>
       </c>
+      <c r="AH15" s="1">
+        <v>0.79428986967748805</v>
+      </c>
+      <c r="AI15" s="1">
+        <v>27.860000610351499</v>
+      </c>
     </row>
-    <row r="16" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -23553,8 +25182,14 @@
       <c r="AG16" s="1">
         <v>51.720001220703097</v>
       </c>
+      <c r="AH16" s="1">
+        <v>0.78059723081102705</v>
+      </c>
+      <c r="AI16" s="1">
+        <v>26.809999465942301</v>
+      </c>
     </row>
-    <row r="17" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -23654,8 +25289,14 @@
       <c r="AG17" s="1">
         <v>51.819999694824197</v>
       </c>
+      <c r="AH17" s="1">
+        <v>0.80071473653149405</v>
+      </c>
+      <c r="AI17" s="1">
+        <v>27.809999465942301</v>
+      </c>
     </row>
-    <row r="18" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -23755,8 +25396,14 @@
       <c r="AG18" s="1">
         <v>49.930000305175703</v>
       </c>
+      <c r="AH18" s="1">
+        <v>0.75978715157812504</v>
+      </c>
+      <c r="AI18" s="1">
+        <v>25.850000381469702</v>
+      </c>
     </row>
-    <row r="19" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -23856,8 +25503,14 @@
       <c r="AG19" s="1">
         <v>49.909999847412102</v>
       </c>
+      <c r="AH19" s="1">
+        <v>0.74601935751878501</v>
+      </c>
+      <c r="AI19" s="1">
+        <v>25.670000076293899</v>
+      </c>
     </row>
-    <row r="20" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -23957,8 +25610,14 @@
       <c r="AG20" s="1">
         <v>48.849998474121001</v>
       </c>
+      <c r="AH20" s="1">
+        <v>0.70985189858515496</v>
+      </c>
+      <c r="AI20" s="1">
+        <v>24.389999389648398</v>
+      </c>
     </row>
-    <row r="21" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -24058,8 +25717,14 @@
       <c r="AG21" s="1">
         <v>47.75</v>
       </c>
+      <c r="AH21" s="1">
+        <v>0.71428357871474701</v>
+      </c>
+      <c r="AI21" s="1">
+        <v>24.360000610351499</v>
+      </c>
     </row>
-    <row r="22" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -24159,8 +25824,14 @@
       <c r="AG22" s="1">
         <v>45.790000915527301</v>
       </c>
+      <c r="AH22" s="1">
+        <v>0.69102547768574596</v>
+      </c>
+      <c r="AI22" s="1">
+        <v>24</v>
+      </c>
     </row>
-    <row r="23" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -24260,8 +25931,14 @@
       <c r="AG23" s="1">
         <v>47.110000610351499</v>
       </c>
+      <c r="AH23" s="1">
+        <v>0.67189642616138301</v>
+      </c>
+      <c r="AI23" s="1">
+        <v>22.600000381469702</v>
+      </c>
     </row>
-    <row r="24" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -24355,8 +26032,14 @@
       <c r="AG24" s="1">
         <v>46.220001220703097</v>
       </c>
+      <c r="AH24" s="1">
+        <v>0.68581465266312702</v>
+      </c>
+      <c r="AI24" s="1">
+        <v>23.139999389648398</v>
+      </c>
     </row>
-    <row r="25" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -24450,8 +26133,14 @@
       <c r="AG25" s="1">
         <v>46.009998321533203</v>
       </c>
+      <c r="AH25" s="1">
+        <v>0.70008137727239295</v>
+      </c>
+      <c r="AI25" s="1">
+        <v>23.579999923706001</v>
+      </c>
     </row>
-    <row r="26" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -24545,8 +26234,14 @@
       <c r="AG26" s="1">
         <v>43.779998779296797</v>
       </c>
+      <c r="AH26" s="1">
+        <v>0.68619322757811996</v>
+      </c>
+      <c r="AI26" s="1">
+        <v>23.159999847412099</v>
+      </c>
     </row>
-    <row r="27" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -24640,8 +26335,14 @@
       <c r="AG27" s="1">
         <v>43.830001831054602</v>
       </c>
+      <c r="AH27" s="1">
+        <v>0.64656627671733702</v>
+      </c>
+      <c r="AI27" s="1">
+        <v>22.190000534057599</v>
+      </c>
     </row>
-    <row r="28" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -24735,8 +26436,14 @@
       <c r="AG28" s="1">
         <v>42.610000610351499</v>
       </c>
+      <c r="AH28" s="1">
+        <v>0.64896345062620298</v>
+      </c>
+      <c r="AI28" s="1">
+        <v>22.360000610351499</v>
+      </c>
     </row>
-    <row r="29" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -24830,8 +26537,14 @@
       <c r="AG29" s="1">
         <v>42.029998779296797</v>
       </c>
+      <c r="AH29" s="1">
+        <v>0.63968004941181</v>
+      </c>
+      <c r="AI29" s="1">
+        <v>21.850000381469702</v>
+      </c>
     </row>
-    <row r="30" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -24925,8 +26638,14 @@
       <c r="AG30" s="1">
         <v>43.040000915527301</v>
       </c>
+      <c r="AH30" s="1">
+        <v>0.64786576598313195</v>
+      </c>
+      <c r="AI30" s="1">
+        <v>21.7600002288818</v>
+      </c>
     </row>
-    <row r="31" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -25020,8 +26739,14 @@
       <c r="AG31" s="1">
         <v>42.919998168945298</v>
       </c>
+      <c r="AH31" s="1">
+        <v>0.91701466908120799</v>
+      </c>
+      <c r="AI31" s="1">
+        <v>28.2600002288818</v>
+      </c>
     </row>
-    <row r="32" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -25115,8 +26840,14 @@
       <c r="AG32" s="1">
         <v>40.75</v>
       </c>
+      <c r="AH32" s="1">
+        <v>0.66415924953806904</v>
+      </c>
+      <c r="AI32" s="1">
+        <v>22.209999084472599</v>
+      </c>
     </row>
-    <row r="33" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -25210,8 +26941,14 @@
       <c r="AG33" s="1">
         <v>40.9799995422363</v>
       </c>
+      <c r="AH33" s="1">
+        <v>0.64141881219140995</v>
+      </c>
+      <c r="AI33" s="1">
+        <v>21.360000610351499</v>
+      </c>
     </row>
-    <row r="34" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -25305,8 +27042,14 @@
       <c r="AG34" s="1">
         <v>40.599998474121001</v>
       </c>
+      <c r="AH34" s="1">
+        <v>0.629023547005501</v>
+      </c>
+      <c r="AI34" s="1">
+        <v>20.889999389648398</v>
+      </c>
     </row>
-    <row r="35" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -25400,8 +27143,14 @@
       <c r="AG35" s="1">
         <v>39.330001831054602</v>
       </c>
+      <c r="AH35" s="1">
+        <v>0.63578436120300497</v>
+      </c>
+      <c r="AI35" s="1">
+        <v>21.370000839233398</v>
+      </c>
     </row>
-    <row r="36" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -25495,8 +27244,14 @@
       <c r="AG36" s="1">
         <v>39.689998626708899</v>
       </c>
+      <c r="AH36" s="1">
+        <v>0.62167297569429802</v>
+      </c>
+      <c r="AI36" s="1">
+        <v>20.75</v>
+      </c>
     </row>
-    <row r="37" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -25590,8 +27345,14 @@
       <c r="AG37" s="1">
         <v>38.349998474121001</v>
       </c>
+      <c r="AH37" s="1">
+        <v>0.62977067072680004</v>
+      </c>
+      <c r="AI37" s="1">
+        <v>21.170000076293899</v>
+      </c>
     </row>
-    <row r="38" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -25685,8 +27446,14 @@
       <c r="AG38" s="1">
         <v>39.020000457763601</v>
       </c>
+      <c r="AH38" s="1">
+        <v>0.63403754932865197</v>
+      </c>
+      <c r="AI38" s="1">
+        <v>21.2000007629394</v>
+      </c>
     </row>
-    <row r="39" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -25780,8 +27547,14 @@
       <c r="AG39" s="1">
         <v>38.290000915527301</v>
       </c>
+      <c r="AH39" s="1">
+        <v>0.62484470939939896</v>
+      </c>
+      <c r="AI39" s="1">
+        <v>20.590000152587798</v>
+      </c>
     </row>
-    <row r="40" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -25875,8 +27648,14 @@
       <c r="AG40" s="1">
         <v>37.180000305175703</v>
       </c>
+      <c r="AH40" s="1">
+        <v>0.60948384140327405</v>
+      </c>
+      <c r="AI40" s="1">
+        <v>19.850000381469702</v>
+      </c>
     </row>
-    <row r="41" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -25970,8 +27749,14 @@
       <c r="AG41" s="1">
         <v>37.869998931884702</v>
       </c>
+      <c r="AH41" s="1">
+        <v>0.59469758154480301</v>
+      </c>
+      <c r="AI41" s="1">
+        <v>19.4899997711181</v>
+      </c>
     </row>
-    <row r="42" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -26065,8 +27850,14 @@
       <c r="AG42" s="1">
         <v>38.020000457763601</v>
       </c>
+      <c r="AH42" s="1">
+        <v>0.62376790878119703</v>
+      </c>
+      <c r="AI42" s="1">
+        <v>20.659999847412099</v>
+      </c>
     </row>
-    <row r="43" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -26160,8 +27951,14 @@
       <c r="AG43" s="1">
         <v>36.25</v>
       </c>
+      <c r="AH43" s="1">
+        <v>0.59242381202946803</v>
+      </c>
+      <c r="AI43" s="1">
+        <v>19.549999237060501</v>
+      </c>
     </row>
-    <row r="44" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -26249,8 +28046,20 @@
       <c r="AE44" s="1">
         <v>32.75</v>
       </c>
+      <c r="AF44" s="1">
+        <v>1.07066606602091</v>
+      </c>
+      <c r="AG44" s="1">
+        <v>37.319999694824197</v>
+      </c>
+      <c r="AH44" s="1">
+        <v>0.59658769095779196</v>
+      </c>
+      <c r="AI44" s="1">
+        <v>19.659999847412099</v>
+      </c>
     </row>
-    <row r="45" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -26338,8 +28147,20 @@
       <c r="AE45" s="1">
         <v>32.419998168945298</v>
       </c>
+      <c r="AF45" s="1">
+        <v>1.0554694670021101</v>
+      </c>
+      <c r="AG45" s="1">
+        <v>36.220001220703097</v>
+      </c>
+      <c r="AH45" s="1">
+        <v>0.58298530984835994</v>
+      </c>
+      <c r="AI45" s="1">
+        <v>19.590000152587798</v>
+      </c>
     </row>
-    <row r="46" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -26427,8 +28248,20 @@
       <c r="AE46" s="1">
         <v>32</v>
       </c>
+      <c r="AF46" s="1">
+        <v>1.0289041464495801</v>
+      </c>
+      <c r="AG46" s="1">
+        <v>35.349998474121001</v>
+      </c>
+      <c r="AH46" s="1">
+        <v>0.61299526729401499</v>
+      </c>
+      <c r="AI46" s="1">
+        <v>19.809999465942301</v>
+      </c>
     </row>
-    <row r="47" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -26516,8 +28349,20 @@
       <c r="AE47" s="1">
         <v>31.860000610351499</v>
       </c>
+      <c r="AF47" s="1">
+        <v>1.04585851149953</v>
+      </c>
+      <c r="AG47" s="1">
+        <v>35.529998779296797</v>
+      </c>
+      <c r="AH47" s="1">
+        <v>0.59714036762334699</v>
+      </c>
+      <c r="AI47" s="1">
+        <v>19.629999160766602</v>
+      </c>
     </row>
-    <row r="48" spans="1:33" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -26605,8 +28450,20 @@
       <c r="AE48" s="1">
         <v>31.25</v>
       </c>
+      <c r="AF48" s="1">
+        <v>1.0437214625109501</v>
+      </c>
+      <c r="AG48" s="1">
+        <v>35.810001373291001</v>
+      </c>
+      <c r="AH48" s="1">
+        <v>0.61100565732284695</v>
+      </c>
+      <c r="AI48" s="1">
+        <v>19.7000007629394</v>
+      </c>
     </row>
-    <row r="49" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -26694,8 +28551,20 @@
       <c r="AE49" s="1">
         <v>31.299999237060501</v>
       </c>
+      <c r="AF49" s="1">
+        <v>1.0396792319170201</v>
+      </c>
+      <c r="AG49" s="1">
+        <v>35.840000152587798</v>
+      </c>
+      <c r="AH49" s="1">
+        <v>0.59895956952860396</v>
+      </c>
+      <c r="AI49" s="1">
+        <v>18.909999847412099</v>
+      </c>
     </row>
-    <row r="50" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -26783,8 +28652,20 @@
       <c r="AE50" s="1">
         <v>32.319999694824197</v>
       </c>
+      <c r="AF50" s="1">
+        <v>1.02012335874472</v>
+      </c>
+      <c r="AG50" s="1">
+        <v>35.209999084472599</v>
+      </c>
+      <c r="AH50" s="1">
+        <v>0.58270488869232695</v>
+      </c>
+      <c r="AI50" s="1">
+        <v>18.9899997711181</v>
+      </c>
     </row>
-    <row r="51" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -26872,8 +28753,20 @@
       <c r="AE51" s="1">
         <v>31.629999160766602</v>
       </c>
+      <c r="AF51" s="1">
+        <v>1.02861781864409</v>
+      </c>
+      <c r="AG51" s="1">
+        <v>35.439998626708899</v>
+      </c>
+      <c r="AH51" s="1">
+        <v>0.61550720633974498</v>
+      </c>
+      <c r="AI51" s="1">
+        <v>20.190000534057599</v>
+      </c>
     </row>
-    <row r="52" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -26961,8 +28854,20 @@
       <c r="AE52" s="1">
         <v>31.319999694824201</v>
       </c>
+      <c r="AF52" s="1">
+        <v>0.98497715991014101</v>
+      </c>
+      <c r="AG52" s="1">
+        <v>33.880001068115199</v>
+      </c>
+      <c r="AH52" s="1">
+        <v>0.62705459184707302</v>
+      </c>
+      <c r="AI52" s="1">
+        <v>19.770000457763601</v>
+      </c>
     </row>
-    <row r="53" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -27050,8 +28955,20 @@
       <c r="AE53" s="1">
         <v>30.9500007629394</v>
       </c>
+      <c r="AF53" s="1">
+        <v>0.98722973446937101</v>
+      </c>
+      <c r="AG53" s="1">
+        <v>34.369998931884702</v>
+      </c>
+      <c r="AH53" s="1">
+        <v>0.60040505145006096</v>
+      </c>
+      <c r="AI53" s="1">
+        <v>19.149999618530199</v>
+      </c>
     </row>
-    <row r="54" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -27139,8 +29056,20 @@
       <c r="AE54" s="1">
         <v>30.1800003051757</v>
       </c>
+      <c r="AF54" s="1">
+        <v>0.98593144469959704</v>
+      </c>
+      <c r="AG54" s="1">
+        <v>33.569999694824197</v>
+      </c>
+      <c r="AH54" s="1">
+        <v>0.58244043607620599</v>
+      </c>
+      <c r="AI54" s="1">
+        <v>18.889999389648398</v>
+      </c>
     </row>
-    <row r="55" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -27228,8 +29157,20 @@
       <c r="AE55" s="1">
         <v>30.110000610351499</v>
       </c>
+      <c r="AF55" s="1">
+        <v>0.969937171526016</v>
+      </c>
+      <c r="AG55" s="1">
+        <v>33.689998626708899</v>
+      </c>
+      <c r="AH55" s="1">
+        <v>0.61038343314152599</v>
+      </c>
+      <c r="AI55" s="1">
+        <v>19.4500007629394</v>
+      </c>
     </row>
-    <row r="56" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -27317,8 +29258,20 @@
       <c r="AE56" s="1">
         <v>29.9500007629394</v>
       </c>
+      <c r="AF56" s="1">
+        <v>0.97188197617318195</v>
+      </c>
+      <c r="AG56" s="1">
+        <v>33.459999084472599</v>
+      </c>
+      <c r="AH56" s="1">
+        <v>0.57875170867154502</v>
+      </c>
+      <c r="AI56" s="1">
+        <v>18.7000007629394</v>
+      </c>
     </row>
-    <row r="57" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -27406,8 +29359,20 @@
       <c r="AE57" s="1">
         <v>30.459999084472599</v>
       </c>
+      <c r="AF57" s="1">
+        <v>0.96051577777619501</v>
+      </c>
+      <c r="AG57" s="1">
+        <v>33.110000610351499</v>
+      </c>
+      <c r="AH57" s="1">
+        <v>0.58323086978523597</v>
+      </c>
+      <c r="AI57" s="1">
+        <v>18.120000839233398</v>
+      </c>
     </row>
-    <row r="58" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -27495,8 +29460,20 @@
       <c r="AE58" s="1">
         <v>30.2000007629394</v>
       </c>
+      <c r="AF58" s="1">
+        <v>0.95002643963333899</v>
+      </c>
+      <c r="AG58" s="1">
+        <v>32.259998321533203</v>
+      </c>
+      <c r="AH58" s="1">
+        <v>0.61114601449222306</v>
+      </c>
+      <c r="AI58" s="1">
+        <v>18.9300003051757</v>
+      </c>
     </row>
-    <row r="59" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -27584,8 +29561,20 @@
       <c r="AE59" s="1">
         <v>29.879999160766602</v>
       </c>
+      <c r="AF59" s="1">
+        <v>0.94356845176903303</v>
+      </c>
+      <c r="AG59" s="1">
+        <v>32.450000762939403</v>
+      </c>
+      <c r="AH59" s="1">
+        <v>0.59052736250458204</v>
+      </c>
+      <c r="AI59" s="1">
+        <v>19.399999618530199</v>
+      </c>
     </row>
-    <row r="60" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -27673,8 +29662,20 @@
       <c r="AE60" s="1">
         <v>30.409999847412099</v>
       </c>
+      <c r="AF60" s="1">
+        <v>0.95099047528710301</v>
+      </c>
+      <c r="AG60" s="1">
+        <v>32.700000762939403</v>
+      </c>
+      <c r="AH60" s="1">
+        <v>0.616406549788584</v>
+      </c>
+      <c r="AI60" s="1">
+        <v>18.850000381469702</v>
+      </c>
     </row>
-    <row r="61" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -27762,8 +29763,20 @@
       <c r="AE61" s="1">
         <v>29.159999847412099</v>
       </c>
+      <c r="AF61" s="1">
+        <v>0.94572635896646295</v>
+      </c>
+      <c r="AG61" s="1">
+        <v>32.639999389648402</v>
+      </c>
+      <c r="AH61" s="1">
+        <v>0.58604381855126397</v>
+      </c>
+      <c r="AI61" s="1">
+        <v>18.309999465942301</v>
+      </c>
     </row>
-    <row r="62" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -27851,8 +29864,20 @@
       <c r="AE62" s="1">
         <v>29.159999847412099</v>
       </c>
+      <c r="AF62" s="1">
+        <v>0.95017049456857505</v>
+      </c>
+      <c r="AG62" s="1">
+        <v>33.020000457763601</v>
+      </c>
+      <c r="AH62" s="1">
+        <v>0.58097431281949297</v>
+      </c>
+      <c r="AI62" s="1">
+        <v>18.350000381469702</v>
+      </c>
     </row>
-    <row r="63" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -27940,8 +29965,20 @@
       <c r="AE63" s="1">
         <v>29.579999923706001</v>
       </c>
+      <c r="AF63" s="1">
+        <v>0.951266733324451</v>
+      </c>
+      <c r="AG63" s="1">
+        <v>32.880001068115199</v>
+      </c>
+      <c r="AH63" s="1">
+        <v>0.58769317199090398</v>
+      </c>
+      <c r="AI63" s="1">
+        <v>18.7600002288818</v>
+      </c>
     </row>
-    <row r="64" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -28029,8 +30066,20 @@
       <c r="AE64" s="1">
         <v>29.280000686645501</v>
       </c>
+      <c r="AF64" s="1">
+        <v>0.94513062800571401</v>
+      </c>
+      <c r="AG64" s="1">
+        <v>32.549999237060497</v>
+      </c>
+      <c r="AH64" s="1">
+        <v>0.61994110826094395</v>
+      </c>
+      <c r="AI64" s="1">
+        <v>18.9300003051757</v>
+      </c>
     </row>
-    <row r="65" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -28118,8 +30167,20 @@
       <c r="AE65" s="1">
         <v>29.590000152587798</v>
       </c>
+      <c r="AF65" s="1">
+        <v>0.93527172857029395</v>
+      </c>
+      <c r="AG65" s="1">
+        <v>32.009998321533203</v>
+      </c>
+      <c r="AH65" s="1">
+        <v>0.60477001224733395</v>
+      </c>
+      <c r="AI65" s="1">
+        <v>18.389999389648398</v>
+      </c>
     </row>
-    <row r="66" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -28207,8 +30268,20 @@
       <c r="AE66" s="1">
         <v>29.4300003051757</v>
       </c>
+      <c r="AF66" s="1">
+        <v>0.923894199216441</v>
+      </c>
+      <c r="AG66" s="1">
+        <v>32.200000762939403</v>
+      </c>
+      <c r="AH66" s="1">
+        <v>0.62681335618921097</v>
+      </c>
+      <c r="AI66" s="1">
+        <v>18.860000610351499</v>
+      </c>
     </row>
-    <row r="67" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -28296,8 +30369,20 @@
       <c r="AE67" s="1">
         <v>29.110000610351499</v>
       </c>
+      <c r="AF67" s="1">
+        <v>0.92055062921183795</v>
+      </c>
+      <c r="AG67" s="1">
+        <v>31.629999160766602</v>
+      </c>
+      <c r="AH67" s="1">
+        <v>0.65717108376846101</v>
+      </c>
+      <c r="AI67" s="1">
+        <v>19.440000534057599</v>
+      </c>
     </row>
-    <row r="68" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -28385,8 +30470,20 @@
       <c r="AE68" s="1">
         <v>29.149999618530199</v>
       </c>
+      <c r="AF68" s="1">
+        <v>0.90814074171576498</v>
+      </c>
+      <c r="AG68" s="1">
+        <v>31.4799995422363</v>
+      </c>
+      <c r="AH68" s="1">
+        <v>0.57180071930596699</v>
+      </c>
+      <c r="AI68" s="1">
+        <v>17.840000152587798</v>
+      </c>
     </row>
-    <row r="69" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -28474,8 +30571,20 @@
       <c r="AE69" s="1">
         <v>28.709999084472599</v>
       </c>
+      <c r="AF69" s="1">
+        <v>0.89595701436328201</v>
+      </c>
+      <c r="AG69" s="1">
+        <v>31.209999084472599</v>
+      </c>
+      <c r="AH69" s="1">
+        <v>0.59846885673179695</v>
+      </c>
+      <c r="AI69" s="1">
+        <v>18.409999847412099</v>
+      </c>
     </row>
-    <row r="70" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -28563,8 +30672,20 @@
       <c r="AE70" s="1">
         <v>28.829999923706001</v>
       </c>
+      <c r="AF70" s="1">
+        <v>0.90187130574208096</v>
+      </c>
+      <c r="AG70" s="1">
+        <v>30.920000076293899</v>
+      </c>
+      <c r="AH70" s="1">
+        <v>0.602510516146186</v>
+      </c>
+      <c r="AI70" s="1">
+        <v>18.329999923706001</v>
+      </c>
     </row>
-    <row r="71" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -28652,8 +30773,20 @@
       <c r="AE71" s="1">
         <v>29.1800003051757</v>
       </c>
+      <c r="AF71" s="1">
+        <v>0.899025040447332</v>
+      </c>
+      <c r="AG71" s="1">
+        <v>31.170000076293899</v>
+      </c>
+      <c r="AH71" s="1">
+        <v>0.60525868538838201</v>
+      </c>
+      <c r="AI71" s="1">
+        <v>18.1800003051757</v>
+      </c>
     </row>
-    <row r="72" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -28741,8 +30874,20 @@
       <c r="AE72" s="1">
         <v>28.659999847412099</v>
       </c>
+      <c r="AF72" s="1">
+        <v>0.90408910687562005</v>
+      </c>
+      <c r="AG72" s="1">
+        <v>31.280000686645501</v>
+      </c>
+      <c r="AH72" s="1">
+        <v>0.62624309900080299</v>
+      </c>
+      <c r="AI72" s="1">
+        <v>18.579999923706001</v>
+      </c>
     </row>
-    <row r="73" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -28830,8 +30975,20 @@
       <c r="AE73" s="1">
         <v>28.079999923706001</v>
       </c>
+      <c r="AF73" s="1">
+        <v>0.88642827796328505</v>
+      </c>
+      <c r="AG73" s="1">
+        <v>30.579999923706001</v>
+      </c>
+      <c r="AH73" s="1">
+        <v>0.59777676907314603</v>
+      </c>
+      <c r="AI73" s="1">
+        <v>17.879999160766602</v>
+      </c>
     </row>
-    <row r="74" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -28919,8 +31076,20 @@
       <c r="AE74" s="1">
         <v>28.209999084472599</v>
       </c>
+      <c r="AF74" s="1">
+        <v>0.89368294416719096</v>
+      </c>
+      <c r="AG74" s="1">
+        <v>30.659999847412099</v>
+      </c>
+      <c r="AH74" s="1">
+        <v>0.60252983991507503</v>
+      </c>
+      <c r="AI74" s="1">
+        <v>17.809999465942301</v>
+      </c>
     </row>
-    <row r="75" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -29008,8 +31177,14 @@
       <c r="AE75" s="1">
         <v>27.9799995422363</v>
       </c>
+      <c r="AH75" s="1">
+        <v>0.607828851433316</v>
+      </c>
+      <c r="AI75" s="1">
+        <v>18.770000457763601</v>
+      </c>
     </row>
-    <row r="76" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -29097,8 +31272,14 @@
       <c r="AE76" s="1">
         <v>27.9899997711181</v>
       </c>
+      <c r="AH76" s="1">
+        <v>0.58853428265091701</v>
+      </c>
+      <c r="AI76" s="1">
+        <v>18.139999389648398</v>
+      </c>
     </row>
-    <row r="77" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -29186,8 +31367,14 @@
       <c r="AE77" s="1">
         <v>27.870000839233398</v>
       </c>
+      <c r="AH77" s="1">
+        <v>0.57760057460730196</v>
+      </c>
+      <c r="AI77" s="1">
+        <v>17.780000686645501</v>
+      </c>
     </row>
-    <row r="78" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -29275,8 +31462,14 @@
       <c r="AE78" s="1">
         <v>28.170000076293899</v>
       </c>
+      <c r="AH78" s="1">
+        <v>0.63037553638409605</v>
+      </c>
+      <c r="AI78" s="1">
+        <v>18.379999160766602</v>
+      </c>
     </row>
-    <row r="79" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -29364,8 +31557,14 @@
       <c r="AE79" s="1">
         <v>27.2199993133544</v>
       </c>
+      <c r="AH79" s="1">
+        <v>0.58911004909284503</v>
+      </c>
+      <c r="AI79" s="1">
+        <v>18.389999389648398</v>
+      </c>
     </row>
-    <row r="80" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -29453,8 +31652,14 @@
       <c r="AE80" s="1">
         <v>27.139999389648398</v>
       </c>
+      <c r="AH80" s="1">
+        <v>0.57263641847167002</v>
+      </c>
+      <c r="AI80" s="1">
+        <v>17.709999084472599</v>
+      </c>
     </row>
-    <row r="81" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -29542,8 +31747,14 @@
       <c r="AE81" s="1">
         <v>27.799999237060501</v>
       </c>
+      <c r="AH81" s="1">
+        <v>0.59620241782847405</v>
+      </c>
+      <c r="AI81" s="1">
+        <v>17.590000152587798</v>
+      </c>
     </row>
-    <row r="82" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -29631,8 +31842,14 @@
       <c r="AE82" s="1">
         <v>29.059999465942301</v>
       </c>
+      <c r="AH82" s="1">
+        <v>0.61191087496128804</v>
+      </c>
+      <c r="AI82" s="1">
+        <v>17.059999465942301</v>
+      </c>
     </row>
-    <row r="83" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -29720,8 +31937,14 @@
       <c r="AE83" s="1">
         <v>27.350000381469702</v>
       </c>
+      <c r="AH83" s="1">
+        <v>0.59279421085764605</v>
+      </c>
+      <c r="AI83" s="1">
+        <v>17.409999847412099</v>
+      </c>
     </row>
-    <row r="84" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -29809,8 +32032,14 @@
       <c r="AE84" s="1">
         <v>28.0100002288818</v>
       </c>
+      <c r="AH84" s="1">
+        <v>0.63877308881206796</v>
+      </c>
+      <c r="AI84" s="1">
+        <v>18.7000007629394</v>
+      </c>
     </row>
-    <row r="85" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -29898,8 +32127,14 @@
       <c r="AE85" s="1">
         <v>27.780000686645501</v>
       </c>
+      <c r="AH85" s="1">
+        <v>0.59593823381290301</v>
+      </c>
+      <c r="AI85" s="1">
+        <v>17.9300003051757</v>
+      </c>
     </row>
-    <row r="86" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -29987,8 +32222,14 @@
       <c r="AE86" s="1">
         <v>27.770000457763601</v>
       </c>
+      <c r="AH86" s="1">
+        <v>0.60893412921459</v>
+      </c>
+      <c r="AI86" s="1">
+        <v>17.290000915527301</v>
+      </c>
     </row>
-    <row r="87" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -30076,8 +32317,14 @@
       <c r="AE87" s="1">
         <v>27.270000457763601</v>
       </c>
+      <c r="AH87" s="1">
+        <v>0.57904976198248004</v>
+      </c>
+      <c r="AI87" s="1">
+        <v>17.4699993133544</v>
+      </c>
     </row>
-    <row r="88" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -30165,8 +32412,14 @@
       <c r="AE88" s="1">
         <v>27.129999160766602</v>
       </c>
+      <c r="AH88" s="1">
+        <v>0.62023670885972904</v>
+      </c>
+      <c r="AI88" s="1">
+        <v>17.9899997711181</v>
+      </c>
     </row>
-    <row r="89" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -30254,8 +32507,14 @@
       <c r="AE89" s="1">
         <v>27.909999847412099</v>
       </c>
+      <c r="AH89" s="1">
+        <v>0.62161250535849499</v>
+      </c>
+      <c r="AI89" s="1">
+        <v>18.2399997711181</v>
+      </c>
     </row>
-    <row r="90" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -30343,8 +32602,14 @@
       <c r="AE90" s="1">
         <v>27.270000457763601</v>
       </c>
+      <c r="AH90" s="1">
+        <v>0.60578674685423495</v>
+      </c>
+      <c r="AI90" s="1">
+        <v>18.040000915527301</v>
+      </c>
     </row>
-    <row r="91" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -30432,8 +32697,14 @@
       <c r="AE91" s="1">
         <v>26.889999389648398</v>
       </c>
+      <c r="AH91" s="1">
+        <v>0.59469227378915002</v>
+      </c>
+      <c r="AI91" s="1">
+        <v>16.9500007629394</v>
+      </c>
     </row>
-    <row r="92" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -30521,8 +32792,14 @@
       <c r="AE92" s="1">
         <v>27.319999694824201</v>
       </c>
+      <c r="AH92" s="1">
+        <v>0.60442061466016495</v>
+      </c>
+      <c r="AI92" s="1">
+        <v>17.2199993133544</v>
+      </c>
     </row>
-    <row r="93" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -30610,8 +32887,14 @@
       <c r="AE93" s="1">
         <v>27.030000686645501</v>
       </c>
+      <c r="AH93" s="1">
+        <v>0.63758412079446602</v>
+      </c>
+      <c r="AI93" s="1">
+        <v>18.059999465942301</v>
+      </c>
     </row>
-    <row r="94" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -30699,8 +32982,14 @@
       <c r="AE94" s="1">
         <v>27.2600002288818</v>
       </c>
+      <c r="AH94" s="1">
+        <v>0.65700365517549397</v>
+      </c>
+      <c r="AI94" s="1">
+        <v>18.5100002288818</v>
+      </c>
     </row>
-    <row r="95" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -30788,8 +33077,14 @@
       <c r="AE95" s="1">
         <v>27.299999237060501</v>
       </c>
+      <c r="AH95" s="1">
+        <v>0.64064033851502</v>
+      </c>
+      <c r="AI95" s="1">
+        <v>17.920000076293899</v>
+      </c>
     </row>
-    <row r="96" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -30877,8 +33172,14 @@
       <c r="AE96" s="1">
         <v>27.280000686645501</v>
       </c>
+      <c r="AH96" s="1">
+        <v>0.61471875809180498</v>
+      </c>
+      <c r="AI96" s="1">
+        <v>17.639999389648398</v>
+      </c>
     </row>
-    <row r="97" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -30966,8 +33267,14 @@
       <c r="AE97" s="1">
         <v>27.520000457763601</v>
       </c>
+      <c r="AH97" s="1">
+        <v>0.63170836619131099</v>
+      </c>
+      <c r="AI97" s="1">
+        <v>17.149999618530199</v>
+      </c>
     </row>
-    <row r="98" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -31055,8 +33362,14 @@
       <c r="AE98" s="1">
         <v>27.020000457763601</v>
       </c>
+      <c r="AH98" s="1">
+        <v>0.63767221000543794</v>
+      </c>
+      <c r="AI98" s="1">
+        <v>18.049999237060501</v>
+      </c>
     </row>
-    <row r="99" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -31144,8 +33457,14 @@
       <c r="AE99" s="1">
         <v>27.149999618530199</v>
       </c>
+      <c r="AH99" s="1">
+        <v>0.64702981501627799</v>
+      </c>
+      <c r="AI99" s="1">
+        <v>17.940000534057599</v>
+      </c>
     </row>
-    <row r="100" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -31233,8 +33552,14 @@
       <c r="AE100" s="1">
         <v>26.9699993133544</v>
       </c>
+      <c r="AH100" s="1">
+        <v>0.62806137437653298</v>
+      </c>
+      <c r="AI100" s="1">
+        <v>17.459999084472599</v>
+      </c>
     </row>
-    <row r="101" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -31322,8 +33647,14 @@
       <c r="AE101" s="1">
         <v>26.629999160766602</v>
       </c>
+      <c r="AH101" s="1">
+        <v>0.61484517868916699</v>
+      </c>
+      <c r="AI101" s="1">
+        <v>17.350000381469702</v>
+      </c>
     </row>
-    <row r="102" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -31334,7 +33665,7 @@
         <v>32.360000610351499</v>
       </c>
     </row>
-    <row r="103" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -31345,7 +33676,7 @@
         <v>32.740001678466797</v>
       </c>
     </row>
-    <row r="104" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -31356,7 +33687,7 @@
         <v>32.330001831054602</v>
       </c>
     </row>
-    <row r="105" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -31367,7 +33698,7 @@
         <v>32.349998474121001</v>
       </c>
     </row>
-    <row r="106" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -31378,7 +33709,7 @@
         <v>32.639999389648402</v>
       </c>
     </row>
-    <row r="107" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -31389,7 +33720,7 @@
         <v>32.599998474121001</v>
       </c>
     </row>
-    <row r="108" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -31400,7 +33731,7 @@
         <v>32.389999389648402</v>
       </c>
     </row>
-    <row r="109" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -31411,7 +33742,7 @@
         <v>32.490001678466797</v>
       </c>
     </row>
-    <row r="110" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -31422,7 +33753,7 @@
         <v>32.029998779296797</v>
       </c>
     </row>
-    <row r="111" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -31433,7 +33764,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:31" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:35" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhl\Desktop\learningEFL-main\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4459FB17-00A2-470E-B368-5E4687F9A93C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6399AB-C3A9-4913-825D-3DFE15D1BDCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -148,6 +148,14 @@
   </si>
   <si>
     <t>central_err</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_loss_#13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_err_#13</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -9978,6 +9986,9 @@
               <c:f>Sheet1!$AG$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efl_err_#13</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -10534,6 +10545,87 @@
                 </c:pt>
                 <c:pt idx="72">
                   <c:v>30.659999847412099</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>30.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>30.959999084472599</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>30.25</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>30.049999237060501</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>30.020000457763601</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>29.799999237060501</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>29.9699993133544</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>29.9899997711181</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>29.870000839233398</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>30.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>30.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>29.6800003051757</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>29.909999847412099</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>28.9699993133544</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>29.75</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>29.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>28.7299995422363</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>30.100000381469702</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>30.159999847412099</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>29.7600002288818</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>29.299999237060501</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>29.049999237060501</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>29.2399997711181</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>28.870000839233398</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>28.819999694824201</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28.7000007629394</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>28.620000839233398</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -21180,6 +21272,9 @@
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>efl_loss_#13</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -21748,6 +21843,87 @@
                       </c:pt>
                       <c:pt idx="72">
                         <c:v>0.89368294416719096</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0.89253829694857201</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0.900268575947755</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0.883049421249681</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0.87242433030134503</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0.87274930013972396</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0.87219749742252795</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0.86948304077622196</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0.86552438367703899</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0.86590149941717698</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0.88104354120363804</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0.87343723568946696</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0.86487364636105302</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.85836309536247501</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0.85207758967284097</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0.86365706563755196</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0.85758678055113202</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0.84400282240217595</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0.87391144340964599</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0.87598290375083798</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0.87102928624790898</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0.860091145251207</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0.84950979803777804</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0.86608050507345002</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0.84964483786540401</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0.85783909916118395</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0.84725421002715995</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0.85360502760121704</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -23173,16 +23349,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>17</xdr:col>
-      <xdr:colOff>559488</xdr:colOff>
+      <xdr:col>20</xdr:col>
+      <xdr:colOff>426967</xdr:colOff>
       <xdr:row>4</xdr:row>
-      <xdr:rowOff>66261</xdr:rowOff>
+      <xdr:rowOff>165652</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>28</xdr:col>
-      <xdr:colOff>306457</xdr:colOff>
+      <xdr:col>31</xdr:col>
+      <xdr:colOff>173935</xdr:colOff>
       <xdr:row>32</xdr:row>
-      <xdr:rowOff>102290</xdr:rowOff>
+      <xdr:rowOff>201681</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23477,8 +23653,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AI201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AF2" sqref="AF2:AG74"/>
+    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="AH9" sqref="AH9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23577,6 +23753,12 @@
       <c r="AE1" t="s">
         <v>28</v>
       </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
       <c r="AH1" s="4" t="s">
         <v>29</v>
       </c>
@@ -31177,6 +31359,12 @@
       <c r="AE75" s="1">
         <v>27.9799995422363</v>
       </c>
+      <c r="AF75" s="1">
+        <v>0.89253829694857201</v>
+      </c>
+      <c r="AG75" s="1">
+        <v>30.459999084472599</v>
+      </c>
       <c r="AH75" s="1">
         <v>0.607828851433316</v>
       </c>
@@ -31272,6 +31460,12 @@
       <c r="AE76" s="1">
         <v>27.9899997711181</v>
       </c>
+      <c r="AF76" s="1">
+        <v>0.900268575947755</v>
+      </c>
+      <c r="AG76" s="1">
+        <v>30.959999084472599</v>
+      </c>
       <c r="AH76" s="1">
         <v>0.58853428265091701</v>
       </c>
@@ -31367,6 +31561,12 @@
       <c r="AE77" s="1">
         <v>27.870000839233398</v>
       </c>
+      <c r="AF77" s="1">
+        <v>0.883049421249681</v>
+      </c>
+      <c r="AG77" s="1">
+        <v>30.25</v>
+      </c>
       <c r="AH77" s="1">
         <v>0.57760057460730196</v>
       </c>
@@ -31462,6 +31662,12 @@
       <c r="AE78" s="1">
         <v>28.170000076293899</v>
       </c>
+      <c r="AF78" s="1">
+        <v>0.87242433030134503</v>
+      </c>
+      <c r="AG78" s="1">
+        <v>30.049999237060501</v>
+      </c>
       <c r="AH78" s="1">
         <v>0.63037553638409605</v>
       </c>
@@ -31557,6 +31763,12 @@
       <c r="AE79" s="1">
         <v>27.2199993133544</v>
       </c>
+      <c r="AF79" s="1">
+        <v>0.87274930013972396</v>
+      </c>
+      <c r="AG79" s="1">
+        <v>30.020000457763601</v>
+      </c>
       <c r="AH79" s="1">
         <v>0.58911004909284503</v>
       </c>
@@ -31652,6 +31864,12 @@
       <c r="AE80" s="1">
         <v>27.139999389648398</v>
       </c>
+      <c r="AF80" s="1">
+        <v>0.87219749742252795</v>
+      </c>
+      <c r="AG80" s="1">
+        <v>29.799999237060501</v>
+      </c>
       <c r="AH80" s="1">
         <v>0.57263641847167002</v>
       </c>
@@ -31747,6 +31965,12 @@
       <c r="AE81" s="1">
         <v>27.799999237060501</v>
       </c>
+      <c r="AF81" s="1">
+        <v>0.86948304077622196</v>
+      </c>
+      <c r="AG81" s="1">
+        <v>29.9699993133544</v>
+      </c>
       <c r="AH81" s="1">
         <v>0.59620241782847405</v>
       </c>
@@ -31842,6 +32066,12 @@
       <c r="AE82" s="1">
         <v>29.059999465942301</v>
       </c>
+      <c r="AF82" s="1">
+        <v>0.86552438367703899</v>
+      </c>
+      <c r="AG82" s="1">
+        <v>29.9899997711181</v>
+      </c>
       <c r="AH82" s="1">
         <v>0.61191087496128804</v>
       </c>
@@ -31937,6 +32167,12 @@
       <c r="AE83" s="1">
         <v>27.350000381469702</v>
       </c>
+      <c r="AF83" s="1">
+        <v>0.86590149941717698</v>
+      </c>
+      <c r="AG83" s="1">
+        <v>29.870000839233398</v>
+      </c>
       <c r="AH83" s="1">
         <v>0.59279421085764605</v>
       </c>
@@ -32032,6 +32268,12 @@
       <c r="AE84" s="1">
         <v>28.0100002288818</v>
       </c>
+      <c r="AF84" s="1">
+        <v>0.88104354120363804</v>
+      </c>
+      <c r="AG84" s="1">
+        <v>30.209999084472599</v>
+      </c>
       <c r="AH84" s="1">
         <v>0.63877308881206796</v>
       </c>
@@ -32127,6 +32369,12 @@
       <c r="AE85" s="1">
         <v>27.780000686645501</v>
       </c>
+      <c r="AF85" s="1">
+        <v>0.87343723568946696</v>
+      </c>
+      <c r="AG85" s="1">
+        <v>30.340000152587798</v>
+      </c>
       <c r="AH85" s="1">
         <v>0.59593823381290301</v>
       </c>
@@ -32222,6 +32470,12 @@
       <c r="AE86" s="1">
         <v>27.770000457763601</v>
       </c>
+      <c r="AF86" s="1">
+        <v>0.86487364636105302</v>
+      </c>
+      <c r="AG86" s="1">
+        <v>29.6800003051757</v>
+      </c>
       <c r="AH86" s="1">
         <v>0.60893412921459</v>
       </c>
@@ -32317,6 +32571,12 @@
       <c r="AE87" s="1">
         <v>27.270000457763601</v>
       </c>
+      <c r="AF87" s="1">
+        <v>0.85836309536247501</v>
+      </c>
+      <c r="AG87" s="1">
+        <v>29.909999847412099</v>
+      </c>
       <c r="AH87" s="1">
         <v>0.57904976198248004</v>
       </c>
@@ -32412,6 +32672,12 @@
       <c r="AE88" s="1">
         <v>27.129999160766602</v>
       </c>
+      <c r="AF88" s="1">
+        <v>0.85207758967284097</v>
+      </c>
+      <c r="AG88" s="1">
+        <v>28.9699993133544</v>
+      </c>
       <c r="AH88" s="1">
         <v>0.62023670885972904</v>
       </c>
@@ -32507,6 +32773,12 @@
       <c r="AE89" s="1">
         <v>27.909999847412099</v>
       </c>
+      <c r="AF89" s="1">
+        <v>0.86365706563755196</v>
+      </c>
+      <c r="AG89" s="1">
+        <v>29.75</v>
+      </c>
       <c r="AH89" s="1">
         <v>0.62161250535849499</v>
       </c>
@@ -32602,6 +32874,12 @@
       <c r="AE90" s="1">
         <v>27.270000457763601</v>
       </c>
+      <c r="AF90" s="1">
+        <v>0.85758678055113202</v>
+      </c>
+      <c r="AG90" s="1">
+        <v>29.209999084472599</v>
+      </c>
       <c r="AH90" s="1">
         <v>0.60578674685423495</v>
       </c>
@@ -32697,6 +32975,12 @@
       <c r="AE91" s="1">
         <v>26.889999389648398</v>
       </c>
+      <c r="AF91" s="1">
+        <v>0.84400282240217595</v>
+      </c>
+      <c r="AG91" s="1">
+        <v>28.7299995422363</v>
+      </c>
       <c r="AH91" s="1">
         <v>0.59469227378915002</v>
       </c>
@@ -32792,6 +33076,12 @@
       <c r="AE92" s="1">
         <v>27.319999694824201</v>
       </c>
+      <c r="AF92" s="1">
+        <v>0.87391144340964599</v>
+      </c>
+      <c r="AG92" s="1">
+        <v>30.100000381469702</v>
+      </c>
       <c r="AH92" s="1">
         <v>0.60442061466016495</v>
       </c>
@@ -32887,6 +33177,12 @@
       <c r="AE93" s="1">
         <v>27.030000686645501</v>
       </c>
+      <c r="AF93" s="1">
+        <v>0.87598290375083798</v>
+      </c>
+      <c r="AG93" s="1">
+        <v>30.159999847412099</v>
+      </c>
       <c r="AH93" s="1">
         <v>0.63758412079446602</v>
       </c>
@@ -32982,6 +33278,12 @@
       <c r="AE94" s="1">
         <v>27.2600002288818</v>
       </c>
+      <c r="AF94" s="1">
+        <v>0.87102928624790898</v>
+      </c>
+      <c r="AG94" s="1">
+        <v>29.7600002288818</v>
+      </c>
       <c r="AH94" s="1">
         <v>0.65700365517549397</v>
       </c>
@@ -33077,6 +33379,12 @@
       <c r="AE95" s="1">
         <v>27.299999237060501</v>
       </c>
+      <c r="AF95" s="1">
+        <v>0.860091145251207</v>
+      </c>
+      <c r="AG95" s="1">
+        <v>29.299999237060501</v>
+      </c>
       <c r="AH95" s="1">
         <v>0.64064033851502</v>
       </c>
@@ -33172,6 +33480,12 @@
       <c r="AE96" s="1">
         <v>27.280000686645501</v>
       </c>
+      <c r="AF96" s="1">
+        <v>0.84950979803777804</v>
+      </c>
+      <c r="AG96" s="1">
+        <v>29.049999237060501</v>
+      </c>
       <c r="AH96" s="1">
         <v>0.61471875809180498</v>
       </c>
@@ -33267,6 +33581,12 @@
       <c r="AE97" s="1">
         <v>27.520000457763601</v>
       </c>
+      <c r="AF97" s="1">
+        <v>0.86608050507345002</v>
+      </c>
+      <c r="AG97" s="1">
+        <v>29.2399997711181</v>
+      </c>
       <c r="AH97" s="1">
         <v>0.63170836619131099</v>
       </c>
@@ -33362,6 +33682,12 @@
       <c r="AE98" s="1">
         <v>27.020000457763601</v>
       </c>
+      <c r="AF98" s="1">
+        <v>0.84964483786540401</v>
+      </c>
+      <c r="AG98" s="1">
+        <v>28.870000839233398</v>
+      </c>
       <c r="AH98" s="1">
         <v>0.63767221000543794</v>
       </c>
@@ -33457,6 +33783,12 @@
       <c r="AE99" s="1">
         <v>27.149999618530199</v>
       </c>
+      <c r="AF99" s="1">
+        <v>0.85783909916118395</v>
+      </c>
+      <c r="AG99" s="1">
+        <v>28.819999694824201</v>
+      </c>
       <c r="AH99" s="1">
         <v>0.64702981501627799</v>
       </c>
@@ -33552,6 +33884,12 @@
       <c r="AE100" s="1">
         <v>26.9699993133544</v>
       </c>
+      <c r="AF100" s="1">
+        <v>0.84725421002715995</v>
+      </c>
+      <c r="AG100" s="1">
+        <v>28.7000007629394</v>
+      </c>
       <c r="AH100" s="1">
         <v>0.62806137437653298</v>
       </c>
@@ -33646,6 +33984,12 @@
       </c>
       <c r="AE101" s="1">
         <v>26.629999160766602</v>
+      </c>
+      <c r="AF101" s="1">
+        <v>0.85360502760121704</v>
+      </c>
+      <c r="AG101" s="1">
+        <v>28.620000839233398</v>
       </c>
       <c r="AH101" s="1">
         <v>0.61484517868916699</v>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhl\Desktop\learningEFL-main\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB6399AB-C3A9-4913-825D-3DFE15D1BDCE}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6DF05D-ABC2-4CEB-B0D5-524F00917AF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -23349,16 +23349,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>20</xdr:col>
-      <xdr:colOff>426967</xdr:colOff>
-      <xdr:row>4</xdr:row>
-      <xdr:rowOff>165652</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>526359</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>173935</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>31</xdr:col>
-      <xdr:colOff>173935</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>201681</xdr:rowOff>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>273327</xdr:colOff>
+      <xdr:row>34</xdr:row>
+      <xdr:rowOff>2899</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23654,7 +23654,7 @@
   <dimension ref="A1:AI201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="AH9" sqref="AH9"/>
+      <selection activeCell="U2" sqref="U2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhl\Desktop\learningEFL-main\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DA6DF05D-ABC2-4CEB-B0D5-524F00917AF4}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A0D338-1D68-40CD-9DC6-F6547A52AB04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -156,6 +156,22 @@
   </si>
   <si>
     <t>efl_err_#13</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_loss_#14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_err_#14</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_loss_#11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_err_#11</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -8903,6 +8919,9 @@
               <c:f>Sheet1!$AC$1</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efl_err_#11</c:v>
+                </c:pt>
               </c:strCache>
             </c:strRef>
           </c:tx>
@@ -11293,6 +11312,407 @@
           <c:extLst>
             <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
               <c16:uniqueId val="{00000001-C319-4DC0-B96E-896611BDF3C2}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="35"/>
+          <c:order val="35"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AK$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efl_err_#14</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent6">
+                  <a:lumMod val="50000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AK$2:$AK$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>88.559997558593693</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>75.930000305175696</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>70.199996948242102</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>67.680000305175696</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>63.25</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>61.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>60.319999694824197</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.049999237060497</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>59.080001831054602</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>54.880001068115199</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>55.279998779296797</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>53.889999389648402</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>51.970001220703097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-F16E-4E6A-AD2D-7F909F808621}"/>
             </c:ext>
           </c:extLst>
         </c:ser>
@@ -20149,6 +20569,9 @@
                     </c:extLst>
                     <c:strCache>
                       <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>efl_loss_#11</c:v>
+                      </c:pt>
                     </c:strCache>
                   </c:strRef>
                 </c:tx>
@@ -22611,6 +23034,427 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-C319-4DC0-B96E-896611BDF3C2}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="34"/>
+                <c:order val="34"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AJ$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>efl_loss_#14</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent5">
+                        <a:lumMod val="50000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>99</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AJ$2:$AJ$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>2.30602018696487</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>2.0659992155755398</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>1.9267947833249499</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>1.8083970288562099</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.71478911721782</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.65915468999534</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.63858783700663</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.5972147891475801</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.5908588034332101</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.5337598369379699</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.5025012364053401</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.4893829298626799</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.46859162931988</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.42339440439916</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000000-F16E-4E6A-AD2D-7F909F808621}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -23349,16 +24193,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>22</xdr:col>
-      <xdr:colOff>526359</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>173935</xdr:rowOff>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>489857</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>122464</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>33</xdr:col>
-      <xdr:colOff>273327</xdr:colOff>
-      <xdr:row>34</xdr:row>
-      <xdr:rowOff>2899</xdr:rowOff>
+      <xdr:col>19</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>63</xdr:row>
+      <xdr:rowOff>13607</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -23651,10 +24495,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AI201"/>
+  <dimension ref="A1:AK201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="T1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U2" sqref="U2"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="X14" sqref="X14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -23665,7 +24509,7 @@
     <col min="12" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -23747,6 +24591,12 @@
       <c r="AA1" t="s">
         <v>26</v>
       </c>
+      <c r="AB1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>36</v>
+      </c>
       <c r="AD1" t="s">
         <v>27</v>
       </c>
@@ -23765,8 +24615,14 @@
       <c r="AI1" s="4" t="s">
         <v>30</v>
       </c>
+      <c r="AJ1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>34</v>
+      </c>
     </row>
-    <row r="2" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -23872,8 +24728,14 @@
       <c r="AI2" s="1">
         <v>63.110000610351499</v>
       </c>
+      <c r="AJ2" s="1">
+        <v>2.30602018696487</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>88.559997558593693</v>
+      </c>
     </row>
-    <row r="3" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -23979,8 +24841,14 @@
       <c r="AI3" s="1">
         <v>57.270000457763601</v>
       </c>
+      <c r="AJ3" s="1">
+        <v>2.0659992155755398</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>75.930000305175696</v>
+      </c>
     </row>
-    <row r="4" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -24086,8 +24954,14 @@
       <c r="AI4" s="1">
         <v>49.599998474121001</v>
       </c>
+      <c r="AJ4" s="1">
+        <v>1.9267947833249499</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>70.199996948242102</v>
+      </c>
     </row>
-    <row r="5" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -24193,8 +25067,14 @@
       <c r="AI5" s="1">
         <v>45.310001373291001</v>
       </c>
+      <c r="AJ5" s="1">
+        <v>1.8083970288562099</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>67.680000305175696</v>
+      </c>
     </row>
-    <row r="6" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -24300,8 +25180,14 @@
       <c r="AI6" s="1">
         <v>42.950000762939403</v>
       </c>
+      <c r="AJ6" s="1">
+        <v>1.71478911721782</v>
+      </c>
+      <c r="AK6" s="1">
+        <v>63.25</v>
+      </c>
     </row>
-    <row r="7" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -24407,8 +25293,14 @@
       <c r="AI7" s="1">
         <v>37.549999237060497</v>
       </c>
+      <c r="AJ7" s="1">
+        <v>1.65915468999534</v>
+      </c>
+      <c r="AK7" s="1">
+        <v>61.150001525878899</v>
+      </c>
     </row>
-    <row r="8" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -24514,8 +25406,14 @@
       <c r="AI8" s="1">
         <v>34.840000152587798</v>
       </c>
+      <c r="AJ8" s="1">
+        <v>1.63858783700663</v>
+      </c>
+      <c r="AK8" s="1">
+        <v>60.319999694824197</v>
+      </c>
     </row>
-    <row r="9" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -24621,8 +25519,14 @@
       <c r="AI9" s="1">
         <v>32.290000915527301</v>
       </c>
+      <c r="AJ9" s="1">
+        <v>1.5972147891475801</v>
+      </c>
+      <c r="AK9" s="1">
+        <v>60.049999237060497</v>
+      </c>
     </row>
-    <row r="10" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -24728,8 +25632,14 @@
       <c r="AI10" s="1">
         <v>32.889999389648402</v>
       </c>
+      <c r="AJ10" s="1">
+        <v>1.5908588034332101</v>
+      </c>
+      <c r="AK10" s="1">
+        <v>59.080001831054602</v>
+      </c>
     </row>
-    <row r="11" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -24835,8 +25745,14 @@
       <c r="AI11" s="1">
         <v>30.9300003051757</v>
       </c>
+      <c r="AJ11" s="1">
+        <v>1.5337598369379699</v>
+      </c>
+      <c r="AK11" s="1">
+        <v>54.880001068115199</v>
+      </c>
     </row>
-    <row r="12" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -24942,8 +25858,14 @@
       <c r="AI12" s="1">
         <v>29.409999847412099</v>
       </c>
+      <c r="AJ12" s="1">
+        <v>1.5025012364053401</v>
+      </c>
+      <c r="AK12" s="1">
+        <v>56.520000457763601</v>
+      </c>
     </row>
-    <row r="13" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -25049,8 +25971,14 @@
       <c r="AI13" s="1">
         <v>30.4899997711181</v>
       </c>
+      <c r="AJ13" s="1">
+        <v>1.4893829298626799</v>
+      </c>
+      <c r="AK13" s="1">
+        <v>55.279998779296797</v>
+      </c>
     </row>
-    <row r="14" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -25156,8 +26084,14 @@
       <c r="AI14" s="1">
         <v>27.899999618530199</v>
       </c>
+      <c r="AJ14" s="1">
+        <v>1.46859162931988</v>
+      </c>
+      <c r="AK14" s="1">
+        <v>53.889999389648402</v>
+      </c>
     </row>
-    <row r="15" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -25263,8 +26197,14 @@
       <c r="AI15" s="1">
         <v>27.860000610351499</v>
       </c>
+      <c r="AJ15" s="1">
+        <v>1.42339440439916</v>
+      </c>
+      <c r="AK15" s="1">
+        <v>51.970001220703097</v>
+      </c>
     </row>
-    <row r="16" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20375"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24026"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jhl\Desktop\learningEFL-main\KD_experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B1A0D338-1D68-40CD-9DC6-F6547A52AB04}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EB164F-989A-459E-AE27-95E435EFF4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11706,6 +11706,234 @@
                 <c:pt idx="13">
                   <c:v>51.970001220703097</c:v>
                 </c:pt>
+                <c:pt idx="14">
+                  <c:v>52.310001373291001</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>49.970001220703097</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>47.669998168945298</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>47.130001068115199</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>45.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>45.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>44.529998779296797</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>43.099998474121001</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>43.720001220703097</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>43.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>42.849998474121001</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>41.799999237060497</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>41.029998779296797</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>43.470001220703097</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>41.680000305175703</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>40.669998168945298</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>40.430000305175703</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>38.849998474121001</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>39.779998779296797</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>38.790000915527301</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>38.169998168945298</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>38.240001678466797</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>36.860000610351499</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>36.810001373291001</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>35.919998168945298</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>35.779998779296797</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>35.049999237060497</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>34.029998779296797</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>34.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>35.060001373291001</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>33.889999389648402</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>34.330001831054602</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>34.369998931884702</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>33.770000457763601</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>33.639999389648402</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>33.110000610351499</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>32.470001220703097</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>32.619998931884702</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>32.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>32.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>32.529998779296797</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>32.509998321533203</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>31.530000686645501</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>31.7299995422363</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>31.159999847412099</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>31.5100002288818</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>30.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>31.360000610351499</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>31.190000534057599</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>30.420000076293899</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>30.319999694824201</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>30.659999847412099</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>30.399999618530199</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>30.809999465942301</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>31.149999618530199</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>30.389999389648398</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>30.5</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>29.850000381469702</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>30.2600002288818</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>29.5</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>29.780000686645501</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>29.139999389648398</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>29.829999923706001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>29.590000152587798</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>29.870000839233398</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>29.879999160766602</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>29.649999618530199</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>29.329999923706001</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>29.9799995422363</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>29.159999847412099</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>28.850000381469702</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>28.879999160766602</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>29.2299995422363</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>29.2000007629394</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -23447,6 +23675,234 @@
                       </c:pt>
                       <c:pt idx="13">
                         <c:v>1.42339440439916</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.41157167276759</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.3748648029983399</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.3326564769076601</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.3225097625878199</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.27681391026563</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.27125582004049</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.26565779546263</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.23921474036137</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.2475191119370099</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.2279581226361</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.20900889908432</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.18912298322483</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.17524953404809</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.2082398742627101</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1.19132906084607</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.1606307318256099</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.13533977414392</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1.1091675879848899</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1.1306924880689799</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>1.1147988970112599</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>1.0989569839398501</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1.0869683870084701</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>1.0596671020908699</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1.0596108580850401</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>1.0438789603816401</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1.02267509698867</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>1.0252576914562499</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>1.0274906222987299</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>1.0048636771311401</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>0.99423334439089295</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>0.99080843454713197</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>1.0001479072175901</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>0.97574819652897504</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>0.97723471662800698</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>0.97907655292255802</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>0.96672666908069704</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>0.95300339513523502</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>0.93943021593579801</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>0.93992698837997002</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>0.93429718389632599</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>0.92676179765895605</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>0.92712338790771998</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>0.92108847267308802</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>0.92770886724921497</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>0.90524689786752999</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>0.89985646165100597</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>0.90243197246721596</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>0.908398067875272</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>0.89374479708398202</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>0.899615163256408</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>0.89074799703184904</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>0.87689712662605701</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>0.87946416352205203</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>0.86947799905849799</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>0.87488111379040201</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>0.88356493878516396</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>0.88915615894232503</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>0.876708493111239</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>0.87171772483048104</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>0.86749422284448197</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0.86976954018234398</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>0.85600508284416899</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0.85510765253358501</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0.84665724995789204</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>0.85399318500688803</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0.86049970737688097</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0.86586244584648397</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0.86774007378110396</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0.866270836751172</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0.85741411348816698</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0.85433112758739704</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.84831983078816897</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0.84639057460104505</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0.84132566421654498</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0.85133809648501602</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0.85280455430601798</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -24193,16 +24649,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>489857</xdr:colOff>
-      <xdr:row>3</xdr:row>
-      <xdr:rowOff>122464</xdr:rowOff>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>122464</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>95249</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>19</xdr:col>
-      <xdr:colOff>122464</xdr:colOff>
-      <xdr:row>63</xdr:row>
-      <xdr:rowOff>13607</xdr:rowOff>
+      <xdr:col>34</xdr:col>
+      <xdr:colOff>217714</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -24497,8 +24953,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AK201"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="X14" sqref="X14"/>
+    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AJ19" sqref="AJ19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -26310,8 +26766,14 @@
       <c r="AI16" s="1">
         <v>26.809999465942301</v>
       </c>
+      <c r="AJ16" s="1">
+        <v>1.41157167276759</v>
+      </c>
+      <c r="AK16" s="1">
+        <v>52.310001373291001</v>
+      </c>
     </row>
-    <row r="17" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -26417,8 +26879,14 @@
       <c r="AI17" s="1">
         <v>27.809999465942301</v>
       </c>
+      <c r="AJ17" s="1">
+        <v>1.3748648029983399</v>
+      </c>
+      <c r="AK17" s="1">
+        <v>49.970001220703097</v>
+      </c>
     </row>
-    <row r="18" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -26524,8 +26992,14 @@
       <c r="AI18" s="1">
         <v>25.850000381469702</v>
       </c>
+      <c r="AJ18" s="1">
+        <v>1.3326564769076601</v>
+      </c>
+      <c r="AK18" s="1">
+        <v>47.669998168945298</v>
+      </c>
     </row>
-    <row r="19" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -26631,8 +27105,14 @@
       <c r="AI19" s="1">
         <v>25.670000076293899</v>
       </c>
+      <c r="AJ19" s="1">
+        <v>1.3225097625878199</v>
+      </c>
+      <c r="AK19" s="1">
+        <v>47.130001068115199</v>
+      </c>
     </row>
-    <row r="20" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -26738,8 +27218,14 @@
       <c r="AI20" s="1">
         <v>24.389999389648398</v>
       </c>
+      <c r="AJ20" s="1">
+        <v>1.27681391026563</v>
+      </c>
+      <c r="AK20" s="1">
+        <v>45.209999084472599</v>
+      </c>
     </row>
-    <row r="21" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -26845,8 +27331,14 @@
       <c r="AI21" s="1">
         <v>24.360000610351499</v>
       </c>
+      <c r="AJ21" s="1">
+        <v>1.27125582004049</v>
+      </c>
+      <c r="AK21" s="1">
+        <v>45.150001525878899</v>
+      </c>
     </row>
-    <row r="22" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -26952,8 +27444,14 @@
       <c r="AI22" s="1">
         <v>24</v>
       </c>
+      <c r="AJ22" s="1">
+        <v>1.26565779546263</v>
+      </c>
+      <c r="AK22" s="1">
+        <v>44.529998779296797</v>
+      </c>
     </row>
-    <row r="23" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -27059,8 +27557,14 @@
       <c r="AI23" s="1">
         <v>22.600000381469702</v>
       </c>
+      <c r="AJ23" s="1">
+        <v>1.23921474036137</v>
+      </c>
+      <c r="AK23" s="1">
+        <v>43.099998474121001</v>
+      </c>
     </row>
-    <row r="24" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -27160,8 +27664,14 @@
       <c r="AI24" s="1">
         <v>23.139999389648398</v>
       </c>
+      <c r="AJ24" s="1">
+        <v>1.2475191119370099</v>
+      </c>
+      <c r="AK24" s="1">
+        <v>43.720001220703097</v>
+      </c>
     </row>
-    <row r="25" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -27261,8 +27771,14 @@
       <c r="AI25" s="1">
         <v>23.579999923706001</v>
       </c>
+      <c r="AJ25" s="1">
+        <v>1.2279581226361</v>
+      </c>
+      <c r="AK25" s="1">
+        <v>43.150001525878899</v>
+      </c>
     </row>
-    <row r="26" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -27362,8 +27878,14 @@
       <c r="AI26" s="1">
         <v>23.159999847412099</v>
       </c>
+      <c r="AJ26" s="1">
+        <v>1.20900889908432</v>
+      </c>
+      <c r="AK26" s="1">
+        <v>42.849998474121001</v>
+      </c>
     </row>
-    <row r="27" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -27463,8 +27985,14 @@
       <c r="AI27" s="1">
         <v>22.190000534057599</v>
       </c>
+      <c r="AJ27" s="1">
+        <v>1.18912298322483</v>
+      </c>
+      <c r="AK27" s="1">
+        <v>41.799999237060497</v>
+      </c>
     </row>
-    <row r="28" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -27564,8 +28092,14 @@
       <c r="AI28" s="1">
         <v>22.360000610351499</v>
       </c>
+      <c r="AJ28" s="1">
+        <v>1.17524953404809</v>
+      </c>
+      <c r="AK28" s="1">
+        <v>41.029998779296797</v>
+      </c>
     </row>
-    <row r="29" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -27665,8 +28199,14 @@
       <c r="AI29" s="1">
         <v>21.850000381469702</v>
       </c>
+      <c r="AJ29" s="1">
+        <v>1.2082398742627101</v>
+      </c>
+      <c r="AK29" s="1">
+        <v>43.470001220703097</v>
+      </c>
     </row>
-    <row r="30" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -27766,8 +28306,14 @@
       <c r="AI30" s="1">
         <v>21.7600002288818</v>
       </c>
+      <c r="AJ30" s="1">
+        <v>1.19132906084607</v>
+      </c>
+      <c r="AK30" s="1">
+        <v>41.680000305175703</v>
+      </c>
     </row>
-    <row r="31" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -27867,8 +28413,14 @@
       <c r="AI31" s="1">
         <v>28.2600002288818</v>
       </c>
+      <c r="AJ31" s="1">
+        <v>1.1606307318256099</v>
+      </c>
+      <c r="AK31" s="1">
+        <v>40.669998168945298</v>
+      </c>
     </row>
-    <row r="32" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -27968,8 +28520,14 @@
       <c r="AI32" s="1">
         <v>22.209999084472599</v>
       </c>
+      <c r="AJ32" s="1">
+        <v>1.13533977414392</v>
+      </c>
+      <c r="AK32" s="1">
+        <v>40.430000305175703</v>
+      </c>
     </row>
-    <row r="33" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -28069,8 +28627,14 @@
       <c r="AI33" s="1">
         <v>21.360000610351499</v>
       </c>
+      <c r="AJ33" s="1">
+        <v>1.1091675879848899</v>
+      </c>
+      <c r="AK33" s="1">
+        <v>38.849998474121001</v>
+      </c>
     </row>
-    <row r="34" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -28170,8 +28734,14 @@
       <c r="AI34" s="1">
         <v>20.889999389648398</v>
       </c>
+      <c r="AJ34" s="1">
+        <v>1.1306924880689799</v>
+      </c>
+      <c r="AK34" s="1">
+        <v>39.779998779296797</v>
+      </c>
     </row>
-    <row r="35" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -28271,8 +28841,14 @@
       <c r="AI35" s="1">
         <v>21.370000839233398</v>
       </c>
+      <c r="AJ35" s="1">
+        <v>1.1147988970112599</v>
+      </c>
+      <c r="AK35" s="1">
+        <v>38.790000915527301</v>
+      </c>
     </row>
-    <row r="36" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -28372,8 +28948,14 @@
       <c r="AI36" s="1">
         <v>20.75</v>
       </c>
+      <c r="AJ36" s="1">
+        <v>1.0989569839398501</v>
+      </c>
+      <c r="AK36" s="1">
+        <v>38.169998168945298</v>
+      </c>
     </row>
-    <row r="37" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -28473,8 +29055,14 @@
       <c r="AI37" s="1">
         <v>21.170000076293899</v>
       </c>
+      <c r="AJ37" s="1">
+        <v>1.0869683870084701</v>
+      </c>
+      <c r="AK37" s="1">
+        <v>38.240001678466797</v>
+      </c>
     </row>
-    <row r="38" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -28574,8 +29162,14 @@
       <c r="AI38" s="1">
         <v>21.2000007629394</v>
       </c>
+      <c r="AJ38" s="1">
+        <v>1.0596671020908699</v>
+      </c>
+      <c r="AK38" s="1">
+        <v>36.459999084472599</v>
+      </c>
     </row>
-    <row r="39" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -28675,8 +29269,14 @@
       <c r="AI39" s="1">
         <v>20.590000152587798</v>
       </c>
+      <c r="AJ39" s="1">
+        <v>1.0596108580850401</v>
+      </c>
+      <c r="AK39" s="1">
+        <v>36.860000610351499</v>
+      </c>
     </row>
-    <row r="40" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -28776,8 +29376,14 @@
       <c r="AI40" s="1">
         <v>19.850000381469702</v>
       </c>
+      <c r="AJ40" s="1">
+        <v>1.0438789603816401</v>
+      </c>
+      <c r="AK40" s="1">
+        <v>36.810001373291001</v>
+      </c>
     </row>
-    <row r="41" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -28877,8 +29483,14 @@
       <c r="AI41" s="1">
         <v>19.4899997711181</v>
       </c>
+      <c r="AJ41" s="1">
+        <v>1.02267509698867</v>
+      </c>
+      <c r="AK41" s="1">
+        <v>36</v>
+      </c>
     </row>
-    <row r="42" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -28978,8 +29590,14 @@
       <c r="AI42" s="1">
         <v>20.659999847412099</v>
       </c>
+      <c r="AJ42" s="1">
+        <v>1.0252576914562499</v>
+      </c>
+      <c r="AK42" s="1">
+        <v>35.919998168945298</v>
+      </c>
     </row>
-    <row r="43" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -29079,8 +29697,14 @@
       <c r="AI43" s="1">
         <v>19.549999237060501</v>
       </c>
+      <c r="AJ43" s="1">
+        <v>1.0274906222987299</v>
+      </c>
+      <c r="AK43" s="1">
+        <v>35.779998779296797</v>
+      </c>
     </row>
-    <row r="44" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -29180,8 +29804,14 @@
       <c r="AI44" s="1">
         <v>19.659999847412099</v>
       </c>
+      <c r="AJ44" s="1">
+        <v>1.0048636771311401</v>
+      </c>
+      <c r="AK44" s="1">
+        <v>35.049999237060497</v>
+      </c>
     </row>
-    <row r="45" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -29281,8 +29911,14 @@
       <c r="AI45" s="1">
         <v>19.590000152587798</v>
       </c>
+      <c r="AJ45" s="1">
+        <v>0.99423334439089295</v>
+      </c>
+      <c r="AK45" s="1">
+        <v>34.029998779296797</v>
+      </c>
     </row>
-    <row r="46" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -29382,8 +30018,14 @@
       <c r="AI46" s="1">
         <v>19.809999465942301</v>
       </c>
+      <c r="AJ46" s="1">
+        <v>0.99080843454713197</v>
+      </c>
+      <c r="AK46" s="1">
+        <v>34.659999847412102</v>
+      </c>
     </row>
-    <row r="47" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -29483,8 +30125,14 @@
       <c r="AI47" s="1">
         <v>19.629999160766602</v>
       </c>
+      <c r="AJ47" s="1">
+        <v>1.0001479072175901</v>
+      </c>
+      <c r="AK47" s="1">
+        <v>35.060001373291001</v>
+      </c>
     </row>
-    <row r="48" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -29584,8 +30232,14 @@
       <c r="AI48" s="1">
         <v>19.7000007629394</v>
       </c>
+      <c r="AJ48" s="1">
+        <v>0.97574819652897504</v>
+      </c>
+      <c r="AK48" s="1">
+        <v>33.889999389648402</v>
+      </c>
     </row>
-    <row r="49" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -29685,8 +30339,14 @@
       <c r="AI49" s="1">
         <v>18.909999847412099</v>
       </c>
+      <c r="AJ49" s="1">
+        <v>0.97723471662800698</v>
+      </c>
+      <c r="AK49" s="1">
+        <v>34.330001831054602</v>
+      </c>
     </row>
-    <row r="50" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -29786,8 +30446,14 @@
       <c r="AI50" s="1">
         <v>18.9899997711181</v>
       </c>
+      <c r="AJ50" s="1">
+        <v>0.97907655292255802</v>
+      </c>
+      <c r="AK50" s="1">
+        <v>34.369998931884702</v>
+      </c>
     </row>
-    <row r="51" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -29887,8 +30553,14 @@
       <c r="AI51" s="1">
         <v>20.190000534057599</v>
       </c>
+      <c r="AJ51" s="1">
+        <v>0.96672666908069704</v>
+      </c>
+      <c r="AK51" s="1">
+        <v>33.770000457763601</v>
+      </c>
     </row>
-    <row r="52" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -29988,8 +30660,14 @@
       <c r="AI52" s="1">
         <v>19.770000457763601</v>
       </c>
+      <c r="AJ52" s="1">
+        <v>0.95300339513523502</v>
+      </c>
+      <c r="AK52" s="1">
+        <v>33.639999389648402</v>
+      </c>
     </row>
-    <row r="53" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -30089,8 +30767,14 @@
       <c r="AI53" s="1">
         <v>19.149999618530199</v>
       </c>
+      <c r="AJ53" s="1">
+        <v>0.93943021593579801</v>
+      </c>
+      <c r="AK53" s="1">
+        <v>33.110000610351499</v>
+      </c>
     </row>
-    <row r="54" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -30190,8 +30874,14 @@
       <c r="AI54" s="1">
         <v>18.889999389648398</v>
       </c>
+      <c r="AJ54" s="1">
+        <v>0.93992698837997002</v>
+      </c>
+      <c r="AK54" s="1">
+        <v>32.470001220703097</v>
+      </c>
     </row>
-    <row r="55" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -30291,8 +30981,14 @@
       <c r="AI55" s="1">
         <v>19.4500007629394</v>
       </c>
+      <c r="AJ55" s="1">
+        <v>0.93429718389632599</v>
+      </c>
+      <c r="AK55" s="1">
+        <v>32.619998931884702</v>
+      </c>
     </row>
-    <row r="56" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -30392,8 +31088,14 @@
       <c r="AI56" s="1">
         <v>18.7000007629394</v>
       </c>
+      <c r="AJ56" s="1">
+        <v>0.92676179765895605</v>
+      </c>
+      <c r="AK56" s="1">
+        <v>32.459999084472599</v>
+      </c>
     </row>
-    <row r="57" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -30493,8 +31195,14 @@
       <c r="AI57" s="1">
         <v>18.120000839233398</v>
       </c>
+      <c r="AJ57" s="1">
+        <v>0.92712338790771998</v>
+      </c>
+      <c r="AK57" s="1">
+        <v>32.819999694824197</v>
+      </c>
     </row>
-    <row r="58" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -30594,8 +31302,14 @@
       <c r="AI58" s="1">
         <v>18.9300003051757</v>
       </c>
+      <c r="AJ58" s="1">
+        <v>0.92108847267308802</v>
+      </c>
+      <c r="AK58" s="1">
+        <v>32.529998779296797</v>
+      </c>
     </row>
-    <row r="59" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -30695,8 +31409,14 @@
       <c r="AI59" s="1">
         <v>19.399999618530199</v>
       </c>
+      <c r="AJ59" s="1">
+        <v>0.92770886724921497</v>
+      </c>
+      <c r="AK59" s="1">
+        <v>32.509998321533203</v>
+      </c>
     </row>
-    <row r="60" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -30796,8 +31516,14 @@
       <c r="AI60" s="1">
         <v>18.850000381469702</v>
       </c>
+      <c r="AJ60" s="1">
+        <v>0.90524689786752999</v>
+      </c>
+      <c r="AK60" s="1">
+        <v>31.530000686645501</v>
+      </c>
     </row>
-    <row r="61" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -30897,8 +31623,14 @@
       <c r="AI61" s="1">
         <v>18.309999465942301</v>
       </c>
+      <c r="AJ61" s="1">
+        <v>0.89985646165100597</v>
+      </c>
+      <c r="AK61" s="1">
+        <v>31.7299995422363</v>
+      </c>
     </row>
-    <row r="62" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -30998,8 +31730,14 @@
       <c r="AI62" s="1">
         <v>18.350000381469702</v>
       </c>
+      <c r="AJ62" s="1">
+        <v>0.90243197246721596</v>
+      </c>
+      <c r="AK62" s="1">
+        <v>31.159999847412099</v>
+      </c>
     </row>
-    <row r="63" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -31099,8 +31837,14 @@
       <c r="AI63" s="1">
         <v>18.7600002288818</v>
       </c>
+      <c r="AJ63" s="1">
+        <v>0.908398067875272</v>
+      </c>
+      <c r="AK63" s="1">
+        <v>31.5100002288818</v>
+      </c>
     </row>
-    <row r="64" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -31200,8 +31944,14 @@
       <c r="AI64" s="1">
         <v>18.9300003051757</v>
       </c>
+      <c r="AJ64" s="1">
+        <v>0.89374479708398202</v>
+      </c>
+      <c r="AK64" s="1">
+        <v>30.840000152587798</v>
+      </c>
     </row>
-    <row r="65" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -31301,8 +32051,14 @@
       <c r="AI65" s="1">
         <v>18.389999389648398</v>
       </c>
+      <c r="AJ65" s="1">
+        <v>0.899615163256408</v>
+      </c>
+      <c r="AK65" s="1">
+        <v>31.360000610351499</v>
+      </c>
     </row>
-    <row r="66" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -31402,8 +32158,14 @@
       <c r="AI66" s="1">
         <v>18.860000610351499</v>
       </c>
+      <c r="AJ66" s="1">
+        <v>0.89074799703184904</v>
+      </c>
+      <c r="AK66" s="1">
+        <v>31.190000534057599</v>
+      </c>
     </row>
-    <row r="67" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -31503,8 +32265,14 @@
       <c r="AI67" s="1">
         <v>19.440000534057599</v>
       </c>
+      <c r="AJ67" s="1">
+        <v>0.87689712662605701</v>
+      </c>
+      <c r="AK67" s="1">
+        <v>30.420000076293899</v>
+      </c>
     </row>
-    <row r="68" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -31604,8 +32372,14 @@
       <c r="AI68" s="1">
         <v>17.840000152587798</v>
       </c>
+      <c r="AJ68" s="1">
+        <v>0.87946416352205203</v>
+      </c>
+      <c r="AK68" s="1">
+        <v>30.319999694824201</v>
+      </c>
     </row>
-    <row r="69" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -31705,8 +32479,14 @@
       <c r="AI69" s="1">
         <v>18.409999847412099</v>
       </c>
+      <c r="AJ69" s="1">
+        <v>0.86947799905849799</v>
+      </c>
+      <c r="AK69" s="1">
+        <v>30.659999847412099</v>
+      </c>
     </row>
-    <row r="70" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -31806,8 +32586,14 @@
       <c r="AI70" s="1">
         <v>18.329999923706001</v>
       </c>
+      <c r="AJ70" s="1">
+        <v>0.87488111379040201</v>
+      </c>
+      <c r="AK70" s="1">
+        <v>30.399999618530199</v>
+      </c>
     </row>
-    <row r="71" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -31907,8 +32693,14 @@
       <c r="AI71" s="1">
         <v>18.1800003051757</v>
       </c>
+      <c r="AJ71" s="1">
+        <v>0.88356493878516396</v>
+      </c>
+      <c r="AK71" s="1">
+        <v>30.809999465942301</v>
+      </c>
     </row>
-    <row r="72" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -32008,8 +32800,14 @@
       <c r="AI72" s="1">
         <v>18.579999923706001</v>
       </c>
+      <c r="AJ72" s="1">
+        <v>0.88915615894232503</v>
+      </c>
+      <c r="AK72" s="1">
+        <v>31.149999618530199</v>
+      </c>
     </row>
-    <row r="73" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -32109,8 +32907,14 @@
       <c r="AI73" s="1">
         <v>17.879999160766602</v>
       </c>
+      <c r="AJ73" s="1">
+        <v>0.876708493111239</v>
+      </c>
+      <c r="AK73" s="1">
+        <v>30.389999389648398</v>
+      </c>
     </row>
-    <row r="74" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -32210,8 +33014,14 @@
       <c r="AI74" s="1">
         <v>17.809999465942301</v>
       </c>
+      <c r="AJ74" s="1">
+        <v>0.87171772483048104</v>
+      </c>
+      <c r="AK74" s="1">
+        <v>30.5</v>
+      </c>
     </row>
-    <row r="75" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -32311,8 +33121,14 @@
       <c r="AI75" s="1">
         <v>18.770000457763601</v>
       </c>
+      <c r="AJ75" s="1">
+        <v>0.86749422284448197</v>
+      </c>
+      <c r="AK75" s="1">
+        <v>29.850000381469702</v>
+      </c>
     </row>
-    <row r="76" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -32412,8 +33228,14 @@
       <c r="AI76" s="1">
         <v>18.139999389648398</v>
       </c>
+      <c r="AJ76" s="1">
+        <v>0.86976954018234398</v>
+      </c>
+      <c r="AK76" s="1">
+        <v>30.2600002288818</v>
+      </c>
     </row>
-    <row r="77" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -32513,8 +33335,14 @@
       <c r="AI77" s="1">
         <v>17.780000686645501</v>
       </c>
+      <c r="AJ77" s="1">
+        <v>0.85600508284416899</v>
+      </c>
+      <c r="AK77" s="1">
+        <v>29.5</v>
+      </c>
     </row>
-    <row r="78" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -32614,8 +33442,14 @@
       <c r="AI78" s="1">
         <v>18.379999160766602</v>
       </c>
+      <c r="AJ78" s="1">
+        <v>0.85510765253358501</v>
+      </c>
+      <c r="AK78" s="1">
+        <v>29.780000686645501</v>
+      </c>
     </row>
-    <row r="79" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -32715,8 +33549,14 @@
       <c r="AI79" s="1">
         <v>18.389999389648398</v>
       </c>
+      <c r="AJ79" s="1">
+        <v>0.84665724995789204</v>
+      </c>
+      <c r="AK79" s="1">
+        <v>29.139999389648398</v>
+      </c>
     </row>
-    <row r="80" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -32816,8 +33656,14 @@
       <c r="AI80" s="1">
         <v>17.709999084472599</v>
       </c>
+      <c r="AJ80" s="1">
+        <v>0.85399318500688803</v>
+      </c>
+      <c r="AK80" s="1">
+        <v>29.829999923706001</v>
+      </c>
     </row>
-    <row r="81" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -32917,8 +33763,14 @@
       <c r="AI81" s="1">
         <v>17.590000152587798</v>
       </c>
+      <c r="AJ81" s="1">
+        <v>0.86049970737688097</v>
+      </c>
+      <c r="AK81" s="1">
+        <v>29.590000152587798</v>
+      </c>
     </row>
-    <row r="82" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -33018,8 +33870,14 @@
       <c r="AI82" s="1">
         <v>17.059999465942301</v>
       </c>
+      <c r="AJ82" s="1">
+        <v>0.86586244584648397</v>
+      </c>
+      <c r="AK82" s="1">
+        <v>29.870000839233398</v>
+      </c>
     </row>
-    <row r="83" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -33119,8 +33977,14 @@
       <c r="AI83" s="1">
         <v>17.409999847412099</v>
       </c>
+      <c r="AJ83" s="1">
+        <v>0.86774007378110396</v>
+      </c>
+      <c r="AK83" s="1">
+        <v>29.879999160766602</v>
+      </c>
     </row>
-    <row r="84" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -33220,8 +34084,14 @@
       <c r="AI84" s="1">
         <v>18.7000007629394</v>
       </c>
+      <c r="AJ84" s="1">
+        <v>0.866270836751172</v>
+      </c>
+      <c r="AK84" s="1">
+        <v>29.649999618530199</v>
+      </c>
     </row>
-    <row r="85" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -33321,8 +34191,14 @@
       <c r="AI85" s="1">
         <v>17.9300003051757</v>
       </c>
+      <c r="AJ85" s="1">
+        <v>0.85741411348816698</v>
+      </c>
+      <c r="AK85" s="1">
+        <v>29.329999923706001</v>
+      </c>
     </row>
-    <row r="86" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -33422,8 +34298,14 @@
       <c r="AI86" s="1">
         <v>17.290000915527301</v>
       </c>
+      <c r="AJ86" s="1">
+        <v>0.85433112758739704</v>
+      </c>
+      <c r="AK86" s="1">
+        <v>29.9799995422363</v>
+      </c>
     </row>
-    <row r="87" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -33523,8 +34405,14 @@
       <c r="AI87" s="1">
         <v>17.4699993133544</v>
       </c>
+      <c r="AJ87" s="1">
+        <v>0.84831983078816897</v>
+      </c>
+      <c r="AK87" s="1">
+        <v>29.159999847412099</v>
+      </c>
     </row>
-    <row r="88" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -33624,8 +34512,14 @@
       <c r="AI88" s="1">
         <v>17.9899997711181</v>
       </c>
+      <c r="AJ88" s="1">
+        <v>0.84639057460104505</v>
+      </c>
+      <c r="AK88" s="1">
+        <v>28.850000381469702</v>
+      </c>
     </row>
-    <row r="89" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -33725,8 +34619,14 @@
       <c r="AI89" s="1">
         <v>18.2399997711181</v>
       </c>
+      <c r="AJ89" s="1">
+        <v>0.84132566421654498</v>
+      </c>
+      <c r="AK89" s="1">
+        <v>28.879999160766602</v>
+      </c>
     </row>
-    <row r="90" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -33826,8 +34726,14 @@
       <c r="AI90" s="1">
         <v>18.040000915527301</v>
       </c>
+      <c r="AJ90" s="1">
+        <v>0.85133809648501602</v>
+      </c>
+      <c r="AK90" s="1">
+        <v>29.2299995422363</v>
+      </c>
     </row>
-    <row r="91" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -33927,8 +34833,14 @@
       <c r="AI91" s="1">
         <v>16.9500007629394</v>
       </c>
+      <c r="AJ91" s="1">
+        <v>0.85280455430601798</v>
+      </c>
+      <c r="AK91" s="1">
+        <v>29.2000007629394</v>
+      </c>
     </row>
-    <row r="92" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -34029,7 +34941,7 @@
         <v>17.2199993133544</v>
       </c>
     </row>
-    <row r="93" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -34130,7 +35042,7 @@
         <v>18.059999465942301</v>
       </c>
     </row>
-    <row r="94" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -34231,7 +35143,7 @@
         <v>18.5100002288818</v>
       </c>
     </row>
-    <row r="95" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -34332,7 +35244,7 @@
         <v>17.920000076293899</v>
       </c>
     </row>
-    <row r="96" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{96EB164F-989A-459E-AE27-95E435EFF4F5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF9D798-1370-4D4A-8870-CFFA70B53B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -11934,6 +11934,36 @@
                 <c:pt idx="89">
                   <c:v>29.2000007629394</c:v>
                 </c:pt>
+                <c:pt idx="90">
+                  <c:v>29.049999237060501</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>29.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>28.770000457763601</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>29.2600002288818</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>28.840000152587798</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>28.409999847412099</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>29.040000915527301</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>28.350000381469702</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>28.879999160766602</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>28.270000457763601</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -23903,6 +23933,36 @@
                       </c:pt>
                       <c:pt idx="89">
                         <c:v>0.85280455430601798</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0.83582975188637998</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0.84759653051188</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0.84924977505282995</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0.85556294223305496</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0.84991448984783902</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0.84069005964667898</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>0.84180624526777004</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0.84737552085499801</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0.85705489110035504</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0.83911757693169198</c:v>
                       </c:pt>
                     </c:numCache>
                   </c:numRef>
@@ -24954,7 +25014,7 @@
   <dimension ref="A1:AK201"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ19" sqref="AJ19"/>
+      <selection activeCell="AJ2" sqref="AJ2:AK101"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -34940,6 +35000,12 @@
       <c r="AI92" s="1">
         <v>17.2199993133544</v>
       </c>
+      <c r="AJ92" s="1">
+        <v>0.83582975188637998</v>
+      </c>
+      <c r="AK92" s="1">
+        <v>29.049999237060501</v>
+      </c>
     </row>
     <row r="93" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
@@ -35041,6 +35107,12 @@
       <c r="AI93" s="1">
         <v>18.059999465942301</v>
       </c>
+      <c r="AJ93" s="1">
+        <v>0.84759653051188</v>
+      </c>
+      <c r="AK93" s="1">
+        <v>29.209999084472599</v>
+      </c>
     </row>
     <row r="94" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
@@ -35142,6 +35214,12 @@
       <c r="AI94" s="1">
         <v>18.5100002288818</v>
       </c>
+      <c r="AJ94" s="1">
+        <v>0.84924977505282995</v>
+      </c>
+      <c r="AK94" s="1">
+        <v>28.770000457763601</v>
+      </c>
     </row>
     <row r="95" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
@@ -35243,6 +35321,12 @@
       <c r="AI95" s="1">
         <v>17.920000076293899</v>
       </c>
+      <c r="AJ95" s="1">
+        <v>0.85556294223305496</v>
+      </c>
+      <c r="AK95" s="1">
+        <v>29.2600002288818</v>
+      </c>
     </row>
     <row r="96" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
@@ -35344,8 +35428,14 @@
       <c r="AI96" s="1">
         <v>17.639999389648398</v>
       </c>
+      <c r="AJ96" s="1">
+        <v>0.84991448984783902</v>
+      </c>
+      <c r="AK96" s="1">
+        <v>28.840000152587798</v>
+      </c>
     </row>
-    <row r="97" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -35445,8 +35535,14 @@
       <c r="AI97" s="1">
         <v>17.149999618530199</v>
       </c>
+      <c r="AJ97" s="1">
+        <v>0.84069005964667898</v>
+      </c>
+      <c r="AK97" s="1">
+        <v>28.409999847412099</v>
+      </c>
     </row>
-    <row r="98" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -35546,8 +35642,14 @@
       <c r="AI98" s="1">
         <v>18.049999237060501</v>
       </c>
+      <c r="AJ98" s="1">
+        <v>0.84180624526777004</v>
+      </c>
+      <c r="AK98" s="1">
+        <v>29.040000915527301</v>
+      </c>
     </row>
-    <row r="99" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -35647,8 +35749,14 @@
       <c r="AI99" s="1">
         <v>17.940000534057599</v>
       </c>
+      <c r="AJ99" s="1">
+        <v>0.84737552085499801</v>
+      </c>
+      <c r="AK99" s="1">
+        <v>28.350000381469702</v>
+      </c>
     </row>
-    <row r="100" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -35748,8 +35856,14 @@
       <c r="AI100" s="1">
         <v>17.459999084472599</v>
       </c>
+      <c r="AJ100" s="1">
+        <v>0.85705489110035504</v>
+      </c>
+      <c r="AK100" s="1">
+        <v>28.879999160766602</v>
+      </c>
     </row>
-    <row r="101" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -35849,8 +35963,14 @@
       <c r="AI101" s="1">
         <v>17.350000381469702</v>
       </c>
+      <c r="AJ101" s="1">
+        <v>0.83911757693169198</v>
+      </c>
+      <c r="AK101" s="1">
+        <v>28.270000457763601</v>
+      </c>
     </row>
-    <row r="102" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -35861,7 +35981,7 @@
         <v>32.360000610351499</v>
       </c>
     </row>
-    <row r="103" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -35872,7 +35992,7 @@
         <v>32.740001678466797</v>
       </c>
     </row>
-    <row r="104" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -35883,7 +36003,7 @@
         <v>32.330001831054602</v>
       </c>
     </row>
-    <row r="105" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -35894,7 +36014,7 @@
         <v>32.349998474121001</v>
       </c>
     </row>
-    <row r="106" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -35905,7 +36025,7 @@
         <v>32.639999389648402</v>
       </c>
     </row>
-    <row r="107" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -35916,7 +36036,7 @@
         <v>32.599998474121001</v>
       </c>
     </row>
-    <row r="108" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -35927,7 +36047,7 @@
         <v>32.389999389648402</v>
       </c>
     </row>
-    <row r="109" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -35938,7 +36058,7 @@
         <v>32.490001678466797</v>
       </c>
     </row>
-    <row r="110" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -35949,7 +36069,7 @@
         <v>32.029998779296797</v>
       </c>
     </row>
-    <row r="111" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -35960,7 +36080,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:35" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:37" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>

--- a/KD_experiment/all.xlsx
+++ b/KD_experiment/all.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kyn02\OneDrive\바탕 화면\learningEFL\KD_experiment\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CF9D798-1370-4D4A-8870-CFFA70B53B26}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B03344E-80A6-41E9-B96D-943FCB6AA84D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="39">
   <si>
     <t>idx</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -172,6 +172,14 @@
   </si>
   <si>
     <t>efl_err_#11</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_loss_#15</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>efl_err_#15</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -11974,6 +11982,666 @@
             </c:ext>
           </c:extLst>
         </c:ser>
+        <c:ser>
+          <c:idx val="37"/>
+          <c:order val="37"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$AM$1</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>efl_err_#15</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="34925" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2">
+                  <a:lumMod val="70000"/>
+                  <a:lumOff val="30000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst>
+              <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                <a:srgbClr val="000000">
+                  <a:alpha val="63000"/>
+                </a:srgbClr>
+              </a:outerShdw>
+            </a:effectLst>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$A$2:$A$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>16</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>17</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>18</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>19</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>20</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>21</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>22</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>23</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>24</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>25</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>27</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>28</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>29</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>30</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>31</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>32</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>33</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>34</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>35</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>36</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>37</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>38</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>39</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>40</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>42</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>43</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>44</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>45</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>46</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>47</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>48</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>49</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>50</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>51</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>52</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>53</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>54</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>55</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>56</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>57</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>58</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>59</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>60</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>61</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>62</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>63</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>64</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>65</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>66</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>67</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>68</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>69</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>70</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>71</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>72</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>73</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>74</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>75</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>76</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>77</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>78</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>79</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>80</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>81</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>82</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>83</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>84</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>85</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>86</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>87</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>88</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>89</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>90</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>91</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>92</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>93</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>94</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>95</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>96</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>97</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>98</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>99</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$AM$2:$AM$101</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="100"/>
+                <c:pt idx="0">
+                  <c:v>91.25</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>80.970001220703097</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>76.910003662109304</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>71.489997863769503</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>69.129997253417898</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>66.160003662109304</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>62.970001220703097</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>60.919998168945298</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>60.869998931884702</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>60.240001678466797</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>56.310001373291001</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>57.169998168945298</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>56.709999084472599</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>55.180000305175703</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>54.069999694824197</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>54.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>52.709999084472599</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>51.459999084472599</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>51.700000762939403</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>52.409999847412102</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>49.340000152587798</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>49.540000915527301</c:v>
+                </c:pt>
+                <c:pt idx="22">
+                  <c:v>48.869998931884702</c:v>
+                </c:pt>
+                <c:pt idx="23">
+                  <c:v>50.259998321533203</c:v>
+                </c:pt>
+                <c:pt idx="24">
+                  <c:v>46.990001678466797</c:v>
+                </c:pt>
+                <c:pt idx="25">
+                  <c:v>47.169998168945298</c:v>
+                </c:pt>
+                <c:pt idx="26">
+                  <c:v>46.099998474121001</c:v>
+                </c:pt>
+                <c:pt idx="27">
+                  <c:v>45.970001220703097</c:v>
+                </c:pt>
+                <c:pt idx="28">
+                  <c:v>45.119998931884702</c:v>
+                </c:pt>
+                <c:pt idx="29">
+                  <c:v>46.139999389648402</c:v>
+                </c:pt>
+                <c:pt idx="30">
+                  <c:v>45.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="31">
+                  <c:v>45.130001068115199</c:v>
+                </c:pt>
+                <c:pt idx="32">
+                  <c:v>45.259998321533203</c:v>
+                </c:pt>
+                <c:pt idx="33">
+                  <c:v>44.849998474121001</c:v>
+                </c:pt>
+                <c:pt idx="34">
+                  <c:v>42.490001678466797</c:v>
+                </c:pt>
+                <c:pt idx="35">
+                  <c:v>43.470001220703097</c:v>
+                </c:pt>
+                <c:pt idx="36">
+                  <c:v>43.270000457763601</c:v>
+                </c:pt>
+                <c:pt idx="37">
+                  <c:v>42.849998474121001</c:v>
+                </c:pt>
+                <c:pt idx="38">
+                  <c:v>42.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="39">
+                  <c:v>42.040000915527301</c:v>
+                </c:pt>
+                <c:pt idx="40">
+                  <c:v>41.909999847412102</c:v>
+                </c:pt>
+                <c:pt idx="41">
+                  <c:v>41.220001220703097</c:v>
+                </c:pt>
+                <c:pt idx="42">
+                  <c:v>40.349998474121001</c:v>
+                </c:pt>
+                <c:pt idx="43">
+                  <c:v>41.549999237060497</c:v>
+                </c:pt>
+                <c:pt idx="44">
+                  <c:v>40.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="45">
+                  <c:v>39.270000457763601</c:v>
+                </c:pt>
+                <c:pt idx="46">
+                  <c:v>40.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="47">
+                  <c:v>40.150001525878899</c:v>
+                </c:pt>
+                <c:pt idx="48">
+                  <c:v>39.849998474121001</c:v>
+                </c:pt>
+                <c:pt idx="49">
+                  <c:v>39.380001068115199</c:v>
+                </c:pt>
+                <c:pt idx="50">
+                  <c:v>39.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="51">
+                  <c:v>38.939998626708899</c:v>
+                </c:pt>
+                <c:pt idx="52">
+                  <c:v>38.630001068115199</c:v>
+                </c:pt>
+                <c:pt idx="53">
+                  <c:v>37.720001220703097</c:v>
+                </c:pt>
+                <c:pt idx="54">
+                  <c:v>38.650001525878899</c:v>
+                </c:pt>
+                <c:pt idx="55">
+                  <c:v>38.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="56">
+                  <c:v>38.759998321533203</c:v>
+                </c:pt>
+                <c:pt idx="57">
+                  <c:v>36.930000305175703</c:v>
+                </c:pt>
+                <c:pt idx="58">
+                  <c:v>37.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="59">
+                  <c:v>38.029998779296797</c:v>
+                </c:pt>
+                <c:pt idx="60">
+                  <c:v>38.040000915527301</c:v>
+                </c:pt>
+                <c:pt idx="61">
+                  <c:v>36.770000457763601</c:v>
+                </c:pt>
+                <c:pt idx="62">
+                  <c:v>37.200000762939403</c:v>
+                </c:pt>
+                <c:pt idx="63">
+                  <c:v>36.270000457763601</c:v>
+                </c:pt>
+                <c:pt idx="64">
+                  <c:v>35.75</c:v>
+                </c:pt>
+                <c:pt idx="65">
+                  <c:v>36.819999694824197</c:v>
+                </c:pt>
+                <c:pt idx="66">
+                  <c:v>36.259998321533203</c:v>
+                </c:pt>
+                <c:pt idx="67">
+                  <c:v>36.450000762939403</c:v>
+                </c:pt>
+                <c:pt idx="68">
+                  <c:v>35.930000305175703</c:v>
+                </c:pt>
+                <c:pt idx="69">
+                  <c:v>35.959999084472599</c:v>
+                </c:pt>
+                <c:pt idx="70">
+                  <c:v>35.209999084472599</c:v>
+                </c:pt>
+                <c:pt idx="71">
+                  <c:v>35.580001831054602</c:v>
+                </c:pt>
+                <c:pt idx="72">
+                  <c:v>35.930000305175703</c:v>
+                </c:pt>
+                <c:pt idx="73">
+                  <c:v>35.610000610351499</c:v>
+                </c:pt>
+                <c:pt idx="74">
+                  <c:v>34.740001678466797</c:v>
+                </c:pt>
+                <c:pt idx="75">
+                  <c:v>34.900001525878899</c:v>
+                </c:pt>
+                <c:pt idx="76">
+                  <c:v>34.369998931884702</c:v>
+                </c:pt>
+                <c:pt idx="77">
+                  <c:v>34.630001068115199</c:v>
+                </c:pt>
+                <c:pt idx="78">
+                  <c:v>34.599998474121001</c:v>
+                </c:pt>
+                <c:pt idx="79">
+                  <c:v>34.75</c:v>
+                </c:pt>
+                <c:pt idx="80">
+                  <c:v>34.590000152587798</c:v>
+                </c:pt>
+                <c:pt idx="81">
+                  <c:v>34.580001831054602</c:v>
+                </c:pt>
+                <c:pt idx="82">
+                  <c:v>33.930000305175703</c:v>
+                </c:pt>
+                <c:pt idx="83">
+                  <c:v>34.139999389648402</c:v>
+                </c:pt>
+                <c:pt idx="84">
+                  <c:v>33.169998168945298</c:v>
+                </c:pt>
+                <c:pt idx="85">
+                  <c:v>33.830001831054602</c:v>
+                </c:pt>
+                <c:pt idx="86">
+                  <c:v>33.520000457763601</c:v>
+                </c:pt>
+                <c:pt idx="87">
+                  <c:v>34.380001068115199</c:v>
+                </c:pt>
+                <c:pt idx="88">
+                  <c:v>33.869998931884702</c:v>
+                </c:pt>
+                <c:pt idx="89">
+                  <c:v>34.180000305175703</c:v>
+                </c:pt>
+                <c:pt idx="90">
+                  <c:v>33.299999237060497</c:v>
+                </c:pt>
+                <c:pt idx="91">
+                  <c:v>33.659999847412102</c:v>
+                </c:pt>
+                <c:pt idx="92">
+                  <c:v>33.360000610351499</c:v>
+                </c:pt>
+                <c:pt idx="93">
+                  <c:v>33.630001068115199</c:v>
+                </c:pt>
+                <c:pt idx="94">
+                  <c:v>33.639999389648402</c:v>
+                </c:pt>
+                <c:pt idx="95">
+                  <c:v>32.869998931884702</c:v>
+                </c:pt>
+                <c:pt idx="96">
+                  <c:v>33.75</c:v>
+                </c:pt>
+                <c:pt idx="97">
+                  <c:v>33.189998626708899</c:v>
+                </c:pt>
+                <c:pt idx="98">
+                  <c:v>33.400001525878899</c:v>
+                </c:pt>
+                <c:pt idx="99">
+                  <c:v>33.020000457763601</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-4DD7-41DF-A7A8-AFBA4DA037C5}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
         <c:dLbls>
           <c:showLegendKey val="0"/>
           <c:showVal val="0"/>
@@ -23971,6 +24639,686 @@
                 <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
                   <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
                     <c16:uniqueId val="{00000000-F16E-4E6A-AD2D-7F909F808621}"/>
+                  </c:ext>
+                </c:extLst>
+              </c15:ser>
+            </c15:filteredLineSeries>
+            <c15:filteredLineSeries>
+              <c15:ser>
+                <c:idx val="36"/>
+                <c:order val="36"/>
+                <c:tx>
+                  <c:strRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AL$1</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:strCache>
+                      <c:ptCount val="1"/>
+                      <c:pt idx="0">
+                        <c:v>efl_loss_#15</c:v>
+                      </c:pt>
+                    </c:strCache>
+                  </c:strRef>
+                </c:tx>
+                <c:spPr>
+                  <a:ln w="34925" cap="rnd">
+                    <a:solidFill>
+                      <a:schemeClr val="accent1">
+                        <a:lumMod val="70000"/>
+                        <a:lumOff val="30000"/>
+                      </a:schemeClr>
+                    </a:solidFill>
+                    <a:round/>
+                  </a:ln>
+                  <a:effectLst>
+                    <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="000000">
+                        <a:alpha val="63000"/>
+                      </a:srgbClr>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </c:spPr>
+                <c:marker>
+                  <c:symbol val="none"/>
+                </c:marker>
+                <c:cat>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$A$2:$A$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>0</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>1</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>3</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>4</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>5</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>6</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>7</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>8</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>9</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>10</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>11</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>12</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>13</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>14</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>15</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>16</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>17</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>18</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>19</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>20</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>21</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>22</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>23</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>24</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>25</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>26</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>27</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>28</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>29</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>30</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>31</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>32</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>33</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>34</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>35</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>36</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>37</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>38</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>39</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>40</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>41</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>42</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>43</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>44</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>45</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>46</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>47</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>48</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>49</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>50</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>51</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>52</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>53</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>54</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>55</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>56</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>57</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>58</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>59</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>60</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>61</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>62</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>63</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>64</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>65</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>66</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>67</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>68</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>69</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>70</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>71</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>72</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>73</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>74</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>75</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>76</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>77</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>78</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>79</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>80</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>81</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>82</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>83</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>84</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>85</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>86</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>87</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>88</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>89</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>90</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>91</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>92</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>93</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>94</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>95</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>96</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>97</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>98</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>99</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:cat>
+                <c:val>
+                  <c:numRef>
+                    <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                      <c:ext xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart" uri="{02D57815-91ED-43cb-92C2-25804820EDAC}">
+                        <c15:formulaRef>
+                          <c15:sqref>Sheet1!$AL$2:$AL$101</c15:sqref>
+                        </c15:formulaRef>
+                      </c:ext>
+                    </c:extLst>
+                    <c:numCache>
+                      <c:formatCode>General</c:formatCode>
+                      <c:ptCount val="100"/>
+                      <c:pt idx="0">
+                        <c:v>2.3110345412211801</c:v>
+                      </c:pt>
+                      <c:pt idx="1">
+                        <c:v>10.8314514281643</c:v>
+                      </c:pt>
+                      <c:pt idx="2">
+                        <c:v>2.3338592310619899</c:v>
+                      </c:pt>
+                      <c:pt idx="3">
+                        <c:v>2.0851640268495801</c:v>
+                      </c:pt>
+                      <c:pt idx="4">
+                        <c:v>1.89674332111504</c:v>
+                      </c:pt>
+                      <c:pt idx="5">
+                        <c:v>1.86314215098217</c:v>
+                      </c:pt>
+                      <c:pt idx="6">
+                        <c:v>1.7557615778248701</c:v>
+                      </c:pt>
+                      <c:pt idx="7">
+                        <c:v>1.7066181169193999</c:v>
+                      </c:pt>
+                      <c:pt idx="8">
+                        <c:v>1.6692238423475001</c:v>
+                      </c:pt>
+                      <c:pt idx="9">
+                        <c:v>1.65800573415816</c:v>
+                      </c:pt>
+                      <c:pt idx="10">
+                        <c:v>1.6057494400413099</c:v>
+                      </c:pt>
+                      <c:pt idx="11">
+                        <c:v>1.5897846631943</c:v>
+                      </c:pt>
+                      <c:pt idx="12">
+                        <c:v>1.5780655540478401</c:v>
+                      </c:pt>
+                      <c:pt idx="13">
+                        <c:v>1.56385368981938</c:v>
+                      </c:pt>
+                      <c:pt idx="14">
+                        <c:v>1.5302484164571999</c:v>
+                      </c:pt>
+                      <c:pt idx="15">
+                        <c:v>1.5297646583265501</c:v>
+                      </c:pt>
+                      <c:pt idx="16">
+                        <c:v>1.4976200700565501</c:v>
+                      </c:pt>
+                      <c:pt idx="17">
+                        <c:v>1.4629378819921199</c:v>
+                      </c:pt>
+                      <c:pt idx="18">
+                        <c:v>1.4680226168055399</c:v>
+                      </c:pt>
+                      <c:pt idx="19">
+                        <c:v>1.4796280147163701</c:v>
+                      </c:pt>
+                      <c:pt idx="20">
+                        <c:v>1.4187260858572199</c:v>
+                      </c:pt>
+                      <c:pt idx="21">
+                        <c:v>1.4130486515676799</c:v>
+                      </c:pt>
+                      <c:pt idx="22">
+                        <c:v>1.40441701442572</c:v>
+                      </c:pt>
+                      <c:pt idx="23">
+                        <c:v>1.41127133293516</c:v>
+                      </c:pt>
+                      <c:pt idx="24">
+                        <c:v>1.38692334806843</c:v>
+                      </c:pt>
+                      <c:pt idx="25">
+                        <c:v>1.3538893939583101</c:v>
+                      </c:pt>
+                      <c:pt idx="26">
+                        <c:v>1.3433139999960599</c:v>
+                      </c:pt>
+                      <c:pt idx="27">
+                        <c:v>1.3373869019708799</c:v>
+                      </c:pt>
+                      <c:pt idx="28">
+                        <c:v>1.31574606819517</c:v>
+                      </c:pt>
+                      <c:pt idx="29">
+                        <c:v>1.3289016682630801</c:v>
+                      </c:pt>
+                      <c:pt idx="30">
+                        <c:v>1.30567976851372</c:v>
+                      </c:pt>
+                      <c:pt idx="31">
+                        <c:v>1.30748663890134</c:v>
+                      </c:pt>
+                      <c:pt idx="32">
+                        <c:v>1.28991573137842</c:v>
+                      </c:pt>
+                      <c:pt idx="33">
+                        <c:v>1.28355604713889</c:v>
+                      </c:pt>
+                      <c:pt idx="34">
+                        <c:v>1.2330651427530099</c:v>
+                      </c:pt>
+                      <c:pt idx="35">
+                        <c:v>1.2621300512817999</c:v>
+                      </c:pt>
+                      <c:pt idx="36">
+                        <c:v>1.2531521157094601</c:v>
+                      </c:pt>
+                      <c:pt idx="37">
+                        <c:v>1.24926010818238</c:v>
+                      </c:pt>
+                      <c:pt idx="38">
+                        <c:v>1.2217948467108799</c:v>
+                      </c:pt>
+                      <c:pt idx="39">
+                        <c:v>1.2016827767821601</c:v>
+                      </c:pt>
+                      <c:pt idx="40">
+                        <c:v>1.1962784430023901</c:v>
+                      </c:pt>
+                      <c:pt idx="41">
+                        <c:v>1.19176690593646</c:v>
+                      </c:pt>
+                      <c:pt idx="42">
+                        <c:v>1.16223150985256</c:v>
+                      </c:pt>
+                      <c:pt idx="43">
+                        <c:v>1.18034087206907</c:v>
+                      </c:pt>
+                      <c:pt idx="44">
+                        <c:v>1.1619724274440899</c:v>
+                      </c:pt>
+                      <c:pt idx="45">
+                        <c:v>1.1362804417397501</c:v>
+                      </c:pt>
+                      <c:pt idx="46">
+                        <c:v>1.1451224354422</c:v>
+                      </c:pt>
+                      <c:pt idx="47">
+                        <c:v>1.15067777398285</c:v>
+                      </c:pt>
+                      <c:pt idx="48">
+                        <c:v>1.12175452063797</c:v>
+                      </c:pt>
+                      <c:pt idx="49">
+                        <c:v>1.1346412566816699</c:v>
+                      </c:pt>
+                      <c:pt idx="50">
+                        <c:v>1.1283372883584</c:v>
+                      </c:pt>
+                      <c:pt idx="51">
+                        <c:v>1.1126925531466201</c:v>
+                      </c:pt>
+                      <c:pt idx="52">
+                        <c:v>1.1104009914549999</c:v>
+                      </c:pt>
+                      <c:pt idx="53">
+                        <c:v>1.09306225845008</c:v>
+                      </c:pt>
+                      <c:pt idx="54">
+                        <c:v>1.1000951619664501</c:v>
+                      </c:pt>
+                      <c:pt idx="55">
+                        <c:v>1.09338969599669</c:v>
+                      </c:pt>
+                      <c:pt idx="56">
+                        <c:v>1.08657630120113</c:v>
+                      </c:pt>
+                      <c:pt idx="57">
+                        <c:v>1.0635277856687</c:v>
+                      </c:pt>
+                      <c:pt idx="58">
+                        <c:v>1.06296744847753</c:v>
+                      </c:pt>
+                      <c:pt idx="59">
+                        <c:v>1.06736799865771</c:v>
+                      </c:pt>
+                      <c:pt idx="60">
+                        <c:v>1.06977369868831</c:v>
+                      </c:pt>
+                      <c:pt idx="61">
+                        <c:v>1.05355045484129</c:v>
+                      </c:pt>
+                      <c:pt idx="62">
+                        <c:v>1.06276377902668</c:v>
+                      </c:pt>
+                      <c:pt idx="63">
+                        <c:v>1.03667504278717</c:v>
+                      </c:pt>
+                      <c:pt idx="64">
+                        <c:v>1.0219465057561301</c:v>
+                      </c:pt>
+                      <c:pt idx="65">
+                        <c:v>1.0462797060134299</c:v>
+                      </c:pt>
+                      <c:pt idx="66">
+                        <c:v>1.03268298563683</c:v>
+                      </c:pt>
+                      <c:pt idx="67">
+                        <c:v>1.0254563514594</c:v>
+                      </c:pt>
+                      <c:pt idx="68">
+                        <c:v>1.0215940274250701</c:v>
+                      </c:pt>
+                      <c:pt idx="69">
+                        <c:v>1.02077498177813</c:v>
+                      </c:pt>
+                      <c:pt idx="70">
+                        <c:v>1.0094114466077899</c:v>
+                      </c:pt>
+                      <c:pt idx="71">
+                        <c:v>1.01186084899173</c:v>
+                      </c:pt>
+                      <c:pt idx="72">
+                        <c:v>1.0194086174296699</c:v>
+                      </c:pt>
+                      <c:pt idx="73">
+                        <c:v>1.0125113980025999</c:v>
+                      </c:pt>
+                      <c:pt idx="74">
+                        <c:v>0.99849770099494095</c:v>
+                      </c:pt>
+                      <c:pt idx="75">
+                        <c:v>1.0108608087156901</c:v>
+                      </c:pt>
+                      <c:pt idx="76">
+                        <c:v>0.99346382223117102</c:v>
+                      </c:pt>
+                      <c:pt idx="77">
+                        <c:v>0.99187976653408805</c:v>
+                      </c:pt>
+                      <c:pt idx="78">
+                        <c:v>1.0020678791270801</c:v>
+                      </c:pt>
+                      <c:pt idx="79">
+                        <c:v>0.99246944022026795</c:v>
+                      </c:pt>
+                      <c:pt idx="80">
+                        <c:v>0.99227916700824803</c:v>
+                      </c:pt>
+                      <c:pt idx="81">
+                        <c:v>0.99016187487134499</c:v>
+                      </c:pt>
+                      <c:pt idx="82">
+                        <c:v>0.97627766705622299</c:v>
+                      </c:pt>
+                      <c:pt idx="83">
+                        <c:v>0.98185205573488898</c:v>
+                      </c:pt>
+                      <c:pt idx="84">
+                        <c:v>0.96241393894146898</c:v>
+                      </c:pt>
+                      <c:pt idx="85">
+                        <c:v>0.98993068591804201</c:v>
+                      </c:pt>
+                      <c:pt idx="86">
+                        <c:v>0.97304810915782902</c:v>
+                      </c:pt>
+                      <c:pt idx="87">
+                        <c:v>0.99299593639981198</c:v>
+                      </c:pt>
+                      <c:pt idx="88">
+                        <c:v>0.98842302553213301</c:v>
+                      </c:pt>
+                      <c:pt idx="89">
+                        <c:v>0.98928770669706301</c:v>
+                      </c:pt>
+                      <c:pt idx="90">
+                        <c:v>0.97317327264767495</c:v>
+                      </c:pt>
+                      <c:pt idx="91">
+                        <c:v>0.97764343782594998</c:v>
+                      </c:pt>
+                      <c:pt idx="92">
+                        <c:v>0.98441616782716801</c:v>
+                      </c:pt>
+                      <c:pt idx="93">
+                        <c:v>0.98439543945774099</c:v>
+                      </c:pt>
+                      <c:pt idx="94">
+                        <c:v>0.97617637617572806</c:v>
+                      </c:pt>
+                      <c:pt idx="95">
+                        <c:v>0.97332881970010698</c:v>
+                      </c:pt>
+                      <c:pt idx="96">
+                        <c:v>1.0013199687763299</c:v>
+                      </c:pt>
+                      <c:pt idx="97">
+                        <c:v>0.968101819989028</c:v>
+                      </c:pt>
+                      <c:pt idx="98">
+                        <c:v>0.97351944940105295</c:v>
+                      </c:pt>
+                      <c:pt idx="99">
+                        <c:v>0.98149011886803195</c:v>
+                      </c:pt>
+                    </c:numCache>
+                  </c:numRef>
+                </c:val>
+                <c:smooth val="0"/>
+                <c:extLst xmlns:c15="http://schemas.microsoft.com/office/drawing/2012/chart">
+                  <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+                    <c16:uniqueId val="{00000001-4DD7-41DF-A7A8-AFBA4DA037C5}"/>
                   </c:ext>
                 </c:extLst>
               </c15:ser>
@@ -24709,16 +26057,16 @@
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>15</xdr:col>
-      <xdr:colOff>122464</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>95249</xdr:rowOff>
+      <xdr:col>22</xdr:col>
+      <xdr:colOff>328244</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>56030</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>34</xdr:col>
-      <xdr:colOff>217714</xdr:colOff>
-      <xdr:row>61</xdr:row>
-      <xdr:rowOff>190499</xdr:rowOff>
+      <xdr:col>35</xdr:col>
+      <xdr:colOff>515469</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>116133</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -25011,10 +26359,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AK201"/>
+  <dimension ref="A1:AM201"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="G1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AJ2" sqref="AJ2:AK101"/>
+    <sheetView tabSelected="1" topLeftCell="K1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="AL1" sqref="AL1:AM1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -25025,7 +26373,7 @@
     <col min="12" max="13" width="10.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -25137,8 +26485,14 @@
       <c r="AK1" t="s">
         <v>34</v>
       </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
     </row>
-    <row r="2" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>0</v>
       </c>
@@ -25250,8 +26604,14 @@
       <c r="AK2" s="1">
         <v>88.559997558593693</v>
       </c>
+      <c r="AL2" s="1">
+        <v>2.3110345412211801</v>
+      </c>
+      <c r="AM2" s="1">
+        <v>91.25</v>
+      </c>
     </row>
-    <row r="3" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>1</v>
       </c>
@@ -25363,8 +26723,14 @@
       <c r="AK3" s="1">
         <v>75.930000305175696</v>
       </c>
+      <c r="AL3" s="1">
+        <v>10.8314514281643</v>
+      </c>
+      <c r="AM3" s="1">
+        <v>80.970001220703097</v>
+      </c>
     </row>
-    <row r="4" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>2</v>
       </c>
@@ -25476,8 +26842,14 @@
       <c r="AK4" s="1">
         <v>70.199996948242102</v>
       </c>
+      <c r="AL4" s="1">
+        <v>2.3338592310619899</v>
+      </c>
+      <c r="AM4" s="1">
+        <v>76.910003662109304</v>
+      </c>
     </row>
-    <row r="5" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>3</v>
       </c>
@@ -25589,8 +26961,14 @@
       <c r="AK5" s="1">
         <v>67.680000305175696</v>
       </c>
+      <c r="AL5" s="1">
+        <v>2.0851640268495801</v>
+      </c>
+      <c r="AM5" s="1">
+        <v>71.489997863769503</v>
+      </c>
     </row>
-    <row r="6" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>4</v>
       </c>
@@ -25702,8 +27080,14 @@
       <c r="AK6" s="1">
         <v>63.25</v>
       </c>
+      <c r="AL6" s="1">
+        <v>1.89674332111504</v>
+      </c>
+      <c r="AM6" s="1">
+        <v>69.129997253417898</v>
+      </c>
     </row>
-    <row r="7" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>5</v>
       </c>
@@ -25815,8 +27199,14 @@
       <c r="AK7" s="1">
         <v>61.150001525878899</v>
       </c>
+      <c r="AL7" s="1">
+        <v>1.86314215098217</v>
+      </c>
+      <c r="AM7" s="1">
+        <v>66.160003662109304</v>
+      </c>
     </row>
-    <row r="8" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>6</v>
       </c>
@@ -25928,8 +27318,14 @@
       <c r="AK8" s="1">
         <v>60.319999694824197</v>
       </c>
+      <c r="AL8" s="1">
+        <v>1.7557615778248701</v>
+      </c>
+      <c r="AM8" s="1">
+        <v>62.970001220703097</v>
+      </c>
     </row>
-    <row r="9" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>7</v>
       </c>
@@ -26041,8 +27437,14 @@
       <c r="AK9" s="1">
         <v>60.049999237060497</v>
       </c>
+      <c r="AL9" s="1">
+        <v>1.7066181169193999</v>
+      </c>
+      <c r="AM9" s="1">
+        <v>60.919998168945298</v>
+      </c>
     </row>
-    <row r="10" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>8</v>
       </c>
@@ -26154,8 +27556,14 @@
       <c r="AK10" s="1">
         <v>59.080001831054602</v>
       </c>
+      <c r="AL10" s="1">
+        <v>1.6692238423475001</v>
+      </c>
+      <c r="AM10" s="1">
+        <v>60.869998931884702</v>
+      </c>
     </row>
-    <row r="11" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>9</v>
       </c>
@@ -26267,8 +27675,14 @@
       <c r="AK11" s="1">
         <v>54.880001068115199</v>
       </c>
+      <c r="AL11" s="1">
+        <v>1.65800573415816</v>
+      </c>
+      <c r="AM11" s="1">
+        <v>60.240001678466797</v>
+      </c>
     </row>
-    <row r="12" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>10</v>
       </c>
@@ -26380,8 +27794,14 @@
       <c r="AK12" s="1">
         <v>56.520000457763601</v>
       </c>
+      <c r="AL12" s="1">
+        <v>1.6057494400413099</v>
+      </c>
+      <c r="AM12" s="1">
+        <v>56.310001373291001</v>
+      </c>
     </row>
-    <row r="13" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>11</v>
       </c>
@@ -26493,8 +27913,14 @@
       <c r="AK13" s="1">
         <v>55.279998779296797</v>
       </c>
+      <c r="AL13" s="1">
+        <v>1.5897846631943</v>
+      </c>
+      <c r="AM13" s="1">
+        <v>57.169998168945298</v>
+      </c>
     </row>
-    <row r="14" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>12</v>
       </c>
@@ -26606,8 +28032,14 @@
       <c r="AK14" s="1">
         <v>53.889999389648402</v>
       </c>
+      <c r="AL14" s="1">
+        <v>1.5780655540478401</v>
+      </c>
+      <c r="AM14" s="1">
+        <v>56.709999084472599</v>
+      </c>
     </row>
-    <row r="15" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>13</v>
       </c>
@@ -26719,8 +28151,14 @@
       <c r="AK15" s="1">
         <v>51.970001220703097</v>
       </c>
+      <c r="AL15" s="1">
+        <v>1.56385368981938</v>
+      </c>
+      <c r="AM15" s="1">
+        <v>55.180000305175703</v>
+      </c>
     </row>
-    <row r="16" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>14</v>
       </c>
@@ -26832,8 +28270,14 @@
       <c r="AK16" s="1">
         <v>52.310001373291001</v>
       </c>
+      <c r="AL16" s="1">
+        <v>1.5302484164571999</v>
+      </c>
+      <c r="AM16" s="1">
+        <v>54.069999694824197</v>
+      </c>
     </row>
-    <row r="17" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>15</v>
       </c>
@@ -26945,8 +28389,14 @@
       <c r="AK17" s="1">
         <v>49.970001220703097</v>
       </c>
+      <c r="AL17" s="1">
+        <v>1.5297646583265501</v>
+      </c>
+      <c r="AM17" s="1">
+        <v>54.200000762939403</v>
+      </c>
     </row>
-    <row r="18" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>16</v>
       </c>
@@ -27058,8 +28508,14 @@
       <c r="AK18" s="1">
         <v>47.669998168945298</v>
       </c>
+      <c r="AL18" s="1">
+        <v>1.4976200700565501</v>
+      </c>
+      <c r="AM18" s="1">
+        <v>52.709999084472599</v>
+      </c>
     </row>
-    <row r="19" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>17</v>
       </c>
@@ -27171,8 +28627,14 @@
       <c r="AK19" s="1">
         <v>47.130001068115199</v>
       </c>
+      <c r="AL19" s="1">
+        <v>1.4629378819921199</v>
+      </c>
+      <c r="AM19" s="1">
+        <v>51.459999084472599</v>
+      </c>
     </row>
-    <row r="20" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>18</v>
       </c>
@@ -27284,8 +28746,14 @@
       <c r="AK20" s="1">
         <v>45.209999084472599</v>
       </c>
+      <c r="AL20" s="1">
+        <v>1.4680226168055399</v>
+      </c>
+      <c r="AM20" s="1">
+        <v>51.700000762939403</v>
+      </c>
     </row>
-    <row r="21" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>19</v>
       </c>
@@ -27397,8 +28865,14 @@
       <c r="AK21" s="1">
         <v>45.150001525878899</v>
       </c>
+      <c r="AL21" s="1">
+        <v>1.4796280147163701</v>
+      </c>
+      <c r="AM21" s="1">
+        <v>52.409999847412102</v>
+      </c>
     </row>
-    <row r="22" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>20</v>
       </c>
@@ -27510,8 +28984,14 @@
       <c r="AK22" s="1">
         <v>44.529998779296797</v>
       </c>
+      <c r="AL22" s="1">
+        <v>1.4187260858572199</v>
+      </c>
+      <c r="AM22" s="1">
+        <v>49.340000152587798</v>
+      </c>
     </row>
-    <row r="23" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>21</v>
       </c>
@@ -27623,8 +29103,14 @@
       <c r="AK23" s="1">
         <v>43.099998474121001</v>
       </c>
+      <c r="AL23" s="1">
+        <v>1.4130486515676799</v>
+      </c>
+      <c r="AM23" s="1">
+        <v>49.540000915527301</v>
+      </c>
     </row>
-    <row r="24" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>22</v>
       </c>
@@ -27730,8 +29216,14 @@
       <c r="AK24" s="1">
         <v>43.720001220703097</v>
       </c>
+      <c r="AL24" s="1">
+        <v>1.40441701442572</v>
+      </c>
+      <c r="AM24" s="1">
+        <v>48.869998931884702</v>
+      </c>
     </row>
-    <row r="25" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>23</v>
       </c>
@@ -27837,8 +29329,14 @@
       <c r="AK25" s="1">
         <v>43.150001525878899</v>
       </c>
+      <c r="AL25" s="1">
+        <v>1.41127133293516</v>
+      </c>
+      <c r="AM25" s="1">
+        <v>50.259998321533203</v>
+      </c>
     </row>
-    <row r="26" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>24</v>
       </c>
@@ -27944,8 +29442,14 @@
       <c r="AK26" s="1">
         <v>42.849998474121001</v>
       </c>
+      <c r="AL26" s="1">
+        <v>1.38692334806843</v>
+      </c>
+      <c r="AM26" s="1">
+        <v>46.990001678466797</v>
+      </c>
     </row>
-    <row r="27" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>25</v>
       </c>
@@ -28051,8 +29555,14 @@
       <c r="AK27" s="1">
         <v>41.799999237060497</v>
       </c>
+      <c r="AL27" s="1">
+        <v>1.3538893939583101</v>
+      </c>
+      <c r="AM27" s="1">
+        <v>47.169998168945298</v>
+      </c>
     </row>
-    <row r="28" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>26</v>
       </c>
@@ -28158,8 +29668,14 @@
       <c r="AK28" s="1">
         <v>41.029998779296797</v>
       </c>
+      <c r="AL28" s="1">
+        <v>1.3433139999960599</v>
+      </c>
+      <c r="AM28" s="1">
+        <v>46.099998474121001</v>
+      </c>
     </row>
-    <row r="29" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>27</v>
       </c>
@@ -28265,8 +29781,14 @@
       <c r="AK29" s="1">
         <v>43.470001220703097</v>
       </c>
+      <c r="AL29" s="1">
+        <v>1.3373869019708799</v>
+      </c>
+      <c r="AM29" s="1">
+        <v>45.970001220703097</v>
+      </c>
     </row>
-    <row r="30" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>28</v>
       </c>
@@ -28372,8 +29894,14 @@
       <c r="AK30" s="1">
         <v>41.680000305175703</v>
       </c>
+      <c r="AL30" s="1">
+        <v>1.31574606819517</v>
+      </c>
+      <c r="AM30" s="1">
+        <v>45.119998931884702</v>
+      </c>
     </row>
-    <row r="31" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>29</v>
       </c>
@@ -28479,8 +30007,14 @@
       <c r="AK31" s="1">
         <v>40.669998168945298</v>
       </c>
+      <c r="AL31" s="1">
+        <v>1.3289016682630801</v>
+      </c>
+      <c r="AM31" s="1">
+        <v>46.139999389648402</v>
+      </c>
     </row>
-    <row r="32" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>30</v>
       </c>
@@ -28586,8 +30120,14 @@
       <c r="AK32" s="1">
         <v>40.430000305175703</v>
       </c>
+      <c r="AL32" s="1">
+        <v>1.30567976851372</v>
+      </c>
+      <c r="AM32" s="1">
+        <v>45.599998474121001</v>
+      </c>
     </row>
-    <row r="33" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>31</v>
       </c>
@@ -28693,8 +30233,14 @@
       <c r="AK33" s="1">
         <v>38.849998474121001</v>
       </c>
+      <c r="AL33" s="1">
+        <v>1.30748663890134</v>
+      </c>
+      <c r="AM33" s="1">
+        <v>45.130001068115199</v>
+      </c>
     </row>
-    <row r="34" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>32</v>
       </c>
@@ -28800,8 +30346,14 @@
       <c r="AK34" s="1">
         <v>39.779998779296797</v>
       </c>
+      <c r="AL34" s="1">
+        <v>1.28991573137842</v>
+      </c>
+      <c r="AM34" s="1">
+        <v>45.259998321533203</v>
+      </c>
     </row>
-    <row r="35" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>33</v>
       </c>
@@ -28907,8 +30459,14 @@
       <c r="AK35" s="1">
         <v>38.790000915527301</v>
       </c>
+      <c r="AL35" s="1">
+        <v>1.28355604713889</v>
+      </c>
+      <c r="AM35" s="1">
+        <v>44.849998474121001</v>
+      </c>
     </row>
-    <row r="36" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>34</v>
       </c>
@@ -29014,8 +30572,14 @@
       <c r="AK36" s="1">
         <v>38.169998168945298</v>
       </c>
+      <c r="AL36" s="1">
+        <v>1.2330651427530099</v>
+      </c>
+      <c r="AM36" s="1">
+        <v>42.490001678466797</v>
+      </c>
     </row>
-    <row r="37" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>35</v>
       </c>
@@ -29121,8 +30685,14 @@
       <c r="AK37" s="1">
         <v>38.240001678466797</v>
       </c>
+      <c r="AL37" s="1">
+        <v>1.2621300512817999</v>
+      </c>
+      <c r="AM37" s="1">
+        <v>43.470001220703097</v>
+      </c>
     </row>
-    <row r="38" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>36</v>
       </c>
@@ -29228,8 +30798,14 @@
       <c r="AK38" s="1">
         <v>36.459999084472599</v>
       </c>
+      <c r="AL38" s="1">
+        <v>1.2531521157094601</v>
+      </c>
+      <c r="AM38" s="1">
+        <v>43.270000457763601</v>
+      </c>
     </row>
-    <row r="39" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>37</v>
       </c>
@@ -29335,8 +30911,14 @@
       <c r="AK39" s="1">
         <v>36.860000610351499</v>
       </c>
+      <c r="AL39" s="1">
+        <v>1.24926010818238</v>
+      </c>
+      <c r="AM39" s="1">
+        <v>42.849998474121001</v>
+      </c>
     </row>
-    <row r="40" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>38</v>
       </c>
@@ -29442,8 +31024,14 @@
       <c r="AK40" s="1">
         <v>36.810001373291001</v>
       </c>
+      <c r="AL40" s="1">
+        <v>1.2217948467108799</v>
+      </c>
+      <c r="AM40" s="1">
+        <v>42.400001525878899</v>
+      </c>
     </row>
-    <row r="41" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>39</v>
       </c>
@@ -29549,8 +31137,14 @@
       <c r="AK41" s="1">
         <v>36</v>
       </c>
+      <c r="AL41" s="1">
+        <v>1.2016827767821601</v>
+      </c>
+      <c r="AM41" s="1">
+        <v>42.040000915527301</v>
+      </c>
     </row>
-    <row r="42" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>40</v>
       </c>
@@ -29656,8 +31250,14 @@
       <c r="AK42" s="1">
         <v>35.919998168945298</v>
       </c>
+      <c r="AL42" s="1">
+        <v>1.1962784430023901</v>
+      </c>
+      <c r="AM42" s="1">
+        <v>41.909999847412102</v>
+      </c>
     </row>
-    <row r="43" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>41</v>
       </c>
@@ -29763,8 +31363,14 @@
       <c r="AK43" s="1">
         <v>35.779998779296797</v>
       </c>
+      <c r="AL43" s="1">
+        <v>1.19176690593646</v>
+      </c>
+      <c r="AM43" s="1">
+        <v>41.220001220703097</v>
+      </c>
     </row>
-    <row r="44" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>42</v>
       </c>
@@ -29870,8 +31476,14 @@
       <c r="AK44" s="1">
         <v>35.049999237060497</v>
       </c>
+      <c r="AL44" s="1">
+        <v>1.16223150985256</v>
+      </c>
+      <c r="AM44" s="1">
+        <v>40.349998474121001</v>
+      </c>
     </row>
-    <row r="45" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43</v>
       </c>
@@ -29977,8 +31589,14 @@
       <c r="AK45" s="1">
         <v>34.029998779296797</v>
       </c>
+      <c r="AL45" s="1">
+        <v>1.18034087206907</v>
+      </c>
+      <c r="AM45" s="1">
+        <v>41.549999237060497</v>
+      </c>
     </row>
-    <row r="46" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>44</v>
       </c>
@@ -30084,8 +31702,14 @@
       <c r="AK46" s="1">
         <v>34.659999847412102</v>
       </c>
+      <c r="AL46" s="1">
+        <v>1.1619724274440899</v>
+      </c>
+      <c r="AM46" s="1">
+        <v>40.599998474121001</v>
+      </c>
     </row>
-    <row r="47" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>45</v>
       </c>
@@ -30191,8 +31815,14 @@
       <c r="AK47" s="1">
         <v>35.060001373291001</v>
       </c>
+      <c r="AL47" s="1">
+        <v>1.1362804417397501</v>
+      </c>
+      <c r="AM47" s="1">
+        <v>39.270000457763601</v>
+      </c>
     </row>
-    <row r="48" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>46</v>
       </c>
@@ -30298,8 +31928,14 @@
       <c r="AK48" s="1">
         <v>33.889999389648402</v>
       </c>
+      <c r="AL48" s="1">
+        <v>1.1451224354422</v>
+      </c>
+      <c r="AM48" s="1">
+        <v>40.209999084472599</v>
+      </c>
     </row>
-    <row r="49" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>47</v>
       </c>
@@ -30405,8 +32041,14 @@
       <c r="AK49" s="1">
         <v>34.330001831054602</v>
       </c>
+      <c r="AL49" s="1">
+        <v>1.15067777398285</v>
+      </c>
+      <c r="AM49" s="1">
+        <v>40.150001525878899</v>
+      </c>
     </row>
-    <row r="50" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>48</v>
       </c>
@@ -30512,8 +32154,14 @@
       <c r="AK50" s="1">
         <v>34.369998931884702</v>
       </c>
+      <c r="AL50" s="1">
+        <v>1.12175452063797</v>
+      </c>
+      <c r="AM50" s="1">
+        <v>39.849998474121001</v>
+      </c>
     </row>
-    <row r="51" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>49</v>
       </c>
@@ -30619,8 +32267,14 @@
       <c r="AK51" s="1">
         <v>33.770000457763601</v>
       </c>
+      <c r="AL51" s="1">
+        <v>1.1346412566816699</v>
+      </c>
+      <c r="AM51" s="1">
+        <v>39.380001068115199</v>
+      </c>
     </row>
-    <row r="52" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>50</v>
       </c>
@@ -30726,8 +32380,14 @@
       <c r="AK52" s="1">
         <v>33.639999389648402</v>
       </c>
+      <c r="AL52" s="1">
+        <v>1.1283372883584</v>
+      </c>
+      <c r="AM52" s="1">
+        <v>39.819999694824197</v>
+      </c>
     </row>
-    <row r="53" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>51</v>
       </c>
@@ -30833,8 +32493,14 @@
       <c r="AK53" s="1">
         <v>33.110000610351499</v>
       </c>
+      <c r="AL53" s="1">
+        <v>1.1126925531466201</v>
+      </c>
+      <c r="AM53" s="1">
+        <v>38.939998626708899</v>
+      </c>
     </row>
-    <row r="54" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>52</v>
       </c>
@@ -30940,8 +32606,14 @@
       <c r="AK54" s="1">
         <v>32.470001220703097</v>
       </c>
+      <c r="AL54" s="1">
+        <v>1.1104009914549999</v>
+      </c>
+      <c r="AM54" s="1">
+        <v>38.630001068115199</v>
+      </c>
     </row>
-    <row r="55" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>53</v>
       </c>
@@ -31047,8 +32719,14 @@
       <c r="AK55" s="1">
         <v>32.619998931884702</v>
       </c>
+      <c r="AL55" s="1">
+        <v>1.09306225845008</v>
+      </c>
+      <c r="AM55" s="1">
+        <v>37.720001220703097</v>
+      </c>
     </row>
-    <row r="56" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>54</v>
       </c>
@@ -31154,8 +32832,14 @@
       <c r="AK56" s="1">
         <v>32.459999084472599</v>
       </c>
+      <c r="AL56" s="1">
+        <v>1.1000951619664501</v>
+      </c>
+      <c r="AM56" s="1">
+        <v>38.650001525878899</v>
+      </c>
     </row>
-    <row r="57" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>55</v>
       </c>
@@ -31261,8 +32945,14 @@
       <c r="AK57" s="1">
         <v>32.819999694824197</v>
       </c>
+      <c r="AL57" s="1">
+        <v>1.09338969599669</v>
+      </c>
+      <c r="AM57" s="1">
+        <v>38.599998474121001</v>
+      </c>
     </row>
-    <row r="58" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>56</v>
       </c>
@@ -31368,8 +33058,14 @@
       <c r="AK58" s="1">
         <v>32.529998779296797</v>
       </c>
+      <c r="AL58" s="1">
+        <v>1.08657630120113</v>
+      </c>
+      <c r="AM58" s="1">
+        <v>38.759998321533203</v>
+      </c>
     </row>
-    <row r="59" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>57</v>
       </c>
@@ -31475,8 +33171,14 @@
       <c r="AK59" s="1">
         <v>32.509998321533203</v>
       </c>
+      <c r="AL59" s="1">
+        <v>1.0635277856687</v>
+      </c>
+      <c r="AM59" s="1">
+        <v>36.930000305175703</v>
+      </c>
     </row>
-    <row r="60" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>58</v>
       </c>
@@ -31582,8 +33284,14 @@
       <c r="AK60" s="1">
         <v>31.530000686645501</v>
       </c>
+      <c r="AL60" s="1">
+        <v>1.06296744847753</v>
+      </c>
+      <c r="AM60" s="1">
+        <v>37.200000762939403</v>
+      </c>
     </row>
-    <row r="61" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>59</v>
       </c>
@@ -31689,8 +33397,14 @@
       <c r="AK61" s="1">
         <v>31.7299995422363</v>
       </c>
+      <c r="AL61" s="1">
+        <v>1.06736799865771</v>
+      </c>
+      <c r="AM61" s="1">
+        <v>38.029998779296797</v>
+      </c>
     </row>
-    <row r="62" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>60</v>
       </c>
@@ -31796,8 +33510,14 @@
       <c r="AK62" s="1">
         <v>31.159999847412099</v>
       </c>
+      <c r="AL62" s="1">
+        <v>1.06977369868831</v>
+      </c>
+      <c r="AM62" s="1">
+        <v>38.040000915527301</v>
+      </c>
     </row>
-    <row r="63" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>61</v>
       </c>
@@ -31903,8 +33623,14 @@
       <c r="AK63" s="1">
         <v>31.5100002288818</v>
       </c>
+      <c r="AL63" s="1">
+        <v>1.05355045484129</v>
+      </c>
+      <c r="AM63" s="1">
+        <v>36.770000457763601</v>
+      </c>
     </row>
-    <row r="64" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>62</v>
       </c>
@@ -32010,8 +33736,14 @@
       <c r="AK64" s="1">
         <v>30.840000152587798</v>
       </c>
+      <c r="AL64" s="1">
+        <v>1.06276377902668</v>
+      </c>
+      <c r="AM64" s="1">
+        <v>37.200000762939403</v>
+      </c>
     </row>
-    <row r="65" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A65" s="1">
         <v>63</v>
       </c>
@@ -32117,8 +33849,14 @@
       <c r="AK65" s="1">
         <v>31.360000610351499</v>
       </c>
+      <c r="AL65" s="1">
+        <v>1.03667504278717</v>
+      </c>
+      <c r="AM65" s="1">
+        <v>36.270000457763601</v>
+      </c>
     </row>
-    <row r="66" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A66" s="1">
         <v>64</v>
       </c>
@@ -32224,8 +33962,14 @@
       <c r="AK66" s="1">
         <v>31.190000534057599</v>
       </c>
+      <c r="AL66" s="1">
+        <v>1.0219465057561301</v>
+      </c>
+      <c r="AM66" s="1">
+        <v>35.75</v>
+      </c>
     </row>
-    <row r="67" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A67" s="1">
         <v>65</v>
       </c>
@@ -32331,8 +34075,14 @@
       <c r="AK67" s="1">
         <v>30.420000076293899</v>
       </c>
+      <c r="AL67" s="1">
+        <v>1.0462797060134299</v>
+      </c>
+      <c r="AM67" s="1">
+        <v>36.819999694824197</v>
+      </c>
     </row>
-    <row r="68" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A68" s="1">
         <v>66</v>
       </c>
@@ -32438,8 +34188,14 @@
       <c r="AK68" s="1">
         <v>30.319999694824201</v>
       </c>
+      <c r="AL68" s="1">
+        <v>1.03268298563683</v>
+      </c>
+      <c r="AM68" s="1">
+        <v>36.259998321533203</v>
+      </c>
     </row>
-    <row r="69" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A69" s="1">
         <v>67</v>
       </c>
@@ -32545,8 +34301,14 @@
       <c r="AK69" s="1">
         <v>30.659999847412099</v>
       </c>
+      <c r="AL69" s="1">
+        <v>1.0254563514594</v>
+      </c>
+      <c r="AM69" s="1">
+        <v>36.450000762939403</v>
+      </c>
     </row>
-    <row r="70" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A70" s="1">
         <v>68</v>
       </c>
@@ -32652,8 +34414,14 @@
       <c r="AK70" s="1">
         <v>30.399999618530199</v>
       </c>
+      <c r="AL70" s="1">
+        <v>1.0215940274250701</v>
+      </c>
+      <c r="AM70" s="1">
+        <v>35.930000305175703</v>
+      </c>
     </row>
-    <row r="71" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A71" s="1">
         <v>69</v>
       </c>
@@ -32759,8 +34527,14 @@
       <c r="AK71" s="1">
         <v>30.809999465942301</v>
       </c>
+      <c r="AL71" s="1">
+        <v>1.02077498177813</v>
+      </c>
+      <c r="AM71" s="1">
+        <v>35.959999084472599</v>
+      </c>
     </row>
-    <row r="72" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A72" s="1">
         <v>70</v>
       </c>
@@ -32866,8 +34640,14 @@
       <c r="AK72" s="1">
         <v>31.149999618530199</v>
       </c>
+      <c r="AL72" s="1">
+        <v>1.0094114466077899</v>
+      </c>
+      <c r="AM72" s="1">
+        <v>35.209999084472599</v>
+      </c>
     </row>
-    <row r="73" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A73" s="1">
         <v>71</v>
       </c>
@@ -32973,8 +34753,14 @@
       <c r="AK73" s="1">
         <v>30.389999389648398</v>
       </c>
+      <c r="AL73" s="1">
+        <v>1.01186084899173</v>
+      </c>
+      <c r="AM73" s="1">
+        <v>35.580001831054602</v>
+      </c>
     </row>
-    <row r="74" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A74" s="1">
         <v>72</v>
       </c>
@@ -33080,8 +34866,14 @@
       <c r="AK74" s="1">
         <v>30.5</v>
       </c>
+      <c r="AL74" s="1">
+        <v>1.0194086174296699</v>
+      </c>
+      <c r="AM74" s="1">
+        <v>35.930000305175703</v>
+      </c>
     </row>
-    <row r="75" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A75" s="1">
         <v>73</v>
       </c>
@@ -33187,8 +34979,14 @@
       <c r="AK75" s="1">
         <v>29.850000381469702</v>
       </c>
+      <c r="AL75" s="1">
+        <v>1.0125113980025999</v>
+      </c>
+      <c r="AM75" s="1">
+        <v>35.610000610351499</v>
+      </c>
     </row>
-    <row r="76" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A76" s="1">
         <v>74</v>
       </c>
@@ -33294,8 +35092,14 @@
       <c r="AK76" s="1">
         <v>30.2600002288818</v>
       </c>
+      <c r="AL76" s="1">
+        <v>0.99849770099494095</v>
+      </c>
+      <c r="AM76" s="1">
+        <v>34.740001678466797</v>
+      </c>
     </row>
-    <row r="77" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A77" s="1">
         <v>75</v>
       </c>
@@ -33401,8 +35205,14 @@
       <c r="AK77" s="1">
         <v>29.5</v>
       </c>
+      <c r="AL77" s="1">
+        <v>1.0108608087156901</v>
+      </c>
+      <c r="AM77" s="1">
+        <v>34.900001525878899</v>
+      </c>
     </row>
-    <row r="78" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A78" s="1">
         <v>76</v>
       </c>
@@ -33508,8 +35318,14 @@
       <c r="AK78" s="1">
         <v>29.780000686645501</v>
       </c>
+      <c r="AL78" s="1">
+        <v>0.99346382223117102</v>
+      </c>
+      <c r="AM78" s="1">
+        <v>34.369998931884702</v>
+      </c>
     </row>
-    <row r="79" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A79" s="1">
         <v>77</v>
       </c>
@@ -33615,8 +35431,14 @@
       <c r="AK79" s="1">
         <v>29.139999389648398</v>
       </c>
+      <c r="AL79" s="1">
+        <v>0.99187976653408805</v>
+      </c>
+      <c r="AM79" s="1">
+        <v>34.630001068115199</v>
+      </c>
     </row>
-    <row r="80" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A80" s="1">
         <v>78</v>
       </c>
@@ -33722,8 +35544,14 @@
       <c r="AK80" s="1">
         <v>29.829999923706001</v>
       </c>
+      <c r="AL80" s="1">
+        <v>1.0020678791270801</v>
+      </c>
+      <c r="AM80" s="1">
+        <v>34.599998474121001</v>
+      </c>
     </row>
-    <row r="81" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A81" s="1">
         <v>79</v>
       </c>
@@ -33829,8 +35657,14 @@
       <c r="AK81" s="1">
         <v>29.590000152587798</v>
       </c>
+      <c r="AL81" s="1">
+        <v>0.99246944022026795</v>
+      </c>
+      <c r="AM81" s="1">
+        <v>34.75</v>
+      </c>
     </row>
-    <row r="82" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A82" s="1">
         <v>80</v>
       </c>
@@ -33936,8 +35770,14 @@
       <c r="AK82" s="1">
         <v>29.870000839233398</v>
       </c>
+      <c r="AL82" s="1">
+        <v>0.99227916700824803</v>
+      </c>
+      <c r="AM82" s="1">
+        <v>34.590000152587798</v>
+      </c>
     </row>
-    <row r="83" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A83" s="1">
         <v>81</v>
       </c>
@@ -34043,8 +35883,14 @@
       <c r="AK83" s="1">
         <v>29.879999160766602</v>
       </c>
+      <c r="AL83" s="1">
+        <v>0.99016187487134499</v>
+      </c>
+      <c r="AM83" s="1">
+        <v>34.580001831054602</v>
+      </c>
     </row>
-    <row r="84" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A84" s="1">
         <v>82</v>
       </c>
@@ -34150,8 +35996,14 @@
       <c r="AK84" s="1">
         <v>29.649999618530199</v>
       </c>
+      <c r="AL84" s="1">
+        <v>0.97627766705622299</v>
+      </c>
+      <c r="AM84" s="1">
+        <v>33.930000305175703</v>
+      </c>
     </row>
-    <row r="85" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A85" s="1">
         <v>83</v>
       </c>
@@ -34257,8 +36109,14 @@
       <c r="AK85" s="1">
         <v>29.329999923706001</v>
       </c>
+      <c r="AL85" s="1">
+        <v>0.98185205573488898</v>
+      </c>
+      <c r="AM85" s="1">
+        <v>34.139999389648402</v>
+      </c>
     </row>
-    <row r="86" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A86" s="1">
         <v>84</v>
       </c>
@@ -34364,8 +36222,14 @@
       <c r="AK86" s="1">
         <v>29.9799995422363</v>
       </c>
+      <c r="AL86" s="1">
+        <v>0.96241393894146898</v>
+      </c>
+      <c r="AM86" s="1">
+        <v>33.169998168945298</v>
+      </c>
     </row>
-    <row r="87" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A87" s="1">
         <v>85</v>
       </c>
@@ -34471,8 +36335,14 @@
       <c r="AK87" s="1">
         <v>29.159999847412099</v>
       </c>
+      <c r="AL87" s="1">
+        <v>0.98993068591804201</v>
+      </c>
+      <c r="AM87" s="1">
+        <v>33.830001831054602</v>
+      </c>
     </row>
-    <row r="88" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A88" s="1">
         <v>86</v>
       </c>
@@ -34578,8 +36448,14 @@
       <c r="AK88" s="1">
         <v>28.850000381469702</v>
       </c>
+      <c r="AL88" s="1">
+        <v>0.97304810915782902</v>
+      </c>
+      <c r="AM88" s="1">
+        <v>33.520000457763601</v>
+      </c>
     </row>
-    <row r="89" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A89" s="1">
         <v>87</v>
       </c>
@@ -34685,8 +36561,14 @@
       <c r="AK89" s="1">
         <v>28.879999160766602</v>
       </c>
+      <c r="AL89" s="1">
+        <v>0.99299593639981198</v>
+      </c>
+      <c r="AM89" s="1">
+        <v>34.380001068115199</v>
+      </c>
     </row>
-    <row r="90" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A90" s="1">
         <v>88</v>
       </c>
@@ -34792,8 +36674,14 @@
       <c r="AK90" s="1">
         <v>29.2299995422363</v>
       </c>
+      <c r="AL90" s="1">
+        <v>0.98842302553213301</v>
+      </c>
+      <c r="AM90" s="1">
+        <v>33.869998931884702</v>
+      </c>
     </row>
-    <row r="91" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A91" s="1">
         <v>89</v>
       </c>
@@ -34899,8 +36787,14 @@
       <c r="AK91" s="1">
         <v>29.2000007629394</v>
       </c>
+      <c r="AL91" s="1">
+        <v>0.98928770669706301</v>
+      </c>
+      <c r="AM91" s="1">
+        <v>34.180000305175703</v>
+      </c>
     </row>
-    <row r="92" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A92" s="1">
         <v>90</v>
       </c>
@@ -35006,8 +36900,14 @@
       <c r="AK92" s="1">
         <v>29.049999237060501</v>
       </c>
+      <c r="AL92" s="1">
+        <v>0.97317327264767495</v>
+      </c>
+      <c r="AM92" s="1">
+        <v>33.299999237060497</v>
+      </c>
     </row>
-    <row r="93" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A93" s="1">
         <v>91</v>
       </c>
@@ -35113,8 +37013,14 @@
       <c r="AK93" s="1">
         <v>29.209999084472599</v>
       </c>
+      <c r="AL93" s="1">
+        <v>0.97764343782594998</v>
+      </c>
+      <c r="AM93" s="1">
+        <v>33.659999847412102</v>
+      </c>
     </row>
-    <row r="94" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A94" s="1">
         <v>92</v>
       </c>
@@ -35220,8 +37126,14 @@
       <c r="AK94" s="1">
         <v>28.770000457763601</v>
       </c>
+      <c r="AL94" s="1">
+        <v>0.98441616782716801</v>
+      </c>
+      <c r="AM94" s="1">
+        <v>33.360000610351499</v>
+      </c>
     </row>
-    <row r="95" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A95" s="1">
         <v>93</v>
       </c>
@@ -35327,8 +37239,14 @@
       <c r="AK95" s="1">
         <v>29.2600002288818</v>
       </c>
+      <c r="AL95" s="1">
+        <v>0.98439543945774099</v>
+      </c>
+      <c r="AM95" s="1">
+        <v>33.630001068115199</v>
+      </c>
     </row>
-    <row r="96" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A96" s="1">
         <v>94</v>
       </c>
@@ -35434,8 +37352,14 @@
       <c r="AK96" s="1">
         <v>28.840000152587798</v>
       </c>
+      <c r="AL96" s="1">
+        <v>0.97617637617572806</v>
+      </c>
+      <c r="AM96" s="1">
+        <v>33.639999389648402</v>
+      </c>
     </row>
-    <row r="97" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A97" s="1">
         <v>95</v>
       </c>
@@ -35541,8 +37465,14 @@
       <c r="AK97" s="1">
         <v>28.409999847412099</v>
       </c>
+      <c r="AL97" s="1">
+        <v>0.97332881970010698</v>
+      </c>
+      <c r="AM97" s="1">
+        <v>32.869998931884702</v>
+      </c>
     </row>
-    <row r="98" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A98" s="1">
         <v>96</v>
       </c>
@@ -35648,8 +37578,14 @@
       <c r="AK98" s="1">
         <v>29.040000915527301</v>
       </c>
+      <c r="AL98" s="1">
+        <v>1.0013199687763299</v>
+      </c>
+      <c r="AM98" s="1">
+        <v>33.75</v>
+      </c>
     </row>
-    <row r="99" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A99" s="1">
         <v>97</v>
       </c>
@@ -35755,8 +37691,14 @@
       <c r="AK99" s="1">
         <v>28.350000381469702</v>
       </c>
+      <c r="AL99" s="1">
+        <v>0.968101819989028</v>
+      </c>
+      <c r="AM99" s="1">
+        <v>33.189998626708899</v>
+      </c>
     </row>
-    <row r="100" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A100" s="1">
         <v>98</v>
       </c>
@@ -35862,8 +37804,14 @@
       <c r="AK100" s="1">
         <v>28.879999160766602</v>
       </c>
+      <c r="AL100" s="1">
+        <v>0.97351944940105295</v>
+      </c>
+      <c r="AM100" s="1">
+        <v>33.400001525878899</v>
+      </c>
     </row>
-    <row r="101" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A101" s="1">
         <v>99</v>
       </c>
@@ -35969,8 +37917,14 @@
       <c r="AK101" s="1">
         <v>28.270000457763601</v>
       </c>
+      <c r="AL101" s="1">
+        <v>0.98149011886803195</v>
+      </c>
+      <c r="AM101" s="1">
+        <v>33.020000457763601</v>
+      </c>
     </row>
-    <row r="102" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A102" s="1">
         <v>100</v>
       </c>
@@ -35981,7 +37935,7 @@
         <v>32.360000610351499</v>
       </c>
     </row>
-    <row r="103" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A103" s="1">
         <v>101</v>
       </c>
@@ -35992,7 +37946,7 @@
         <v>32.740001678466797</v>
       </c>
     </row>
-    <row r="104" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A104" s="1">
         <v>102</v>
       </c>
@@ -36003,7 +37957,7 @@
         <v>32.330001831054602</v>
       </c>
     </row>
-    <row r="105" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A105" s="1">
         <v>103</v>
       </c>
@@ -36014,7 +37968,7 @@
         <v>32.349998474121001</v>
       </c>
     </row>
-    <row r="106" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A106" s="1">
         <v>104</v>
       </c>
@@ -36025,7 +37979,7 @@
         <v>32.639999389648402</v>
       </c>
     </row>
-    <row r="107" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A107" s="1">
         <v>105</v>
       </c>
@@ -36036,7 +37990,7 @@
         <v>32.599998474121001</v>
       </c>
     </row>
-    <row r="108" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A108" s="1">
         <v>106</v>
       </c>
@@ -36047,7 +38001,7 @@
         <v>32.389999389648402</v>
       </c>
     </row>
-    <row r="109" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A109" s="1">
         <v>107</v>
       </c>
@@ -36058,7 +38012,7 @@
         <v>32.490001678466797</v>
       </c>
     </row>
-    <row r="110" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A110" s="1">
         <v>108</v>
       </c>
@@ -36069,7 +38023,7 @@
         <v>32.029998779296797</v>
       </c>
     </row>
-    <row r="111" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A111" s="1">
         <v>109</v>
       </c>
@@ -36080,7 +38034,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="112" spans="1:37" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:39" x14ac:dyDescent="0.3">
       <c r="A112" s="1">
         <v>110</v>
       </c>
